--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16099" uniqueCount="7411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16106" uniqueCount="7413">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23522,11 +23522,19 @@
     <t>默认1次，表示不能与上次密码重复；若设置为3，表示并与前3次密码重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>color:#f00;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -23812,7 +23820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23887,23 +23895,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -23939,23 +23930,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -24134,7 +24108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
@@ -24268,7 +24242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -25862,7 +25836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26184,9 +26158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26995,6 +26969,9 @@
       <c r="G33" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="I33" s="14" t="s">
+        <v>7411</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
@@ -27087,7 +27064,7 @@
       <c r="G37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="14" t="s">
         <v>258</v>
       </c>
     </row>
@@ -27715,7 +27692,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>82</v>
       </c>
@@ -27737,8 +27714,11 @@
       <c r="G65" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I65" s="14" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>82</v>
       </c>
@@ -27761,7 +27741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>82</v>
       </c>
@@ -27783,8 +27763,11 @@
       <c r="G67" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I67" s="14" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>82</v>
       </c>
@@ -27807,7 +27790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -27830,7 +27813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>82</v>
       </c>
@@ -27853,7 +27836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>82</v>
       </c>
@@ -27876,7 +27859,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>82</v>
       </c>
@@ -27899,7 +27882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>82</v>
       </c>
@@ -27922,7 +27905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>82</v>
       </c>
@@ -27945,7 +27928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>82</v>
       </c>
@@ -27968,7 +27951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>82</v>
       </c>
@@ -27991,7 +27974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>82</v>
       </c>
@@ -28014,7 +27997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
@@ -28037,7 +28020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>82</v>
       </c>
@@ -28060,7 +28043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>82</v>
       </c>
@@ -28083,7 +28066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>82</v>
       </c>
@@ -28106,7 +28089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>82</v>
       </c>
@@ -28129,7 +28112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
@@ -28152,7 +28135,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>82</v>
       </c>
@@ -28178,7 +28161,7 @@
         <v>7080</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>82</v>
       </c>
@@ -28201,7 +28184,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>82</v>
       </c>
@@ -28224,7 +28207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>82</v>
       </c>
@@ -28247,7 +28230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>82</v>
       </c>
@@ -28270,7 +28253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>82</v>
       </c>
@@ -28292,8 +28275,11 @@
       <c r="G89" s="14" t="s">
         <v>7070</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H89" s="14" t="s">
+        <v>7412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>82</v>
       </c>
@@ -28315,8 +28301,11 @@
       <c r="G90" s="14" t="s">
         <v>7070</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I90" s="14" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>82</v>
       </c>
@@ -28340,7 +28329,7 @@
       </c>
       <c r="H91" s="14"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>82</v>
       </c>
@@ -28364,7 +28353,7 @@
       </c>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>82</v>
       </c>
@@ -28387,7 +28376,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>82</v>
       </c>
@@ -28413,7 +28402,7 @@
         <v>7095</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>82</v>
       </c>
@@ -28436,7 +28425,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>82</v>
       </c>
@@ -28458,8 +28447,11 @@
       <c r="G96" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I96" s="14" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>82</v>
       </c>
@@ -28485,7 +28477,7 @@
         <v>7103</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>82</v>
       </c>
@@ -28508,7 +28500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>82</v>
       </c>
@@ -28531,7 +28523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>82</v>
       </c>
@@ -28554,7 +28546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>82</v>
       </c>
@@ -28580,7 +28572,7 @@
         <v>7104</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>82</v>
       </c>
@@ -28603,7 +28595,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>82</v>
       </c>
@@ -28626,7 +28618,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>82</v>
       </c>
@@ -28649,7 +28641,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>82</v>
       </c>
@@ -28675,7 +28667,7 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>82</v>
       </c>
@@ -28698,7 +28690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>82</v>
       </c>
@@ -28721,7 +28713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="14" t="s">
         <v>82</v>
       </c>
@@ -28743,8 +28735,11 @@
       <c r="G108" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I108" s="14" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="7" t="s">
         <v>82</v>
       </c>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23362,10 +23362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.oschina.net/question/tag/jeesite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>http</t>
     </r>
@@ -23381,10 +23377,6 @@
       </rPr>
       <t>://jeesite.com</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开源问答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23528,6 +23520,14 @@
   </si>
   <si>
     <t>客户方使用的系统管理员，用于一些常用的基础数据配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/thinkgem/jeesite4/issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题反馈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24443,7 +24443,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7408</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -27004,7 +27004,7 @@
         <v>57</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -27510,7 +27510,7 @@
         <v>7066</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>7397</v>
+        <v>7395</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>78</v>
@@ -27530,10 +27530,10 @@
         <v>7067</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>7401</v>
+        <v>7399</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>7398</v>
+        <v>7396</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>79</v>
@@ -27553,10 +27553,10 @@
         <v>7067</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>7402</v>
+        <v>7400</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>7399</v>
+        <v>7397</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>7175</v>
@@ -27576,10 +27576,10 @@
         <v>7067</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>7403</v>
+        <v>7401</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>7400</v>
+        <v>7398</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>7055</v>
@@ -27749,7 +27749,7 @@
         <v>57</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -27798,7 +27798,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -28310,7 +28310,7 @@
         <v>7069</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>7410</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -28336,7 +28336,7 @@
         <v>7069</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -28482,7 +28482,7 @@
         <v>57</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -28770,7 +28770,7 @@
         <v>57</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>7409</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -28807,9 +28807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30407,7 +30407,7 @@
         <v>244</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>7406</v>
+        <v>7404</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>228</v>
@@ -30419,7 +30419,7 @@
         <v>7148</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>7404</v>
+        <v>7402</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>362</v>
@@ -30442,7 +30442,7 @@
         <v>244</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>7407</v>
+        <v>7405</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>210</v>
@@ -30454,7 +30454,7 @@
         <v>7148</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>7405</v>
+        <v>7403</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>363</v>
@@ -30750,7 +30750,7 @@
         <v>7329</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>282</v>
@@ -30785,7 +30785,7 @@
         <v>82</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>7388</v>
@@ -30800,7 +30800,7 @@
         <v>223</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>7391</v>
+        <v>7390</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>77</v>
@@ -30817,10 +30817,10 @@
         <v>82</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>7393</v>
+        <v>7391</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>85</v>
@@ -30832,7 +30832,7 @@
         <v>223</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>7394</v>
+        <v>7392</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>77</v>
@@ -30849,10 +30849,10 @@
         <v>82</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>7392</v>
+        <v>7412</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>79</v>
@@ -30864,7 +30864,7 @@
         <v>223</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>7390</v>
+        <v>7411</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>77</v>
@@ -30881,10 +30881,10 @@
         <v>82</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>7396</v>
+        <v>7394</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>7411</v>
+        <v>7409</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>7055</v>
@@ -30896,7 +30896,7 @@
         <v>223</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>7395</v>
+        <v>7393</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>77</v>
@@ -31061,7 +31061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
@@ -31134,7 +31134,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7412</v>
+        <v>7410</v>
       </c>
     </row>
   </sheetData>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -22718,34 +22718,6 @@
     <t>user20</t>
   </si>
   <si>
-    <t>用户1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户2</t>
-  </si>
-  <si>
-    <t>用户3</t>
-  </si>
-  <si>
-    <t>用户4</t>
-  </si>
-  <si>
-    <t>用户5</t>
-  </si>
-  <si>
-    <t>用户6</t>
-  </si>
-  <si>
-    <t>用户7</t>
-  </si>
-  <si>
-    <t>用户8</t>
-  </si>
-  <si>
-    <t>用户9</t>
-  </si>
-  <si>
     <t>用户10</t>
   </si>
   <si>
@@ -23528,6 +23500,42 @@
   </si>
   <si>
     <t>问题反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24244,10 +24252,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7307</v>
+        <v>7298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7306</v>
+        <v>7297</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7182</v>
@@ -24261,7 +24269,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7308</v>
+        <v>7299</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>43</v>
@@ -24298,7 +24306,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7301</v>
+        <v>7292</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>56</v>
@@ -24315,10 +24323,10 @@
         <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7302</v>
+        <v>7293</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7304</v>
+        <v>7295</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -24332,7 +24340,7 @@
         <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7303</v>
+        <v>7294</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
@@ -24443,7 +24451,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7406</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -24687,9 +24695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24725,42 +24733,42 @@
         <v>4</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>7286</v>
+        <v>7277</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>7287</v>
+        <v>7278</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>7288</v>
+        <v>7279</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>7289</v>
+        <v>7280</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7145</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>7272</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7273</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7296</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>7281</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7282</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7305</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>7290</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7298</v>
+        <v>7237</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7295</v>
+        <v>7412</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7138</v>
@@ -24769,42 +24777,42 @@
         <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7280</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7204</v>
+        <v>7205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7202</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>7220</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7297</v>
+        <v>7238</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7294</v>
+        <v>7411</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7138</v>
@@ -24813,42 +24821,42 @@
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7280</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7204</v>
+        <v>7205</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7202</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>7220</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7296</v>
+        <v>7239</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7293</v>
+        <v>7410</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7138</v>
@@ -24857,42 +24865,42 @@
         <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7280</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7204</v>
+        <v>7205</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7202</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>7274</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7275</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7220</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>7283</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>7284</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>7221</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7221</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7256</v>
+        <v>7240</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7276</v>
+        <v>7409</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7138</v>
@@ -24901,42 +24909,42 @@
         <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7279</v>
+        <v>7268</v>
       </c>
       <c r="G5" t="s">
         <v>7203</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>7220</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>7255</v>
+        <v>7241</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7275</v>
+        <v>7408</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7138</v>
@@ -24945,42 +24953,42 @@
         <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7279</v>
+        <v>7268</v>
       </c>
       <c r="G6" t="s">
         <v>7203</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>7220</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>7254</v>
+        <v>7242</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7274</v>
+        <v>7407</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7138</v>
@@ -24989,42 +24997,42 @@
         <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7279</v>
+        <v>7268</v>
       </c>
       <c r="G7" t="s">
         <v>7203</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>7274</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7275</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>7220</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>7283</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7284</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>7221</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>7221</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>7253</v>
+        <v>7243</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7273</v>
+        <v>7406</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7138</v>
@@ -25033,42 +25041,42 @@
         <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7230</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7202</v>
+        <v>7269</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7204</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>7220</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>7252</v>
+        <v>7244</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7272</v>
+        <v>7405</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7138</v>
@@ -25077,42 +25085,42 @@
         <v>80</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7230</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7202</v>
+        <v>7269</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7204</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>7220</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>7251</v>
+        <v>7245</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7271</v>
+        <v>7404</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7138</v>
@@ -25121,42 +25129,42 @@
         <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7230</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7202</v>
+        <v>7269</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7204</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7198</v>
+        <v>7191</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>7274</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7275</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>7220</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>7283</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>7284</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>7221</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>7221</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>7250</v>
+        <v>7246</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7270</v>
+        <v>7257</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7138</v>
@@ -25165,7 +25173,7 @@
         <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7278</v>
+        <v>7269</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7204</v>
@@ -25177,30 +25185,30 @@
         <v>7191</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>7274</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7275</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>7220</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>7283</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>7284</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>7221</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7291</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>7249</v>
+        <v>7247</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7269</v>
+        <v>7258</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7138</v>
@@ -25209,7 +25217,7 @@
         <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7278</v>
+        <v>7269</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7204</v>
@@ -25221,19 +25229,19 @@
         <v>7191</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>7292</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -25244,7 +25252,7 @@
         <v>7236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7268</v>
+        <v>7259</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7138</v>
@@ -25253,7 +25261,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7278</v>
+        <v>7269</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7204</v>
@@ -25265,30 +25273,30 @@
         <v>7191</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>7292</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>7247</v>
+        <v>7249</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7267</v>
+        <v>7260</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7138</v>
@@ -25297,7 +25305,7 @@
         <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7278</v>
+        <v>7269</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7204</v>
@@ -25309,30 +25317,30 @@
         <v>7191</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>7220</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>7246</v>
+        <v>7250</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7266</v>
+        <v>7261</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7138</v>
@@ -25341,7 +25349,7 @@
         <v>80</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7278</v>
+        <v>7269</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>7204</v>
@@ -25353,30 +25361,30 @@
         <v>7191</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>7292</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>7245</v>
+        <v>7251</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7265</v>
+        <v>7262</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7138</v>
@@ -25385,42 +25393,42 @@
         <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7278</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7204</v>
+        <v>7230</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7202</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>7292</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>7244</v>
+        <v>7252</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7138</v>
@@ -25429,42 +25437,42 @@
         <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7278</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>7204</v>
+        <v>7230</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7202</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>7292</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>7243</v>
+        <v>7253</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7263</v>
+        <v>7264</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7138</v>
@@ -25473,42 +25481,42 @@
         <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7278</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>7204</v>
+        <v>7230</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7202</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>7291</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>7242</v>
+        <v>7254</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7262</v>
+        <v>7265</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7138</v>
@@ -25517,42 +25525,42 @@
         <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>7277</v>
+        <v>7270</v>
       </c>
       <c r="G19" t="s">
         <v>7203</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>7292</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>7241</v>
+        <v>7255</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7261</v>
+        <v>7266</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7138</v>
@@ -25561,42 +25569,42 @@
         <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7277</v>
+        <v>7270</v>
       </c>
       <c r="G20" t="s">
         <v>7203</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>7292</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>7240</v>
+        <v>7256</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7260</v>
+        <v>7267</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7138</v>
@@ -25605,42 +25613,42 @@
         <v>80</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7277</v>
+        <v>7270</v>
       </c>
       <c r="G21" t="s">
         <v>7203</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>7291</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>7239</v>
+        <v>7287</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7259</v>
+        <v>7284</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7138</v>
@@ -25649,42 +25657,42 @@
         <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7205</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7202</v>
+        <v>7271</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7204</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>7220</v>
+        <v>7221</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>7292</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>7238</v>
+        <v>7288</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7258</v>
+        <v>7285</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7138</v>
@@ -25693,42 +25701,42 @@
         <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7205</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7202</v>
+        <v>7271</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>7204</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>7220</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>7292</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>7237</v>
+        <v>7289</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7257</v>
+        <v>7286</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7138</v>
@@ -25737,34 +25745,37 @@
         <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>7205</v>
-      </c>
-      <c r="G24" t="s">
-        <v>7202</v>
+        <v>7271</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7204</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>7195</v>
+        <v>7196</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>7191</v>
+        <v>7198</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>7285</v>
+        <v>7276</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>7283</v>
+        <v>7274</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>7284</v>
+        <v>7275</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>7291</v>
+        <v>7220</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:N24">
+    <sortCondition ref="C2:C24"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25825,19 +25836,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>7330</v>
+        <v>7321</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>7331</v>
+        <v>7322</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>7334</v>
+        <v>7325</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>7332</v>
+        <v>7323</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>7333</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -25927,10 +25938,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>7309</v>
+        <v>7300</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7310</v>
+        <v>7301</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>77</v>
@@ -26114,10 +26125,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7379</v>
+        <v>7370</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>77</v>
@@ -26125,10 +26136,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>7338</v>
+        <v>7329</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7340</v>
+        <v>7331</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -26136,10 +26147,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7341</v>
+        <v>7332</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -26523,13 +26534,13 @@
         <v>58</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>7300</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7302</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>7309</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>7311</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>7318</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>78</v>
@@ -27004,7 +27015,7 @@
         <v>57</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>7407</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -27510,7 +27521,7 @@
         <v>7066</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>7395</v>
+        <v>7386</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>78</v>
@@ -27530,10 +27541,10 @@
         <v>7067</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>7399</v>
+        <v>7390</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>7396</v>
+        <v>7387</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>79</v>
@@ -27553,10 +27564,10 @@
         <v>7067</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>7400</v>
+        <v>7391</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>7397</v>
+        <v>7388</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>7175</v>
@@ -27576,10 +27587,10 @@
         <v>7067</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>7401</v>
+        <v>7392</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>7398</v>
+        <v>7389</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>7055</v>
@@ -27602,7 +27613,7 @@
         <v>7060</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>7385</v>
+        <v>7376</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>78</v>
@@ -27625,7 +27636,7 @@
         <v>7061</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>7386</v>
+        <v>7377</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>79</v>
@@ -27688,7 +27699,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>144</v>
@@ -27711,7 +27722,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>326</v>
@@ -27734,10 +27745,10 @@
         <v>58</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>7380</v>
+        <v>7371</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>91</v>
@@ -27749,7 +27760,7 @@
         <v>57</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>7407</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -27760,10 +27771,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>7381</v>
+        <v>7372</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>129</v>
@@ -27783,10 +27794,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>7383</v>
+        <v>7374</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>336</v>
@@ -27798,7 +27809,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>7407</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -27809,10 +27820,10 @@
         <v>58</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>7378</v>
+        <v>7369</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>7382</v>
+        <v>7373</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>337</v>
@@ -27832,13 +27843,13 @@
         <v>58</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7338</v>
+        <v>7329</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7345</v>
+        <v>7336</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>7342</v>
+        <v>7333</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>78</v>
@@ -27855,13 +27866,13 @@
         <v>58</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7338</v>
+        <v>7329</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>7346</v>
+        <v>7337</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>7343</v>
+        <v>7334</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>79</v>
@@ -27878,13 +27889,13 @@
         <v>58</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>7329</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>7338</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>7347</v>
-      </c>
       <c r="E71" s="14" t="s">
-        <v>7344</v>
+        <v>7335</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>85</v>
@@ -27901,13 +27912,13 @@
         <v>58</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>7330</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>7344</v>
+      </c>
+      <c r="E72" s="14" t="s">
         <v>7339</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>7353</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>7348</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>78</v>
@@ -27924,13 +27935,13 @@
         <v>58</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>7354</v>
+        <v>7345</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>7349</v>
+        <v>7340</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>79</v>
@@ -27947,13 +27958,13 @@
         <v>58</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>7355</v>
+        <v>7346</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>7350</v>
+        <v>7341</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>85</v>
@@ -27970,13 +27981,13 @@
         <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>7356</v>
+        <v>7347</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>7351</v>
+        <v>7342</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>7055</v>
@@ -27993,13 +28004,13 @@
         <v>58</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>7357</v>
+        <v>7348</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>7352</v>
+        <v>7343</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>7087</v>
@@ -28016,13 +28027,13 @@
         <v>58</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>7361</v>
+        <v>7352</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>7358</v>
+        <v>7349</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>7159</v>
@@ -28039,16 +28050,16 @@
         <v>58</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>7384</v>
+        <v>7375</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>7359</v>
+        <v>7350</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>7371</v>
+        <v>7362</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>57</v>
@@ -28062,13 +28073,13 @@
         <v>58</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>7362</v>
+        <v>7353</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>7360</v>
+        <v>7351</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>224</v>
@@ -28085,16 +28096,16 @@
         <v>58</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>7367</v>
+        <v>7358</v>
       </c>
       <c r="E80" s="14" t="s">
+        <v>7354</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>7363</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>7372</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>57</v>
@@ -28108,16 +28119,16 @@
         <v>58</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>7368</v>
+        <v>7359</v>
       </c>
       <c r="E81" s="14" t="s">
+        <v>7355</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>7364</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>7373</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>57</v>
@@ -28131,16 +28142,16 @@
         <v>58</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>7369</v>
+        <v>7360</v>
       </c>
       <c r="E82" s="14" t="s">
+        <v>7356</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>7365</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>7374</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>57</v>
@@ -28154,16 +28165,16 @@
         <v>58</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7339</v>
+        <v>7330</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>7370</v>
+        <v>7361</v>
       </c>
       <c r="E83" s="14" t="s">
+        <v>7357</v>
+      </c>
+      <c r="F83" s="14" t="s">
         <v>7366</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>7375</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>57</v>
@@ -28310,7 +28321,7 @@
         <v>7069</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>7408</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -28336,7 +28347,7 @@
         <v>7069</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>7407</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -28482,7 +28493,7 @@
         <v>57</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>7407</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -28770,7 +28781,7 @@
         <v>57</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>7407</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -28807,7 +28818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
@@ -29524,10 +29535,10 @@
         <v>267</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>7300</v>
+        <v>7291</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>7328</v>
+        <v>7319</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>180</v>
@@ -29600,7 +29611,7 @@
         <v>268</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>7299</v>
+        <v>7290</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>206</v>
@@ -29951,7 +29962,7 @@
         <v>7127</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>7315</v>
+        <v>7306</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>180</v>
@@ -29971,7 +29982,7 @@
         <v>81</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>7312</v>
+        <v>7303</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>7159</v>
@@ -29983,10 +29994,10 @@
         <v>223</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>7313</v>
+        <v>7304</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>7314</v>
+        <v>7305</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>198</v>
@@ -30009,10 +30020,10 @@
         <v>81</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>7316</v>
+        <v>7307</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>7317</v>
+        <v>7308</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>77</v>
@@ -30092,7 +30103,7 @@
         <v>215</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>7336</v>
+        <v>7327</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>276</v>
@@ -30127,10 +30138,10 @@
         <v>7148</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>7319</v>
+        <v>7310</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>7325</v>
+        <v>7316</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>212</v>
@@ -30165,10 +30176,10 @@
         <v>7148</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>7320</v>
+        <v>7311</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>7324</v>
+        <v>7315</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>214</v>
@@ -30191,7 +30202,7 @@
         <v>241</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>7322</v>
+        <v>7313</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>344</v>
@@ -30203,13 +30214,13 @@
         <v>223</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>7326</v>
+        <v>7317</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>7327</v>
+        <v>7318</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>7323</v>
+        <v>7314</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>77</v>
@@ -30241,10 +30252,10 @@
         <v>7148</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>7376</v>
+        <v>7367</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>7377</v>
+        <v>7368</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>218</v>
@@ -30270,7 +30281,7 @@
         <v>255</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>7321</v>
+        <v>7312</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>180</v>
@@ -30282,7 +30293,7 @@
         <v>280</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>7337</v>
+        <v>7328</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>275</v>
@@ -30296,7 +30307,7 @@
         <v>76</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>243</v>
@@ -30328,7 +30339,7 @@
         <v>76</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>234</v>
@@ -30366,7 +30377,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>244</v>
@@ -30398,7 +30409,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>234</v>
@@ -30407,7 +30418,7 @@
         <v>244</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>7404</v>
+        <v>7395</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>228</v>
@@ -30419,7 +30430,7 @@
         <v>7148</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>7402</v>
+        <v>7393</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>362</v>
@@ -30433,7 +30444,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>234</v>
@@ -30442,7 +30453,7 @@
         <v>244</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>7405</v>
+        <v>7396</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>210</v>
@@ -30454,7 +30465,7 @@
         <v>7148</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>7403</v>
+        <v>7394</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>363</v>
@@ -30468,7 +30479,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>246</v>
@@ -30497,7 +30508,7 @@
         <v>76</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>234</v>
@@ -30529,7 +30540,7 @@
         <v>76</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>234</v>
@@ -30561,7 +30572,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>245</v>
@@ -30590,7 +30601,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>234</v>
@@ -30622,7 +30633,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>234</v>
@@ -30654,7 +30665,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>234</v>
@@ -30686,7 +30697,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>300</v>
@@ -30715,7 +30726,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>82</v>
@@ -30747,19 +30758,19 @@
         <v>76</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>282</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>7387</v>
+        <v>7378</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>7389</v>
+        <v>7380</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>77</v>
@@ -30779,16 +30790,16 @@
         <v>76</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>7388</v>
+        <v>7379</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>78</v>
@@ -30800,7 +30811,7 @@
         <v>223</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>7390</v>
+        <v>7381</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>77</v>
@@ -30811,16 +30822,16 @@
         <v>76</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>7391</v>
+        <v>7382</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>85</v>
@@ -30832,7 +30843,7 @@
         <v>223</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>7392</v>
+        <v>7383</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>77</v>
@@ -30843,16 +30854,16 @@
         <v>76</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>7412</v>
+        <v>7403</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>79</v>
@@ -30864,7 +30875,7 @@
         <v>223</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>7411</v>
+        <v>7402</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>77</v>
@@ -30875,16 +30886,16 @@
         <v>76</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>7329</v>
+        <v>7320</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>7394</v>
+        <v>7385</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>7409</v>
+        <v>7400</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>7055</v>
@@ -30896,7 +30907,7 @@
         <v>223</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>7393</v>
+        <v>7384</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>77</v>
@@ -31099,7 +31110,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7335</v>
+        <v>7326</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -31134,7 +31145,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7410</v>
+        <v>7401</v>
       </c>
     </row>
   </sheetData>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -22964,31 +22964,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ste:ehcache</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:druid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/state/server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state:server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23279,10 +23255,6 @@
   </si>
   <si>
     <t>/job/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23536,6 +23508,22 @@
   </si>
   <si>
     <t>用户01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:state:druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:stste:ehcache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:state:server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:job</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24451,7 +24439,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7397</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -24695,7 +24683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -24768,7 +24756,7 @@
         <v>7236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7412</v>
+        <v>7408</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7138</v>
@@ -24812,7 +24800,7 @@
         <v>7236</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7411</v>
+        <v>7407</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7138</v>
@@ -24856,7 +24844,7 @@
         <v>7236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7410</v>
+        <v>7406</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7138</v>
@@ -24900,7 +24888,7 @@
         <v>7236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7409</v>
+        <v>7405</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7138</v>
@@ -24944,7 +24932,7 @@
         <v>7236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7408</v>
+        <v>7404</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7138</v>
@@ -24988,7 +24976,7 @@
         <v>7236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7407</v>
+        <v>7403</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7138</v>
@@ -25032,7 +25020,7 @@
         <v>7236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7406</v>
+        <v>7402</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7138</v>
@@ -25076,7 +25064,7 @@
         <v>7236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7405</v>
+        <v>7401</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7138</v>
@@ -25120,7 +25108,7 @@
         <v>7236</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7404</v>
+        <v>7400</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7138</v>
@@ -25836,19 +25824,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
+        <v>7318</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>7319</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7322</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7320</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>7321</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7322</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>7325</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>7323</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>7324</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -26125,10 +26113,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7370</v>
+        <v>7366</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>77</v>
@@ -26136,10 +26124,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7331</v>
+        <v>7328</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>77</v>
@@ -26147,10 +26135,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7332</v>
+        <v>7329</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>77</v>
@@ -27015,7 +27003,7 @@
         <v>57</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -27521,7 +27509,7 @@
         <v>7066</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>7386</v>
+        <v>7382</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>78</v>
@@ -27541,10 +27529,10 @@
         <v>7067</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>7390</v>
+        <v>7386</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>7387</v>
+        <v>7383</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>79</v>
@@ -27564,10 +27552,10 @@
         <v>7067</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>7391</v>
+        <v>7387</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>7388</v>
+        <v>7384</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>7175</v>
@@ -27587,10 +27575,10 @@
         <v>7067</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>7392</v>
+        <v>7388</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>7389</v>
+        <v>7385</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>7055</v>
@@ -27613,7 +27601,7 @@
         <v>7060</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>7376</v>
+        <v>7372</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>78</v>
@@ -27636,7 +27624,7 @@
         <v>7061</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>7377</v>
+        <v>7373</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>79</v>
@@ -27699,7 +27687,7 @@
         <v>58</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>144</v>
@@ -27722,7 +27710,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>326</v>
@@ -27745,10 +27733,10 @@
         <v>58</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>7371</v>
+        <v>7367</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>91</v>
@@ -27760,7 +27748,7 @@
         <v>57</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -27771,10 +27759,10 @@
         <v>58</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>7372</v>
+        <v>7368</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>129</v>
@@ -27794,10 +27782,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>7369</v>
+        <v>7365</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>7374</v>
+        <v>7370</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>336</v>
@@ -27809,7 +27797,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -27820,10 +27808,10 @@
         <v>58</v>
       </c>
       <c r="C68" s="14" t="s">
+        <v>7365</v>
+      </c>
+      <c r="D68" s="15" t="s">
         <v>7369</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>7373</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>337</v>
@@ -27843,13 +27831,13 @@
         <v>58</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7336</v>
+        <v>7333</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>7333</v>
+        <v>7330</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>78</v>
@@ -27866,13 +27854,13 @@
         <v>58</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>7337</v>
+        <v>7334</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>7334</v>
+        <v>7331</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>79</v>
@@ -27889,13 +27877,13 @@
         <v>58</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>7338</v>
+        <v>7335</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>7335</v>
+        <v>7332</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>85</v>
@@ -27912,13 +27900,13 @@
         <v>58</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>7344</v>
+        <v>7341</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>7339</v>
+        <v>7336</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>78</v>
@@ -27935,13 +27923,13 @@
         <v>58</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>7345</v>
+        <v>7342</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>7340</v>
+        <v>7337</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>79</v>
@@ -27958,13 +27946,13 @@
         <v>58</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>7346</v>
+        <v>7343</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>7341</v>
+        <v>7338</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>85</v>
@@ -27981,13 +27969,13 @@
         <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>7347</v>
+        <v>7344</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>7342</v>
+        <v>7339</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>7055</v>
@@ -28004,13 +27992,13 @@
         <v>58</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>7348</v>
+        <v>7345</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>7343</v>
+        <v>7340</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>7087</v>
@@ -28027,13 +28015,13 @@
         <v>58</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>7352</v>
+        <v>7349</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>7349</v>
+        <v>7346</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>7159</v>
@@ -28050,16 +28038,16 @@
         <v>58</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>7375</v>
+        <v>7371</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>7350</v>
+        <v>7347</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>7362</v>
+        <v>7359</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>57</v>
@@ -28073,13 +28061,13 @@
         <v>58</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>7353</v>
+        <v>7350</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>7351</v>
+        <v>7348</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>224</v>
@@ -28096,16 +28084,16 @@
         <v>58</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>7358</v>
+        <v>7355</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>7354</v>
+        <v>7351</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>7363</v>
+        <v>7360</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>57</v>
@@ -28119,16 +28107,16 @@
         <v>58</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>7359</v>
+        <v>7356</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>7355</v>
+        <v>7352</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>7364</v>
+        <v>7361</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>57</v>
@@ -28142,16 +28130,16 @@
         <v>58</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>7360</v>
+        <v>7357</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>7356</v>
+        <v>7353</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>7365</v>
+        <v>7362</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>57</v>
@@ -28165,16 +28153,16 @@
         <v>58</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>7361</v>
+        <v>7358</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>7357</v>
+        <v>7354</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>7366</v>
+        <v>7363</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>57</v>
@@ -28321,7 +28309,7 @@
         <v>7069</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>7399</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -28347,7 +28335,7 @@
         <v>7069</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -28493,7 +28481,7 @@
         <v>57</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -28781,7 +28769,7 @@
         <v>57</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>7398</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -28818,9 +28806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29538,7 +29526,7 @@
         <v>7291</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>7319</v>
+        <v>7316</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>180</v>
@@ -30103,7 +30091,7 @@
         <v>215</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>7327</v>
+        <v>7324</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>276</v>
@@ -30141,7 +30129,7 @@
         <v>7310</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>7316</v>
+        <v>7409</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>212</v>
@@ -30179,7 +30167,7 @@
         <v>7311</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>7315</v>
+        <v>7410</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>214</v>
@@ -30214,10 +30202,10 @@
         <v>223</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>7317</v>
+        <v>7315</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>7318</v>
+        <v>7411</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>7314</v>
@@ -30252,10 +30240,10 @@
         <v>7148</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>7367</v>
+        <v>7364</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>7368</v>
+        <v>7412</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>218</v>
@@ -30293,7 +30281,7 @@
         <v>280</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>7328</v>
+        <v>7325</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>275</v>
@@ -30307,7 +30295,7 @@
         <v>76</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>243</v>
@@ -30339,7 +30327,7 @@
         <v>76</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>234</v>
@@ -30377,7 +30365,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>244</v>
@@ -30409,7 +30397,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>234</v>
@@ -30418,7 +30406,7 @@
         <v>244</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>7395</v>
+        <v>7391</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>228</v>
@@ -30430,7 +30418,7 @@
         <v>7148</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>7393</v>
+        <v>7389</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>362</v>
@@ -30444,7 +30432,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>234</v>
@@ -30453,7 +30441,7 @@
         <v>244</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>7396</v>
+        <v>7392</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>210</v>
@@ -30465,7 +30453,7 @@
         <v>7148</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>7394</v>
+        <v>7390</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>363</v>
@@ -30479,7 +30467,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>246</v>
@@ -30508,7 +30496,7 @@
         <v>76</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>234</v>
@@ -30540,7 +30528,7 @@
         <v>76</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>234</v>
@@ -30572,7 +30560,7 @@
         <v>76</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>245</v>
@@ -30601,7 +30589,7 @@
         <v>76</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>234</v>
@@ -30633,7 +30621,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>234</v>
@@ -30665,7 +30653,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>234</v>
@@ -30697,7 +30685,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>300</v>
@@ -30726,7 +30714,7 @@
         <v>76</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>82</v>
@@ -30758,19 +30746,19 @@
         <v>76</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>7385</v>
+        <v>7381</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>282</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>7378</v>
+        <v>7374</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>7380</v>
+        <v>7376</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>77</v>
@@ -30790,16 +30778,16 @@
         <v>76</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>7385</v>
+        <v>7381</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>7379</v>
+        <v>7375</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>78</v>
@@ -30811,7 +30799,7 @@
         <v>223</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>7381</v>
+        <v>7377</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>77</v>
@@ -30822,16 +30810,16 @@
         <v>76</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>7385</v>
+        <v>7381</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>7382</v>
+        <v>7378</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>85</v>
@@ -30843,7 +30831,7 @@
         <v>223</v>
       </c>
       <c r="I59" s="33" t="s">
-        <v>7383</v>
+        <v>7379</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>77</v>
@@ -30854,16 +30842,16 @@
         <v>76</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>7385</v>
+        <v>7381</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>7403</v>
+        <v>7399</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>79</v>
@@ -30875,7 +30863,7 @@
         <v>223</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>7402</v>
+        <v>7398</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>77</v>
@@ -30886,16 +30874,16 @@
         <v>76</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>7385</v>
+        <v>7381</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>7400</v>
+        <v>7396</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>7055</v>
@@ -30907,7 +30895,7 @@
         <v>223</v>
       </c>
       <c r="I61" s="32" t="s">
-        <v>7384</v>
+        <v>7380</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>77</v>
@@ -31110,7 +31098,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7326</v>
+        <v>7323</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -31145,7 +31133,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7401</v>
+        <v>7397</v>
       </c>
     </row>
   </sheetData>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18406" uniqueCount="7229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18414" uniqueCount="7230">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22976,6 +22976,10 @@
   </si>
   <si>
     <t>北京市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25641,11 +25645,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27749,16 +27753,16 @@
         <v>6192</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>6194</v>
+        <v>7229</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>6173</v>
+        <v>80</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>6196</v>
+        <v>78</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>6173</v>
+        <v>77</v>
       </c>
       <c r="H89" s="14" t="s">
         <v>6499</v>
@@ -27775,20 +27779,18 @@
         <v>6192</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>6195</v>
+        <v>6194</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>6187</v>
+        <v>6173</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>6197</v>
+        <v>6196</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>6173</v>
       </c>
-      <c r="I90" s="14" t="s">
-        <v>6498</v>
-      </c>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
@@ -27798,21 +27800,23 @@
         <v>58</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>6180</v>
+        <v>6192</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>6185</v>
+        <v>6195</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>6186</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H91" s="14"/>
+        <v>6187</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>6197</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>6173</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>6498</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
@@ -27825,18 +27829,20 @@
         <v>6180</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>6181</v>
+        <v>6185</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>6173</v>
+        <v>6186</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H92" s="14"/>
+      <c r="H92" s="14" t="s">
+        <v>6184</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
@@ -27849,17 +27855,18 @@
         <v>6180</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>6182</v>
+        <v>6181</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>6187</v>
+        <v>6173</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H93" s="14"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
@@ -27869,22 +27876,19 @@
         <v>58</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>6219</v>
+        <v>6180</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>6199</v>
+        <v>6182</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>6173</v>
+        <v>6187</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>6198</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
@@ -27898,16 +27902,19 @@
         <v>6219</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>6200</v>
+        <v>6199</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>6187</v>
+        <v>6173</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>6198</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
@@ -27921,19 +27928,16 @@
         <v>6219</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>6201</v>
+        <v>6200</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="I96" s="14" t="s">
-        <v>6498</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
@@ -27944,22 +27948,22 @@
         <v>58</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>6220</v>
+        <v>6219</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>6202</v>
+        <v>6201</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>6173</v>
+        <v>6188</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H97" s="14" t="s">
-        <v>6206</v>
+      <c r="I97" s="14" t="s">
+        <v>6498</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
@@ -27973,16 +27977,19 @@
         <v>6220</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>6187</v>
+        <v>6173</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>6206</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -27996,13 +28003,13 @@
         <v>6220</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>57</v>
@@ -28019,13 +28026,13 @@
         <v>6220</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>6189</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>6225</v>
+        <v>6188</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>57</v>
@@ -28039,22 +28046,19 @@
         <v>58</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>6221</v>
+        <v>6220</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>6208</v>
+        <v>6205</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>6173</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>78</v>
+        <v>6189</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>6225</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>6207</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
@@ -28068,16 +28072,19 @@
         <v>6221</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>6209</v>
+        <v>6208</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>6187</v>
+        <v>6173</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>6207</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
@@ -28091,13 +28098,13 @@
         <v>6221</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>57</v>
@@ -28114,13 +28121,13 @@
         <v>6221</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>6211</v>
+        <v>6210</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>6189</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>6225</v>
+        <v>6188</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>57</v>
@@ -28134,22 +28141,19 @@
         <v>58</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>6186</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>78</v>
+        <v>6189</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>6225</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>6218</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
@@ -28163,16 +28167,19 @@
         <v>6222</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>6213</v>
+        <v>6212</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>6173</v>
+        <v>6186</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>6218</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -28186,20 +28193,20 @@
         <v>6222</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>6214</v>
+        <v>6213</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>6189</v>
+        <v>6173</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -28209,23 +28216,20 @@
         <v>6222</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>6215</v>
+        <v>6214</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>6190</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>6225</v>
+        <v>6189</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I108" s="14" t="s">
-        <v>6498</v>
-      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -28235,15 +28239,41 @@
         <v>6222</v>
       </c>
       <c r="D109" s="15" t="s">
+        <v>6215</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>6190</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>6225</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>6222</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>6216</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E110" s="14" t="s">
         <v>6217</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>6226</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -30599,7 +30629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2247" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2251" sqref="B2251"/>
     </sheetView>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18414" uniqueCount="7230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18414" uniqueCount="7231">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22982,11 +22982,27 @@
     <t>待推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>4.0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -23272,7 +23288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23347,23 +23363,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -23399,23 +23398,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -25230,9 +25212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25274,8 +25256,8 @@
       <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
+      <c r="E2" s="14" t="s">
+        <v>7230</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -25647,7 +25629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EE77EF6D-2A5E-4A67-95E8-0D69115483DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18418" uniqueCount="7233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18536" uniqueCount="7236">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23083,11 +23084,37 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -23692,7 +23719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24027,7 +24054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24123,7 +24150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24237,7 +24264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25328,7 +25355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25421,7 +25448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25745,12 +25772,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25768,7 +25795,7 @@
     <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>364</v>
       </c>
@@ -25799,8 +25826,11 @@
       <c r="J1" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="2" t="s">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -25822,8 +25852,11 @@
       <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
@@ -25848,8 +25881,11 @@
       <c r="I3" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>82</v>
       </c>
@@ -25871,8 +25907,11 @@
       <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>82</v>
       </c>
@@ -25897,8 +25936,11 @@
       <c r="I5" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>82</v>
       </c>
@@ -25923,8 +25965,11 @@
       <c r="I6" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>82</v>
       </c>
@@ -25949,8 +25994,11 @@
       <c r="I7" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>82</v>
       </c>
@@ -25972,8 +26020,11 @@
       <c r="G8" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>82</v>
       </c>
@@ -25995,8 +26046,11 @@
       <c r="G9" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>82</v>
       </c>
@@ -26021,8 +26075,11 @@
       <c r="I10" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>82</v>
       </c>
@@ -26044,8 +26101,11 @@
       <c r="G11" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
@@ -26070,8 +26130,11 @@
       <c r="I12" s="7" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>82</v>
       </c>
@@ -26093,31 +26156,37 @@
       <c r="G13" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
+      <c r="C14" s="14" t="s">
+        <v>6399</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>7233</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>7234</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>6256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
@@ -26128,19 +26197,22 @@
         <v>138</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>82</v>
       </c>
@@ -26151,19 +26223,22 @@
         <v>138</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>6274</v>
+        <v>135</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>82</v>
       </c>
@@ -26174,19 +26249,22 @@
         <v>138</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>6154</v>
+        <v>6274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>82</v>
       </c>
@@ -26194,22 +26272,25 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>75</v>
+        <v>138</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>136</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>6154</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -26217,22 +26298,25 @@
         <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -26243,45 +26327,51 @@
         <v>101</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>6263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>6251</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>6252</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>6255</v>
+      <c r="C21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>6263</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>82</v>
       </c>
@@ -26292,19 +26382,22 @@
         <v>6251</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>6253</v>
+        <v>6252</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>6256</v>
+        <v>6255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K22" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -26315,19 +26408,22 @@
         <v>6251</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>7</v>
+        <v>6253</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>6257</v>
+        <v>6256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K23" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -26338,45 +26434,51 @@
         <v>6251</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>6254</v>
+        <v>7</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>6258</v>
+        <v>6257</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>6263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K24" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>58</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>6251</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6254</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>6258</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I25" s="14" t="s">
+        <v>6263</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>82</v>
       </c>
@@ -26387,19 +26489,22 @@
         <v>107</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K26" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>82</v>
       </c>
@@ -26410,19 +26515,22 @@
         <v>107</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -26433,42 +26541,48 @@
         <v>107</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K29" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>82</v>
       </c>
@@ -26479,19 +26593,22 @@
         <v>105</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K30" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>82</v>
       </c>
@@ -26501,20 +26618,23 @@
       <c r="C31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>6204</v>
+      <c r="D31" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>82</v>
       </c>
@@ -26522,22 +26642,25 @@
         <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>144</v>
+        <v>105</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>6204</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K32" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>82</v>
       </c>
@@ -26545,25 +26668,25 @@
         <v>58</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K33" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>82</v>
       </c>
@@ -26571,22 +26694,28 @@
         <v>58</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I34" s="14" t="s">
+        <v>6493</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -26597,19 +26726,22 @@
         <v>117</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K35" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
@@ -26617,22 +26749,25 @@
         <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K36" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>82</v>
       </c>
@@ -26640,25 +26775,25 @@
         <v>58</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>103</v>
+        <v>341</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K37" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
@@ -26669,22 +26804,25 @@
         <v>103</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I38" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
@@ -26692,22 +26830,28 @@
         <v>58</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>6237</v>
+        <v>150</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>82</v>
       </c>
@@ -26718,19 +26862,22 @@
         <v>100</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>6238</v>
+        <v>6237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K40" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
@@ -26741,19 +26888,22 @@
         <v>100</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>6239</v>
+        <v>6238</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K41" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
@@ -26764,19 +26914,22 @@
         <v>100</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>6240</v>
+        <v>6239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K42" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
         <v>82</v>
       </c>
@@ -26787,42 +26940,48 @@
         <v>100</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>6241</v>
+        <v>6240</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K43" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>6138</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>6143</v>
+      <c r="C44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>6150</v>
+        <v>6241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K44" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>82</v>
       </c>
@@ -26833,19 +26992,22 @@
         <v>6138</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6144</v>
+        <v>6143</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K45" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>82</v>
       </c>
@@ -26856,19 +27018,22 @@
         <v>6138</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>6152</v>
+        <v>6151</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K46" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>82</v>
       </c>
@@ -26879,19 +27044,22 @@
         <v>6138</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>6153</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>6154</v>
+        <v>6152</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K47" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>82</v>
       </c>
@@ -26899,22 +27067,25 @@
         <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6141</v>
+        <v>6138</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>78</v>
+        <v>6153</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>6154</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K48" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>82</v>
       </c>
@@ -26924,20 +27095,23 @@
       <c r="C49" s="1" t="s">
         <v>6141</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>6148</v>
+      <c r="D49" s="3" t="s">
+        <v>6147</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K49" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>82</v>
       </c>
@@ -26948,19 +27122,22 @@
         <v>6141</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>6149</v>
+        <v>6148</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K50" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>82</v>
       </c>
@@ -26968,22 +27145,25 @@
         <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>6143</v>
+        <v>6141</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>6149</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K51" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>82</v>
       </c>
@@ -26994,19 +27174,22 @@
         <v>6161</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6144</v>
+        <v>6143</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>6151</v>
+        <v>77</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K52" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>82</v>
       </c>
@@ -27017,19 +27200,22 @@
         <v>6161</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>6152</v>
+        <v>6151</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K53" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>82</v>
       </c>
@@ -27040,42 +27226,48 @@
         <v>6161</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>6153</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>6154</v>
+        <v>6152</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K54" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>6166</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>6165</v>
+      <c r="C55" s="1" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>6146</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>6481</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>78</v>
+        <v>6153</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>6154</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K55" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>82</v>
       </c>
@@ -27086,19 +27278,22 @@
         <v>6166</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>6485</v>
+        <v>6165</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>6482</v>
+        <v>6481</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K56" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>82</v>
       </c>
@@ -27109,19 +27304,22 @@
         <v>6166</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>6486</v>
+        <v>6485</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>6483</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>6274</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+        <v>6482</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>82</v>
       </c>
@@ -27132,42 +27330,48 @@
         <v>6166</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>6487</v>
+        <v>6486</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>6484</v>
+        <v>6483</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>6154</v>
+        <v>6274</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K58" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>6158</v>
+      <c r="C59" s="14" t="s">
+        <v>6166</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>6159</v>
+        <v>6487</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>6471</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+        <v>6484</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>6154</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>82</v>
       </c>
@@ -27178,42 +27382,48 @@
         <v>6158</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>6160</v>
+        <v>6159</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>6472</v>
+        <v>6471</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K60" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>6155</v>
+      <c r="C61" s="1" t="s">
+        <v>6158</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>6156</v>
+        <v>6160</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>6150</v>
+        <v>6472</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K61" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="7" t="s">
         <v>82</v>
       </c>
@@ -27224,19 +27434,22 @@
         <v>6155</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>6157</v>
+        <v>6156</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K62" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>82</v>
       </c>
@@ -27244,22 +27457,25 @@
         <v>58</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>6464</v>
+        <v>6155</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>144</v>
+        <v>6157</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>80</v>
+        <v>6151</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K63" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>82</v>
       </c>
@@ -27270,19 +27486,22 @@
         <v>6464</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>321</v>
+        <v>144</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K64" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>82</v>
       </c>
@@ -27293,22 +27512,22 @@
         <v>6464</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>6466</v>
+        <v>321</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I65" s="14" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K65" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>82</v>
       </c>
@@ -27319,19 +27538,25 @@
         <v>6464</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>6467</v>
+        <v>6466</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I66" s="14" t="s">
+        <v>6493</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>82</v>
       </c>
@@ -27342,22 +27567,22 @@
         <v>6464</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>6469</v>
+        <v>6467</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="14" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K67" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>82</v>
       </c>
@@ -27368,42 +27593,51 @@
         <v>6464</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>6468</v>
+        <v>6469</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>6274</v>
+        <v>331</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I68" s="14" t="s">
+        <v>6493</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>6425</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>6432</v>
+      <c r="C69" s="14" t="s">
+        <v>6464</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>6468</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>6429</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>78</v>
+        <v>332</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>6274</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K69" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>82</v>
       </c>
@@ -27413,20 +27647,23 @@
       <c r="C70" s="1" t="s">
         <v>6425</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>6433</v>
+      <c r="D70" s="1" t="s">
+        <v>6432</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K70" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>82</v>
       </c>
@@ -27437,19 +27674,22 @@
         <v>6425</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>6431</v>
+        <v>6430</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K71" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>82</v>
       </c>
@@ -27457,22 +27697,25 @@
         <v>58</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>6440</v>
+        <v>6434</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>6435</v>
+        <v>6431</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K72" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>82</v>
       </c>
@@ -27483,19 +27726,22 @@
         <v>6426</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K73" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>82</v>
       </c>
@@ -27506,19 +27752,22 @@
         <v>6426</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K74" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>82</v>
       </c>
@@ -27529,19 +27778,22 @@
         <v>6426</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>6438</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>6154</v>
+        <v>6437</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K75" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>82</v>
       </c>
@@ -27552,19 +27804,22 @@
         <v>6426</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>6186</v>
+        <v>6154</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K76" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>82</v>
       </c>
@@ -27575,19 +27830,22 @@
         <v>6426</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>6448</v>
+        <v>6444</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>6445</v>
+        <v>6439</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>6258</v>
+        <v>6186</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K77" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
@@ -27597,20 +27855,23 @@
       <c r="C78" s="1" t="s">
         <v>6426</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>6470</v>
+      <c r="D78" s="15" t="s">
+        <v>6448</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>6458</v>
+        <v>6258</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K78" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="7" t="s">
         <v>82</v>
       </c>
@@ -27620,20 +27881,23 @@
       <c r="C79" s="1" t="s">
         <v>6426</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>6449</v>
+      <c r="D79" s="1" t="s">
+        <v>6470</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>6447</v>
+        <v>6446</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>224</v>
+        <v>6458</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K79" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="7" t="s">
         <v>82</v>
       </c>
@@ -27644,19 +27908,22 @@
         <v>6426</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>6454</v>
+        <v>6449</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>6450</v>
+        <v>6447</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>6459</v>
+        <v>224</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K80" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>82</v>
       </c>
@@ -27667,19 +27934,22 @@
         <v>6426</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>6455</v>
+        <v>6454</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>6451</v>
+        <v>6450</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K81" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>82</v>
       </c>
@@ -27690,19 +27960,22 @@
         <v>6426</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>6456</v>
+        <v>6455</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>6461</v>
+        <v>6460</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K82" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
@@ -27713,45 +27986,48 @@
         <v>6426</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>6453</v>
+        <v>6452</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>6462</v>
+        <v>6461</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K83" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>6169</v>
+      <c r="C84" s="1" t="s">
+        <v>6426</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>6171</v>
+        <v>6457</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>78</v>
+        <v>6453</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>6462</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="14" t="s">
-        <v>6178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K84" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>82</v>
       </c>
@@ -27762,19 +28038,25 @@
         <v>6169</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>6174</v>
+        <v>6171</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>6242</v>
+        <v>134</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H85" s="14" t="s">
+        <v>6178</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>82</v>
       </c>
@@ -27785,19 +28067,22 @@
         <v>6169</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>6170</v>
+        <v>6174</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>6243</v>
+        <v>6242</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K86" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>82</v>
       </c>
@@ -27808,19 +28093,22 @@
         <v>6169</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>6172</v>
+        <v>6170</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>6244</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>6154</v>
+        <v>6243</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K87" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>82</v>
       </c>
@@ -27831,19 +28119,22 @@
         <v>6169</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>6173</v>
+        <v>6172</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>136</v>
+        <v>6244</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>6186</v>
+        <v>6154</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K88" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>82</v>
       </c>
@@ -27851,25 +28142,25 @@
         <v>58</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>6187</v>
+        <v>6169</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>7224</v>
+        <v>6173</v>
       </c>
       <c r="E89" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>6186</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F89" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>6494</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>82</v>
       </c>
@@ -27880,20 +28171,25 @@
         <v>6187</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>6189</v>
+        <v>7224</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>6168</v>
+        <v>80</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>6191</v>
+        <v>78</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>6168</v>
-      </c>
-      <c r="H90" s="14"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>6494</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>82</v>
       </c>
@@ -27904,22 +28200,23 @@
         <v>6187</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>6190</v>
+        <v>6189</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>6182</v>
+        <v>6168</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>6192</v>
+        <v>6191</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>6168</v>
       </c>
-      <c r="I91" s="14" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H91" s="14"/>
+      <c r="K91" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>82</v>
       </c>
@@ -27927,25 +28224,28 @@
         <v>58</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>6175</v>
+        <v>6187</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>6180</v>
+        <v>6190</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>6181</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>6179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6182</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>6192</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>6168</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>6493</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>82</v>
       </c>
@@ -27956,20 +28256,25 @@
         <v>6175</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>6176</v>
+        <v>6180</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>6168</v>
+        <v>6181</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H93" s="14" t="s">
+        <v>6179</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>82</v>
       </c>
@@ -27980,19 +28285,23 @@
         <v>6175</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>6182</v>
+        <v>6168</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H94" s="14"/>
+      <c r="K94" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>82</v>
       </c>
@@ -28000,25 +28309,25 @@
         <v>58</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>6214</v>
+        <v>6175</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>6194</v>
+        <v>6177</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>6168</v>
+        <v>6182</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H95" s="14" t="s">
-        <v>6193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K95" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>82</v>
       </c>
@@ -28029,19 +28338,25 @@
         <v>6214</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>6195</v>
+        <v>6194</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>6182</v>
+        <v>6168</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H96" s="14" t="s">
+        <v>6193</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="7" t="s">
         <v>82</v>
       </c>
@@ -28052,22 +28367,22 @@
         <v>6214</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>6196</v>
+        <v>6195</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>6183</v>
+        <v>6182</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I97" s="14" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K97" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
         <v>82</v>
       </c>
@@ -28075,25 +28390,28 @@
         <v>58</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>6215</v>
+        <v>6214</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>6197</v>
+        <v>6196</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>6168</v>
+        <v>6183</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H98" s="14" t="s">
-        <v>6201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I98" s="14" t="s">
+        <v>6493</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>82</v>
       </c>
@@ -28104,19 +28422,25 @@
         <v>6215</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>6198</v>
+        <v>6197</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>6182</v>
+        <v>6168</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H99" s="14" t="s">
+        <v>6201</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>82</v>
       </c>
@@ -28127,19 +28451,22 @@
         <v>6215</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>6199</v>
+        <v>6198</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>6183</v>
+        <v>6182</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K100" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>82</v>
       </c>
@@ -28150,19 +28477,22 @@
         <v>6215</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>6200</v>
+        <v>6199</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>6184</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>6220</v>
+        <v>6183</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K101" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>82</v>
       </c>
@@ -28170,25 +28500,25 @@
         <v>58</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>6216</v>
+        <v>6215</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>6203</v>
+        <v>6200</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>6168</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>78</v>
+        <v>6184</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>6220</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H102" s="14" t="s">
-        <v>6202</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K102" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>82</v>
       </c>
@@ -28199,19 +28529,25 @@
         <v>6216</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>6182</v>
+        <v>6168</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H103" s="14" t="s">
+        <v>6202</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>82</v>
       </c>
@@ -28222,19 +28558,22 @@
         <v>6216</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>6183</v>
+        <v>6182</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K104" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>82</v>
       </c>
@@ -28245,19 +28584,22 @@
         <v>6216</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>6206</v>
+        <v>6205</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>6184</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>6220</v>
+        <v>6183</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K105" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>82</v>
       </c>
@@ -28265,25 +28607,25 @@
         <v>58</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>6217</v>
+        <v>6216</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>6207</v>
+        <v>6206</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>6181</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>78</v>
+        <v>6184</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>6220</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H106" s="14" t="s">
-        <v>6213</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K106" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>82</v>
       </c>
@@ -28294,19 +28636,25 @@
         <v>6217</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>6208</v>
+        <v>6207</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>6168</v>
+        <v>6181</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H107" s="14" t="s">
+        <v>6213</v>
+      </c>
+      <c r="K107" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108" s="7" t="s">
         <v>82</v>
       </c>
@@ -28317,20 +28665,23 @@
         <v>6217</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>6209</v>
+        <v>6208</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>6184</v>
+        <v>6168</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="14" t="s">
+      <c r="K108" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -28340,23 +28691,23 @@
         <v>6217</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>6185</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>6220</v>
+        <v>6184</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I109" s="14" t="s">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="7" t="s">
+      <c r="K109" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -28366,16 +28717,48 @@
         <v>6217</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>6211</v>
+        <v>6210</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>6212</v>
+        <v>6185</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>6221</v>
+        <v>6220</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>6493</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>6211</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>6212</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>6221</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -28386,10 +28769,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
@@ -30499,10 +30882,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I60" r:id="rId1"/>
-    <hyperlink ref="I58" r:id="rId2"/>
-    <hyperlink ref="I59" r:id="rId3"/>
-    <hyperlink ref="I59" r:id="rId4" display="http://jeesite.net"/>
+    <hyperlink ref="I60" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I58" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="I59" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="I59" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -30510,7 +30893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30652,7 +31035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30739,7 +31122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86136,7 +86519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4C32B9A-E6D6-4B0F-846E-89878CE9BE33}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -28,8 +29,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B1BBCB30-F993-42EF-A249-1B68A9015513}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>菜单权重（20默认权重、40二级管理员、60系统管理员、80超级管理员）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18536" uniqueCount="7236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18579" uniqueCount="7251">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22956,22 +22981,6 @@
   </si>
   <si>
     <r>
-      <t>4.0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>_</t>
     </r>
     <r>
@@ -23123,12 +23132,136 @@
     <t>dictLabelOrig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>4.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>__id__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>msg_push</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/msgPush/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/msgPush/list?pushed=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/msgTemplate/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg:msgPush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg:msgTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-envelope-letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23270,6 +23403,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -23386,13 +23526,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23413,7 +23553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -23488,6 +23628,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -23523,6 +23680,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -23698,7 +23872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24033,7 +24207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24129,7 +24303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24243,7 +24417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25334,12 +25508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25382,7 +25556,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>7223</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -25427,7 +25601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25751,7 +25925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -25785,7 +25959,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -25806,7 +25980,7 @@
         <v>92</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -26150,10 +26324,10 @@
         <v>6397</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>7230</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>7231</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>7232</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>6254</v>
@@ -28748,25 +28922,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="25" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
     <col min="5" max="5" width="26.75" style="10" customWidth="1"/>
     <col min="6" max="6" width="5" style="10" customWidth="1"/>
     <col min="7" max="7" width="5.125" style="10" customWidth="1"/>
     <col min="8" max="8" width="7.375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="34" customWidth="1"/>
     <col min="10" max="10" width="7.25" style="10" customWidth="1"/>
     <col min="11" max="11" width="27.375" style="10" customWidth="1"/>
     <col min="12" max="12" width="21.625" style="10" customWidth="1"/>
@@ -28789,7 +28963,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -28826,7 +29000,7 @@
       <c r="B2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="34" t="s">
         <v>275</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -28858,7 +29032,7 @@
       <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="34" t="s">
         <v>276</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -28890,7 +29064,7 @@
       <c r="B4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="34" t="s">
         <v>369</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -28908,7 +29082,7 @@
       <c r="H4" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>6278</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -28925,7 +29099,7 @@
       <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -28957,7 +29131,7 @@
       <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -28989,7 +29163,7 @@
       <c r="B7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -29021,7 +29195,7 @@
       <c r="B8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -29053,7 +29227,7 @@
       <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -29085,7 +29259,7 @@
       <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -29117,7 +29291,7 @@
       <c r="B11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="34" t="s">
         <v>349</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -29135,7 +29309,7 @@
       <c r="H11" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="34" t="s">
         <v>257</v>
       </c>
       <c r="L11" s="10" t="s">
@@ -29152,7 +29326,7 @@
       <c r="B12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -29184,7 +29358,7 @@
       <c r="B13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -29216,7 +29390,7 @@
       <c r="B14" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="34" t="s">
         <v>357</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -29234,7 +29408,7 @@
       <c r="H14" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="34" t="s">
         <v>258</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -29251,7 +29425,7 @@
       <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -29283,7 +29457,7 @@
       <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -29315,7 +29489,7 @@
       <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="34" t="s">
         <v>365</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -29333,7 +29507,7 @@
       <c r="H17" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="34" t="s">
         <v>256</v>
       </c>
       <c r="L17" s="10" t="s">
@@ -29350,7 +29524,7 @@
       <c r="B18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -29382,7 +29556,7 @@
       <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="34" t="s">
         <v>350</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -29414,7 +29588,7 @@
       <c r="B20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>235</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -29446,7 +29620,7 @@
       <c r="B21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -29464,7 +29638,7 @@
       <c r="H21" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="34" t="s">
         <v>260</v>
       </c>
       <c r="K21" s="14" t="s">
@@ -29484,7 +29658,7 @@
       <c r="B22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -29502,7 +29676,7 @@
       <c r="H22" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="34" t="s">
         <v>262</v>
       </c>
       <c r="K22" s="14" t="s">
@@ -29522,7 +29696,7 @@
       <c r="B23" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -29540,7 +29714,7 @@
       <c r="H23" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="15" t="s">
         <v>261</v>
       </c>
       <c r="K23" s="28" t="s">
@@ -29560,7 +29734,7 @@
       <c r="B24" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -29592,7 +29766,7 @@
       <c r="B25" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -29610,7 +29784,7 @@
       <c r="H25" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="34" t="s">
         <v>185</v>
       </c>
       <c r="K25" s="14" t="s">
@@ -29630,7 +29804,7 @@
       <c r="B26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -29648,7 +29822,7 @@
       <c r="H26" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="34" t="s">
         <v>186</v>
       </c>
       <c r="K26" s="14" t="s">
@@ -29668,7 +29842,7 @@
       <c r="B27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -29686,7 +29860,7 @@
       <c r="H27" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="34" t="s">
         <v>187</v>
       </c>
       <c r="K27" s="14" t="s">
@@ -29706,7 +29880,7 @@
       <c r="B28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>6231</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -29724,7 +29898,7 @@
       <c r="H28" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="34" t="s">
         <v>188</v>
       </c>
       <c r="K28" s="14"/>
@@ -29742,7 +29916,7 @@
       <c r="B29" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -29774,7 +29948,7 @@
       <c r="B30" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -29806,7 +29980,7 @@
       <c r="B31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -29838,7 +30012,7 @@
       <c r="B32" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -29870,7 +30044,7 @@
       <c r="B33" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -29888,7 +30062,7 @@
       <c r="H33" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="34" t="s">
         <v>189</v>
       </c>
       <c r="K33" s="14" t="s">
@@ -29908,7 +30082,7 @@
       <c r="B34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -29926,7 +30100,7 @@
       <c r="H34" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="15" t="s">
         <v>6401</v>
       </c>
       <c r="K34" s="14" t="s">
@@ -29946,7 +30120,7 @@
       <c r="B35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -29964,7 +30138,7 @@
       <c r="H35" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="15" t="s">
         <v>6282</v>
       </c>
       <c r="K35" s="14"/>
@@ -29982,7 +30156,7 @@
       <c r="B36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="34" t="s">
         <v>234</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -30014,7 +30188,7 @@
       <c r="B37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -30032,7 +30206,7 @@
       <c r="H37" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="34" t="s">
         <v>213</v>
       </c>
       <c r="K37" s="14" t="s">
@@ -30052,7 +30226,7 @@
       <c r="B38" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -30070,7 +30244,7 @@
       <c r="H38" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="15" t="s">
         <v>6407</v>
       </c>
       <c r="K38" s="14" t="s">
@@ -30090,7 +30264,7 @@
       <c r="B39" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -30108,7 +30282,7 @@
       <c r="H39" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="15" t="s">
         <v>6408</v>
       </c>
       <c r="K39" s="14" t="s">
@@ -30128,7 +30302,7 @@
       <c r="B40" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -30146,7 +30320,7 @@
       <c r="H40" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="15" t="s">
         <v>6412</v>
       </c>
       <c r="K40" s="14" t="s">
@@ -30166,7 +30340,7 @@
       <c r="B41" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -30184,7 +30358,7 @@
       <c r="H41" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="15" t="s">
         <v>6461</v>
       </c>
       <c r="K41" s="14" t="s">
@@ -30204,7 +30378,7 @@
       <c r="B42" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -30222,7 +30396,7 @@
       <c r="H42" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="34" t="s">
         <v>273</v>
       </c>
       <c r="K42" s="14" t="s">
@@ -30240,28 +30414,30 @@
         <v>74</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>6414</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>236</v>
+        <v>26</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>7236</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>205</v>
+      <c r="E43" s="18" t="s">
+        <v>7237</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>6275</v>
+        <v>7241</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="26" t="s">
-        <v>6245</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>206</v>
+      <c r="H43" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14" t="s">
+        <v>7250</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>75</v>
@@ -30272,34 +30448,31 @@
         <v>74</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>6414</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>225</v>
+        <v>26</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>7236</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>7238</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>7242</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>6245</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>207</v>
+      <c r="H44" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>7245</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>6276</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>206</v>
+        <v>7248</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>75</v>
@@ -30310,28 +30483,31 @@
         <v>74</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>6414</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>222</v>
+        <v>26</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>7236</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>7239</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>7243</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>6245</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>217</v>
+      <c r="H45" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>7246</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>7248</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>75</v>
@@ -30342,31 +30518,31 @@
         <v>74</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>6414</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>6488</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>226</v>
+        <v>26</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>7236</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>7240</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>7244</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H46" s="26" t="s">
-        <v>6245</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>6486</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>355</v>
+      <c r="H46" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>7247</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>7249</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>75</v>
@@ -30379,17 +30555,17 @@
       <c r="B47" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>232</v>
+      <c r="C47" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>6489</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>208</v>
+        <v>275</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>6275</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>75</v>
@@ -30397,11 +30573,8 @@
       <c r="H47" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I47" s="14" t="s">
-        <v>6487</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>356</v>
+      <c r="L47" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>75</v>
@@ -30414,23 +30587,32 @@
       <c r="B48" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>239</v>
+      <c r="C48" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>288</v>
+      <c r="E48" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>6245</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>6276</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>75</v>
@@ -30443,17 +30625,17 @@
       <c r="B49" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>232</v>
+      <c r="C49" s="34" t="s">
+        <v>237</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>219</v>
+        <v>236</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>75</v>
@@ -30461,8 +30643,8 @@
       <c r="H49" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>7226</v>
+      <c r="L49" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>75</v>
@@ -30475,17 +30657,17 @@
       <c r="B50" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>220</v>
+        <v>237</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>6488</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>75</v>
@@ -30493,8 +30675,11 @@
       <c r="H50" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>7227</v>
+      <c r="I50" s="15" t="s">
+        <v>6486</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>75</v>
@@ -30507,23 +30692,29 @@
       <c r="B51" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>238</v>
+      <c r="C51" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>287</v>
+        <v>237</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>6489</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>6245</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>6487</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>75</v>
@@ -30536,26 +30727,23 @@
       <c r="B52" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>232</v>
+      <c r="C52" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>289</v>
+        <v>236</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>6245</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>7228</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>75</v>
@@ -30568,17 +30756,17 @@
       <c r="B53" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>75</v>
@@ -30586,8 +30774,8 @@
       <c r="H53" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I53" s="14" t="s">
-        <v>7229</v>
+      <c r="I53" s="15" t="s">
+        <v>7225</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>75</v>
@@ -30600,17 +30788,17 @@
       <c r="B54" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="34" t="s">
         <v>232</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>75</v>
@@ -30618,8 +30806,8 @@
       <c r="H54" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>7230</v>
+      <c r="I54" s="15" t="s">
+        <v>7226</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>75</v>
@@ -30632,20 +30820,20 @@
       <c r="B55" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>293</v>
+      <c r="C55" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>6245</v>
@@ -30661,26 +30849,26 @@
       <c r="B56" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>80</v>
+      <c r="C56" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>6245</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>316</v>
+      <c r="I56" s="15" t="s">
+        <v>7227</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>75</v>
@@ -30693,26 +30881,26 @@
       <c r="B57" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>6478</v>
+      <c r="C57" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>6471</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>6473</v>
+        <v>238</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>206</v>
+        <v>6245</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>7228</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>75</v>
@@ -30725,29 +30913,26 @@
       <c r="B58" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>6478</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>6472</v>
+      <c r="C58" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>291</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>6474</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>7224</v>
+        <v>6245</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>7229</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>75</v>
@@ -30760,29 +30945,23 @@
       <c r="B59" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>6478</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>6475</v>
+      <c r="C59" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>299</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>6476</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>7225</v>
+        <v>6245</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>75</v>
@@ -30795,29 +30974,26 @@
       <c r="B60" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>6478</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>6496</v>
+      <c r="D60" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>75</v>
+        <v>297</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>6495</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>7225</v>
+        <v>6245</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>316</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>75</v>
@@ -30830,17 +31006,17 @@
       <c r="B61" s="25" t="s">
         <v>6414</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="14" t="s">
+      <c r="C61" s="15" t="s">
         <v>6478</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>6493</v>
+      <c r="D61" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>6471</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>6152</v>
+        <v>6473</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>75</v>
@@ -30848,31 +31024,169 @@
       <c r="H61" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="L61" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>6478</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>6472</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>6474</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>7223</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>6478</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>6475</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>6476</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>7224</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>6478</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>6496</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>6495</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>7224</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>6478</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>6493</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>6152</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I65" s="32" t="s">
         <v>6477</v>
       </c>
-      <c r="J61" s="10" t="s">
-        <v>7225</v>
-      </c>
-      <c r="N61" s="10" t="s">
+      <c r="J65" s="10" t="s">
+        <v>7224</v>
+      </c>
+      <c r="N65" s="10" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I60" r:id="rId1"/>
-    <hyperlink ref="I58" r:id="rId2"/>
-    <hyperlink ref="I59" r:id="rId3"/>
-    <hyperlink ref="I59" r:id="rId4" display="http://jeesite.net"/>
+    <hyperlink ref="I64" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I62" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="I63" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="I63" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31014,7 +31328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31101,7 +31415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -86498,7 +86812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C3FE9D6E-C1EB-4793-ABCD-F8F386DFBBA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57440AA4-E906-4A70-9F7C-310C413B234A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23096,10 +23096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>__id__</t>
     </r>
@@ -23233,6 +23229,10 @@
   </si>
   <si>
     <t>/state/server/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25490,9 +25490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25535,7 +25535,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>7231</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -28904,9 +28904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28954,7 +28954,7 @@
         <v>6242</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>279</v>
@@ -30262,10 +30262,10 @@
         <v>6244</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>211</v>
@@ -30300,7 +30300,7 @@
         <v>220</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>6504</v>
@@ -30396,16 +30396,16 @@
         <v>26</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>75</v>
@@ -30416,7 +30416,7 @@
       <c r="I43" s="15"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="N43" s="10" t="s">
         <v>75</v>
@@ -30433,13 +30433,13 @@
         <v>80</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>75</v>
@@ -30448,10 +30448,10 @@
         <v>84</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>75</v>
@@ -30468,13 +30468,13 @@
         <v>80</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>75</v>
@@ -30483,10 +30483,10 @@
         <v>84</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>75</v>
@@ -30503,13 +30503,13 @@
         <v>80</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>75</v>
@@ -30518,10 +30518,10 @@
         <v>84</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>75</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57440AA4-E906-4A70-9F7C-310C413B234A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D28409A-7CC0-48A4-84FC-3FF3474B2E20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23232,7 +23232,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.0.6</t>
+    <t>4.0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25909,7 +25909,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26315,7 +26315,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -28905,8 +28905,8 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D28409A-7CC0-48A4-84FC-3FF3474B2E20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF541FD-FA69-4B19-9802-696489484C8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$3257</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18579" uniqueCount="7251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18591" uniqueCount="7256">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23233,6 +23233,50 @@
   </si>
   <si>
     <t>4.0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:swagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/swagger-ui.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25490,7 +25534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -28902,11 +28946,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30395,31 +30439,35 @@
       <c r="B43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>7231</v>
+      <c r="C43" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>7232</v>
+        <v>233</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>7255</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>7236</v>
+        <v>7252</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="K43" s="14"/>
+      <c r="H43" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>7253</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>7251</v>
+      </c>
       <c r="L43" s="14" t="s">
-        <v>7245</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>75</v>
+        <v>191</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>7254</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -30429,17 +30477,17 @@
       <c r="B44" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>7231</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>7233</v>
+      <c r="D44" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>7232</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>75</v>
@@ -30447,11 +30495,10 @@
       <c r="H44" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>7240</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>7243</v>
+      <c r="I44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14" t="s">
+        <v>7245</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>75</v>
@@ -30471,10 +30518,10 @@
         <v>7231</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>75</v>
@@ -30483,7 +30530,7 @@
         <v>84</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="K45" s="14" t="s">
         <v>7243</v>
@@ -30506,10 +30553,10 @@
         <v>7231</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>75</v>
@@ -30518,10 +30565,10 @@
         <v>84</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>75</v>
@@ -30532,28 +30579,31 @@
         <v>74</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>6411</v>
+        <v>26</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>204</v>
+        <v>80</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>7231</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>7235</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>6274</v>
+        <v>7239</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H47" s="26" t="s">
-        <v>6244</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>205</v>
+      <c r="H47" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>7242</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>7244</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>75</v>
@@ -30567,28 +30617,22 @@
         <v>6411</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>224</v>
+        <v>274</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>6274</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>6244</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>6275</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>205</v>
@@ -30605,16 +30649,16 @@
         <v>6411</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>217</v>
+      <c r="E49" s="11" t="s">
+        <v>353</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>75</v>
@@ -30622,8 +30666,14 @@
       <c r="H49" s="26" t="s">
         <v>6244</v>
       </c>
+      <c r="I49" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>6275</v>
+      </c>
       <c r="L49" s="10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="N49" s="10" t="s">
         <v>75</v>
@@ -30637,16 +30687,16 @@
         <v>6411</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>6485</v>
+        <v>235</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>75</v>
@@ -30654,11 +30704,8 @@
       <c r="H50" s="26" t="s">
         <v>6244</v>
       </c>
-      <c r="I50" s="15" t="s">
-        <v>6483</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>354</v>
+      <c r="L50" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>75</v>
@@ -30678,10 +30725,10 @@
         <v>236</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>6486</v>
+        <v>6485</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>75</v>
@@ -30690,10 +30737,10 @@
         <v>6244</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>6484</v>
+        <v>6483</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>75</v>
@@ -30707,22 +30754,28 @@
         <v>6411</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>287</v>
+        <v>236</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>6486</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>6244</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>6484</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>75</v>
@@ -30736,25 +30789,22 @@
         <v>6411</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>218</v>
+        <v>235</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>287</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>6244</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>7221</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>75</v>
@@ -30774,10 +30824,10 @@
         <v>238</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>75</v>
@@ -30786,7 +30836,7 @@
         <v>6244</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>75</v>
@@ -30800,22 +30850,25 @@
         <v>6411</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>286</v>
+        <v>238</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>6244</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>7222</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>75</v>
@@ -30829,25 +30882,22 @@
         <v>6411</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>288</v>
+        <v>235</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>75</v>
       </c>
       <c r="H56" s="26" t="s">
         <v>6244</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>7223</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>75</v>
@@ -30867,10 +30917,10 @@
         <v>237</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>75</v>
@@ -30879,7 +30929,7 @@
         <v>6244</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>75</v>
@@ -30899,10 +30949,10 @@
         <v>237</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>75</v>
@@ -30911,7 +30961,7 @@
         <v>6244</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>75</v>
@@ -30925,22 +30975,25 @@
         <v>6411</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>298</v>
+        <v>237</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>290</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>295</v>
+        <v>75</v>
       </c>
       <c r="H59" s="26" t="s">
         <v>6244</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>7225</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>75</v>
@@ -30954,25 +31007,22 @@
         <v>6411</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>291</v>
+        <v>235</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H60" s="26" t="s">
         <v>6244</v>
-      </c>
-      <c r="I60" s="34" t="s">
-        <v>315</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>75</v>
@@ -30985,26 +31035,26 @@
       <c r="B61" s="25" t="s">
         <v>6411</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>6475</v>
+      <c r="C61" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>6468</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>6470</v>
+        <v>292</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>294</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>205</v>
+        <v>6244</v>
+      </c>
+      <c r="I61" s="34" t="s">
+        <v>315</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>75</v>
@@ -31017,17 +31067,17 @@
       <c r="B62" s="25" t="s">
         <v>6411</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="14" t="s">
+      <c r="C62" s="15" t="s">
         <v>6475</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>6469</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>76</v>
+      <c r="D62" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>6468</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>6470</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>75</v>
@@ -31035,11 +31085,8 @@
       <c r="H62" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="I62" s="32" t="s">
-        <v>6471</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>7219</v>
+      <c r="L62" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>75</v>
@@ -31059,10 +31106,10 @@
         <v>6475</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>6472</v>
+        <v>6469</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>75</v>
@@ -31071,10 +31118,10 @@
         <v>220</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>6473</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>7220</v>
+        <v>6471</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>7219</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>75</v>
@@ -31094,10 +31141,10 @@
         <v>6475</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>6493</v>
+        <v>6472</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>75</v>
@@ -31106,7 +31153,7 @@
         <v>220</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>6492</v>
+        <v>6473</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>7220</v>
@@ -31129,10 +31176,10 @@
         <v>6475</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>6490</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>6151</v>
+        <v>6493</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>75</v>
@@ -31141,22 +31188,57 @@
         <v>220</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>6474</v>
+        <v>6492</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>7220</v>
       </c>
       <c r="N65" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>6411</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>6475</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>6490</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>6151</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>6474</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>7220</v>
+      </c>
+      <c r="N66" s="10" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I64" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="I62" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="I63" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="I63" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="I65" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I63" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="I64" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="I64" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E53D0F8-3B08-4283-8B53-E633A1FC6D94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3DB5B-973F-4763-86C4-614334330882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18615" uniqueCount="7259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18610" uniqueCount="7254">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20245,50 +20245,6 @@
     <t>devtools</t>
   </si>
   <si>
-    <t>devtools</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>com.jeesite.modules.gen.web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.GenTableController</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.0.0</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码生成器、组件演示示例、API接口文档等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23224,10 +23180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sys:swagger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23289,6 +23241,10 @@
   </si>
   <si>
     <t>本部门数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24211,7 +24167,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6485</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -24528,7 +24484,7 @@
         <v>6330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6500</v>
+        <v>6495</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6232</v>
@@ -24572,7 +24528,7 @@
         <v>6330</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6499</v>
+        <v>6494</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6232</v>
@@ -24616,7 +24572,7 @@
         <v>6330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6498</v>
+        <v>6493</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6232</v>
@@ -24660,7 +24616,7 @@
         <v>6330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6497</v>
+        <v>6492</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6232</v>
@@ -24704,7 +24660,7 @@
         <v>6330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6496</v>
+        <v>6491</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6232</v>
@@ -24748,7 +24704,7 @@
         <v>6330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6495</v>
+        <v>6490</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6232</v>
@@ -24792,7 +24748,7 @@
         <v>6330</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6494</v>
+        <v>6489</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6232</v>
@@ -24836,7 +24792,7 @@
         <v>6330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6493</v>
+        <v>6488</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6232</v>
@@ -24880,7 +24836,7 @@
         <v>6330</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6492</v>
+        <v>6487</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6232</v>
@@ -25544,11 +25500,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25591,40 +25547,23 @@
         <v>29</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>7248</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>6410</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>6411</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6414</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>6412</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>6413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A3" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -25885,10 +25824,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>6457</v>
+        <v>6452</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>75</v>
@@ -25896,10 +25835,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>6418</v>
+        <v>6413</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6420</v>
+        <v>6415</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
@@ -25907,10 +25846,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6421</v>
+        <v>6416</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>75</v>
@@ -25963,8 +25902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -25994,7 +25933,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7228</v>
+        <v>7223</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -26015,7 +25954,7 @@
         <v>92</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7226</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -26359,10 +26298,10 @@
         <v>6394</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>7224</v>
+        <v>7219</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>7225</v>
+        <v>7220</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>6251</v>
@@ -26897,7 +26836,7 @@
         <v>55</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>6486</v>
+        <v>6481</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>78</v>
@@ -27310,7 +27249,7 @@
         <v>6138</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>7254</v>
+        <v>7248</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>75</v>
@@ -27336,7 +27275,7 @@
         <v>6138</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>7255</v>
+        <v>7249</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>89</v>
@@ -27362,7 +27301,7 @@
         <v>6138</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>7258</v>
+        <v>7252</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>127</v>
@@ -27388,7 +27327,7 @@
         <v>6138</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>7257</v>
+        <v>7251</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>328</v>
@@ -27414,7 +27353,7 @@
         <v>6138</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>7256</v>
+        <v>7250</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>329</v>
@@ -27547,7 +27486,7 @@
         <v>6160</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>6474</v>
+        <v>6469</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>76</v>
@@ -27570,10 +27509,10 @@
         <v>6161</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>6478</v>
+        <v>6473</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>6475</v>
+        <v>6470</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>77</v>
@@ -27596,10 +27535,10 @@
         <v>6161</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>6479</v>
+        <v>6474</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>6476</v>
+        <v>6471</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>6269</v>
@@ -27622,10 +27561,10 @@
         <v>6161</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>6480</v>
+        <v>6475</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>6477</v>
+        <v>6472</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>6149</v>
@@ -27651,7 +27590,7 @@
         <v>6154</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>6464</v>
+        <v>6459</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>76</v>
@@ -27677,7 +27616,7 @@
         <v>6155</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>6465</v>
+        <v>6460</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>77</v>
@@ -27749,7 +27688,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>6457</v>
+        <v>6452</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>142</v>
@@ -27775,7 +27714,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>6457</v>
+        <v>6452</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>318</v>
@@ -27801,10 +27740,10 @@
         <v>56</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>6457</v>
+        <v>6452</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>6459</v>
+        <v>6454</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>89</v>
@@ -27816,7 +27755,7 @@
         <v>55</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>6486</v>
+        <v>6481</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>78</v>
@@ -27830,10 +27769,10 @@
         <v>56</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>6457</v>
+        <v>6452</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>6460</v>
+        <v>6455</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>127</v>
@@ -27856,10 +27795,10 @@
         <v>56</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>6452</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>6457</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>6462</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>328</v>
@@ -27871,7 +27810,7 @@
         <v>55</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>6486</v>
+        <v>6481</v>
       </c>
       <c r="K71" s="14" t="s">
         <v>78</v>
@@ -27885,10 +27824,10 @@
         <v>56</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>6457</v>
+        <v>6452</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>6461</v>
+        <v>6456</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>329</v>
@@ -27911,13 +27850,13 @@
         <v>56</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6418</v>
+        <v>6413</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>6425</v>
+        <v>6420</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>6422</v>
+        <v>6417</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>76</v>
@@ -27937,13 +27876,13 @@
         <v>56</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>6413</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>6421</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>6418</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>6426</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>6423</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>77</v>
@@ -27963,13 +27902,13 @@
         <v>56</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6418</v>
+        <v>6413</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>6427</v>
+        <v>6422</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>6424</v>
+        <v>6419</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>83</v>
@@ -27989,13 +27928,13 @@
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>6433</v>
+        <v>6428</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>6428</v>
+        <v>6423</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>76</v>
@@ -28015,13 +27954,13 @@
         <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>6434</v>
+        <v>6429</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>6429</v>
+        <v>6424</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>77</v>
@@ -28041,13 +27980,13 @@
         <v>56</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>6435</v>
+        <v>6430</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>6430</v>
+        <v>6425</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>83</v>
@@ -28067,13 +28006,13 @@
         <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>6436</v>
+        <v>6431</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>6431</v>
+        <v>6426</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>6149</v>
@@ -28093,13 +28032,13 @@
         <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>6437</v>
+        <v>6432</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>6432</v>
+        <v>6427</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>6181</v>
@@ -28119,13 +28058,13 @@
         <v>56</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>6441</v>
+        <v>6436</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>6438</v>
+        <v>6433</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>6253</v>
@@ -28145,16 +28084,16 @@
         <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>6439</v>
+        <v>6434</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>6451</v>
+        <v>6446</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
@@ -28171,13 +28110,13 @@
         <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>6442</v>
+        <v>6437</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>6440</v>
+        <v>6435</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>221</v>
@@ -28197,16 +28136,16 @@
         <v>56</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D84" s="15" t="s">
+        <v>6442</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>6438</v>
+      </c>
+      <c r="F84" s="14" t="s">
         <v>6447</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>6443</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>6452</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
@@ -28223,16 +28162,16 @@
         <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D85" s="15" t="s">
+        <v>6443</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>6439</v>
+      </c>
+      <c r="F85" s="14" t="s">
         <v>6448</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>6444</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>6453</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
@@ -28249,16 +28188,16 @@
         <v>56</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D86" s="15" t="s">
+        <v>6444</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>6440</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>6449</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>6445</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>6454</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
@@ -28275,16 +28214,16 @@
         <v>56</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6419</v>
+        <v>6414</v>
       </c>
       <c r="D87" s="15" t="s">
+        <v>6445</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>6441</v>
+      </c>
+      <c r="F87" s="14" t="s">
         <v>6450</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>6446</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>6455</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
@@ -28437,7 +28376,7 @@
         <v>6182</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>7216</v>
+        <v>7211</v>
       </c>
       <c r="E93" s="14" t="s">
         <v>78</v>
@@ -28449,7 +28388,7 @@
         <v>75</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>6487</v>
+        <v>6482</v>
       </c>
       <c r="K93" s="14" t="s">
         <v>78</v>
@@ -28505,7 +28444,7 @@
         <v>6163</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>6486</v>
+        <v>6481</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>78</v>
@@ -28671,7 +28610,7 @@
         <v>55</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>6486</v>
+        <v>6481</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>78</v>
@@ -28995,7 +28934,7 @@
         <v>55</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>6486</v>
+        <v>6481</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>78</v>
@@ -29076,7 +29015,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7227</v>
+        <v>7222</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -29088,7 +29027,7 @@
         <v>6240</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7245</v>
+        <v>7240</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>279</v>
@@ -30323,7 +30262,7 @@
         <v>212</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>6416</v>
+        <v>6411</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>268</v>
@@ -30361,7 +30300,7 @@
         <v>6404</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>6501</v>
+        <v>6496</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>209</v>
@@ -30396,10 +30335,10 @@
         <v>6242</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>7246</v>
+        <v>7241</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>7244</v>
+        <v>7239</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>211</v>
@@ -30434,10 +30373,10 @@
         <v>220</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>7247</v>
+        <v>7242</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>6502</v>
+        <v>6497</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>6407</v>
@@ -30472,10 +30411,10 @@
         <v>6242</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>6456</v>
+        <v>6451</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>6503</v>
+        <v>6498</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>215</v>
@@ -30513,7 +30452,7 @@
         <v>272</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>6417</v>
+        <v>6412</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>267</v>
@@ -30536,10 +30475,10 @@
         <v>233</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>7253</v>
+        <v>7247</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>7250</v>
+        <v>7244</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>75</v>
@@ -30548,16 +30487,16 @@
         <v>220</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>7251</v>
+        <v>7245</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>7249</v>
+        <v>7243</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>191</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>7252</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -30568,16 +30507,16 @@
         <v>26</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>7229</v>
+        <v>7224</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>7230</v>
+        <v>7225</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>7234</v>
+        <v>7229</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>75</v>
@@ -30588,7 +30527,7 @@
       <c r="I44" s="15"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14" t="s">
-        <v>7243</v>
+        <v>7238</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>75</v>
@@ -30605,13 +30544,13 @@
         <v>80</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>7229</v>
+        <v>7224</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>7231</v>
+        <v>7226</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>7235</v>
+        <v>7230</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>75</v>
@@ -30620,10 +30559,10 @@
         <v>84</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>7238</v>
+        <v>7233</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>7241</v>
+        <v>7236</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>75</v>
@@ -30640,13 +30579,13 @@
         <v>80</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>7229</v>
+        <v>7224</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>7232</v>
+        <v>7227</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>7236</v>
+        <v>7231</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>75</v>
@@ -30655,10 +30594,10 @@
         <v>84</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>7239</v>
+        <v>7234</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>7241</v>
+        <v>7236</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>75</v>
@@ -30675,13 +30614,13 @@
         <v>80</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>7229</v>
+        <v>7224</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>7233</v>
+        <v>7228</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>7237</v>
+        <v>7232</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>75</v>
@@ -30690,10 +30629,10 @@
         <v>84</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>7240</v>
+        <v>7235</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>7242</v>
+        <v>7237</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>75</v>
@@ -30815,7 +30754,7 @@
         <v>236</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>6483</v>
+        <v>6478</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>225</v>
@@ -30827,7 +30766,7 @@
         <v>6242</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>6481</v>
+        <v>6476</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>354</v>
@@ -30850,7 +30789,7 @@
         <v>236</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>6484</v>
+        <v>6479</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>207</v>
@@ -30862,7 +30801,7 @@
         <v>6242</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>6482</v>
+        <v>6477</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>355</v>
@@ -30926,7 +30865,7 @@
         <v>6242</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>7219</v>
+        <v>7214</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>75</v>
@@ -30958,7 +30897,7 @@
         <v>6242</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>7220</v>
+        <v>7215</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>75</v>
@@ -31019,7 +30958,7 @@
         <v>6242</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>7221</v>
+        <v>7216</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>75</v>
@@ -31051,7 +30990,7 @@
         <v>6242</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>7222</v>
+        <v>7217</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>75</v>
@@ -31083,7 +31022,7 @@
         <v>6242</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>7223</v>
+        <v>7218</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>75</v>
@@ -31158,16 +31097,16 @@
         <v>6409</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>6473</v>
+        <v>6468</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>6466</v>
+        <v>6461</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>6468</v>
+        <v>6463</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>75</v>
@@ -31193,10 +31132,10 @@
         <v>80</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>6473</v>
+        <v>6468</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>6467</v>
+        <v>6462</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>76</v>
@@ -31208,10 +31147,10 @@
         <v>220</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>6469</v>
+        <v>6464</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>7217</v>
+        <v>7212</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>75</v>
@@ -31228,10 +31167,10 @@
         <v>80</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>6473</v>
+        <v>6468</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>6470</v>
+        <v>6465</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>83</v>
@@ -31243,10 +31182,10 @@
         <v>220</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>6471</v>
+        <v>6466</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>7218</v>
+        <v>7213</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>75</v>
@@ -31263,10 +31202,10 @@
         <v>80</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>6473</v>
+        <v>6468</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>6491</v>
+        <v>6486</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>77</v>
@@ -31278,10 +31217,10 @@
         <v>220</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>6490</v>
+        <v>6485</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>7218</v>
+        <v>7213</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>75</v>
@@ -31298,10 +31237,10 @@
         <v>80</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>6473</v>
+        <v>6468</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>6488</v>
+        <v>6483</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>6149</v>
@@ -31313,10 +31252,10 @@
         <v>220</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>6472</v>
+        <v>6467</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>7218</v>
+        <v>7213</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>75</v>
@@ -31520,7 +31459,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6415</v>
+        <v>6410</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -31555,7 +31494,7 @@
         <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6489</v>
+        <v>6484</v>
       </c>
     </row>
   </sheetData>
@@ -31610,7 +31549,7 @@
         <v>3201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7215</v>
+        <v>7210</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -32188,7 +32127,7 @@
         <v>3202</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6831</v>
+        <v>6826</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3203</v>
@@ -32434,16 +32373,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>6504</v>
+        <v>6499</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6504</v>
+        <v>6499</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6832</v>
+        <v>6827</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>3205</v>
@@ -32451,16 +32390,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>6505</v>
+        <v>6500</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3202</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6505</v>
+        <v>6500</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>6833</v>
+        <v>6828</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>3205</v>
@@ -32477,7 +32416,7 @@
         <v>3220</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6834</v>
+        <v>6829</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>3203</v>
@@ -32689,16 +32628,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>6506</v>
+        <v>6501</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6506</v>
+        <v>6501</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>6835</v>
+        <v>6830</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>3205</v>
@@ -32706,16 +32645,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>6507</v>
+        <v>6502</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6507</v>
+        <v>6502</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>6836</v>
+        <v>6831</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>3205</v>
@@ -32723,16 +32662,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>6508</v>
+        <v>6503</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6508</v>
+        <v>6503</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>6837</v>
+        <v>6832</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>3205</v>
@@ -32740,16 +32679,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>6509</v>
+        <v>6504</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6509</v>
+        <v>6504</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>6838</v>
+        <v>6833</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>3205</v>
@@ -33029,16 +32968,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>6510</v>
+        <v>6505</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6510</v>
+        <v>6505</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>6839</v>
+        <v>6834</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>3205</v>
@@ -33046,16 +32985,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>6511</v>
+        <v>6506</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6511</v>
+        <v>6506</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>6840</v>
+        <v>6835</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>3205</v>
@@ -33063,16 +33002,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>6512</v>
+        <v>6507</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6512</v>
+        <v>6507</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>6841</v>
+        <v>6836</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>3205</v>
@@ -33259,7 +33198,7 @@
         <v>3250</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>6842</v>
+        <v>6837</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>3205</v>
@@ -33420,16 +33359,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>6513</v>
+        <v>6508</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3254</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6513</v>
+        <v>6508</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>6843</v>
+        <v>6838</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>3205</v>
@@ -33446,7 +33385,7 @@
         <v>3261</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>6844</v>
+        <v>6839</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>3205</v>
@@ -33607,16 +33546,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>6514</v>
+        <v>6509</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>3268</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>6514</v>
+        <v>6509</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>6845</v>
+        <v>6840</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>3205</v>
@@ -33743,16 +33682,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>6515</v>
+        <v>6510</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>3275</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6515</v>
+        <v>6510</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>6846</v>
+        <v>6841</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>3205</v>
@@ -33760,16 +33699,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>6516</v>
+        <v>6511</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3275</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6516</v>
+        <v>6511</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>6847</v>
+        <v>6842</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>3205</v>
@@ -33837,7 +33776,7 @@
         <v>3283</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>6848</v>
+        <v>6843</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>3205</v>
@@ -33854,7 +33793,7 @@
         <v>3284</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>6849</v>
+        <v>6844</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>3205</v>
@@ -33871,7 +33810,7 @@
         <v>3285</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>6850</v>
+        <v>6845</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>3205</v>
@@ -33939,7 +33878,7 @@
         <v>3289</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>6851</v>
+        <v>6846</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>3205</v>
@@ -34109,7 +34048,7 @@
         <v>3300</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>6852</v>
+        <v>6847</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>3205</v>
@@ -34228,7 +34167,7 @@
         <v>3307</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>6853</v>
+        <v>6848</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>3205</v>
@@ -34313,7 +34252,7 @@
         <v>3313</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>6854</v>
+        <v>6849</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>3205</v>
@@ -34321,16 +34260,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>6517</v>
+        <v>6512</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>6517</v>
+        <v>6512</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>6855</v>
+        <v>6850</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>3205</v>
@@ -34338,16 +34277,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>6518</v>
+        <v>6513</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>6518</v>
+        <v>6513</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>6856</v>
+        <v>6851</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>3205</v>
@@ -34355,16 +34294,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>6519</v>
+        <v>6514</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>6519</v>
+        <v>6514</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>6857</v>
+        <v>6852</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>3205</v>
@@ -34372,16 +34311,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>6520</v>
+        <v>6515</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>6520</v>
+        <v>6515</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>6858</v>
+        <v>6853</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>3205</v>
@@ -34449,7 +34388,7 @@
         <v>3317</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>6859</v>
+        <v>6854</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>3205</v>
@@ -34551,7 +34490,7 @@
         <v>3323</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>6860</v>
+        <v>6855</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>3205</v>
@@ -34585,7 +34524,7 @@
         <v>3325</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>6861</v>
+        <v>6856</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>3205</v>
@@ -34636,7 +34575,7 @@
         <v>3328</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>6862</v>
+        <v>6857</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>3205</v>
@@ -34780,16 +34719,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>6521</v>
+        <v>6516</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3333</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>6521</v>
+        <v>6516</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>6863</v>
+        <v>6858</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>3205</v>
@@ -34797,16 +34736,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>6522</v>
+        <v>6517</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3333</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>6522</v>
+        <v>6517</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>6864</v>
+        <v>6859</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>3205</v>
@@ -34891,7 +34830,7 @@
         <v>3342</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>6865</v>
+        <v>6860</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>3205</v>
@@ -35154,16 +35093,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>6523</v>
+        <v>6518</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3348</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>6523</v>
+        <v>6518</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>6866</v>
+        <v>6861</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>3205</v>
@@ -35214,7 +35153,7 @@
         <v>3362</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>6867</v>
+        <v>6862</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>3205</v>
@@ -35231,7 +35170,7 @@
         <v>3363</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>6868</v>
+        <v>6863</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>3205</v>
@@ -35350,7 +35289,7 @@
         <v>3370</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>6869</v>
+        <v>6864</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>3205</v>
@@ -35630,16 +35569,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>6524</v>
+        <v>6519</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>3387</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>6524</v>
+        <v>6519</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>6870</v>
+        <v>6865</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>3205</v>
@@ -35758,7 +35697,7 @@
         <v>3395</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>6871</v>
+        <v>6866</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>3205</v>
@@ -36166,7 +36105,7 @@
         <v>3411</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>6872</v>
+        <v>6867</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>3205</v>
@@ -36183,7 +36122,7 @@
         <v>3412</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>6873</v>
+        <v>6868</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>3205</v>
@@ -36353,7 +36292,7 @@
         <v>3423</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>6872</v>
+        <v>6867</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>3205</v>
@@ -36370,7 +36309,7 @@
         <v>3424</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>6873</v>
+        <v>6868</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>3205</v>
@@ -36387,7 +36326,7 @@
         <v>3425</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>6874</v>
+        <v>6869</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>3205</v>
@@ -36421,7 +36360,7 @@
         <v>3427</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>6875</v>
+        <v>6870</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>3205</v>
@@ -36438,7 +36377,7 @@
         <v>3429</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>6872</v>
+        <v>6867</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>3205</v>
@@ -36455,7 +36394,7 @@
         <v>3430</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>6874</v>
+        <v>6869</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>3205</v>
@@ -36608,7 +36547,7 @@
         <v>3439</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>6876</v>
+        <v>6871</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>3205</v>
@@ -36659,7 +36598,7 @@
         <v>3443</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>6872</v>
+        <v>6867</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>3205</v>
@@ -36812,7 +36751,7 @@
         <v>3453</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>6877</v>
+        <v>6872</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>3205</v>
@@ -36982,7 +36921,7 @@
         <v>3464</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>6878</v>
+        <v>6873</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>3205</v>
@@ -37152,7 +37091,7 @@
         <v>3475</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>6879</v>
+        <v>6874</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>3205</v>
@@ -37186,7 +37125,7 @@
         <v>3477</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>6880</v>
+        <v>6875</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>3205</v>
@@ -37322,7 +37261,7 @@
         <v>3486</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>6881</v>
+        <v>6876</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>3205</v>
@@ -37594,7 +37533,7 @@
         <v>3503</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>6882</v>
+        <v>6877</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>3205</v>
@@ -37645,7 +37584,7 @@
         <v>3506</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>6883</v>
+        <v>6878</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>3205</v>
@@ -37696,7 +37635,7 @@
         <v>3509</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>6884</v>
+        <v>6879</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>3205</v>
@@ -37730,7 +37669,7 @@
         <v>3511</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>6885</v>
+        <v>6880</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>3205</v>
@@ -37849,7 +37788,7 @@
         <v>3519</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>6886</v>
+        <v>6881</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>3205</v>
@@ -37866,7 +37805,7 @@
         <v>3520</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>6887</v>
+        <v>6882</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>3205</v>
@@ -37917,7 +37856,7 @@
         <v>3523</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>6888</v>
+        <v>6883</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>3205</v>
@@ -38444,7 +38383,7 @@
         <v>3545</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>6889</v>
+        <v>6884</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>3205</v>
@@ -38928,16 +38867,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>6525</v>
+        <v>6520</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>3576</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>6525</v>
+        <v>6520</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>6890</v>
+        <v>6885</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>3205</v>
@@ -39081,16 +39020,16 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>6526</v>
+        <v>6521</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>3585</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>6526</v>
+        <v>6521</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>6891</v>
+        <v>6886</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>3205</v>
@@ -39115,16 +39054,16 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>6527</v>
+        <v>6522</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>3585</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>6527</v>
+        <v>6522</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>6892</v>
+        <v>6887</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>3205</v>
@@ -40314,7 +40253,7 @@
         <v>3650</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>6893</v>
+        <v>6888</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>3205</v>
@@ -40331,7 +40270,7 @@
         <v>3651</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>6894</v>
+        <v>6889</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>3205</v>
@@ -40356,16 +40295,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
-        <v>6528</v>
+        <v>6523</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>3643</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>6528</v>
+        <v>6523</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>6895</v>
+        <v>6890</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>3205</v>
@@ -40526,16 +40465,16 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
-        <v>6529</v>
+        <v>6524</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>3656</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>6529</v>
+        <v>6524</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>6896</v>
+        <v>6891</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>3205</v>
@@ -41113,7 +41052,7 @@
         <v>3701</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>6897</v>
+        <v>6892</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>3205</v>
@@ -41147,7 +41086,7 @@
         <v>3703</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>6898</v>
+        <v>6893</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>3205</v>
@@ -41529,16 +41468,16 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
-        <v>6530</v>
+        <v>6525</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>3727</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>6530</v>
+        <v>6525</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>6899</v>
+        <v>6894</v>
       </c>
       <c r="E586" s="1" t="s">
         <v>3205</v>
@@ -41750,16 +41689,16 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" s="1" t="s">
-        <v>6531</v>
+        <v>6526</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>3739</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>6531</v>
+        <v>6526</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>6900</v>
+        <v>6895</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>3205</v>
@@ -42158,16 +42097,16 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A623" s="1" t="s">
-        <v>6532</v>
+        <v>6527</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>3754</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>6532</v>
+        <v>6527</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>6901</v>
+        <v>6896</v>
       </c>
       <c r="E623" s="1" t="s">
         <v>3205</v>
@@ -42677,7 +42616,7 @@
         <v>3795</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>6902</v>
+        <v>6897</v>
       </c>
       <c r="E653" s="1" t="s">
         <v>3205</v>
@@ -42685,16 +42624,16 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A654" s="1" t="s">
-        <v>6533</v>
+        <v>6528</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>3794</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>6533</v>
+        <v>6528</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>6903</v>
+        <v>6898</v>
       </c>
       <c r="E654" s="1" t="s">
         <v>3205</v>
@@ -42787,16 +42726,16 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A660" s="1" t="s">
-        <v>6534</v>
+        <v>6529</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>3800</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>6534</v>
+        <v>6529</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>6904</v>
+        <v>6899</v>
       </c>
       <c r="E660" s="1" t="s">
         <v>3205</v>
@@ -42838,16 +42777,16 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A663" s="1" t="s">
-        <v>6535</v>
+        <v>6530</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>3800</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>6535</v>
+        <v>6530</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>6905</v>
+        <v>6900</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>3205</v>
@@ -43382,13 +43321,13 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A695" s="1" t="s">
-        <v>6536</v>
+        <v>6531</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>3820</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>6536</v>
+        <v>6531</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>937</v>
@@ -43416,16 +43355,16 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A697" s="1" t="s">
-        <v>6537</v>
+        <v>6532</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>3820</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>6537</v>
+        <v>6532</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>6906</v>
+        <v>6901</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>3205</v>
@@ -43433,16 +43372,16 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A698" s="1" t="s">
-        <v>6538</v>
+        <v>6533</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>3820</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>6538</v>
+        <v>6533</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>6907</v>
+        <v>6902</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>3205</v>
@@ -43493,7 +43432,7 @@
         <v>3829</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>6908</v>
+        <v>6903</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>3205</v>
@@ -44802,7 +44741,7 @@
         <v>3913</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>6874</v>
+        <v>6869</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>3205</v>
@@ -44895,16 +44834,16 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
-        <v>6539</v>
+        <v>6534</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>3909</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>6539</v>
+        <v>6534</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>6909</v>
+        <v>6904</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>3205</v>
@@ -45133,16 +45072,16 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
-        <v>6540</v>
+        <v>6535</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>3924</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>6540</v>
+        <v>6535</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>6910</v>
+        <v>6905</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>3205</v>
@@ -45422,16 +45361,16 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
-        <v>6541</v>
+        <v>6536</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>3952</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>6541</v>
+        <v>6536</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>6911</v>
+        <v>6906</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>3205</v>
@@ -45499,7 +45438,7 @@
         <v>3957</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>6912</v>
+        <v>6907</v>
       </c>
       <c r="E819" s="1" t="s">
         <v>3203</v>
@@ -45762,16 +45701,16 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
-        <v>6542</v>
+        <v>6537</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>3957</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>6542</v>
+        <v>6537</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>6913</v>
+        <v>6908</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>3205</v>
@@ -46153,16 +46092,16 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
-        <v>6543</v>
+        <v>6538</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>3974</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>6543</v>
+        <v>6538</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>6914</v>
+        <v>6909</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>3205</v>
@@ -46170,16 +46109,16 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>3974</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>6544</v>
+        <v>6539</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>6915</v>
+        <v>6910</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>3205</v>
@@ -46238,16 +46177,16 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
-        <v>6545</v>
+        <v>6540</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>3984</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>6545</v>
+        <v>6540</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>6916</v>
+        <v>6911</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>3205</v>
@@ -46255,16 +46194,16 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
-        <v>6546</v>
+        <v>6541</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>3984</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>6546</v>
+        <v>6541</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>6917</v>
+        <v>6912</v>
       </c>
       <c r="E864" s="1" t="s">
         <v>3205</v>
@@ -46374,16 +46313,16 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
-        <v>6547</v>
+        <v>6542</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>3990</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>6547</v>
+        <v>6542</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>6918</v>
+        <v>6913</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>3205</v>
@@ -46400,7 +46339,7 @@
         <v>3995</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>6919</v>
+        <v>6914</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>3205</v>
@@ -46417,7 +46356,7 @@
         <v>3996</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>6920</v>
+        <v>6915</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>3205</v>
@@ -46544,16 +46483,16 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A881" s="1" t="s">
-        <v>6548</v>
+        <v>6543</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>4000</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>6548</v>
+        <v>6543</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>6921</v>
+        <v>6916</v>
       </c>
       <c r="E881" s="1" t="s">
         <v>3205</v>
@@ -46629,16 +46568,16 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A886" s="1" t="s">
-        <v>6549</v>
+        <v>6544</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>4006</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>6549</v>
+        <v>6544</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>6922</v>
+        <v>6917</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>3205</v>
@@ -46646,16 +46585,16 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A887" s="1" t="s">
-        <v>6550</v>
+        <v>6545</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>4006</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>6550</v>
+        <v>6545</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>6923</v>
+        <v>6918</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>3205</v>
@@ -46765,13 +46704,13 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A894" s="1" t="s">
-        <v>6551</v>
+        <v>6546</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>4014</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>6551</v>
+        <v>6546</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>381</v>
@@ -46901,16 +46840,16 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A902" s="1" t="s">
-        <v>6552</v>
+        <v>6547</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>4022</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>6552</v>
+        <v>6547</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>6924</v>
+        <v>6919</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>3205</v>
@@ -46978,7 +46917,7 @@
         <v>4029</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>6925</v>
+        <v>6920</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>3205</v>
@@ -47003,16 +46942,16 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A908" s="1" t="s">
-        <v>6553</v>
+        <v>6548</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>4028</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>6553</v>
+        <v>6548</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>6926</v>
+        <v>6921</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>3205</v>
@@ -47020,16 +46959,16 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A909" s="1" t="s">
-        <v>6554</v>
+        <v>6549</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>4028</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>6554</v>
+        <v>6549</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>6927</v>
+        <v>6922</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>3205</v>
@@ -47122,16 +47061,16 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A915" s="1" t="s">
-        <v>6555</v>
+        <v>6550</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>4034</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>6555</v>
+        <v>6550</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>6928</v>
+        <v>6923</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>3205</v>
@@ -47275,16 +47214,16 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A924" s="1" t="s">
-        <v>6556</v>
+        <v>6551</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>4043</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>6556</v>
+        <v>6551</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>6929</v>
+        <v>6924</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>3205</v>
@@ -47479,16 +47418,16 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A936" s="1" t="s">
-        <v>6557</v>
+        <v>6552</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>4056</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>6557</v>
+        <v>6552</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>6930</v>
+        <v>6925</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>3205</v>
@@ -47955,16 +47894,16 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A964" s="1" t="s">
-        <v>6558</v>
+        <v>6553</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>4069</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>6558</v>
+        <v>6553</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>6931</v>
+        <v>6926</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>3205</v>
@@ -48032,7 +47971,7 @@
         <v>4081</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>6932</v>
+        <v>6927</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>3205</v>
@@ -48125,16 +48064,16 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A974" s="1" t="s">
-        <v>6559</v>
+        <v>6554</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>4082</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>6559</v>
+        <v>6554</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>6933</v>
+        <v>6928</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>3205</v>
@@ -48261,16 +48200,16 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A982" s="1" t="s">
-        <v>6560</v>
+        <v>6555</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>4092</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>6560</v>
+        <v>6555</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>6934</v>
+        <v>6929</v>
       </c>
       <c r="E982" s="1" t="s">
         <v>3205</v>
@@ -48406,7 +48345,7 @@
         <v>4104</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>6935</v>
+        <v>6930</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>3205</v>
@@ -48618,16 +48557,16 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1003" s="1" t="s">
-        <v>6561</v>
+        <v>6556</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>4117</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>6561</v>
+        <v>6556</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>6936</v>
+        <v>6931</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>3205</v>
@@ -48635,16 +48574,16 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1004" s="1" t="s">
-        <v>6562</v>
+        <v>6557</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>4117</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>6562</v>
+        <v>6557</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>6937</v>
+        <v>6932</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>3205</v>
@@ -49162,16 +49101,16 @@
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1035" s="1" t="s">
-        <v>6563</v>
+        <v>6558</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>4144</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>6563</v>
+        <v>6558</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>6938</v>
+        <v>6933</v>
       </c>
       <c r="E1035" s="1" t="s">
         <v>3205</v>
@@ -49723,13 +49662,13 @@
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1068" s="1" t="s">
-        <v>6564</v>
+        <v>6559</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>4164</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>6564</v>
+        <v>6559</v>
       </c>
       <c r="D1068" s="1" t="s">
         <v>1342</v>
@@ -49740,13 +49679,13 @@
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1069" s="1" t="s">
-        <v>6565</v>
+        <v>6560</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>4164</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>6565</v>
+        <v>6560</v>
       </c>
       <c r="D1069" s="1" t="s">
         <v>1341</v>
@@ -49783,7 +49722,7 @@
         <v>4174</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>6939</v>
+        <v>6934</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>3205</v>
@@ -49808,16 +49747,16 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1073" s="1" t="s">
-        <v>6566</v>
+        <v>6561</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>4172</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>6566</v>
+        <v>6561</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>6940</v>
+        <v>6935</v>
       </c>
       <c r="E1073" s="1" t="s">
         <v>3205</v>
@@ -49876,13 +49815,13 @@
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1077" s="1" t="s">
-        <v>6567</v>
+        <v>6562</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>4172</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>6567</v>
+        <v>6562</v>
       </c>
       <c r="D1077" s="1" t="s">
         <v>1343</v>
@@ -50114,16 +50053,16 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1091" s="1" t="s">
-        <v>6568</v>
+        <v>6563</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>4187</v>
       </c>
       <c r="C1091" s="1" t="s">
-        <v>6568</v>
+        <v>6563</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>6941</v>
+        <v>6936</v>
       </c>
       <c r="E1091" s="1" t="s">
         <v>3205</v>
@@ -50165,16 +50104,16 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1094" s="1" t="s">
-        <v>6569</v>
+        <v>6564</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>4194</v>
       </c>
       <c r="C1094" s="1" t="s">
-        <v>6569</v>
+        <v>6564</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>6942</v>
+        <v>6937</v>
       </c>
       <c r="E1094" s="1" t="s">
         <v>3205</v>
@@ -50199,13 +50138,13 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1096" s="1" t="s">
-        <v>6570</v>
+        <v>6565</v>
       </c>
       <c r="B1096" s="1" t="s">
         <v>4194</v>
       </c>
       <c r="C1096" s="1" t="s">
-        <v>6570</v>
+        <v>6565</v>
       </c>
       <c r="D1096" s="1" t="s">
         <v>1344</v>
@@ -50216,16 +50155,16 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1097" s="1" t="s">
-        <v>6571</v>
+        <v>6566</v>
       </c>
       <c r="B1097" s="1" t="s">
         <v>4194</v>
       </c>
       <c r="C1097" s="1" t="s">
-        <v>6571</v>
+        <v>6566</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>6943</v>
+        <v>6938</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>3205</v>
@@ -50301,16 +50240,16 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1102" s="1" t="s">
-        <v>6572</v>
+        <v>6567</v>
       </c>
       <c r="B1102" s="1" t="s">
         <v>4203</v>
       </c>
       <c r="C1102" s="1" t="s">
-        <v>6572</v>
+        <v>6567</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>6944</v>
+        <v>6939</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>3205</v>
@@ -50318,16 +50257,16 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1103" s="1" t="s">
-        <v>6573</v>
+        <v>6568</v>
       </c>
       <c r="B1103" s="1" t="s">
         <v>4203</v>
       </c>
       <c r="C1103" s="1" t="s">
-        <v>6573</v>
+        <v>6568</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>6945</v>
+        <v>6940</v>
       </c>
       <c r="E1103" s="1" t="s">
         <v>3205</v>
@@ -50344,7 +50283,7 @@
         <v>4204</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>6874</v>
+        <v>6869</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>3205</v>
@@ -50352,13 +50291,13 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1105" s="1" t="s">
-        <v>6574</v>
+        <v>6569</v>
       </c>
       <c r="B1105" s="1" t="s">
         <v>4203</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>6574</v>
+        <v>6569</v>
       </c>
       <c r="D1105" s="1" t="s">
         <v>1307</v>
@@ -50412,7 +50351,7 @@
         <v>4208</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>6946</v>
+        <v>6941</v>
       </c>
       <c r="E1108" s="1" t="s">
         <v>3205</v>
@@ -50599,7 +50538,7 @@
         <v>4220</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>6947</v>
+        <v>6942</v>
       </c>
       <c r="E1119" s="1" t="s">
         <v>3205</v>
@@ -50633,7 +50572,7 @@
         <v>4222</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>6948</v>
+        <v>6943</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>3205</v>
@@ -50939,7 +50878,7 @@
         <v>4243</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>6949</v>
+        <v>6944</v>
       </c>
       <c r="E1139" s="1" t="s">
         <v>3205</v>
@@ -50973,7 +50912,7 @@
         <v>4245</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>6950</v>
+        <v>6945</v>
       </c>
       <c r="E1141" s="1" t="s">
         <v>3205</v>
@@ -51007,7 +50946,7 @@
         <v>4247</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>6951</v>
+        <v>6946</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>3205</v>
@@ -51049,16 +50988,16 @@
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1146" s="1" t="s">
-        <v>6575</v>
+        <v>6570</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>4248</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>6575</v>
+        <v>6570</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>6952</v>
+        <v>6947</v>
       </c>
       <c r="E1146" s="1" t="s">
         <v>3205</v>
@@ -51330,7 +51269,7 @@
         <v>4269</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>6953</v>
+        <v>6948</v>
       </c>
       <c r="E1162" s="1" t="s">
         <v>3205</v>
@@ -51755,7 +51694,7 @@
         <v>4287</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>6954</v>
+        <v>6949</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>3205</v>
@@ -52078,7 +52017,7 @@
         <v>4309</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>6955</v>
+        <v>6950</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>3205</v>
@@ -52562,16 +52501,16 @@
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1235" s="1" t="s">
-        <v>6576</v>
+        <v>6571</v>
       </c>
       <c r="B1235" s="1" t="s">
         <v>4339</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>6576</v>
+        <v>6571</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>6956</v>
+        <v>6951</v>
       </c>
       <c r="E1235" s="1" t="s">
         <v>3205</v>
@@ -52732,13 +52671,13 @@
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1245" s="1" t="s">
-        <v>6577</v>
+        <v>6572</v>
       </c>
       <c r="B1245" s="1" t="s">
         <v>4349</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>6577</v>
+        <v>6572</v>
       </c>
       <c r="D1245" s="1" t="s">
         <v>2032</v>
@@ -53259,16 +53198,16 @@
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1276" s="1" t="s">
-        <v>6578</v>
+        <v>6573</v>
       </c>
       <c r="B1276" s="1" t="s">
         <v>4367</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>6578</v>
+        <v>6573</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>6957</v>
+        <v>6952</v>
       </c>
       <c r="E1276" s="1" t="s">
         <v>3205</v>
@@ -53489,7 +53428,7 @@
         <v>4388</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>6958</v>
+        <v>6953</v>
       </c>
       <c r="E1289" s="1" t="s">
         <v>3205</v>
@@ -53523,7 +53462,7 @@
         <v>4390</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>6959</v>
+        <v>6954</v>
       </c>
       <c r="E1291" s="1" t="s">
         <v>3205</v>
@@ -53667,16 +53606,16 @@
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1300" s="1" t="s">
-        <v>6579</v>
+        <v>6574</v>
       </c>
       <c r="B1300" s="1" t="s">
         <v>4387</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>6579</v>
+        <v>6574</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>6960</v>
+        <v>6955</v>
       </c>
       <c r="E1300" s="1" t="s">
         <v>3205</v>
@@ -53684,16 +53623,16 @@
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1301" s="1" t="s">
-        <v>6580</v>
+        <v>6575</v>
       </c>
       <c r="B1301" s="1" t="s">
         <v>4387</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>6580</v>
+        <v>6575</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>6961</v>
+        <v>6956</v>
       </c>
       <c r="E1301" s="1" t="s">
         <v>3205</v>
@@ -53803,16 +53742,16 @@
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1308" s="1" t="s">
-        <v>6581</v>
+        <v>6576</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>4406</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>6581</v>
+        <v>6576</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>6962</v>
+        <v>6957</v>
       </c>
       <c r="E1308" s="1" t="s">
         <v>3205</v>
@@ -53820,16 +53759,16 @@
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1309" s="1" t="s">
-        <v>6582</v>
+        <v>6577</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>4406</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>6582</v>
+        <v>6577</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>6963</v>
+        <v>6958</v>
       </c>
       <c r="E1309" s="1" t="s">
         <v>3205</v>
@@ -54500,16 +54439,16 @@
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1349" s="1" t="s">
-        <v>6583</v>
+        <v>6578</v>
       </c>
       <c r="B1349" s="1" t="s">
         <v>4448</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>6583</v>
+        <v>6578</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>6964</v>
+        <v>6959</v>
       </c>
       <c r="E1349" s="1" t="s">
         <v>3205</v>
@@ -54687,16 +54626,16 @@
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1360" s="1" t="s">
-        <v>6584</v>
+        <v>6579</v>
       </c>
       <c r="B1360" s="1" t="s">
         <v>4459</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>6584</v>
+        <v>6579</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>6965</v>
+        <v>6960</v>
       </c>
       <c r="E1360" s="1" t="s">
         <v>3205</v>
@@ -54713,7 +54652,7 @@
         <v>4461</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>6966</v>
+        <v>6961</v>
       </c>
       <c r="E1361" s="1" t="s">
         <v>3205</v>
@@ -55265,16 +55204,16 @@
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1394" s="1" t="s">
-        <v>6585</v>
+        <v>6580</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>4472</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>6585</v>
+        <v>6580</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>6967</v>
+        <v>6962</v>
       </c>
       <c r="E1394" s="1" t="s">
         <v>3205</v>
@@ -55461,7 +55400,7 @@
         <v>4490</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>6968</v>
+        <v>6963</v>
       </c>
       <c r="E1405" s="1" t="s">
         <v>3205</v>
@@ -55775,16 +55714,16 @@
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1424" s="1" t="s">
-        <v>6586</v>
+        <v>6581</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>4509</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>6586</v>
+        <v>6581</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>6969</v>
+        <v>6964</v>
       </c>
       <c r="E1424" s="1" t="s">
         <v>3205</v>
@@ -56251,16 +56190,16 @@
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1452" s="1" t="s">
-        <v>6587</v>
+        <v>6582</v>
       </c>
       <c r="B1452" s="1" t="s">
         <v>4540</v>
       </c>
       <c r="C1452" s="1" t="s">
-        <v>6587</v>
+        <v>6582</v>
       </c>
       <c r="D1452" s="1" t="s">
-        <v>6970</v>
+        <v>6965</v>
       </c>
       <c r="E1452" s="1" t="s">
         <v>3205</v>
@@ -56421,16 +56360,16 @@
     </row>
     <row r="1462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1462" s="1" t="s">
-        <v>6588</v>
+        <v>6583</v>
       </c>
       <c r="B1462" s="1" t="s">
         <v>4551</v>
       </c>
       <c r="C1462" s="1" t="s">
-        <v>6588</v>
+        <v>6583</v>
       </c>
       <c r="D1462" s="1" t="s">
-        <v>6971</v>
+        <v>6966</v>
       </c>
       <c r="E1462" s="1" t="s">
         <v>3205</v>
@@ -56438,13 +56377,13 @@
     </row>
     <row r="1463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1463" s="1" t="s">
-        <v>6589</v>
+        <v>6584</v>
       </c>
       <c r="B1463" s="1" t="s">
         <v>4551</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>6589</v>
+        <v>6584</v>
       </c>
       <c r="D1463" s="1" t="s">
         <v>1639</v>
@@ -56540,16 +56479,16 @@
     </row>
     <row r="1469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1469" s="1" t="s">
-        <v>6590</v>
+        <v>6585</v>
       </c>
       <c r="B1469" s="1" t="s">
         <v>4556</v>
       </c>
       <c r="C1469" s="1" t="s">
-        <v>6590</v>
+        <v>6585</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>6972</v>
+        <v>6967</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>3205</v>
@@ -56651,7 +56590,7 @@
         <v>4564</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>6973</v>
+        <v>6968</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>3205</v>
@@ -56804,7 +56743,7 @@
         <v>4575</v>
       </c>
       <c r="D1484" s="1" t="s">
-        <v>6974</v>
+        <v>6969</v>
       </c>
       <c r="E1484" s="1" t="s">
         <v>3205</v>
@@ -56821,7 +56760,7 @@
         <v>4576</v>
       </c>
       <c r="D1485" s="1" t="s">
-        <v>6975</v>
+        <v>6970</v>
       </c>
       <c r="E1485" s="1" t="s">
         <v>3205</v>
@@ -56914,16 +56853,16 @@
     </row>
     <row r="1491" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1491" s="1" t="s">
-        <v>6591</v>
+        <v>6586</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4581</v>
       </c>
       <c r="C1491" s="1" t="s">
-        <v>6591</v>
+        <v>6586</v>
       </c>
       <c r="D1491" s="1" t="s">
-        <v>6976</v>
+        <v>6971</v>
       </c>
       <c r="E1491" s="1" t="s">
         <v>3205</v>
@@ -57127,7 +57066,7 @@
         <v>4595</v>
       </c>
       <c r="D1503" s="1" t="s">
-        <v>6977</v>
+        <v>6972</v>
       </c>
       <c r="E1503" s="1" t="s">
         <v>3205</v>
@@ -57178,7 +57117,7 @@
         <v>4598</v>
       </c>
       <c r="D1506" s="1" t="s">
-        <v>6978</v>
+        <v>6973</v>
       </c>
       <c r="E1506" s="1" t="s">
         <v>3205</v>
@@ -57237,16 +57176,16 @@
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1510" s="1" t="s">
-        <v>6592</v>
+        <v>6587</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4601</v>
       </c>
       <c r="C1510" s="1" t="s">
-        <v>6592</v>
+        <v>6587</v>
       </c>
       <c r="D1510" s="1" t="s">
-        <v>6979</v>
+        <v>6974</v>
       </c>
       <c r="E1510" s="1" t="s">
         <v>3205</v>
@@ -57356,16 +57295,16 @@
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1517" s="1" t="s">
-        <v>6593</v>
+        <v>6588</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4608</v>
       </c>
       <c r="C1517" s="1" t="s">
-        <v>6593</v>
+        <v>6588</v>
       </c>
       <c r="D1517" s="1" t="s">
-        <v>6980</v>
+        <v>6975</v>
       </c>
       <c r="E1517" s="1" t="s">
         <v>3205</v>
@@ -57382,7 +57321,7 @@
         <v>4610</v>
       </c>
       <c r="D1518" s="1" t="s">
-        <v>6981</v>
+        <v>6976</v>
       </c>
       <c r="E1518" s="1" t="s">
         <v>3205</v>
@@ -57399,7 +57338,7 @@
         <v>4611</v>
       </c>
       <c r="D1519" s="1" t="s">
-        <v>6982</v>
+        <v>6977</v>
       </c>
       <c r="E1519" s="1" t="s">
         <v>3205</v>
@@ -57781,13 +57720,13 @@
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1542" s="1" t="s">
-        <v>6598</v>
+        <v>6593</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4617</v>
       </c>
       <c r="C1542" s="1" t="s">
-        <v>6598</v>
+        <v>6593</v>
       </c>
       <c r="D1542" s="1" t="s">
         <v>1772</v>
@@ -57892,7 +57831,7 @@
         <v>4624</v>
       </c>
       <c r="D1548" s="1" t="s">
-        <v>6983</v>
+        <v>6978</v>
       </c>
       <c r="E1548" s="1" t="s">
         <v>3205</v>
@@ -58062,7 +58001,7 @@
         <v>4635</v>
       </c>
       <c r="D1558" s="1" t="s">
-        <v>6984</v>
+        <v>6979</v>
       </c>
       <c r="E1558" s="1" t="s">
         <v>3205</v>
@@ -58070,16 +58009,16 @@
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1559" s="1" t="s">
-        <v>6594</v>
+        <v>6589</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4631</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>6594</v>
+        <v>6589</v>
       </c>
       <c r="D1559" s="1" t="s">
-        <v>6985</v>
+        <v>6980</v>
       </c>
       <c r="E1559" s="1" t="s">
         <v>3205</v>
@@ -58096,7 +58035,7 @@
         <v>4636</v>
       </c>
       <c r="D1560" s="1" t="s">
-        <v>6986</v>
+        <v>6981</v>
       </c>
       <c r="E1560" s="1" t="s">
         <v>3205</v>
@@ -58198,7 +58137,7 @@
         <v>4643</v>
       </c>
       <c r="D1566" s="1" t="s">
-        <v>6987</v>
+        <v>6982</v>
       </c>
       <c r="E1566" s="1" t="s">
         <v>3205</v>
@@ -58240,13 +58179,13 @@
     </row>
     <row r="1569" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1569" s="1" t="s">
-        <v>6595</v>
+        <v>6590</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4640</v>
       </c>
       <c r="C1569" s="1" t="s">
-        <v>6595</v>
+        <v>6590</v>
       </c>
       <c r="D1569" s="1" t="s">
         <v>1721</v>
@@ -58317,7 +58256,7 @@
         <v>4649</v>
       </c>
       <c r="D1573" s="1" t="s">
-        <v>6988</v>
+        <v>6983</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>3205</v>
@@ -58504,7 +58443,7 @@
         <v>4661</v>
       </c>
       <c r="D1584" s="1" t="s">
-        <v>6989</v>
+        <v>6984</v>
       </c>
       <c r="E1584" s="1" t="s">
         <v>3205</v>
@@ -58538,7 +58477,7 @@
         <v>4663</v>
       </c>
       <c r="D1586" s="1" t="s">
-        <v>6990</v>
+        <v>6985</v>
       </c>
       <c r="E1586" s="1" t="s">
         <v>3205</v>
@@ -58691,7 +58630,7 @@
         <v>4673</v>
       </c>
       <c r="D1595" s="1" t="s">
-        <v>6991</v>
+        <v>6986</v>
       </c>
       <c r="E1595" s="1" t="s">
         <v>3205</v>
@@ -58793,7 +58732,7 @@
         <v>4680</v>
       </c>
       <c r="D1601" s="1" t="s">
-        <v>6992</v>
+        <v>6987</v>
       </c>
       <c r="E1601" s="1" t="s">
         <v>3205</v>
@@ -58810,7 +58749,7 @@
         <v>4681</v>
       </c>
       <c r="D1602" s="1" t="s">
-        <v>6993</v>
+        <v>6988</v>
       </c>
       <c r="E1602" s="1" t="s">
         <v>3205</v>
@@ -59150,7 +59089,7 @@
         <v>4703</v>
       </c>
       <c r="D1622" s="1" t="s">
-        <v>6994</v>
+        <v>6989</v>
       </c>
       <c r="E1622" s="1" t="s">
         <v>3205</v>
@@ -59252,7 +59191,7 @@
         <v>4710</v>
       </c>
       <c r="D1628" s="1" t="s">
-        <v>6995</v>
+        <v>6990</v>
       </c>
       <c r="E1628" s="1" t="s">
         <v>3205</v>
@@ -59311,16 +59250,16 @@
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1632" s="1" t="s">
-        <v>6596</v>
+        <v>6591</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>4713</v>
       </c>
       <c r="C1632" s="1" t="s">
-        <v>6596</v>
+        <v>6591</v>
       </c>
       <c r="D1632" s="1" t="s">
-        <v>6996</v>
+        <v>6991</v>
       </c>
       <c r="E1632" s="1" t="s">
         <v>3205</v>
@@ -59498,16 +59437,16 @@
     </row>
     <row r="1643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1643" s="1" t="s">
-        <v>6597</v>
+        <v>6592</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>4725</v>
       </c>
       <c r="C1643" s="1" t="s">
-        <v>6597</v>
+        <v>6592</v>
       </c>
       <c r="D1643" s="1" t="s">
-        <v>6997</v>
+        <v>6992</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>3205</v>
@@ -59864,7 +59803,7 @@
         <v>4749</v>
       </c>
       <c r="D1664" s="1" t="s">
-        <v>6998</v>
+        <v>6993</v>
       </c>
       <c r="E1664" s="1" t="s">
         <v>3205</v>
@@ -59966,7 +59905,7 @@
         <v>4756</v>
       </c>
       <c r="D1670" s="1" t="s">
-        <v>6999</v>
+        <v>6994</v>
       </c>
       <c r="E1670" s="1" t="s">
         <v>3205</v>
@@ -60034,7 +59973,7 @@
         <v>4760</v>
       </c>
       <c r="D1674" s="1" t="s">
-        <v>7000</v>
+        <v>6995</v>
       </c>
       <c r="E1674" s="1" t="s">
         <v>3205</v>
@@ -60119,7 +60058,7 @@
         <v>4765</v>
       </c>
       <c r="D1679" s="1" t="s">
-        <v>7001</v>
+        <v>6996</v>
       </c>
       <c r="E1679" s="1" t="s">
         <v>3205</v>
@@ -60544,7 +60483,7 @@
         <v>4832</v>
       </c>
       <c r="D1704" s="1" t="s">
-        <v>7005</v>
+        <v>7000</v>
       </c>
       <c r="E1704" s="1" t="s">
         <v>3203</v>
@@ -60799,7 +60738,7 @@
         <v>4792</v>
       </c>
       <c r="D1719" s="1" t="s">
-        <v>7002</v>
+        <v>6997</v>
       </c>
       <c r="E1719" s="1" t="s">
         <v>3205</v>
@@ -61113,16 +61052,16 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1738" s="1" t="s">
-        <v>6599</v>
+        <v>6594</v>
       </c>
       <c r="B1738" s="1" t="s">
         <v>4810</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>6599</v>
+        <v>6594</v>
       </c>
       <c r="D1738" s="1" t="s">
-        <v>7003</v>
+        <v>6998</v>
       </c>
       <c r="E1738" s="1" t="s">
         <v>3205</v>
@@ -61190,7 +61129,7 @@
         <v>4816</v>
       </c>
       <c r="D1742" s="1" t="s">
-        <v>7004</v>
+        <v>6999</v>
       </c>
       <c r="E1742" s="1" t="s">
         <v>3205</v>
@@ -61479,7 +61418,7 @@
         <v>4835</v>
       </c>
       <c r="D1759" s="1" t="s">
-        <v>7006</v>
+        <v>7001</v>
       </c>
       <c r="E1759" s="1" t="s">
         <v>3205</v>
@@ -62252,13 +62191,13 @@
     </row>
     <row r="1805" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1805" s="1" t="s">
-        <v>6600</v>
+        <v>6595</v>
       </c>
       <c r="B1805" s="1" t="s">
         <v>4887</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>6600</v>
+        <v>6595</v>
       </c>
       <c r="D1805" s="1" t="s">
         <v>1947</v>
@@ -62269,16 +62208,16 @@
     </row>
     <row r="1806" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1806" s="1" t="s">
-        <v>6601</v>
+        <v>6596</v>
       </c>
       <c r="B1806" s="1" t="s">
         <v>4887</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>6601</v>
+        <v>6596</v>
       </c>
       <c r="D1806" s="1" t="s">
-        <v>7007</v>
+        <v>7002</v>
       </c>
       <c r="E1806" s="1" t="s">
         <v>3205</v>
@@ -62762,16 +62701,16 @@
     </row>
     <row r="1835" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1835" s="1" t="s">
-        <v>6602</v>
+        <v>6597</v>
       </c>
       <c r="B1835" s="1" t="s">
         <v>4903</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>6602</v>
+        <v>6597</v>
       </c>
       <c r="D1835" s="1" t="s">
-        <v>7008</v>
+        <v>7003</v>
       </c>
       <c r="E1835" s="1" t="s">
         <v>3205</v>
@@ -62805,7 +62744,7 @@
         <v>4910</v>
       </c>
       <c r="D1837" s="1" t="s">
-        <v>7009</v>
+        <v>7004</v>
       </c>
       <c r="E1837" s="1" t="s">
         <v>3205</v>
@@ -62924,7 +62863,7 @@
         <v>4918</v>
       </c>
       <c r="D1844" s="1" t="s">
-        <v>7010</v>
+        <v>7005</v>
       </c>
       <c r="E1844" s="1" t="s">
         <v>3205</v>
@@ -63706,7 +63645,7 @@
         <v>4969</v>
       </c>
       <c r="D1890" s="1" t="s">
-        <v>7011</v>
+        <v>7006</v>
       </c>
       <c r="E1890" s="1" t="s">
         <v>3205</v>
@@ -63893,7 +63832,7 @@
         <v>4982</v>
       </c>
       <c r="D1901" s="1" t="s">
-        <v>7012</v>
+        <v>7007</v>
       </c>
       <c r="E1901" s="1" t="s">
         <v>3205</v>
@@ -64148,7 +64087,7 @@
         <v>4999</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>7013</v>
+        <v>7008</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>3205</v>
@@ -64233,7 +64172,7 @@
         <v>5004</v>
       </c>
       <c r="D1921" s="1" t="s">
-        <v>7014</v>
+        <v>7009</v>
       </c>
       <c r="E1921" s="1" t="s">
         <v>3205</v>
@@ -65057,16 +64996,16 @@
     </row>
     <row r="1970" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1970" s="1" t="s">
-        <v>6613</v>
+        <v>6608</v>
       </c>
       <c r="B1970" s="1" t="s">
         <v>5038</v>
       </c>
       <c r="C1970" s="1" t="s">
-        <v>6613</v>
+        <v>6608</v>
       </c>
       <c r="D1970" s="1" t="s">
-        <v>7024</v>
+        <v>7019</v>
       </c>
       <c r="E1970" s="1" t="s">
         <v>3203</v>
@@ -65261,16 +65200,16 @@
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1982" s="1" t="s">
-        <v>6603</v>
+        <v>6598</v>
       </c>
       <c r="B1982" s="1" t="s">
         <v>5039</v>
       </c>
       <c r="C1982" s="1" t="s">
-        <v>6603</v>
+        <v>6598</v>
       </c>
       <c r="D1982" s="1" t="s">
-        <v>7015</v>
+        <v>7010</v>
       </c>
       <c r="E1982" s="1" t="s">
         <v>3205</v>
@@ -65278,16 +65217,16 @@
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1983" s="1" t="s">
-        <v>6604</v>
+        <v>6599</v>
       </c>
       <c r="B1983" s="1" t="s">
         <v>5039</v>
       </c>
       <c r="C1983" s="1" t="s">
-        <v>6604</v>
+        <v>6599</v>
       </c>
       <c r="D1983" s="1" t="s">
-        <v>7016</v>
+        <v>7011</v>
       </c>
       <c r="E1983" s="1" t="s">
         <v>3205</v>
@@ -65295,16 +65234,16 @@
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1984" s="1" t="s">
-        <v>6605</v>
+        <v>6600</v>
       </c>
       <c r="B1984" s="1" t="s">
         <v>5039</v>
       </c>
       <c r="C1984" s="1" t="s">
-        <v>6605</v>
+        <v>6600</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>7017</v>
+        <v>7012</v>
       </c>
       <c r="E1984" s="1" t="s">
         <v>3205</v>
@@ -65584,13 +65523,13 @@
     </row>
     <row r="2001" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2001" s="1" t="s">
-        <v>6606</v>
+        <v>6601</v>
       </c>
       <c r="B2001" s="1" t="s">
         <v>5059</v>
       </c>
       <c r="C2001" s="1" t="s">
-        <v>6606</v>
+        <v>6601</v>
       </c>
       <c r="D2001" s="1" t="s">
         <v>2336</v>
@@ -65601,16 +65540,16 @@
     </row>
     <row r="2002" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2002" s="1" t="s">
-        <v>6607</v>
+        <v>6602</v>
       </c>
       <c r="B2002" s="1" t="s">
         <v>5059</v>
       </c>
       <c r="C2002" s="1" t="s">
-        <v>6607</v>
+        <v>6602</v>
       </c>
       <c r="D2002" s="1" t="s">
-        <v>7018</v>
+        <v>7013</v>
       </c>
       <c r="E2002" s="1" t="s">
         <v>3205</v>
@@ -66162,16 +66101,16 @@
     </row>
     <row r="2035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2035" s="1" t="s">
-        <v>6608</v>
+        <v>6603</v>
       </c>
       <c r="B2035" s="1" t="s">
         <v>5102</v>
       </c>
       <c r="C2035" s="1" t="s">
-        <v>6608</v>
+        <v>6603</v>
       </c>
       <c r="D2035" s="1" t="s">
-        <v>7019</v>
+        <v>7014</v>
       </c>
       <c r="E2035" s="1" t="s">
         <v>3205</v>
@@ -66264,16 +66203,16 @@
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2041" s="1" t="s">
-        <v>6609</v>
+        <v>6604</v>
       </c>
       <c r="B2041" s="1" t="s">
         <v>5107</v>
       </c>
       <c r="C2041" s="1" t="s">
-        <v>6609</v>
+        <v>6604</v>
       </c>
       <c r="D2041" s="1" t="s">
-        <v>7020</v>
+        <v>7015</v>
       </c>
       <c r="E2041" s="1" t="s">
         <v>3205</v>
@@ -66468,16 +66407,16 @@
     </row>
     <row r="2053" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2053" s="1" t="s">
-        <v>6610</v>
+        <v>6605</v>
       </c>
       <c r="B2053" s="1" t="s">
         <v>5121</v>
       </c>
       <c r="C2053" s="1" t="s">
-        <v>6610</v>
+        <v>6605</v>
       </c>
       <c r="D2053" s="1" t="s">
-        <v>7021</v>
+        <v>7016</v>
       </c>
       <c r="E2053" s="1" t="s">
         <v>3205</v>
@@ -66596,7 +66535,7 @@
         <v>5130</v>
       </c>
       <c r="D2060" s="1" t="s">
-        <v>6872</v>
+        <v>6867</v>
       </c>
       <c r="E2060" s="1" t="s">
         <v>3205</v>
@@ -66774,16 +66713,16 @@
     </row>
     <row r="2071" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2071" s="1" t="s">
-        <v>6611</v>
+        <v>6606</v>
       </c>
       <c r="B2071" s="1" t="s">
         <v>5141</v>
       </c>
       <c r="C2071" s="1" t="s">
-        <v>6611</v>
+        <v>6606</v>
       </c>
       <c r="D2071" s="1" t="s">
-        <v>7022</v>
+        <v>7017</v>
       </c>
       <c r="E2071" s="1" t="s">
         <v>3205</v>
@@ -66842,16 +66781,16 @@
     </row>
     <row r="2075" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2075" s="1" t="s">
-        <v>6612</v>
+        <v>6607</v>
       </c>
       <c r="B2075" s="1" t="s">
         <v>5145</v>
       </c>
       <c r="C2075" s="1" t="s">
-        <v>6612</v>
+        <v>6607</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>7023</v>
+        <v>7018</v>
       </c>
       <c r="E2075" s="1" t="s">
         <v>3205</v>
@@ -66978,16 +66917,16 @@
     </row>
     <row r="2083" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2083" s="1" t="s">
-        <v>6614</v>
+        <v>6609</v>
       </c>
       <c r="B2083" s="1" t="s">
         <v>5155</v>
       </c>
       <c r="C2083" s="1" t="s">
-        <v>6614</v>
+        <v>6609</v>
       </c>
       <c r="D2083" s="1" t="s">
-        <v>7025</v>
+        <v>7020</v>
       </c>
       <c r="E2083" s="1" t="s">
         <v>3205</v>
@@ -67029,16 +66968,16 @@
     </row>
     <row r="2086" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2086" s="1" t="s">
-        <v>6615</v>
+        <v>6610</v>
       </c>
       <c r="B2086" s="1" t="s">
         <v>5158</v>
       </c>
       <c r="C2086" s="1" t="s">
-        <v>6615</v>
+        <v>6610</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>7026</v>
+        <v>7021</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>3205</v>
@@ -67114,16 +67053,16 @@
     </row>
     <row r="2091" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2091" s="1" t="s">
-        <v>6616</v>
+        <v>6611</v>
       </c>
       <c r="B2091" s="1" t="s">
         <v>5163</v>
       </c>
       <c r="C2091" s="1" t="s">
-        <v>6616</v>
+        <v>6611</v>
       </c>
       <c r="D2091" s="1" t="s">
-        <v>7027</v>
+        <v>7022</v>
       </c>
       <c r="E2091" s="1" t="s">
         <v>3205</v>
@@ -67522,16 +67461,16 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2115" s="1" t="s">
-        <v>6617</v>
+        <v>6612</v>
       </c>
       <c r="B2115" s="1" t="s">
         <v>5169</v>
       </c>
       <c r="C2115" s="1" t="s">
-        <v>6617</v>
+        <v>6612</v>
       </c>
       <c r="D2115" s="1" t="s">
-        <v>7028</v>
+        <v>7023</v>
       </c>
       <c r="E2115" s="1" t="s">
         <v>3205</v>
@@ -67616,7 +67555,7 @@
         <v>5180</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>7029</v>
+        <v>7024</v>
       </c>
       <c r="E2120" s="1" t="s">
         <v>3205</v>
@@ -67692,16 +67631,16 @@
     </row>
     <row r="2125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2125" s="1" t="s">
-        <v>6618</v>
+        <v>6613</v>
       </c>
       <c r="B2125" s="1" t="s">
         <v>5181</v>
       </c>
       <c r="C2125" s="1" t="s">
-        <v>6618</v>
+        <v>6613</v>
       </c>
       <c r="D2125" s="1" t="s">
-        <v>7030</v>
+        <v>7025</v>
       </c>
       <c r="E2125" s="1" t="s">
         <v>3205</v>
@@ -67879,16 +67818,16 @@
     </row>
     <row r="2136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2136" s="1" t="s">
-        <v>6619</v>
+        <v>6614</v>
       </c>
       <c r="B2136" s="1" t="s">
         <v>5191</v>
       </c>
       <c r="C2136" s="1" t="s">
-        <v>6619</v>
+        <v>6614</v>
       </c>
       <c r="D2136" s="1" t="s">
-        <v>7031</v>
+        <v>7026</v>
       </c>
       <c r="E2136" s="1" t="s">
         <v>3205</v>
@@ -68058,7 +67997,7 @@
         <v>5206</v>
       </c>
       <c r="D2146" s="1" t="s">
-        <v>7032</v>
+        <v>7027</v>
       </c>
       <c r="E2146" s="1" t="s">
         <v>3205</v>
@@ -68117,16 +68056,16 @@
     </row>
     <row r="2150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2150" s="1" t="s">
-        <v>6620</v>
+        <v>6615</v>
       </c>
       <c r="B2150" s="1" t="s">
         <v>5208</v>
       </c>
       <c r="C2150" s="1" t="s">
-        <v>6620</v>
+        <v>6615</v>
       </c>
       <c r="D2150" s="1" t="s">
-        <v>7033</v>
+        <v>7028</v>
       </c>
       <c r="E2150" s="1" t="s">
         <v>3205</v>
@@ -68160,7 +68099,7 @@
         <v>5212</v>
       </c>
       <c r="D2152" s="1" t="s">
-        <v>7034</v>
+        <v>7029</v>
       </c>
       <c r="E2152" s="1" t="s">
         <v>3205</v>
@@ -68508,16 +68447,16 @@
     </row>
     <row r="2173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2173" s="1" t="s">
-        <v>6621</v>
+        <v>6616</v>
       </c>
       <c r="B2173" s="1" t="s">
         <v>5236</v>
       </c>
       <c r="C2173" s="1" t="s">
-        <v>6621</v>
+        <v>6616</v>
       </c>
       <c r="D2173" s="1" t="s">
-        <v>7035</v>
+        <v>7030</v>
       </c>
       <c r="E2173" s="1" t="s">
         <v>3205</v>
@@ -68534,7 +68473,7 @@
         <v>5238</v>
       </c>
       <c r="D2174" s="1" t="s">
-        <v>7036</v>
+        <v>7031</v>
       </c>
       <c r="E2174" s="1" t="s">
         <v>3205</v>
@@ -68797,16 +68736,16 @@
     </row>
     <row r="2190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2190" s="1" t="s">
-        <v>6622</v>
+        <v>6617</v>
       </c>
       <c r="B2190" s="1" t="s">
         <v>5243</v>
       </c>
       <c r="C2190" s="1" t="s">
-        <v>6622</v>
+        <v>6617</v>
       </c>
       <c r="D2190" s="1" t="s">
-        <v>7037</v>
+        <v>7032</v>
       </c>
       <c r="E2190" s="1" t="s">
         <v>3205</v>
@@ -68831,16 +68770,16 @@
     </row>
     <row r="2192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2192" s="1" t="s">
-        <v>6623</v>
+        <v>6618</v>
       </c>
       <c r="B2192" s="1" t="s">
         <v>5255</v>
       </c>
       <c r="C2192" s="1" t="s">
-        <v>6623</v>
+        <v>6618</v>
       </c>
       <c r="D2192" s="1" t="s">
-        <v>7038</v>
+        <v>7033</v>
       </c>
       <c r="E2192" s="1" t="s">
         <v>3205</v>
@@ -68916,16 +68855,16 @@
     </row>
     <row r="2197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2197" s="1" t="s">
-        <v>6624</v>
+        <v>6619</v>
       </c>
       <c r="B2197" s="1" t="s">
         <v>5260</v>
       </c>
       <c r="C2197" s="1" t="s">
-        <v>6624</v>
+        <v>6619</v>
       </c>
       <c r="D2197" s="1" t="s">
-        <v>7039</v>
+        <v>7034</v>
       </c>
       <c r="E2197" s="1" t="s">
         <v>3205</v>
@@ -69197,7 +69136,7 @@
         <v>5279</v>
       </c>
       <c r="D2213" s="1" t="s">
-        <v>7040</v>
+        <v>7035</v>
       </c>
       <c r="E2213" s="1" t="s">
         <v>3205</v>
@@ -69341,16 +69280,16 @@
     </row>
     <row r="2222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2222" s="1" t="s">
-        <v>6629</v>
+        <v>6624</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2222" s="1" t="s">
-        <v>6629</v>
+        <v>6624</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>7045</v>
+        <v>7040</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>3203</v>
@@ -69358,13 +69297,13 @@
     </row>
     <row r="2223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2223" s="1" t="s">
-        <v>6633</v>
+        <v>6628</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2223" s="1" t="s">
-        <v>6633</v>
+        <v>6628</v>
       </c>
       <c r="D2223" s="1" t="s">
         <v>2342</v>
@@ -69460,13 +69399,13 @@
     </row>
     <row r="2229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2229" s="1" t="s">
-        <v>6634</v>
+        <v>6629</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2229" s="1" t="s">
-        <v>6634</v>
+        <v>6629</v>
       </c>
       <c r="D2229" s="1" t="s">
         <v>2346</v>
@@ -69477,13 +69416,13 @@
     </row>
     <row r="2230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2230" s="1" t="s">
-        <v>6635</v>
+        <v>6630</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2230" s="1" t="s">
-        <v>6635</v>
+        <v>6630</v>
       </c>
       <c r="D2230" s="1" t="s">
         <v>2347</v>
@@ -69494,13 +69433,13 @@
     </row>
     <row r="2231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2231" s="1" t="s">
-        <v>6636</v>
+        <v>6631</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2231" s="1" t="s">
-        <v>6636</v>
+        <v>6631</v>
       </c>
       <c r="D2231" s="1" t="s">
         <v>2348</v>
@@ -69511,13 +69450,13 @@
     </row>
     <row r="2232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2232" s="1" t="s">
-        <v>6637</v>
+        <v>6632</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2232" s="1" t="s">
-        <v>6637</v>
+        <v>6632</v>
       </c>
       <c r="D2232" s="1" t="s">
         <v>2349</v>
@@ -69596,13 +69535,13 @@
     </row>
     <row r="2237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2237" s="1" t="s">
-        <v>6638</v>
+        <v>6633</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2237" s="1" t="s">
-        <v>6638</v>
+        <v>6633</v>
       </c>
       <c r="D2237" s="1" t="s">
         <v>2354</v>
@@ -69698,16 +69637,16 @@
     </row>
     <row r="2243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2243" s="1" t="s">
-        <v>6625</v>
+        <v>6620</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2243" s="1" t="s">
-        <v>6625</v>
+        <v>6620</v>
       </c>
       <c r="D2243" s="1" t="s">
-        <v>7041</v>
+        <v>7036</v>
       </c>
       <c r="E2243" s="1" t="s">
         <v>3205</v>
@@ -69715,16 +69654,16 @@
     </row>
     <row r="2244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2244" s="1" t="s">
-        <v>6626</v>
+        <v>6621</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2244" s="1" t="s">
-        <v>6626</v>
+        <v>6621</v>
       </c>
       <c r="D2244" s="1" t="s">
-        <v>7042</v>
+        <v>7037</v>
       </c>
       <c r="E2244" s="1" t="s">
         <v>3205</v>
@@ -69732,16 +69671,16 @@
     </row>
     <row r="2245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2245" s="1" t="s">
-        <v>6627</v>
+        <v>6622</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2245" s="1" t="s">
-        <v>6627</v>
+        <v>6622</v>
       </c>
       <c r="D2245" s="1" t="s">
-        <v>7043</v>
+        <v>7038</v>
       </c>
       <c r="E2245" s="1" t="s">
         <v>3205</v>
@@ -69749,16 +69688,16 @@
     </row>
     <row r="2246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2246" s="1" t="s">
-        <v>6628</v>
+        <v>6623</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2246" s="1" t="s">
-        <v>6628</v>
+        <v>6623</v>
       </c>
       <c r="D2246" s="1" t="s">
-        <v>7044</v>
+        <v>7039</v>
       </c>
       <c r="E2246" s="1" t="s">
         <v>3205</v>
@@ -69766,13 +69705,13 @@
     </row>
     <row r="2247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2247" s="1" t="s">
-        <v>6630</v>
+        <v>6625</v>
       </c>
       <c r="B2247" s="1" t="s">
-        <v>6629</v>
+        <v>6624</v>
       </c>
       <c r="C2247" s="1" t="s">
-        <v>6630</v>
+        <v>6625</v>
       </c>
       <c r="D2247" s="1" t="s">
         <v>2356</v>
@@ -69783,13 +69722,13 @@
     </row>
     <row r="2248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2248" s="1" t="s">
-        <v>6631</v>
+        <v>6626</v>
       </c>
       <c r="B2248" s="1" t="s">
-        <v>6629</v>
+        <v>6624</v>
       </c>
       <c r="C2248" s="1" t="s">
-        <v>6631</v>
+        <v>6626</v>
       </c>
       <c r="D2248" s="1" t="s">
         <v>2357</v>
@@ -69800,16 +69739,16 @@
     </row>
     <row r="2249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2249" s="1" t="s">
-        <v>6632</v>
+        <v>6627</v>
       </c>
       <c r="B2249" s="1" t="s">
-        <v>6629</v>
+        <v>6624</v>
       </c>
       <c r="C2249" s="1" t="s">
-        <v>6632</v>
+        <v>6627</v>
       </c>
       <c r="D2249" s="1" t="s">
-        <v>7046</v>
+        <v>7041</v>
       </c>
       <c r="E2249" s="1" t="s">
         <v>3205</v>
@@ -69826,7 +69765,7 @@
         <v>5304</v>
       </c>
       <c r="D2250" s="1" t="s">
-        <v>7047</v>
+        <v>7042</v>
       </c>
       <c r="E2250" s="1" t="s">
         <v>3203</v>
@@ -69843,7 +69782,7 @@
         <v>5320</v>
       </c>
       <c r="D2251" s="1" t="s">
-        <v>7061</v>
+        <v>7056</v>
       </c>
       <c r="E2251" s="1" t="s">
         <v>3203</v>
@@ -70013,7 +69952,7 @@
         <v>5314</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>7048</v>
+        <v>7043</v>
       </c>
       <c r="E2261" s="1" t="s">
         <v>3205</v>
@@ -70030,7 +69969,7 @@
         <v>5315</v>
       </c>
       <c r="D2262" s="1" t="s">
-        <v>7049</v>
+        <v>7044</v>
       </c>
       <c r="E2262" s="1" t="s">
         <v>3205</v>
@@ -70106,16 +70045,16 @@
     </row>
     <row r="2267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2267" s="1" t="s">
-        <v>6639</v>
+        <v>6634</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2267" s="1" t="s">
-        <v>6639</v>
+        <v>6634</v>
       </c>
       <c r="D2267" s="1" t="s">
-        <v>7050</v>
+        <v>7045</v>
       </c>
       <c r="E2267" s="1" t="s">
         <v>3205</v>
@@ -70123,16 +70062,16 @@
     </row>
     <row r="2268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2268" s="1" t="s">
-        <v>6640</v>
+        <v>6635</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2268" s="1" t="s">
-        <v>6640</v>
+        <v>6635</v>
       </c>
       <c r="D2268" s="1" t="s">
-        <v>7051</v>
+        <v>7046</v>
       </c>
       <c r="E2268" s="1" t="s">
         <v>3205</v>
@@ -70140,16 +70079,16 @@
     </row>
     <row r="2269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2269" s="1" t="s">
-        <v>6641</v>
+        <v>6636</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2269" s="1" t="s">
-        <v>6641</v>
+        <v>6636</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>7052</v>
+        <v>7047</v>
       </c>
       <c r="E2269" s="1" t="s">
         <v>3205</v>
@@ -70157,16 +70096,16 @@
     </row>
     <row r="2270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2270" s="1" t="s">
-        <v>6642</v>
+        <v>6637</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2270" s="1" t="s">
-        <v>6642</v>
+        <v>6637</v>
       </c>
       <c r="D2270" s="1" t="s">
-        <v>7053</v>
+        <v>7048</v>
       </c>
       <c r="E2270" s="1" t="s">
         <v>3205</v>
@@ -70174,16 +70113,16 @@
     </row>
     <row r="2271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2271" s="1" t="s">
-        <v>6643</v>
+        <v>6638</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2271" s="1" t="s">
-        <v>6643</v>
+        <v>6638</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>7054</v>
+        <v>7049</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>3205</v>
@@ -70191,16 +70130,16 @@
     </row>
     <row r="2272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2272" s="1" t="s">
-        <v>6644</v>
+        <v>6639</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2272" s="1" t="s">
-        <v>6644</v>
+        <v>6639</v>
       </c>
       <c r="D2272" s="1" t="s">
-        <v>7055</v>
+        <v>7050</v>
       </c>
       <c r="E2272" s="1" t="s">
         <v>3205</v>
@@ -70208,16 +70147,16 @@
     </row>
     <row r="2273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2273" s="1" t="s">
-        <v>6645</v>
+        <v>6640</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2273" s="1" t="s">
-        <v>6645</v>
+        <v>6640</v>
       </c>
       <c r="D2273" s="1" t="s">
-        <v>7056</v>
+        <v>7051</v>
       </c>
       <c r="E2273" s="1" t="s">
         <v>3205</v>
@@ -70225,16 +70164,16 @@
     </row>
     <row r="2274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2274" s="1" t="s">
-        <v>6646</v>
+        <v>6641</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2274" s="1" t="s">
-        <v>6646</v>
+        <v>6641</v>
       </c>
       <c r="D2274" s="1" t="s">
-        <v>7057</v>
+        <v>7052</v>
       </c>
       <c r="E2274" s="1" t="s">
         <v>3205</v>
@@ -70242,16 +70181,16 @@
     </row>
     <row r="2275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2275" s="1" t="s">
-        <v>6647</v>
+        <v>6642</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2275" s="1" t="s">
-        <v>6647</v>
+        <v>6642</v>
       </c>
       <c r="D2275" s="1" t="s">
-        <v>7058</v>
+        <v>7053</v>
       </c>
       <c r="E2275" s="1" t="s">
         <v>3205</v>
@@ -70259,16 +70198,16 @@
     </row>
     <row r="2276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2276" s="1" t="s">
-        <v>6648</v>
+        <v>6643</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>5320</v>
       </c>
       <c r="C2276" s="1" t="s">
-        <v>6648</v>
+        <v>6643</v>
       </c>
       <c r="D2276" s="1" t="s">
-        <v>7059</v>
+        <v>7054</v>
       </c>
       <c r="E2276" s="1" t="s">
         <v>3205</v>
@@ -70276,16 +70215,16 @@
     </row>
     <row r="2277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2277" s="1" t="s">
-        <v>6649</v>
+        <v>6644</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>5320</v>
       </c>
       <c r="C2277" s="1" t="s">
-        <v>6649</v>
+        <v>6644</v>
       </c>
       <c r="D2277" s="1" t="s">
-        <v>7060</v>
+        <v>7055</v>
       </c>
       <c r="E2277" s="1" t="s">
         <v>3205</v>
@@ -70353,7 +70292,7 @@
         <v>5324</v>
       </c>
       <c r="D2281" s="1" t="s">
-        <v>7062</v>
+        <v>7057</v>
       </c>
       <c r="E2281" s="1" t="s">
         <v>3205</v>
@@ -71007,16 +70946,16 @@
     </row>
     <row r="2320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2320" s="1" t="s">
-        <v>6650</v>
+        <v>6645</v>
       </c>
       <c r="B2320" s="1" t="s">
         <v>5334</v>
       </c>
       <c r="C2320" s="1" t="s">
-        <v>6650</v>
+        <v>6645</v>
       </c>
       <c r="D2320" s="1" t="s">
-        <v>7063</v>
+        <v>7058</v>
       </c>
       <c r="E2320" s="1" t="s">
         <v>3205</v>
@@ -71024,16 +70963,16 @@
     </row>
     <row r="2321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2321" s="1" t="s">
-        <v>6651</v>
+        <v>6646</v>
       </c>
       <c r="B2321" s="1" t="s">
         <v>5334</v>
       </c>
       <c r="C2321" s="1" t="s">
-        <v>6651</v>
+        <v>6646</v>
       </c>
       <c r="D2321" s="1" t="s">
-        <v>7064</v>
+        <v>7059</v>
       </c>
       <c r="E2321" s="1" t="s">
         <v>3205</v>
@@ -71177,13 +71116,13 @@
     </row>
     <row r="2330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2330" s="1" t="s">
-        <v>6652</v>
+        <v>6647</v>
       </c>
       <c r="B2330" s="1" t="s">
         <v>5334</v>
       </c>
       <c r="C2330" s="1" t="s">
-        <v>6652</v>
+        <v>6647</v>
       </c>
       <c r="D2330" s="1" t="s">
         <v>2512</v>
@@ -71271,7 +71210,7 @@
         <v>5357</v>
       </c>
       <c r="D2335" s="1" t="s">
-        <v>7065</v>
+        <v>7060</v>
       </c>
       <c r="E2335" s="1" t="s">
         <v>3205</v>
@@ -71305,7 +71244,7 @@
         <v>5360</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>7066</v>
+        <v>7061</v>
       </c>
       <c r="E2337" s="1" t="s">
         <v>3205</v>
@@ -71322,7 +71261,7 @@
         <v>5361</v>
       </c>
       <c r="D2338" s="1" t="s">
-        <v>7067</v>
+        <v>7062</v>
       </c>
       <c r="E2338" s="1" t="s">
         <v>3205</v>
@@ -71441,7 +71380,7 @@
         <v>5369</v>
       </c>
       <c r="D2345" s="1" t="s">
-        <v>7068</v>
+        <v>7063</v>
       </c>
       <c r="E2345" s="1" t="s">
         <v>3205</v>
@@ -71543,7 +71482,7 @@
         <v>5376</v>
       </c>
       <c r="D2351" s="1" t="s">
-        <v>7069</v>
+        <v>7064</v>
       </c>
       <c r="E2351" s="1" t="s">
         <v>3205</v>
@@ -71636,16 +71575,16 @@
     </row>
     <row r="2357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2357" s="1" t="s">
-        <v>6653</v>
+        <v>6648</v>
       </c>
       <c r="B2357" s="1" t="s">
         <v>5380</v>
       </c>
       <c r="C2357" s="1" t="s">
-        <v>6653</v>
+        <v>6648</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>7070</v>
+        <v>7065</v>
       </c>
       <c r="E2357" s="1" t="s">
         <v>3205</v>
@@ -71764,7 +71703,7 @@
         <v>5390</v>
       </c>
       <c r="D2364" s="1" t="s">
-        <v>7071</v>
+        <v>7066</v>
       </c>
       <c r="E2364" s="1" t="s">
         <v>3205</v>
@@ -71781,7 +71720,7 @@
         <v>5391</v>
       </c>
       <c r="D2365" s="1" t="s">
-        <v>7072</v>
+        <v>7067</v>
       </c>
       <c r="E2365" s="1" t="s">
         <v>3205</v>
@@ -72027,16 +71966,16 @@
     </row>
     <row r="2380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2380" s="1" t="s">
-        <v>6654</v>
+        <v>6649</v>
       </c>
       <c r="B2380" s="1" t="s">
         <v>5403</v>
       </c>
       <c r="C2380" s="1" t="s">
-        <v>6654</v>
+        <v>6649</v>
       </c>
       <c r="D2380" s="1" t="s">
-        <v>7073</v>
+        <v>7068</v>
       </c>
       <c r="E2380" s="1" t="s">
         <v>3205</v>
@@ -72401,16 +72340,16 @@
     </row>
     <row r="2402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2402" s="1" t="s">
-        <v>6655</v>
+        <v>6650</v>
       </c>
       <c r="B2402" s="1" t="s">
         <v>5430</v>
       </c>
       <c r="C2402" s="1" t="s">
-        <v>6655</v>
+        <v>6650</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>7074</v>
+        <v>7069</v>
       </c>
       <c r="E2402" s="1" t="s">
         <v>3205</v>
@@ -72503,16 +72442,16 @@
     </row>
     <row r="2408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2408" s="1" t="s">
-        <v>6656</v>
+        <v>6651</v>
       </c>
       <c r="B2408" s="1" t="s">
         <v>5436</v>
       </c>
       <c r="C2408" s="1" t="s">
-        <v>6656</v>
+        <v>6651</v>
       </c>
       <c r="D2408" s="1" t="s">
-        <v>7075</v>
+        <v>7070</v>
       </c>
       <c r="E2408" s="1" t="s">
         <v>3205</v>
@@ -72580,7 +72519,7 @@
         <v>5441</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>7076</v>
+        <v>7071</v>
       </c>
       <c r="E2412" s="1" t="s">
         <v>3205</v>
@@ -72597,7 +72536,7 @@
         <v>5442</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>7077</v>
+        <v>7072</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>3205</v>
@@ -72673,16 +72612,16 @@
     </row>
     <row r="2418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2418" s="1" t="s">
-        <v>6657</v>
+        <v>6652</v>
       </c>
       <c r="B2418" s="1" t="s">
         <v>5446</v>
       </c>
       <c r="C2418" s="1" t="s">
-        <v>6657</v>
+        <v>6652</v>
       </c>
       <c r="D2418" s="1" t="s">
-        <v>7078</v>
+        <v>7073</v>
       </c>
       <c r="E2418" s="1" t="s">
         <v>3205</v>
@@ -72750,7 +72689,7 @@
         <v>5451</v>
       </c>
       <c r="D2422" s="1" t="s">
-        <v>7079</v>
+        <v>7074</v>
       </c>
       <c r="E2422" s="1" t="s">
         <v>3205</v>
@@ -72775,16 +72714,16 @@
     </row>
     <row r="2424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2424" s="1" t="s">
-        <v>6658</v>
+        <v>6653</v>
       </c>
       <c r="B2424" s="1" t="s">
         <v>5452</v>
       </c>
       <c r="C2424" s="1" t="s">
-        <v>6658</v>
+        <v>6653</v>
       </c>
       <c r="D2424" s="1" t="s">
-        <v>7080</v>
+        <v>7075</v>
       </c>
       <c r="E2424" s="1" t="s">
         <v>3205</v>
@@ -72852,7 +72791,7 @@
         <v>5457</v>
       </c>
       <c r="D2428" s="1" t="s">
-        <v>7081</v>
+        <v>7076</v>
       </c>
       <c r="E2428" s="1" t="s">
         <v>3205</v>
@@ -72894,16 +72833,16 @@
     </row>
     <row r="2431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2431" s="1" t="s">
-        <v>6659</v>
+        <v>6654</v>
       </c>
       <c r="B2431" s="1" t="s">
         <v>5459</v>
       </c>
       <c r="C2431" s="1" t="s">
-        <v>6659</v>
+        <v>6654</v>
       </c>
       <c r="D2431" s="1" t="s">
-        <v>7082</v>
+        <v>7077</v>
       </c>
       <c r="E2431" s="1" t="s">
         <v>3205</v>
@@ -73030,16 +72969,16 @@
     </row>
     <row r="2439" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2439" s="1" t="s">
-        <v>6660</v>
+        <v>6655</v>
       </c>
       <c r="B2439" s="1" t="s">
         <v>5467</v>
       </c>
       <c r="C2439" s="1" t="s">
-        <v>6660</v>
+        <v>6655</v>
       </c>
       <c r="D2439" s="1" t="s">
-        <v>7083</v>
+        <v>7078</v>
       </c>
       <c r="E2439" s="1" t="s">
         <v>3205</v>
@@ -73149,16 +73088,16 @@
     </row>
     <row r="2446" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2446" s="1" t="s">
-        <v>6661</v>
+        <v>6656</v>
       </c>
       <c r="B2446" s="1" t="s">
         <v>5476</v>
       </c>
       <c r="C2446" s="1" t="s">
-        <v>6661</v>
+        <v>6656</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>7084</v>
+        <v>7079</v>
       </c>
       <c r="E2446" s="1" t="s">
         <v>3205</v>
@@ -73192,7 +73131,7 @@
         <v>5478</v>
       </c>
       <c r="D2448" s="1" t="s">
-        <v>7085</v>
+        <v>7080</v>
       </c>
       <c r="E2448" s="1" t="s">
         <v>3205</v>
@@ -73209,7 +73148,7 @@
         <v>5479</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>7086</v>
+        <v>7081</v>
       </c>
       <c r="E2449" s="1" t="s">
         <v>3205</v>
@@ -73370,16 +73309,16 @@
     </row>
     <row r="2459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2459" s="1" t="s">
-        <v>6662</v>
+        <v>6657</v>
       </c>
       <c r="B2459" s="1" t="s">
         <v>5489</v>
       </c>
       <c r="C2459" s="1" t="s">
-        <v>6662</v>
+        <v>6657</v>
       </c>
       <c r="D2459" s="1" t="s">
-        <v>7087</v>
+        <v>7082</v>
       </c>
       <c r="E2459" s="1" t="s">
         <v>3205</v>
@@ -74033,13 +73972,13 @@
     </row>
     <row r="2498" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2498" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="B2498" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2498" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="D2498" s="1" t="s">
         <v>2603</v>
@@ -74050,13 +73989,13 @@
     </row>
     <row r="2499" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2499" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="B2499" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2499" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="D2499" s="1" t="s">
         <v>2594</v>
@@ -74067,16 +74006,16 @@
     </row>
     <row r="2500" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2500" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="B2500" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2500" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="D2500" s="1" t="s">
-        <v>7096</v>
+        <v>7091</v>
       </c>
       <c r="E2500" s="1" t="s">
         <v>3203</v>
@@ -74203,16 +74142,16 @@
     </row>
     <row r="2508" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2508" s="1" t="s">
-        <v>6663</v>
+        <v>6658</v>
       </c>
       <c r="B2508" s="1" t="s">
         <v>5526</v>
       </c>
       <c r="C2508" s="1" t="s">
-        <v>6663</v>
+        <v>6658</v>
       </c>
       <c r="D2508" s="1" t="s">
-        <v>7088</v>
+        <v>7083</v>
       </c>
       <c r="E2508" s="1" t="s">
         <v>3205</v>
@@ -74339,16 +74278,16 @@
     </row>
     <row r="2516" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2516" s="1" t="s">
-        <v>6664</v>
+        <v>6659</v>
       </c>
       <c r="B2516" s="1" t="s">
         <v>5536</v>
       </c>
       <c r="C2516" s="1" t="s">
-        <v>6664</v>
+        <v>6659</v>
       </c>
       <c r="D2516" s="1" t="s">
-        <v>7089</v>
+        <v>7084</v>
       </c>
       <c r="E2516" s="1" t="s">
         <v>3205</v>
@@ -74390,16 +74329,16 @@
     </row>
     <row r="2519" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2519" s="1" t="s">
-        <v>6665</v>
+        <v>6660</v>
       </c>
       <c r="B2519" s="1" t="s">
         <v>5540</v>
       </c>
       <c r="C2519" s="1" t="s">
-        <v>6665</v>
+        <v>6660</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>7090</v>
+        <v>7085</v>
       </c>
       <c r="E2519" s="1" t="s">
         <v>3205</v>
@@ -74611,16 +74550,16 @@
     </row>
     <row r="2532" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2532" s="1" t="s">
-        <v>6666</v>
+        <v>6661</v>
       </c>
       <c r="B2532" s="1" t="s">
         <v>5554</v>
       </c>
       <c r="C2532" s="1" t="s">
-        <v>6666</v>
+        <v>6661</v>
       </c>
       <c r="D2532" s="1" t="s">
-        <v>7091</v>
+        <v>7086</v>
       </c>
       <c r="E2532" s="1" t="s">
         <v>3205</v>
@@ -74696,16 +74635,16 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2537" s="1" t="s">
-        <v>6668</v>
+        <v>6663</v>
       </c>
       <c r="B2537" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2537" s="1" t="s">
-        <v>6668</v>
+        <v>6663</v>
       </c>
       <c r="D2537" s="1" t="s">
-        <v>7092</v>
+        <v>7087</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>3205</v>
@@ -74713,13 +74652,13 @@
     </row>
     <row r="2538" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2538" s="1" t="s">
-        <v>6669</v>
+        <v>6664</v>
       </c>
       <c r="B2538" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2538" s="1" t="s">
-        <v>6669</v>
+        <v>6664</v>
       </c>
       <c r="D2538" s="1" t="s">
         <v>2604</v>
@@ -74730,13 +74669,13 @@
     </row>
     <row r="2539" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2539" s="1" t="s">
-        <v>6670</v>
+        <v>6665</v>
       </c>
       <c r="B2539" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2539" s="1" t="s">
-        <v>6670</v>
+        <v>6665</v>
       </c>
       <c r="D2539" s="1" t="s">
         <v>2605</v>
@@ -74747,13 +74686,13 @@
     </row>
     <row r="2540" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2540" s="1" t="s">
-        <v>6671</v>
+        <v>6666</v>
       </c>
       <c r="B2540" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2540" s="1" t="s">
-        <v>6671</v>
+        <v>6666</v>
       </c>
       <c r="D2540" s="1" t="s">
         <v>2606</v>
@@ -74764,13 +74703,13 @@
     </row>
     <row r="2541" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2541" s="1" t="s">
-        <v>6672</v>
+        <v>6667</v>
       </c>
       <c r="B2541" s="1" t="s">
+        <v>6662</v>
+      </c>
+      <c r="C2541" s="1" t="s">
         <v>6667</v>
-      </c>
-      <c r="C2541" s="1" t="s">
-        <v>6672</v>
       </c>
       <c r="D2541" s="1" t="s">
         <v>2607</v>
@@ -74781,13 +74720,13 @@
     </row>
     <row r="2542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2542" s="1" t="s">
-        <v>6673</v>
+        <v>6668</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2542" s="1" t="s">
-        <v>6673</v>
+        <v>6668</v>
       </c>
       <c r="D2542" s="1" t="s">
         <v>2608</v>
@@ -74798,16 +74737,16 @@
     </row>
     <row r="2543" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2543" s="1" t="s">
-        <v>6674</v>
+        <v>6669</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2543" s="1" t="s">
-        <v>6674</v>
+        <v>6669</v>
       </c>
       <c r="D2543" s="1" t="s">
-        <v>7093</v>
+        <v>7088</v>
       </c>
       <c r="E2543" s="1" t="s">
         <v>3205</v>
@@ -74815,13 +74754,13 @@
     </row>
     <row r="2544" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2544" s="1" t="s">
-        <v>6675</v>
+        <v>6670</v>
       </c>
       <c r="B2544" s="1" t="s">
-        <v>6667</v>
+        <v>6662</v>
       </c>
       <c r="C2544" s="1" t="s">
-        <v>6675</v>
+        <v>6670</v>
       </c>
       <c r="D2544" s="1" t="s">
         <v>2609</v>
@@ -74832,16 +74771,16 @@
     </row>
     <row r="2545" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2545" s="1" t="s">
-        <v>6677</v>
+        <v>6672</v>
       </c>
       <c r="B2545" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2545" s="1" t="s">
-        <v>6677</v>
+        <v>6672</v>
       </c>
       <c r="D2545" s="1" t="s">
-        <v>7094</v>
+        <v>7089</v>
       </c>
       <c r="E2545" s="1" t="s">
         <v>3205</v>
@@ -74849,16 +74788,16 @@
     </row>
     <row r="2546" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2546" s="1" t="s">
-        <v>6678</v>
+        <v>6673</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2546" s="1" t="s">
-        <v>6678</v>
+        <v>6673</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>7095</v>
+        <v>7090</v>
       </c>
       <c r="E2546" s="1" t="s">
         <v>3205</v>
@@ -74866,13 +74805,13 @@
     </row>
     <row r="2547" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2547" s="1" t="s">
-        <v>6679</v>
+        <v>6674</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2547" s="1" t="s">
-        <v>6679</v>
+        <v>6674</v>
       </c>
       <c r="D2547" s="1" t="s">
         <v>2595</v>
@@ -74883,13 +74822,13 @@
     </row>
     <row r="2548" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2548" s="1" t="s">
-        <v>6680</v>
+        <v>6675</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2548" s="1" t="s">
-        <v>6680</v>
+        <v>6675</v>
       </c>
       <c r="D2548" s="1" t="s">
         <v>2596</v>
@@ -74900,13 +74839,13 @@
     </row>
     <row r="2549" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2549" s="1" t="s">
-        <v>6681</v>
+        <v>6676</v>
       </c>
       <c r="B2549" s="1" t="s">
+        <v>6671</v>
+      </c>
+      <c r="C2549" s="1" t="s">
         <v>6676</v>
-      </c>
-      <c r="C2549" s="1" t="s">
-        <v>6681</v>
       </c>
       <c r="D2549" s="1" t="s">
         <v>2597</v>
@@ -74917,13 +74856,13 @@
     </row>
     <row r="2550" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2550" s="1" t="s">
-        <v>6682</v>
+        <v>6677</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2550" s="1" t="s">
-        <v>6682</v>
+        <v>6677</v>
       </c>
       <c r="D2550" s="1" t="s">
         <v>2598</v>
@@ -74934,13 +74873,13 @@
     </row>
     <row r="2551" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2551" s="1" t="s">
-        <v>6683</v>
+        <v>6678</v>
       </c>
       <c r="B2551" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2551" s="1" t="s">
-        <v>6683</v>
+        <v>6678</v>
       </c>
       <c r="D2551" s="1" t="s">
         <v>2599</v>
@@ -74951,13 +74890,13 @@
     </row>
     <row r="2552" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2552" s="1" t="s">
-        <v>6684</v>
+        <v>6679</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2552" s="1" t="s">
-        <v>6684</v>
+        <v>6679</v>
       </c>
       <c r="D2552" s="1" t="s">
         <v>2600</v>
@@ -74968,13 +74907,13 @@
     </row>
     <row r="2553" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2553" s="1" t="s">
-        <v>6685</v>
+        <v>6680</v>
       </c>
       <c r="B2553" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2553" s="1" t="s">
-        <v>6685</v>
+        <v>6680</v>
       </c>
       <c r="D2553" s="1" t="s">
         <v>2601</v>
@@ -74985,13 +74924,13 @@
     </row>
     <row r="2554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2554" s="1" t="s">
-        <v>6686</v>
+        <v>6681</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="C2554" s="1" t="s">
-        <v>6686</v>
+        <v>6681</v>
       </c>
       <c r="D2554" s="1" t="s">
         <v>2602</v>
@@ -75002,16 +74941,16 @@
     </row>
     <row r="2555" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2555" s="1" t="s">
-        <v>6688</v>
+        <v>6683</v>
       </c>
       <c r="B2555" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2555" s="1" t="s">
-        <v>6688</v>
+        <v>6683</v>
       </c>
       <c r="D2555" s="1" t="s">
-        <v>7097</v>
+        <v>7092</v>
       </c>
       <c r="E2555" s="1" t="s">
         <v>3205</v>
@@ -75019,16 +74958,16 @@
     </row>
     <row r="2556" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2556" s="1" t="s">
-        <v>6689</v>
+        <v>6684</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2556" s="1" t="s">
-        <v>6689</v>
+        <v>6684</v>
       </c>
       <c r="D2556" s="1" t="s">
-        <v>7098</v>
+        <v>7093</v>
       </c>
       <c r="E2556" s="1" t="s">
         <v>3205</v>
@@ -75036,16 +74975,16 @@
     </row>
     <row r="2557" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2557" s="1" t="s">
-        <v>6690</v>
+        <v>6685</v>
       </c>
       <c r="B2557" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2557" s="1" t="s">
-        <v>6690</v>
+        <v>6685</v>
       </c>
       <c r="D2557" s="1" t="s">
-        <v>7099</v>
+        <v>7094</v>
       </c>
       <c r="E2557" s="1" t="s">
         <v>3205</v>
@@ -75053,16 +74992,16 @@
     </row>
     <row r="2558" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2558" s="1" t="s">
-        <v>6691</v>
+        <v>6686</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2558" s="1" t="s">
-        <v>6691</v>
+        <v>6686</v>
       </c>
       <c r="D2558" s="1" t="s">
-        <v>7100</v>
+        <v>7095</v>
       </c>
       <c r="E2558" s="1" t="s">
         <v>3205</v>
@@ -75070,16 +75009,16 @@
     </row>
     <row r="2559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2559" s="1" t="s">
-        <v>6692</v>
+        <v>6687</v>
       </c>
       <c r="B2559" s="1" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C2559" s="1" t="s">
         <v>6687</v>
       </c>
-      <c r="C2559" s="1" t="s">
-        <v>6692</v>
-      </c>
       <c r="D2559" s="1" t="s">
-        <v>7101</v>
+        <v>7096</v>
       </c>
       <c r="E2559" s="1" t="s">
         <v>3205</v>
@@ -75087,16 +75026,16 @@
     </row>
     <row r="2560" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2560" s="1" t="s">
-        <v>6693</v>
+        <v>6688</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2560" s="1" t="s">
-        <v>6693</v>
+        <v>6688</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>7102</v>
+        <v>7097</v>
       </c>
       <c r="E2560" s="1" t="s">
         <v>3205</v>
@@ -75104,16 +75043,16 @@
     </row>
     <row r="2561" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2561" s="1" t="s">
-        <v>6694</v>
+        <v>6689</v>
       </c>
       <c r="B2561" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2561" s="1" t="s">
-        <v>6694</v>
+        <v>6689</v>
       </c>
       <c r="D2561" s="1" t="s">
-        <v>7103</v>
+        <v>7098</v>
       </c>
       <c r="E2561" s="1" t="s">
         <v>3205</v>
@@ -75121,16 +75060,16 @@
     </row>
     <row r="2562" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2562" s="1" t="s">
-        <v>6695</v>
+        <v>6690</v>
       </c>
       <c r="B2562" s="1" t="s">
-        <v>6687</v>
+        <v>6682</v>
       </c>
       <c r="C2562" s="1" t="s">
-        <v>6695</v>
+        <v>6690</v>
       </c>
       <c r="D2562" s="1" t="s">
-        <v>7104</v>
+        <v>7099</v>
       </c>
       <c r="E2562" s="1" t="s">
         <v>3205</v>
@@ -75725,7 +75664,7 @@
         <v>5644</v>
       </c>
       <c r="D2597" s="1" t="s">
-        <v>7111</v>
+        <v>7106</v>
       </c>
       <c r="E2597" s="1" t="s">
         <v>3203</v>
@@ -75971,16 +75910,16 @@
     </row>
     <row r="2612" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2612" s="1" t="s">
-        <v>6696</v>
+        <v>6691</v>
       </c>
       <c r="B2612" s="1" t="s">
         <v>5591</v>
       </c>
       <c r="C2612" s="1" t="s">
-        <v>6696</v>
+        <v>6691</v>
       </c>
       <c r="D2612" s="1" t="s">
-        <v>7105</v>
+        <v>7100</v>
       </c>
       <c r="E2612" s="1" t="s">
         <v>3205</v>
@@ -75988,16 +75927,16 @@
     </row>
     <row r="2613" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2613" s="1" t="s">
-        <v>6697</v>
+        <v>6692</v>
       </c>
       <c r="B2613" s="1" t="s">
         <v>5591</v>
       </c>
       <c r="C2613" s="1" t="s">
-        <v>6697</v>
+        <v>6692</v>
       </c>
       <c r="D2613" s="1" t="s">
-        <v>7106</v>
+        <v>7101</v>
       </c>
       <c r="E2613" s="1" t="s">
         <v>3205</v>
@@ -76141,16 +76080,16 @@
     </row>
     <row r="2622" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2622" s="1" t="s">
-        <v>6698</v>
+        <v>6693</v>
       </c>
       <c r="B2622" s="1" t="s">
         <v>5604</v>
       </c>
       <c r="C2622" s="1" t="s">
-        <v>6698</v>
+        <v>6693</v>
       </c>
       <c r="D2622" s="1" t="s">
-        <v>7107</v>
+        <v>7102</v>
       </c>
       <c r="E2622" s="1" t="s">
         <v>3205</v>
@@ -76294,16 +76233,16 @@
     </row>
     <row r="2631" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2631" s="1" t="s">
-        <v>6699</v>
+        <v>6694</v>
       </c>
       <c r="B2631" s="1" t="s">
         <v>5613</v>
       </c>
       <c r="C2631" s="1" t="s">
-        <v>6699</v>
+        <v>6694</v>
       </c>
       <c r="D2631" s="1" t="s">
-        <v>7108</v>
+        <v>7103</v>
       </c>
       <c r="E2631" s="1" t="s">
         <v>3205</v>
@@ -76413,16 +76352,16 @@
     </row>
     <row r="2638" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2638" s="1" t="s">
-        <v>6700</v>
+        <v>6695</v>
       </c>
       <c r="B2638" s="1" t="s">
         <v>5613</v>
       </c>
       <c r="C2638" s="1" t="s">
-        <v>6700</v>
+        <v>6695</v>
       </c>
       <c r="D2638" s="1" t="s">
-        <v>7109</v>
+        <v>7104</v>
       </c>
       <c r="E2638" s="1" t="s">
         <v>3205</v>
@@ -76498,16 +76437,16 @@
     </row>
     <row r="2643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2643" s="1" t="s">
-        <v>6701</v>
+        <v>6696</v>
       </c>
       <c r="B2643" s="1" t="s">
         <v>5621</v>
       </c>
       <c r="C2643" s="1" t="s">
-        <v>6701</v>
+        <v>6696</v>
       </c>
       <c r="D2643" s="1" t="s">
-        <v>7110</v>
+        <v>7105</v>
       </c>
       <c r="E2643" s="1" t="s">
         <v>3205</v>
@@ -76796,7 +76735,7 @@
         <v>5645</v>
       </c>
       <c r="D2660" s="1" t="s">
-        <v>7112</v>
+        <v>7107</v>
       </c>
       <c r="E2660" s="1" t="s">
         <v>3205</v>
@@ -76813,7 +76752,7 @@
         <v>5646</v>
       </c>
       <c r="D2661" s="1" t="s">
-        <v>7113</v>
+        <v>7108</v>
       </c>
       <c r="E2661" s="1" t="s">
         <v>3205</v>
@@ -76872,16 +76811,16 @@
     </row>
     <row r="2665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2665" s="1" t="s">
-        <v>6702</v>
+        <v>6697</v>
       </c>
       <c r="B2665" s="1" t="s">
         <v>5644</v>
       </c>
       <c r="C2665" s="1" t="s">
-        <v>6702</v>
+        <v>6697</v>
       </c>
       <c r="D2665" s="1" t="s">
-        <v>7114</v>
+        <v>7109</v>
       </c>
       <c r="E2665" s="1" t="s">
         <v>3205</v>
@@ -76906,16 +76845,16 @@
     </row>
     <row r="2667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2667" s="1" t="s">
-        <v>6703</v>
+        <v>6698</v>
       </c>
       <c r="B2667" s="1" t="s">
         <v>5644</v>
       </c>
       <c r="C2667" s="1" t="s">
-        <v>6703</v>
+        <v>6698</v>
       </c>
       <c r="D2667" s="1" t="s">
-        <v>7115</v>
+        <v>7110</v>
       </c>
       <c r="E2667" s="1" t="s">
         <v>3205</v>
@@ -77000,7 +76939,7 @@
         <v>5656</v>
       </c>
       <c r="D2672" s="1" t="s">
-        <v>7116</v>
+        <v>7111</v>
       </c>
       <c r="E2672" s="1" t="s">
         <v>3205</v>
@@ -77042,16 +76981,16 @@
     </row>
     <row r="2675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2675" s="1" t="s">
-        <v>6704</v>
+        <v>6699</v>
       </c>
       <c r="B2675" s="1" t="s">
         <v>5653</v>
       </c>
       <c r="C2675" s="1" t="s">
-        <v>6704</v>
+        <v>6699</v>
       </c>
       <c r="D2675" s="1" t="s">
-        <v>7117</v>
+        <v>7112</v>
       </c>
       <c r="E2675" s="1" t="s">
         <v>3205</v>
@@ -77297,16 +77236,16 @@
     </row>
     <row r="2690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2690" s="1" t="s">
-        <v>6705</v>
+        <v>6700</v>
       </c>
       <c r="B2690" s="1" t="s">
         <v>5672</v>
       </c>
       <c r="C2690" s="1" t="s">
-        <v>6705</v>
+        <v>6700</v>
       </c>
       <c r="D2690" s="1" t="s">
-        <v>7118</v>
+        <v>7113</v>
       </c>
       <c r="E2690" s="1" t="s">
         <v>3205</v>
@@ -77314,16 +77253,16 @@
     </row>
     <row r="2691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2691" s="1" t="s">
-        <v>6706</v>
+        <v>6701</v>
       </c>
       <c r="B2691" s="1" t="s">
         <v>5672</v>
       </c>
       <c r="C2691" s="1" t="s">
-        <v>6706</v>
+        <v>6701</v>
       </c>
       <c r="D2691" s="1" t="s">
-        <v>7119</v>
+        <v>7114</v>
       </c>
       <c r="E2691" s="1" t="s">
         <v>3205</v>
@@ -77433,16 +77372,16 @@
     </row>
     <row r="2698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2698" s="1" t="s">
-        <v>6707</v>
+        <v>6702</v>
       </c>
       <c r="B2698" s="1" t="s">
         <v>5672</v>
       </c>
       <c r="C2698" s="1" t="s">
-        <v>6707</v>
+        <v>6702</v>
       </c>
       <c r="D2698" s="1" t="s">
-        <v>7120</v>
+        <v>7115</v>
       </c>
       <c r="E2698" s="1" t="s">
         <v>3205</v>
@@ -77484,16 +77423,16 @@
     </row>
     <row r="2701" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2701" s="1" t="s">
-        <v>6708</v>
+        <v>6703</v>
       </c>
       <c r="B2701" s="1" t="s">
         <v>5683</v>
       </c>
       <c r="C2701" s="1" t="s">
-        <v>6708</v>
+        <v>6703</v>
       </c>
       <c r="D2701" s="1" t="s">
-        <v>7121</v>
+        <v>7116</v>
       </c>
       <c r="E2701" s="1" t="s">
         <v>3205</v>
@@ -77901,7 +77840,7 @@
         <v>5710</v>
       </c>
       <c r="D2725" s="1" t="s">
-        <v>7122</v>
+        <v>7117</v>
       </c>
       <c r="E2725" s="1" t="s">
         <v>3205</v>
@@ -77960,16 +77899,16 @@
     </row>
     <row r="2729" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2729" s="1" t="s">
-        <v>6709</v>
+        <v>6704</v>
       </c>
       <c r="B2729" s="1" t="s">
         <v>5714</v>
       </c>
       <c r="C2729" s="1" t="s">
-        <v>6709</v>
+        <v>6704</v>
       </c>
       <c r="D2729" s="1" t="s">
-        <v>7123</v>
+        <v>7118</v>
       </c>
       <c r="E2729" s="1" t="s">
         <v>3205</v>
@@ -78028,16 +77967,16 @@
     </row>
     <row r="2733" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2733" s="1" t="s">
-        <v>6710</v>
+        <v>6705</v>
       </c>
       <c r="B2733" s="1" t="s">
         <v>5718</v>
       </c>
       <c r="C2733" s="1" t="s">
-        <v>6710</v>
+        <v>6705</v>
       </c>
       <c r="D2733" s="1" t="s">
-        <v>7124</v>
+        <v>7119</v>
       </c>
       <c r="E2733" s="1" t="s">
         <v>3205</v>
@@ -78096,13 +78035,13 @@
     </row>
     <row r="2737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2737" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="B2737" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2737" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="D2737" s="1" t="s">
         <v>2796</v>
@@ -78113,16 +78052,16 @@
     </row>
     <row r="2738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2738" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="B2738" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2738" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="D2738" s="1" t="s">
-        <v>7127</v>
+        <v>7122</v>
       </c>
       <c r="E2738" s="1" t="s">
         <v>3203</v>
@@ -78130,16 +78069,16 @@
     </row>
     <row r="2739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2739" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="B2739" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2739" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="D2739" s="1" t="s">
-        <v>7129</v>
+        <v>7124</v>
       </c>
       <c r="E2739" s="1" t="s">
         <v>3203</v>
@@ -78147,16 +78086,16 @@
     </row>
     <row r="2740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2740" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="B2740" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2740" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="D2740" s="1" t="s">
-        <v>7132</v>
+        <v>7127</v>
       </c>
       <c r="E2740" s="1" t="s">
         <v>3203</v>
@@ -78215,16 +78154,16 @@
     </row>
     <row r="2744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2744" s="1" t="s">
-        <v>6711</v>
+        <v>6706</v>
       </c>
       <c r="B2744" s="1" t="s">
         <v>5722</v>
       </c>
       <c r="C2744" s="1" t="s">
-        <v>6711</v>
+        <v>6706</v>
       </c>
       <c r="D2744" s="1" t="s">
-        <v>7125</v>
+        <v>7120</v>
       </c>
       <c r="E2744" s="1" t="s">
         <v>3205</v>
@@ -78334,16 +78273,16 @@
     </row>
     <row r="2751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2751" s="1" t="s">
-        <v>6713</v>
+        <v>6708</v>
       </c>
       <c r="B2751" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2751" s="1" t="s">
-        <v>6713</v>
+        <v>6708</v>
       </c>
       <c r="D2751" s="1" t="s">
-        <v>7126</v>
+        <v>7121</v>
       </c>
       <c r="E2751" s="1" t="s">
         <v>3205</v>
@@ -78351,13 +78290,13 @@
     </row>
     <row r="2752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2752" s="1" t="s">
-        <v>6714</v>
+        <v>6709</v>
       </c>
       <c r="B2752" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2752" s="1" t="s">
-        <v>6714</v>
+        <v>6709</v>
       </c>
       <c r="D2752" s="1" t="s">
         <v>2797</v>
@@ -78368,13 +78307,13 @@
     </row>
     <row r="2753" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2753" s="1" t="s">
-        <v>6715</v>
+        <v>6710</v>
       </c>
       <c r="B2753" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2753" s="1" t="s">
-        <v>6715</v>
+        <v>6710</v>
       </c>
       <c r="D2753" s="1" t="s">
         <v>2798</v>
@@ -78385,13 +78324,13 @@
     </row>
     <row r="2754" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2754" s="1" t="s">
-        <v>6716</v>
+        <v>6711</v>
       </c>
       <c r="B2754" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2754" s="1" t="s">
-        <v>6716</v>
+        <v>6711</v>
       </c>
       <c r="D2754" s="1" t="s">
         <v>2799</v>
@@ -78402,13 +78341,13 @@
     </row>
     <row r="2755" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2755" s="1" t="s">
-        <v>6717</v>
+        <v>6712</v>
       </c>
       <c r="B2755" s="1" t="s">
+        <v>6707</v>
+      </c>
+      <c r="C2755" s="1" t="s">
         <v>6712</v>
-      </c>
-      <c r="C2755" s="1" t="s">
-        <v>6717</v>
       </c>
       <c r="D2755" s="1" t="s">
         <v>2800</v>
@@ -78419,13 +78358,13 @@
     </row>
     <row r="2756" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2756" s="1" t="s">
-        <v>6718</v>
+        <v>6713</v>
       </c>
       <c r="B2756" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2756" s="1" t="s">
-        <v>6718</v>
+        <v>6713</v>
       </c>
       <c r="D2756" s="1" t="s">
         <v>2801</v>
@@ -78436,13 +78375,13 @@
     </row>
     <row r="2757" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2757" s="1" t="s">
-        <v>6719</v>
+        <v>6714</v>
       </c>
       <c r="B2757" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2757" s="1" t="s">
-        <v>6719</v>
+        <v>6714</v>
       </c>
       <c r="D2757" s="1" t="s">
         <v>2802</v>
@@ -78453,13 +78392,13 @@
     </row>
     <row r="2758" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2758" s="1" t="s">
-        <v>6720</v>
+        <v>6715</v>
       </c>
       <c r="B2758" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2758" s="1" t="s">
-        <v>6720</v>
+        <v>6715</v>
       </c>
       <c r="D2758" s="1" t="s">
         <v>2803</v>
@@ -78470,13 +78409,13 @@
     </row>
     <row r="2759" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2759" s="1" t="s">
-        <v>6721</v>
+        <v>6716</v>
       </c>
       <c r="B2759" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2759" s="1" t="s">
-        <v>6721</v>
+        <v>6716</v>
       </c>
       <c r="D2759" s="1" t="s">
         <v>2804</v>
@@ -78487,13 +78426,13 @@
     </row>
     <row r="2760" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2760" s="1" t="s">
-        <v>6722</v>
+        <v>6717</v>
       </c>
       <c r="B2760" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2760" s="1" t="s">
-        <v>6722</v>
+        <v>6717</v>
       </c>
       <c r="D2760" s="1" t="s">
         <v>2805</v>
@@ -78504,13 +78443,13 @@
     </row>
     <row r="2761" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2761" s="1" t="s">
-        <v>6723</v>
+        <v>6718</v>
       </c>
       <c r="B2761" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2761" s="1" t="s">
-        <v>6723</v>
+        <v>6718</v>
       </c>
       <c r="D2761" s="1" t="s">
         <v>2806</v>
@@ -78521,13 +78460,13 @@
     </row>
     <row r="2762" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2762" s="1" t="s">
-        <v>6724</v>
+        <v>6719</v>
       </c>
       <c r="B2762" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2762" s="1" t="s">
-        <v>6724</v>
+        <v>6719</v>
       </c>
       <c r="D2762" s="1" t="s">
         <v>2807</v>
@@ -78538,13 +78477,13 @@
     </row>
     <row r="2763" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2763" s="1" t="s">
-        <v>6725</v>
+        <v>6720</v>
       </c>
       <c r="B2763" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2763" s="1" t="s">
-        <v>6725</v>
+        <v>6720</v>
       </c>
       <c r="D2763" s="1" t="s">
         <v>2808</v>
@@ -78555,13 +78494,13 @@
     </row>
     <row r="2764" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2764" s="1" t="s">
-        <v>6726</v>
+        <v>6721</v>
       </c>
       <c r="B2764" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2764" s="1" t="s">
-        <v>6726</v>
+        <v>6721</v>
       </c>
       <c r="D2764" s="1" t="s">
         <v>2809</v>
@@ -78572,13 +78511,13 @@
     </row>
     <row r="2765" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2765" s="1" t="s">
-        <v>6727</v>
+        <v>6722</v>
       </c>
       <c r="B2765" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2765" s="1" t="s">
-        <v>6727</v>
+        <v>6722</v>
       </c>
       <c r="D2765" s="1" t="s">
         <v>2810</v>
@@ -78589,13 +78528,13 @@
     </row>
     <row r="2766" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2766" s="1" t="s">
-        <v>6728</v>
+        <v>6723</v>
       </c>
       <c r="B2766" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2766" s="1" t="s">
-        <v>6728</v>
+        <v>6723</v>
       </c>
       <c r="D2766" s="1" t="s">
         <v>2811</v>
@@ -78606,13 +78545,13 @@
     </row>
     <row r="2767" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2767" s="1" t="s">
-        <v>6729</v>
+        <v>6724</v>
       </c>
       <c r="B2767" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2767" s="1" t="s">
-        <v>6729</v>
+        <v>6724</v>
       </c>
       <c r="D2767" s="1" t="s">
         <v>2812</v>
@@ -78623,13 +78562,13 @@
     </row>
     <row r="2768" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2768" s="1" t="s">
-        <v>6730</v>
+        <v>6725</v>
       </c>
       <c r="B2768" s="1" t="s">
-        <v>6712</v>
+        <v>6707</v>
       </c>
       <c r="C2768" s="1" t="s">
-        <v>6730</v>
+        <v>6725</v>
       </c>
       <c r="D2768" s="1" t="s">
         <v>2813</v>
@@ -78640,16 +78579,16 @@
     </row>
     <row r="2769" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2769" s="1" t="s">
-        <v>6732</v>
+        <v>6727</v>
       </c>
       <c r="B2769" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2769" s="1" t="s">
-        <v>6732</v>
+        <v>6727</v>
       </c>
       <c r="D2769" s="1" t="s">
-        <v>7128</v>
+        <v>7123</v>
       </c>
       <c r="E2769" s="1" t="s">
         <v>3205</v>
@@ -78657,13 +78596,13 @@
     </row>
     <row r="2770" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2770" s="1" t="s">
-        <v>6733</v>
+        <v>6728</v>
       </c>
       <c r="B2770" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2770" s="1" t="s">
-        <v>6733</v>
+        <v>6728</v>
       </c>
       <c r="D2770" s="1" t="s">
         <v>2775</v>
@@ -78674,13 +78613,13 @@
     </row>
     <row r="2771" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2771" s="1" t="s">
-        <v>6734</v>
+        <v>6729</v>
       </c>
       <c r="B2771" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2771" s="1" t="s">
-        <v>6734</v>
+        <v>6729</v>
       </c>
       <c r="D2771" s="1" t="s">
         <v>2776</v>
@@ -78691,13 +78630,13 @@
     </row>
     <row r="2772" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2772" s="1" t="s">
-        <v>6735</v>
+        <v>6730</v>
       </c>
       <c r="B2772" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2772" s="1" t="s">
-        <v>6735</v>
+        <v>6730</v>
       </c>
       <c r="D2772" s="1" t="s">
         <v>2777</v>
@@ -78708,13 +78647,13 @@
     </row>
     <row r="2773" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2773" s="1" t="s">
-        <v>6736</v>
+        <v>6731</v>
       </c>
       <c r="B2773" s="1" t="s">
+        <v>6726</v>
+      </c>
+      <c r="C2773" s="1" t="s">
         <v>6731</v>
-      </c>
-      <c r="C2773" s="1" t="s">
-        <v>6736</v>
       </c>
       <c r="D2773" s="1" t="s">
         <v>2778</v>
@@ -78725,13 +78664,13 @@
     </row>
     <row r="2774" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2774" s="1" t="s">
-        <v>6737</v>
+        <v>6732</v>
       </c>
       <c r="B2774" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2774" s="1" t="s">
-        <v>6737</v>
+        <v>6732</v>
       </c>
       <c r="D2774" s="1" t="s">
         <v>2779</v>
@@ -78742,13 +78681,13 @@
     </row>
     <row r="2775" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2775" s="1" t="s">
-        <v>6738</v>
+        <v>6733</v>
       </c>
       <c r="B2775" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2775" s="1" t="s">
-        <v>6738</v>
+        <v>6733</v>
       </c>
       <c r="D2775" s="1" t="s">
         <v>2780</v>
@@ -78759,13 +78698,13 @@
     </row>
     <row r="2776" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2776" s="1" t="s">
-        <v>6739</v>
+        <v>6734</v>
       </c>
       <c r="B2776" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2776" s="1" t="s">
-        <v>6739</v>
+        <v>6734</v>
       </c>
       <c r="D2776" s="1" t="s">
         <v>2781</v>
@@ -78776,13 +78715,13 @@
     </row>
     <row r="2777" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2777" s="1" t="s">
-        <v>6740</v>
+        <v>6735</v>
       </c>
       <c r="B2777" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2777" s="1" t="s">
-        <v>6740</v>
+        <v>6735</v>
       </c>
       <c r="D2777" s="1" t="s">
         <v>2782</v>
@@ -78793,13 +78732,13 @@
     </row>
     <row r="2778" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2778" s="1" t="s">
-        <v>6741</v>
+        <v>6736</v>
       </c>
       <c r="B2778" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2778" s="1" t="s">
-        <v>6741</v>
+        <v>6736</v>
       </c>
       <c r="D2778" s="1" t="s">
         <v>2783</v>
@@ -78810,13 +78749,13 @@
     </row>
     <row r="2779" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2779" s="1" t="s">
-        <v>6742</v>
+        <v>6737</v>
       </c>
       <c r="B2779" s="1" t="s">
-        <v>6731</v>
+        <v>6726</v>
       </c>
       <c r="C2779" s="1" t="s">
-        <v>6742</v>
+        <v>6737</v>
       </c>
       <c r="D2779" s="1" t="s">
         <v>2784</v>
@@ -78827,16 +78766,16 @@
     </row>
     <row r="2780" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2780" s="1" t="s">
-        <v>6744</v>
+        <v>6739</v>
       </c>
       <c r="B2780" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="C2780" s="1" t="s">
-        <v>6744</v>
+        <v>6739</v>
       </c>
       <c r="D2780" s="1" t="s">
-        <v>7130</v>
+        <v>7125</v>
       </c>
       <c r="E2780" s="1" t="s">
         <v>3205</v>
@@ -78844,13 +78783,13 @@
     </row>
     <row r="2781" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2781" s="1" t="s">
-        <v>6745</v>
+        <v>6740</v>
       </c>
       <c r="B2781" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="C2781" s="1" t="s">
-        <v>6745</v>
+        <v>6740</v>
       </c>
       <c r="D2781" s="1" t="s">
         <v>2832</v>
@@ -78861,13 +78800,13 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2782" s="1" t="s">
-        <v>6746</v>
+        <v>6741</v>
       </c>
       <c r="B2782" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="C2782" s="1" t="s">
-        <v>6746</v>
+        <v>6741</v>
       </c>
       <c r="D2782" s="1" t="s">
         <v>2833</v>
@@ -78878,13 +78817,13 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2783" s="1" t="s">
-        <v>6747</v>
+        <v>6742</v>
       </c>
       <c r="B2783" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="C2783" s="1" t="s">
-        <v>6747</v>
+        <v>6742</v>
       </c>
       <c r="D2783" s="1" t="s">
         <v>2834</v>
@@ -78895,13 +78834,13 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2784" s="1" t="s">
-        <v>6748</v>
+        <v>6743</v>
       </c>
       <c r="B2784" s="1" t="s">
+        <v>6738</v>
+      </c>
+      <c r="C2784" s="1" t="s">
         <v>6743</v>
-      </c>
-      <c r="C2784" s="1" t="s">
-        <v>6748</v>
       </c>
       <c r="D2784" s="1" t="s">
         <v>2835</v>
@@ -78912,13 +78851,13 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2785" s="1" t="s">
-        <v>6749</v>
+        <v>6744</v>
       </c>
       <c r="B2785" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="C2785" s="1" t="s">
-        <v>6749</v>
+        <v>6744</v>
       </c>
       <c r="D2785" s="1" t="s">
         <v>2836</v>
@@ -78929,16 +78868,16 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2786" s="1" t="s">
-        <v>6750</v>
+        <v>6745</v>
       </c>
       <c r="B2786" s="1" t="s">
-        <v>6743</v>
+        <v>6738</v>
       </c>
       <c r="C2786" s="1" t="s">
-        <v>6750</v>
+        <v>6745</v>
       </c>
       <c r="D2786" s="1" t="s">
-        <v>7131</v>
+        <v>7126</v>
       </c>
       <c r="E2786" s="1" t="s">
         <v>3205</v>
@@ -78946,16 +78885,16 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2787" s="1" t="s">
-        <v>6752</v>
+        <v>6747</v>
       </c>
       <c r="B2787" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2787" s="1" t="s">
-        <v>6752</v>
+        <v>6747</v>
       </c>
       <c r="D2787" s="1" t="s">
-        <v>7133</v>
+        <v>7128</v>
       </c>
       <c r="E2787" s="1" t="s">
         <v>3205</v>
@@ -78963,13 +78902,13 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2788" s="1" t="s">
-        <v>6753</v>
+        <v>6748</v>
       </c>
       <c r="B2788" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2788" s="1" t="s">
-        <v>6753</v>
+        <v>6748</v>
       </c>
       <c r="D2788" s="1" t="s">
         <v>2785</v>
@@ -78980,13 +78919,13 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2789" s="1" t="s">
-        <v>6754</v>
+        <v>6749</v>
       </c>
       <c r="B2789" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2789" s="1" t="s">
-        <v>6754</v>
+        <v>6749</v>
       </c>
       <c r="D2789" s="1" t="s">
         <v>2786</v>
@@ -78997,13 +78936,13 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2790" s="1" t="s">
-        <v>6755</v>
+        <v>6750</v>
       </c>
       <c r="B2790" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2790" s="1" t="s">
-        <v>6755</v>
+        <v>6750</v>
       </c>
       <c r="D2790" s="1" t="s">
         <v>2787</v>
@@ -79014,13 +78953,13 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2791" s="1" t="s">
-        <v>6756</v>
+        <v>6751</v>
       </c>
       <c r="B2791" s="1" t="s">
+        <v>6746</v>
+      </c>
+      <c r="C2791" s="1" t="s">
         <v>6751</v>
-      </c>
-      <c r="C2791" s="1" t="s">
-        <v>6756</v>
       </c>
       <c r="D2791" s="1" t="s">
         <v>2788</v>
@@ -79031,13 +78970,13 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2792" s="1" t="s">
-        <v>6757</v>
+        <v>6752</v>
       </c>
       <c r="B2792" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2792" s="1" t="s">
-        <v>6757</v>
+        <v>6752</v>
       </c>
       <c r="D2792" s="1" t="s">
         <v>2789</v>
@@ -79048,13 +78987,13 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2793" s="1" t="s">
-        <v>6758</v>
+        <v>6753</v>
       </c>
       <c r="B2793" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2793" s="1" t="s">
-        <v>6758</v>
+        <v>6753</v>
       </c>
       <c r="D2793" s="1" t="s">
         <v>2790</v>
@@ -79065,13 +79004,13 @@
     </row>
     <row r="2794" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2794" s="1" t="s">
-        <v>6759</v>
+        <v>6754</v>
       </c>
       <c r="B2794" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2794" s="1" t="s">
-        <v>6759</v>
+        <v>6754</v>
       </c>
       <c r="D2794" s="1" t="s">
         <v>2791</v>
@@ -79082,13 +79021,13 @@
     </row>
     <row r="2795" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2795" s="1" t="s">
-        <v>6760</v>
+        <v>6755</v>
       </c>
       <c r="B2795" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2795" s="1" t="s">
-        <v>6760</v>
+        <v>6755</v>
       </c>
       <c r="D2795" s="1" t="s">
         <v>2792</v>
@@ -79099,13 +79038,13 @@
     </row>
     <row r="2796" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2796" s="1" t="s">
-        <v>6761</v>
+        <v>6756</v>
       </c>
       <c r="B2796" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2796" s="1" t="s">
-        <v>6761</v>
+        <v>6756</v>
       </c>
       <c r="D2796" s="1" t="s">
         <v>2793</v>
@@ -79116,13 +79055,13 @@
     </row>
     <row r="2797" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2797" s="1" t="s">
-        <v>6762</v>
+        <v>6757</v>
       </c>
       <c r="B2797" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2797" s="1" t="s">
-        <v>6762</v>
+        <v>6757</v>
       </c>
       <c r="D2797" s="1" t="s">
         <v>2794</v>
@@ -79133,13 +79072,13 @@
     </row>
     <row r="2798" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2798" s="1" t="s">
-        <v>6763</v>
+        <v>6758</v>
       </c>
       <c r="B2798" s="1" t="s">
-        <v>6751</v>
+        <v>6746</v>
       </c>
       <c r="C2798" s="1" t="s">
-        <v>6763</v>
+        <v>6758</v>
       </c>
       <c r="D2798" s="1" t="s">
         <v>2795</v>
@@ -79261,7 +79200,7 @@
         <v>5737</v>
       </c>
       <c r="D2805" s="1" t="s">
-        <v>7134</v>
+        <v>7129</v>
       </c>
       <c r="E2805" s="1" t="s">
         <v>3205</v>
@@ -79320,16 +79259,16 @@
     </row>
     <row r="2809" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2809" s="1" t="s">
-        <v>6764</v>
+        <v>6759</v>
       </c>
       <c r="B2809" s="1" t="s">
         <v>5730</v>
       </c>
       <c r="C2809" s="1" t="s">
-        <v>6764</v>
+        <v>6759</v>
       </c>
       <c r="D2809" s="1" t="s">
-        <v>7135</v>
+        <v>7130</v>
       </c>
       <c r="E2809" s="1" t="s">
         <v>3205</v>
@@ -79779,16 +79718,16 @@
     </row>
     <row r="2836" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2836" s="1" t="s">
-        <v>6765</v>
+        <v>6760</v>
       </c>
       <c r="B2836" s="1" t="s">
         <v>5750</v>
       </c>
       <c r="C2836" s="1" t="s">
-        <v>6765</v>
+        <v>6760</v>
       </c>
       <c r="D2836" s="1" t="s">
-        <v>7136</v>
+        <v>7131</v>
       </c>
       <c r="E2836" s="1" t="s">
         <v>3205</v>
@@ -79796,16 +79735,16 @@
     </row>
     <row r="2837" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2837" s="1" t="s">
-        <v>6766</v>
+        <v>6761</v>
       </c>
       <c r="B2837" s="1" t="s">
         <v>5750</v>
       </c>
       <c r="C2837" s="1" t="s">
-        <v>6766</v>
+        <v>6761</v>
       </c>
       <c r="D2837" s="1" t="s">
-        <v>7137</v>
+        <v>7132</v>
       </c>
       <c r="E2837" s="1" t="s">
         <v>3205</v>
@@ -80026,7 +79965,7 @@
         <v>5774</v>
       </c>
       <c r="D2850" s="1" t="s">
-        <v>7138</v>
+        <v>7133</v>
       </c>
       <c r="E2850" s="1" t="s">
         <v>3205</v>
@@ -80043,7 +79982,7 @@
         <v>5775</v>
       </c>
       <c r="D2851" s="1" t="s">
-        <v>7139</v>
+        <v>7134</v>
       </c>
       <c r="E2851" s="1" t="s">
         <v>3205</v>
@@ -80094,7 +80033,7 @@
         <v>5778</v>
       </c>
       <c r="D2854" s="1" t="s">
-        <v>7140</v>
+        <v>7135</v>
       </c>
       <c r="E2854" s="1" t="s">
         <v>3205</v>
@@ -80145,7 +80084,7 @@
         <v>5782</v>
       </c>
       <c r="D2857" s="1" t="s">
-        <v>7141</v>
+        <v>7136</v>
       </c>
       <c r="E2857" s="1" t="s">
         <v>3205</v>
@@ -80213,7 +80152,7 @@
         <v>5786</v>
       </c>
       <c r="D2861" s="1" t="s">
-        <v>7142</v>
+        <v>7137</v>
       </c>
       <c r="E2861" s="1" t="s">
         <v>3205</v>
@@ -80264,7 +80203,7 @@
         <v>5789</v>
       </c>
       <c r="D2864" s="1" t="s">
-        <v>7143</v>
+        <v>7138</v>
       </c>
       <c r="E2864" s="1" t="s">
         <v>3205</v>
@@ -80374,16 +80313,16 @@
     </row>
     <row r="2871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2871" s="1" t="s">
-        <v>6767</v>
+        <v>6762</v>
       </c>
       <c r="B2871" s="1" t="s">
         <v>5795</v>
       </c>
       <c r="C2871" s="1" t="s">
-        <v>6767</v>
+        <v>6762</v>
       </c>
       <c r="D2871" s="1" t="s">
-        <v>7144</v>
+        <v>7139</v>
       </c>
       <c r="E2871" s="1" t="s">
         <v>3205</v>
@@ -80544,16 +80483,16 @@
     </row>
     <row r="2881" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2881" s="1" t="s">
-        <v>6768</v>
+        <v>6763</v>
       </c>
       <c r="B2881" s="1" t="s">
         <v>5806</v>
       </c>
       <c r="C2881" s="1" t="s">
-        <v>6768</v>
+        <v>6763</v>
       </c>
       <c r="D2881" s="1" t="s">
-        <v>7145</v>
+        <v>7140</v>
       </c>
       <c r="E2881" s="1" t="s">
         <v>3205</v>
@@ -80561,16 +80500,16 @@
     </row>
     <row r="2882" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2882" s="1" t="s">
-        <v>6769</v>
+        <v>6764</v>
       </c>
       <c r="B2882" s="1" t="s">
         <v>5806</v>
       </c>
       <c r="C2882" s="1" t="s">
-        <v>6769</v>
+        <v>6764</v>
       </c>
       <c r="D2882" s="1" t="s">
-        <v>7146</v>
+        <v>7141</v>
       </c>
       <c r="E2882" s="1" t="s">
         <v>3205</v>
@@ -80655,7 +80594,7 @@
         <v>5811</v>
       </c>
       <c r="D2887" s="1" t="s">
-        <v>7147</v>
+        <v>7142</v>
       </c>
       <c r="E2887" s="1" t="s">
         <v>3205</v>
@@ -80689,7 +80628,7 @@
         <v>5813</v>
       </c>
       <c r="D2889" s="1" t="s">
-        <v>7148</v>
+        <v>7143</v>
       </c>
       <c r="E2889" s="1" t="s">
         <v>3205</v>
@@ -80791,7 +80730,7 @@
         <v>5820</v>
       </c>
       <c r="D2895" s="1" t="s">
-        <v>7149</v>
+        <v>7144</v>
       </c>
       <c r="E2895" s="1" t="s">
         <v>3205</v>
@@ -80825,7 +80764,7 @@
         <v>5822</v>
       </c>
       <c r="D2897" s="1" t="s">
-        <v>7150</v>
+        <v>7145</v>
       </c>
       <c r="E2897" s="1" t="s">
         <v>3205</v>
@@ -80859,7 +80798,7 @@
         <v>5824</v>
       </c>
       <c r="D2899" s="1" t="s">
-        <v>7151</v>
+        <v>7146</v>
       </c>
       <c r="E2899" s="1" t="s">
         <v>3205</v>
@@ -80969,16 +80908,16 @@
     </row>
     <row r="2906" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2906" s="1" t="s">
-        <v>6770</v>
+        <v>6765</v>
       </c>
       <c r="B2906" s="1" t="s">
         <v>5830</v>
       </c>
       <c r="C2906" s="1" t="s">
-        <v>6770</v>
+        <v>6765</v>
       </c>
       <c r="D2906" s="1" t="s">
-        <v>7152</v>
+        <v>7147</v>
       </c>
       <c r="E2906" s="1" t="s">
         <v>3205</v>
@@ -81080,7 +81019,7 @@
         <v>5837</v>
       </c>
       <c r="D2912" s="1" t="s">
-        <v>7153</v>
+        <v>7148</v>
       </c>
       <c r="E2912" s="1" t="s">
         <v>3205</v>
@@ -81139,16 +81078,16 @@
     </row>
     <row r="2916" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2916" s="1" t="s">
-        <v>6771</v>
+        <v>6766</v>
       </c>
       <c r="B2916" s="1" t="s">
         <v>5830</v>
       </c>
       <c r="C2916" s="1" t="s">
-        <v>6771</v>
+        <v>6766</v>
       </c>
       <c r="D2916" s="1" t="s">
-        <v>7154</v>
+        <v>7149</v>
       </c>
       <c r="E2916" s="1" t="s">
         <v>3205</v>
@@ -81947,7 +81886,7 @@
         <v>5881</v>
       </c>
       <c r="D2963" s="1" t="s">
-        <v>7155</v>
+        <v>7150</v>
       </c>
       <c r="E2963" s="1" t="s">
         <v>3205</v>
@@ -81964,7 +81903,7 @@
         <v>5882</v>
       </c>
       <c r="D2964" s="1" t="s">
-        <v>7156</v>
+        <v>7151</v>
       </c>
       <c r="E2964" s="1" t="s">
         <v>3205</v>
@@ -82389,7 +82328,7 @@
         <v>5911</v>
       </c>
       <c r="D2989" s="1" t="s">
-        <v>7157</v>
+        <v>7152</v>
       </c>
       <c r="E2989" s="1" t="s">
         <v>3205</v>
@@ -82508,7 +82447,7 @@
         <v>5919</v>
       </c>
       <c r="D2996" s="1" t="s">
-        <v>7158</v>
+        <v>7153</v>
       </c>
       <c r="E2996" s="1" t="s">
         <v>3205</v>
@@ -82576,7 +82515,7 @@
         <v>5923</v>
       </c>
       <c r="D3000" s="1" t="s">
-        <v>7159</v>
+        <v>7154</v>
       </c>
       <c r="E3000" s="1" t="s">
         <v>3205</v>
@@ -82695,7 +82634,7 @@
         <v>5931</v>
       </c>
       <c r="D3007" s="1" t="s">
-        <v>7160</v>
+        <v>7155</v>
       </c>
       <c r="E3007" s="1" t="s">
         <v>3205</v>
@@ -82712,7 +82651,7 @@
         <v>5932</v>
       </c>
       <c r="D3008" s="1" t="s">
-        <v>7161</v>
+        <v>7156</v>
       </c>
       <c r="E3008" s="1" t="s">
         <v>3205</v>
@@ -82746,7 +82685,7 @@
         <v>5935</v>
       </c>
       <c r="D3010" s="1" t="s">
-        <v>7162</v>
+        <v>7157</v>
       </c>
       <c r="E3010" s="1" t="s">
         <v>3205</v>
@@ -82763,7 +82702,7 @@
         <v>5936</v>
       </c>
       <c r="D3011" s="1" t="s">
-        <v>7163</v>
+        <v>7158</v>
       </c>
       <c r="E3011" s="1" t="s">
         <v>3205</v>
@@ -82797,7 +82736,7 @@
         <v>5938</v>
       </c>
       <c r="D3013" s="1" t="s">
-        <v>7164</v>
+        <v>7159</v>
       </c>
       <c r="E3013" s="1" t="s">
         <v>3205</v>
@@ -82831,7 +82770,7 @@
         <v>5940</v>
       </c>
       <c r="D3015" s="1" t="s">
-        <v>7165</v>
+        <v>7160</v>
       </c>
       <c r="E3015" s="1" t="s">
         <v>3205</v>
@@ -82848,7 +82787,7 @@
         <v>5941</v>
       </c>
       <c r="D3016" s="1" t="s">
-        <v>7166</v>
+        <v>7161</v>
       </c>
       <c r="E3016" s="1" t="s">
         <v>3205</v>
@@ -82992,16 +82931,16 @@
     </row>
     <row r="3025" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3025" s="1" t="s">
-        <v>6772</v>
+        <v>6767</v>
       </c>
       <c r="B3025" s="1" t="s">
         <v>5943</v>
       </c>
       <c r="C3025" s="1" t="s">
-        <v>6772</v>
+        <v>6767</v>
       </c>
       <c r="D3025" s="1" t="s">
-        <v>7167</v>
+        <v>7162</v>
       </c>
       <c r="E3025" s="1" t="s">
         <v>3205</v>
@@ -83162,16 +83101,16 @@
     </row>
     <row r="3035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3035" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="B3035" s="1" t="s">
         <v>5960</v>
       </c>
       <c r="C3035" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="D3035" s="1" t="s">
-        <v>7168</v>
+        <v>7163</v>
       </c>
       <c r="E3035" s="1" t="s">
         <v>3203</v>
@@ -83400,16 +83339,16 @@
     </row>
     <row r="3049" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3049" s="1" t="s">
-        <v>6774</v>
+        <v>6769</v>
       </c>
       <c r="B3049" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="C3049" s="1" t="s">
-        <v>6774</v>
+        <v>6769</v>
       </c>
       <c r="D3049" s="1" t="s">
-        <v>7169</v>
+        <v>7164</v>
       </c>
       <c r="E3049" s="1" t="s">
         <v>3205</v>
@@ -83417,16 +83356,16 @@
     </row>
     <row r="3050" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3050" s="1" t="s">
-        <v>6775</v>
+        <v>6770</v>
       </c>
       <c r="B3050" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="C3050" s="1" t="s">
-        <v>6775</v>
+        <v>6770</v>
       </c>
       <c r="D3050" s="1" t="s">
-        <v>7170</v>
+        <v>7165</v>
       </c>
       <c r="E3050" s="1" t="s">
         <v>3205</v>
@@ -83434,13 +83373,13 @@
     </row>
     <row r="3051" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3051" s="1" t="s">
-        <v>6776</v>
+        <v>6771</v>
       </c>
       <c r="B3051" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="C3051" s="1" t="s">
-        <v>6776</v>
+        <v>6771</v>
       </c>
       <c r="D3051" s="1" t="s">
         <v>3029</v>
@@ -83451,13 +83390,13 @@
     </row>
     <row r="3052" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3052" s="1" t="s">
-        <v>6777</v>
+        <v>6772</v>
       </c>
       <c r="B3052" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="C3052" s="1" t="s">
-        <v>6777</v>
+        <v>6772</v>
       </c>
       <c r="D3052" s="1" t="s">
         <v>3030</v>
@@ -83468,13 +83407,13 @@
     </row>
     <row r="3053" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3053" s="1" t="s">
-        <v>6778</v>
+        <v>6773</v>
       </c>
       <c r="B3053" s="1" t="s">
+        <v>6768</v>
+      </c>
+      <c r="C3053" s="1" t="s">
         <v>6773</v>
-      </c>
-      <c r="C3053" s="1" t="s">
-        <v>6778</v>
       </c>
       <c r="D3053" s="1" t="s">
         <v>3031</v>
@@ -83485,13 +83424,13 @@
     </row>
     <row r="3054" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3054" s="1" t="s">
-        <v>6779</v>
+        <v>6774</v>
       </c>
       <c r="B3054" s="1" t="s">
-        <v>6773</v>
+        <v>6768</v>
       </c>
       <c r="C3054" s="1" t="s">
-        <v>6779</v>
+        <v>6774</v>
       </c>
       <c r="D3054" s="1" t="s">
         <v>3032</v>
@@ -83825,16 +83764,16 @@
     </row>
     <row r="3074" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3074" s="1" t="s">
-        <v>6780</v>
+        <v>6775</v>
       </c>
       <c r="B3074" s="1" t="s">
         <v>5992</v>
       </c>
       <c r="C3074" s="1" t="s">
-        <v>6780</v>
+        <v>6775</v>
       </c>
       <c r="D3074" s="1" t="s">
-        <v>7171</v>
+        <v>7166</v>
       </c>
       <c r="E3074" s="1" t="s">
         <v>3205</v>
@@ -84012,16 +83951,16 @@
     </row>
     <row r="3085" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3085" s="1" t="s">
-        <v>6781</v>
+        <v>6776</v>
       </c>
       <c r="B3085" s="1" t="s">
         <v>5998</v>
       </c>
       <c r="C3085" s="1" t="s">
-        <v>6781</v>
+        <v>6776</v>
       </c>
       <c r="D3085" s="1" t="s">
-        <v>7172</v>
+        <v>7167</v>
       </c>
       <c r="E3085" s="1" t="s">
         <v>3205</v>
@@ -84284,16 +84223,16 @@
     </row>
     <row r="3101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3101" s="1" t="s">
-        <v>6782</v>
+        <v>6777</v>
       </c>
       <c r="B3101" s="1" t="s">
         <v>6016</v>
       </c>
       <c r="C3101" s="1" t="s">
-        <v>6782</v>
+        <v>6777</v>
       </c>
       <c r="D3101" s="1" t="s">
-        <v>7173</v>
+        <v>7168</v>
       </c>
       <c r="E3101" s="1" t="s">
         <v>3205</v>
@@ -84522,13 +84461,13 @@
     </row>
     <row r="3115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3115" s="1" t="s">
-        <v>6784</v>
+        <v>6779</v>
       </c>
       <c r="B3115" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3115" s="1" t="s">
-        <v>6784</v>
+        <v>6779</v>
       </c>
       <c r="D3115" s="1" t="s">
         <v>3108</v>
@@ -84539,13 +84478,13 @@
     </row>
     <row r="3116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3116" s="1" t="s">
-        <v>6788</v>
+        <v>6783</v>
       </c>
       <c r="B3116" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3116" s="1" t="s">
-        <v>6788</v>
+        <v>6783</v>
       </c>
       <c r="D3116" s="1" t="s">
         <v>3111</v>
@@ -84624,16 +84563,16 @@
     </row>
     <row r="3121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3121" s="1" t="s">
-        <v>6793</v>
+        <v>6788</v>
       </c>
       <c r="B3121" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3121" s="1" t="s">
-        <v>6793</v>
+        <v>6788</v>
       </c>
       <c r="D3121" s="1" t="s">
-        <v>7178</v>
+        <v>7173</v>
       </c>
       <c r="E3121" s="1" t="s">
         <v>3203</v>
@@ -84794,16 +84733,16 @@
     </row>
     <row r="3131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3131" s="1" t="s">
-        <v>6800</v>
+        <v>6795</v>
       </c>
       <c r="B3131" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3131" s="1" t="s">
-        <v>6800</v>
+        <v>6795</v>
       </c>
       <c r="D3131" s="1" t="s">
-        <v>7185</v>
+        <v>7180</v>
       </c>
       <c r="E3131" s="1" t="s">
         <v>3203</v>
@@ -84811,16 +84750,16 @@
     </row>
     <row r="3132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3132" s="1" t="s">
-        <v>6801</v>
+        <v>6796</v>
       </c>
       <c r="B3132" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3132" s="1" t="s">
-        <v>6801</v>
+        <v>6796</v>
       </c>
       <c r="D3132" s="1" t="s">
-        <v>7186</v>
+        <v>7181</v>
       </c>
       <c r="E3132" s="1" t="s">
         <v>3203</v>
@@ -84828,16 +84767,16 @@
     </row>
     <row r="3133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3133" s="1" t="s">
-        <v>6802</v>
+        <v>6797</v>
       </c>
       <c r="B3133" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3133" s="1" t="s">
-        <v>6802</v>
+        <v>6797</v>
       </c>
       <c r="D3133" s="1" t="s">
-        <v>7187</v>
+        <v>7182</v>
       </c>
       <c r="E3133" s="1" t="s">
         <v>3203</v>
@@ -84845,16 +84784,16 @@
     </row>
     <row r="3134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3134" s="1" t="s">
-        <v>6803</v>
+        <v>6798</v>
       </c>
       <c r="B3134" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3134" s="1" t="s">
-        <v>6803</v>
+        <v>6798</v>
       </c>
       <c r="D3134" s="1" t="s">
-        <v>7188</v>
+        <v>7183</v>
       </c>
       <c r="E3134" s="1" t="s">
         <v>3203</v>
@@ -84862,16 +84801,16 @@
     </row>
     <row r="3135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3135" s="1" t="s">
-        <v>6804</v>
+        <v>6799</v>
       </c>
       <c r="B3135" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3135" s="1" t="s">
-        <v>6804</v>
+        <v>6799</v>
       </c>
       <c r="D3135" s="1" t="s">
-        <v>7189</v>
+        <v>7184</v>
       </c>
       <c r="E3135" s="1" t="s">
         <v>3203</v>
@@ -84981,16 +84920,16 @@
     </row>
     <row r="3142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3142" s="1" t="s">
-        <v>6783</v>
+        <v>6778</v>
       </c>
       <c r="B3142" s="1" t="s">
         <v>6032</v>
       </c>
       <c r="C3142" s="1" t="s">
-        <v>6783</v>
+        <v>6778</v>
       </c>
       <c r="D3142" s="1" t="s">
-        <v>7174</v>
+        <v>7169</v>
       </c>
       <c r="E3142" s="1" t="s">
         <v>3205</v>
@@ -85083,16 +85022,16 @@
     </row>
     <row r="3148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3148" s="1" t="s">
-        <v>6785</v>
+        <v>6780</v>
       </c>
       <c r="B3148" s="1" t="s">
-        <v>6784</v>
+        <v>6779</v>
       </c>
       <c r="C3148" s="1" t="s">
-        <v>6785</v>
+        <v>6780</v>
       </c>
       <c r="D3148" s="1" t="s">
-        <v>7175</v>
+        <v>7170</v>
       </c>
       <c r="E3148" s="1" t="s">
         <v>3205</v>
@@ -85100,13 +85039,13 @@
     </row>
     <row r="3149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3149" s="1" t="s">
-        <v>6786</v>
+        <v>6781</v>
       </c>
       <c r="B3149" s="1" t="s">
-        <v>6784</v>
+        <v>6779</v>
       </c>
       <c r="C3149" s="1" t="s">
-        <v>6786</v>
+        <v>6781</v>
       </c>
       <c r="D3149" s="1" t="s">
         <v>3109</v>
@@ -85117,13 +85056,13 @@
     </row>
     <row r="3150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3150" s="1" t="s">
-        <v>6787</v>
+        <v>6782</v>
       </c>
       <c r="B3150" s="1" t="s">
-        <v>6784</v>
+        <v>6779</v>
       </c>
       <c r="C3150" s="1" t="s">
-        <v>6787</v>
+        <v>6782</v>
       </c>
       <c r="D3150" s="1" t="s">
         <v>3110</v>
@@ -85134,16 +85073,16 @@
     </row>
     <row r="3151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3151" s="1" t="s">
-        <v>6789</v>
+        <v>6784</v>
       </c>
       <c r="B3151" s="1" t="s">
-        <v>6788</v>
+        <v>6783</v>
       </c>
       <c r="C3151" s="1" t="s">
-        <v>6789</v>
+        <v>6784</v>
       </c>
       <c r="D3151" s="1" t="s">
-        <v>7176</v>
+        <v>7171</v>
       </c>
       <c r="E3151" s="1" t="s">
         <v>3205</v>
@@ -85151,13 +85090,13 @@
     </row>
     <row r="3152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3152" s="1" t="s">
-        <v>6790</v>
+        <v>6785</v>
       </c>
       <c r="B3152" s="1" t="s">
-        <v>6788</v>
+        <v>6783</v>
       </c>
       <c r="C3152" s="1" t="s">
-        <v>6790</v>
+        <v>6785</v>
       </c>
       <c r="D3152" s="1" t="s">
         <v>3112</v>
@@ -85168,13 +85107,13 @@
     </row>
     <row r="3153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3153" s="1" t="s">
-        <v>6791</v>
+        <v>6786</v>
       </c>
       <c r="B3153" s="1" t="s">
-        <v>6788</v>
+        <v>6783</v>
       </c>
       <c r="C3153" s="1" t="s">
-        <v>6791</v>
+        <v>6786</v>
       </c>
       <c r="D3153" s="1" t="s">
         <v>3113</v>
@@ -85321,16 +85260,16 @@
     </row>
     <row r="3162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3162" s="1" t="s">
-        <v>6792</v>
+        <v>6787</v>
       </c>
       <c r="B3162" s="1" t="s">
         <v>6053</v>
       </c>
       <c r="C3162" s="1" t="s">
-        <v>6792</v>
+        <v>6787</v>
       </c>
       <c r="D3162" s="1" t="s">
-        <v>7177</v>
+        <v>7172</v>
       </c>
       <c r="E3162" s="1" t="s">
         <v>3205</v>
@@ -85678,16 +85617,16 @@
     </row>
     <row r="3183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3183" s="1" t="s">
-        <v>6794</v>
+        <v>6789</v>
       </c>
       <c r="B3183" s="1" t="s">
-        <v>6793</v>
+        <v>6788</v>
       </c>
       <c r="C3183" s="1" t="s">
-        <v>6794</v>
+        <v>6789</v>
       </c>
       <c r="D3183" s="1" t="s">
-        <v>7179</v>
+        <v>7174</v>
       </c>
       <c r="E3183" s="1" t="s">
         <v>3205</v>
@@ -85695,16 +85634,16 @@
     </row>
     <row r="3184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3184" s="1" t="s">
-        <v>6795</v>
+        <v>6790</v>
       </c>
       <c r="B3184" s="1" t="s">
-        <v>6793</v>
+        <v>6788</v>
       </c>
       <c r="C3184" s="1" t="s">
-        <v>6795</v>
+        <v>6790</v>
       </c>
       <c r="D3184" s="1" t="s">
-        <v>7180</v>
+        <v>7175</v>
       </c>
       <c r="E3184" s="1" t="s">
         <v>3205</v>
@@ -85712,16 +85651,16 @@
     </row>
     <row r="3185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3185" s="1" t="s">
-        <v>6796</v>
+        <v>6791</v>
       </c>
       <c r="B3185" s="1" t="s">
-        <v>6793</v>
+        <v>6788</v>
       </c>
       <c r="C3185" s="1" t="s">
-        <v>6796</v>
+        <v>6791</v>
       </c>
       <c r="D3185" s="1" t="s">
-        <v>7181</v>
+        <v>7176</v>
       </c>
       <c r="E3185" s="1" t="s">
         <v>3205</v>
@@ -85729,16 +85668,16 @@
     </row>
     <row r="3186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3186" s="1" t="s">
-        <v>6797</v>
+        <v>6792</v>
       </c>
       <c r="B3186" s="1" t="s">
-        <v>6793</v>
+        <v>6788</v>
       </c>
       <c r="C3186" s="1" t="s">
-        <v>6797</v>
+        <v>6792</v>
       </c>
       <c r="D3186" s="1" t="s">
-        <v>7182</v>
+        <v>7177</v>
       </c>
       <c r="E3186" s="1" t="s">
         <v>3205</v>
@@ -85933,16 +85872,16 @@
     </row>
     <row r="3198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3198" s="1" t="s">
-        <v>6798</v>
+        <v>6793</v>
       </c>
       <c r="B3198" s="1" t="s">
         <v>6077</v>
       </c>
       <c r="C3198" s="1" t="s">
-        <v>6798</v>
+        <v>6793</v>
       </c>
       <c r="D3198" s="1" t="s">
-        <v>7183</v>
+        <v>7178</v>
       </c>
       <c r="E3198" s="1" t="s">
         <v>3205</v>
@@ -86120,16 +86059,16 @@
     </row>
     <row r="3209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3209" s="1" t="s">
-        <v>6799</v>
+        <v>6794</v>
       </c>
       <c r="B3209" s="1" t="s">
         <v>6098</v>
       </c>
       <c r="C3209" s="1" t="s">
-        <v>6799</v>
+        <v>6794</v>
       </c>
       <c r="D3209" s="1" t="s">
-        <v>7184</v>
+        <v>7179</v>
       </c>
       <c r="E3209" s="1" t="s">
         <v>3205</v>
@@ -86511,16 +86450,16 @@
     </row>
     <row r="3232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3232" s="1" t="s">
-        <v>6805</v>
+        <v>6800</v>
       </c>
       <c r="B3232" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3232" s="1" t="s">
-        <v>6805</v>
+        <v>6800</v>
       </c>
       <c r="D3232" s="1" t="s">
-        <v>7190</v>
+        <v>7185</v>
       </c>
       <c r="E3232" s="1" t="s">
         <v>3205</v>
@@ -86528,16 +86467,16 @@
     </row>
     <row r="3233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3233" s="1" t="s">
-        <v>6806</v>
+        <v>6801</v>
       </c>
       <c r="B3233" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3233" s="1" t="s">
-        <v>6806</v>
+        <v>6801</v>
       </c>
       <c r="D3233" s="1" t="s">
-        <v>7191</v>
+        <v>7186</v>
       </c>
       <c r="E3233" s="1" t="s">
         <v>3205</v>
@@ -86545,16 +86484,16 @@
     </row>
     <row r="3234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3234" s="1" t="s">
-        <v>6807</v>
+        <v>6802</v>
       </c>
       <c r="B3234" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3234" s="1" t="s">
-        <v>6807</v>
+        <v>6802</v>
       </c>
       <c r="D3234" s="1" t="s">
-        <v>7066</v>
+        <v>7061</v>
       </c>
       <c r="E3234" s="1" t="s">
         <v>3205</v>
@@ -86562,16 +86501,16 @@
     </row>
     <row r="3235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3235" s="1" t="s">
-        <v>6808</v>
+        <v>6803</v>
       </c>
       <c r="B3235" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3235" s="1" t="s">
-        <v>6808</v>
+        <v>6803</v>
       </c>
       <c r="D3235" s="1" t="s">
-        <v>7192</v>
+        <v>7187</v>
       </c>
       <c r="E3235" s="1" t="s">
         <v>3205</v>
@@ -86579,16 +86518,16 @@
     </row>
     <row r="3236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3236" s="1" t="s">
-        <v>6809</v>
+        <v>6804</v>
       </c>
       <c r="B3236" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3236" s="1" t="s">
-        <v>6809</v>
+        <v>6804</v>
       </c>
       <c r="D3236" s="1" t="s">
-        <v>7193</v>
+        <v>7188</v>
       </c>
       <c r="E3236" s="1" t="s">
         <v>3205</v>
@@ -86596,16 +86535,16 @@
     </row>
     <row r="3237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3237" s="1" t="s">
-        <v>6810</v>
+        <v>6805</v>
       </c>
       <c r="B3237" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3237" s="1" t="s">
-        <v>6810</v>
+        <v>6805</v>
       </c>
       <c r="D3237" s="1" t="s">
-        <v>7194</v>
+        <v>7189</v>
       </c>
       <c r="E3237" s="1" t="s">
         <v>3205</v>
@@ -86613,16 +86552,16 @@
     </row>
     <row r="3238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3238" s="1" t="s">
-        <v>6811</v>
+        <v>6806</v>
       </c>
       <c r="B3238" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3238" s="1" t="s">
-        <v>6811</v>
+        <v>6806</v>
       </c>
       <c r="D3238" s="1" t="s">
-        <v>7195</v>
+        <v>7190</v>
       </c>
       <c r="E3238" s="1" t="s">
         <v>3205</v>
@@ -86630,16 +86569,16 @@
     </row>
     <row r="3239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3239" s="1" t="s">
-        <v>6812</v>
+        <v>6807</v>
       </c>
       <c r="B3239" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3239" s="1" t="s">
-        <v>6812</v>
+        <v>6807</v>
       </c>
       <c r="D3239" s="1" t="s">
-        <v>7196</v>
+        <v>7191</v>
       </c>
       <c r="E3239" s="1" t="s">
         <v>3205</v>
@@ -86647,16 +86586,16 @@
     </row>
     <row r="3240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3240" s="1" t="s">
-        <v>6813</v>
+        <v>6808</v>
       </c>
       <c r="B3240" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3240" s="1" t="s">
-        <v>6813</v>
+        <v>6808</v>
       </c>
       <c r="D3240" s="1" t="s">
-        <v>7197</v>
+        <v>7192</v>
       </c>
       <c r="E3240" s="1" t="s">
         <v>3205</v>
@@ -86664,16 +86603,16 @@
     </row>
     <row r="3241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3241" s="1" t="s">
-        <v>6814</v>
+        <v>6809</v>
       </c>
       <c r="B3241" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3241" s="1" t="s">
-        <v>6814</v>
+        <v>6809</v>
       </c>
       <c r="D3241" s="1" t="s">
-        <v>7198</v>
+        <v>7193</v>
       </c>
       <c r="E3241" s="1" t="s">
         <v>3205</v>
@@ -86681,16 +86620,16 @@
     </row>
     <row r="3242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3242" s="1" t="s">
-        <v>6815</v>
+        <v>6810</v>
       </c>
       <c r="B3242" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3242" s="1" t="s">
-        <v>6815</v>
+        <v>6810</v>
       </c>
       <c r="D3242" s="1" t="s">
-        <v>7199</v>
+        <v>7194</v>
       </c>
       <c r="E3242" s="1" t="s">
         <v>3205</v>
@@ -86698,16 +86637,16 @@
     </row>
     <row r="3243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3243" s="1" t="s">
-        <v>6816</v>
+        <v>6811</v>
       </c>
       <c r="B3243" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3243" s="1" t="s">
-        <v>6816</v>
+        <v>6811</v>
       </c>
       <c r="D3243" s="1" t="s">
-        <v>7200</v>
+        <v>7195</v>
       </c>
       <c r="E3243" s="1" t="s">
         <v>3205</v>
@@ -86715,16 +86654,16 @@
     </row>
     <row r="3244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3244" s="1" t="s">
-        <v>6817</v>
+        <v>6812</v>
       </c>
       <c r="B3244" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3244" s="1" t="s">
-        <v>6817</v>
+        <v>6812</v>
       </c>
       <c r="D3244" s="1" t="s">
-        <v>7201</v>
+        <v>7196</v>
       </c>
       <c r="E3244" s="1" t="s">
         <v>3205</v>
@@ -86732,16 +86671,16 @@
     </row>
     <row r="3245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3245" s="1" t="s">
-        <v>6818</v>
+        <v>6813</v>
       </c>
       <c r="B3245" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3245" s="1" t="s">
-        <v>6818</v>
+        <v>6813</v>
       </c>
       <c r="D3245" s="1" t="s">
-        <v>7202</v>
+        <v>7197</v>
       </c>
       <c r="E3245" s="1" t="s">
         <v>3205</v>
@@ -86749,16 +86688,16 @@
     </row>
     <row r="3246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3246" s="1" t="s">
-        <v>6819</v>
+        <v>6814</v>
       </c>
       <c r="B3246" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3246" s="1" t="s">
-        <v>6819</v>
+        <v>6814</v>
       </c>
       <c r="D3246" s="1" t="s">
-        <v>7203</v>
+        <v>7198</v>
       </c>
       <c r="E3246" s="1" t="s">
         <v>3205</v>
@@ -86766,16 +86705,16 @@
     </row>
     <row r="3247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3247" s="1" t="s">
-        <v>6820</v>
+        <v>6815</v>
       </c>
       <c r="B3247" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3247" s="1" t="s">
-        <v>6820</v>
+        <v>6815</v>
       </c>
       <c r="D3247" s="1" t="s">
-        <v>7204</v>
+        <v>7199</v>
       </c>
       <c r="E3247" s="1" t="s">
         <v>3205</v>
@@ -86783,16 +86722,16 @@
     </row>
     <row r="3248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3248" s="1" t="s">
-        <v>6821</v>
+        <v>6816</v>
       </c>
       <c r="B3248" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3248" s="1" t="s">
-        <v>6821</v>
+        <v>6816</v>
       </c>
       <c r="D3248" s="1" t="s">
-        <v>7205</v>
+        <v>7200</v>
       </c>
       <c r="E3248" s="1" t="s">
         <v>3205</v>
@@ -86800,16 +86739,16 @@
     </row>
     <row r="3249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3249" s="1" t="s">
-        <v>6822</v>
+        <v>6817</v>
       </c>
       <c r="B3249" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3249" s="1" t="s">
-        <v>6822</v>
+        <v>6817</v>
       </c>
       <c r="D3249" s="1" t="s">
-        <v>7206</v>
+        <v>7201</v>
       </c>
       <c r="E3249" s="1" t="s">
         <v>3205</v>
@@ -86817,16 +86756,16 @@
     </row>
     <row r="3250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3250" s="1" t="s">
-        <v>6823</v>
+        <v>6818</v>
       </c>
       <c r="B3250" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3250" s="1" t="s">
-        <v>6823</v>
+        <v>6818</v>
       </c>
       <c r="D3250" s="1" t="s">
-        <v>7207</v>
+        <v>7202</v>
       </c>
       <c r="E3250" s="1" t="s">
         <v>3205</v>
@@ -86834,16 +86773,16 @@
     </row>
     <row r="3251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3251" s="1" t="s">
-        <v>6824</v>
+        <v>6819</v>
       </c>
       <c r="B3251" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3251" s="1" t="s">
-        <v>6824</v>
+        <v>6819</v>
       </c>
       <c r="D3251" s="1" t="s">
-        <v>7208</v>
+        <v>7203</v>
       </c>
       <c r="E3251" s="1" t="s">
         <v>3205</v>
@@ -86851,16 +86790,16 @@
     </row>
     <row r="3252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3252" s="1" t="s">
-        <v>6825</v>
+        <v>6820</v>
       </c>
       <c r="B3252" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3252" s="1" t="s">
-        <v>6825</v>
+        <v>6820</v>
       </c>
       <c r="D3252" s="1" t="s">
-        <v>7209</v>
+        <v>7204</v>
       </c>
       <c r="E3252" s="1" t="s">
         <v>3205</v>
@@ -86868,16 +86807,16 @@
     </row>
     <row r="3253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3253" s="1" t="s">
-        <v>6826</v>
+        <v>6821</v>
       </c>
       <c r="B3253" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3253" s="1" t="s">
-        <v>6826</v>
+        <v>6821</v>
       </c>
       <c r="D3253" s="1" t="s">
-        <v>7210</v>
+        <v>7205</v>
       </c>
       <c r="E3253" s="1" t="s">
         <v>3205</v>
@@ -86885,16 +86824,16 @@
     </row>
     <row r="3254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3254" s="1" t="s">
-        <v>6827</v>
+        <v>6822</v>
       </c>
       <c r="B3254" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3254" s="1" t="s">
-        <v>6827</v>
+        <v>6822</v>
       </c>
       <c r="D3254" s="1" t="s">
-        <v>7211</v>
+        <v>7206</v>
       </c>
       <c r="E3254" s="1" t="s">
         <v>3205</v>
@@ -86902,16 +86841,16 @@
     </row>
     <row r="3255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3255" s="1" t="s">
-        <v>6828</v>
+        <v>6823</v>
       </c>
       <c r="B3255" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3255" s="1" t="s">
-        <v>6828</v>
+        <v>6823</v>
       </c>
       <c r="D3255" s="1" t="s">
-        <v>7212</v>
+        <v>7207</v>
       </c>
       <c r="E3255" s="1" t="s">
         <v>3205</v>
@@ -86919,16 +86858,16 @@
     </row>
     <row r="3256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3256" s="1" t="s">
-        <v>6829</v>
+        <v>6824</v>
       </c>
       <c r="B3256" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3256" s="1" t="s">
-        <v>6829</v>
+        <v>6824</v>
       </c>
       <c r="D3256" s="1" t="s">
-        <v>7213</v>
+        <v>7208</v>
       </c>
       <c r="E3256" s="1" t="s">
         <v>3205</v>
@@ -86936,16 +86875,16 @@
     </row>
     <row r="3257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3257" s="1" t="s">
-        <v>6830</v>
+        <v>6825</v>
       </c>
       <c r="B3257" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3257" s="1" t="s">
-        <v>6830</v>
+        <v>6825</v>
       </c>
       <c r="D3257" s="1" t="s">
-        <v>7214</v>
+        <v>7209</v>
       </c>
       <c r="E3257" s="1" t="s">
         <v>3205</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3DB5B-973F-4763-86C4-614334330882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23EB582-8440-4271-BD7B-0BE0AC36A04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18610" uniqueCount="7254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18610" uniqueCount="7253">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20240,9 +20240,6 @@
   </si>
   <si>
     <t>icon-people</t>
-  </si>
-  <si>
-    <t>devtools</t>
   </si>
   <si>
     <t>system</t>
@@ -23423,7 +23420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23524,6 +23521,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24167,7 +24167,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6480</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -24484,7 +24484,7 @@
         <v>6330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6232</v>
@@ -24528,7 +24528,7 @@
         <v>6330</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6494</v>
+        <v>6493</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6232</v>
@@ -24572,7 +24572,7 @@
         <v>6330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6493</v>
+        <v>6492</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6232</v>
@@ -24616,7 +24616,7 @@
         <v>6330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6492</v>
+        <v>6491</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6232</v>
@@ -24660,7 +24660,7 @@
         <v>6330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6491</v>
+        <v>6490</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6232</v>
@@ -24704,7 +24704,7 @@
         <v>6330</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6490</v>
+        <v>6489</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6232</v>
@@ -24748,7 +24748,7 @@
         <v>6330</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6489</v>
+        <v>6488</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6232</v>
@@ -24792,7 +24792,7 @@
         <v>6330</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6488</v>
+        <v>6487</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6232</v>
@@ -24836,7 +24836,7 @@
         <v>6330</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6487</v>
+        <v>6486</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6232</v>
@@ -25502,7 +25502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -25547,7 +25547,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -25824,10 +25824,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
+        <v>6451</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>6452</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6453</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>75</v>
@@ -25835,10 +25835,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6415</v>
+        <v>6414</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
@@ -25846,10 +25846,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6416</v>
+        <v>6415</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>75</v>
@@ -25933,7 +25933,7 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -25954,7 +25954,7 @@
         <v>92</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -26298,10 +26298,10 @@
         <v>6394</v>
       </c>
       <c r="D14" s="15" t="s">
+        <v>7218</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>7219</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>7220</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>6251</v>
@@ -26836,7 +26836,7 @@
         <v>55</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>78</v>
@@ -27249,7 +27249,7 @@
         <v>6138</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>75</v>
@@ -27275,7 +27275,7 @@
         <v>6138</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>89</v>
@@ -27301,7 +27301,7 @@
         <v>6138</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>127</v>
@@ -27327,7 +27327,7 @@
         <v>6138</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>328</v>
@@ -27353,7 +27353,7 @@
         <v>6138</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>329</v>
@@ -27486,7 +27486,7 @@
         <v>6160</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>6469</v>
+        <v>6468</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>76</v>
@@ -27509,10 +27509,10 @@
         <v>6161</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>6473</v>
+        <v>6472</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>77</v>
@@ -27535,10 +27535,10 @@
         <v>6161</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>6474</v>
+        <v>6473</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>6471</v>
+        <v>6470</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>6269</v>
@@ -27561,10 +27561,10 @@
         <v>6161</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>6475</v>
+        <v>6474</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>6472</v>
+        <v>6471</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>6149</v>
@@ -27590,7 +27590,7 @@
         <v>6154</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>6459</v>
+        <v>6458</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>76</v>
@@ -27616,7 +27616,7 @@
         <v>6155</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>77</v>
@@ -27688,7 +27688,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>142</v>
@@ -27714,7 +27714,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>318</v>
@@ -27740,10 +27740,10 @@
         <v>56</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>6454</v>
+        <v>6453</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>89</v>
@@ -27755,7 +27755,7 @@
         <v>55</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>78</v>
@@ -27769,10 +27769,10 @@
         <v>56</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>6455</v>
+        <v>6454</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>127</v>
@@ -27795,10 +27795,10 @@
         <v>56</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>328</v>
@@ -27810,7 +27810,7 @@
         <v>55</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="K71" s="14" t="s">
         <v>78</v>
@@ -27824,10 +27824,10 @@
         <v>56</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>6456</v>
+        <v>6455</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>329</v>
@@ -27850,13 +27850,13 @@
         <v>56</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>6417</v>
+        <v>6416</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>76</v>
@@ -27876,13 +27876,13 @@
         <v>56</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>6418</v>
+        <v>6417</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>77</v>
@@ -27902,13 +27902,13 @@
         <v>56</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>6419</v>
+        <v>6418</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>83</v>
@@ -27928,13 +27928,13 @@
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>6428</v>
+        <v>6427</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>76</v>
@@ -27954,13 +27954,13 @@
         <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>77</v>
@@ -27980,13 +27980,13 @@
         <v>56</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>83</v>
@@ -28006,13 +28006,13 @@
         <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>6431</v>
+        <v>6430</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>6149</v>
@@ -28032,13 +28032,13 @@
         <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>6181</v>
@@ -28058,13 +28058,13 @@
         <v>56</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>6253</v>
@@ -28084,16 +28084,16 @@
         <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
@@ -28110,13 +28110,13 @@
         <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>221</v>
@@ -28136,16 +28136,16 @@
         <v>56</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>6447</v>
+        <v>6446</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
@@ -28162,16 +28162,16 @@
         <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>6448</v>
+        <v>6447</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
@@ -28188,16 +28188,16 @@
         <v>56</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>6440</v>
+        <v>6439</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>6449</v>
+        <v>6448</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
@@ -28214,16 +28214,16 @@
         <v>56</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>6445</v>
+        <v>6444</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
@@ -28376,7 +28376,7 @@
         <v>6182</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="E93" s="14" t="s">
         <v>78</v>
@@ -28388,7 +28388,7 @@
         <v>75</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>6482</v>
+        <v>6481</v>
       </c>
       <c r="K93" s="14" t="s">
         <v>78</v>
@@ -28444,7 +28444,7 @@
         <v>6163</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>78</v>
@@ -28610,7 +28610,7 @@
         <v>55</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="K101" s="14" t="s">
         <v>78</v>
@@ -28934,7 +28934,7 @@
         <v>55</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>78</v>
@@ -28977,9 +28977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29015,7 +29015,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -29027,7 +29027,7 @@
         <v>6240</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>279</v>
@@ -30262,7 +30262,7 @@
         <v>212</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>6411</v>
+        <v>6410</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>268</v>
@@ -30300,7 +30300,7 @@
         <v>6404</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>6496</v>
+        <v>6495</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>209</v>
@@ -30335,10 +30335,10 @@
         <v>6242</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>211</v>
@@ -30373,10 +30373,10 @@
         <v>220</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>6497</v>
+        <v>6496</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>6407</v>
@@ -30411,10 +30411,10 @@
         <v>6242</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>6451</v>
+        <v>6450</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>6498</v>
+        <v>6497</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>215</v>
@@ -30452,7 +30452,7 @@
         <v>272</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>267</v>
@@ -30475,10 +30475,10 @@
         <v>233</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>75</v>
@@ -30487,16 +30487,16 @@
         <v>220</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>191</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -30507,16 +30507,16 @@
         <v>26</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>75</v>
@@ -30527,7 +30527,7 @@
       <c r="I44" s="15"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>75</v>
@@ -30544,13 +30544,13 @@
         <v>80</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>75</v>
@@ -30559,10 +30559,10 @@
         <v>84</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>75</v>
@@ -30579,13 +30579,13 @@
         <v>80</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>75</v>
@@ -30594,10 +30594,10 @@
         <v>84</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>75</v>
@@ -30614,13 +30614,13 @@
         <v>80</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>75</v>
@@ -30629,10 +30629,10 @@
         <v>84</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>75</v>
@@ -30642,8 +30642,8 @@
       <c r="A48" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>6409</v>
+      <c r="B48" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>235</v>
@@ -30675,7 +30675,7 @@
         <v>74</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>231</v>
@@ -30713,7 +30713,7 @@
         <v>74</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>236</v>
@@ -30745,7 +30745,7 @@
         <v>74</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>231</v>
@@ -30754,7 +30754,7 @@
         <v>236</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>6478</v>
+        <v>6477</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>225</v>
@@ -30766,7 +30766,7 @@
         <v>6242</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>6476</v>
+        <v>6475</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>354</v>
@@ -30780,7 +30780,7 @@
         <v>74</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>231</v>
@@ -30789,7 +30789,7 @@
         <v>236</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>207</v>
@@ -30801,7 +30801,7 @@
         <v>6242</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>6477</v>
+        <v>6476</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>355</v>
@@ -30815,7 +30815,7 @@
         <v>74</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>238</v>
@@ -30844,7 +30844,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C54" s="34" t="s">
         <v>231</v>
@@ -30865,7 +30865,7 @@
         <v>6242</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>75</v>
@@ -30876,7 +30876,7 @@
         <v>74</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>231</v>
@@ -30897,7 +30897,7 @@
         <v>6242</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>75</v>
@@ -30908,7 +30908,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C56" s="34" t="s">
         <v>237</v>
@@ -30937,7 +30937,7 @@
         <v>74</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C57" s="34" t="s">
         <v>231</v>
@@ -30958,7 +30958,7 @@
         <v>6242</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>75</v>
@@ -30969,7 +30969,7 @@
         <v>74</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>231</v>
@@ -30990,7 +30990,7 @@
         <v>6242</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>75</v>
@@ -31001,7 +31001,7 @@
         <v>74</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C59" s="34" t="s">
         <v>231</v>
@@ -31022,7 +31022,7 @@
         <v>6242</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>75</v>
@@ -31033,7 +31033,7 @@
         <v>74</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C60" s="34" t="s">
         <v>292</v>
@@ -31062,7 +31062,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C61" s="34" t="s">
         <v>80</v>
@@ -31094,19 +31094,19 @@
         <v>74</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>6461</v>
+        <v>6460</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>75</v>
@@ -31126,16 +31126,16 @@
         <v>74</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>6462</v>
+        <v>6461</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>76</v>
@@ -31147,10 +31147,10 @@
         <v>220</v>
       </c>
       <c r="I63" s="32" t="s">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>75</v>
@@ -31161,16 +31161,16 @@
         <v>74</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>6465</v>
+        <v>6464</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>83</v>
@@ -31182,10 +31182,10 @@
         <v>220</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>75</v>
@@ -31196,16 +31196,16 @@
         <v>74</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>6486</v>
+        <v>6485</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>77</v>
@@ -31217,10 +31217,10 @@
         <v>220</v>
       </c>
       <c r="I65" s="32" t="s">
-        <v>6485</v>
+        <v>6484</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>75</v>
@@ -31231,16 +31231,16 @@
         <v>74</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>6409</v>
+        <v>26</v>
       </c>
       <c r="C66" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>6483</v>
+        <v>6482</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>6149</v>
@@ -31252,10 +31252,10 @@
         <v>220</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>6467</v>
+        <v>6466</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>75</v>
@@ -31459,7 +31459,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6410</v>
+        <v>6409</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -31494,7 +31494,7 @@
         <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6484</v>
+        <v>6483</v>
       </c>
     </row>
   </sheetData>
@@ -31549,7 +31549,7 @@
         <v>3201</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -32127,7 +32127,7 @@
         <v>3202</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6826</v>
+        <v>6825</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3203</v>
@@ -32373,16 +32373,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6827</v>
+        <v>6826</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>3205</v>
@@ -32390,16 +32390,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3202</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>6828</v>
+        <v>6827</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>3205</v>
@@ -32416,7 +32416,7 @@
         <v>3220</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6829</v>
+        <v>6828</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>3203</v>
@@ -32628,16 +32628,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>6830</v>
+        <v>6829</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>3205</v>
@@ -32645,16 +32645,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>6831</v>
+        <v>6830</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>3205</v>
@@ -32662,16 +32662,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>6503</v>
+        <v>6502</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6503</v>
+        <v>6502</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>6832</v>
+        <v>6831</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>3205</v>
@@ -32679,16 +32679,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3220</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>6833</v>
+        <v>6832</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>3205</v>
@@ -32968,16 +32968,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>6834</v>
+        <v>6833</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>3205</v>
@@ -32985,16 +32985,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>6506</v>
+        <v>6505</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6506</v>
+        <v>6505</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>6835</v>
+        <v>6834</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>3205</v>
@@ -33002,16 +33002,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>6507</v>
+        <v>6506</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>3234</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6507</v>
+        <v>6506</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>6836</v>
+        <v>6835</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>3205</v>
@@ -33198,7 +33198,7 @@
         <v>3250</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>6837</v>
+        <v>6836</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>3205</v>
@@ -33359,16 +33359,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3254</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>3205</v>
@@ -33385,7 +33385,7 @@
         <v>3261</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>3205</v>
@@ -33546,16 +33546,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>6509</v>
+        <v>6508</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>3268</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>6509</v>
+        <v>6508</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>6840</v>
+        <v>6839</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>3205</v>
@@ -33682,16 +33682,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>3275</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>6841</v>
+        <v>6840</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>3205</v>
@@ -33699,16 +33699,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>6511</v>
+        <v>6510</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3275</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6511</v>
+        <v>6510</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>6842</v>
+        <v>6841</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>3205</v>
@@ -33776,7 +33776,7 @@
         <v>3283</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>6843</v>
+        <v>6842</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>3205</v>
@@ -33793,7 +33793,7 @@
         <v>3284</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>6844</v>
+        <v>6843</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>3205</v>
@@ -33810,7 +33810,7 @@
         <v>3285</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>6845</v>
+        <v>6844</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>3205</v>
@@ -33878,7 +33878,7 @@
         <v>3289</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>6846</v>
+        <v>6845</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>3205</v>
@@ -34048,7 +34048,7 @@
         <v>3300</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>6847</v>
+        <v>6846</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>3205</v>
@@ -34167,7 +34167,7 @@
         <v>3307</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>6848</v>
+        <v>6847</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>3205</v>
@@ -34252,7 +34252,7 @@
         <v>3313</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>3205</v>
@@ -34260,16 +34260,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>6512</v>
+        <v>6511</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>6512</v>
+        <v>6511</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>3205</v>
@@ -34277,16 +34277,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>6513</v>
+        <v>6512</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>6513</v>
+        <v>6512</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>6851</v>
+        <v>6850</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>3205</v>
@@ -34294,16 +34294,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>6514</v>
+        <v>6513</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>6514</v>
+        <v>6513</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>6852</v>
+        <v>6851</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>3205</v>
@@ -34311,16 +34311,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>6515</v>
+        <v>6514</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3312</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>6515</v>
+        <v>6514</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>6853</v>
+        <v>6852</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>3205</v>
@@ -34388,7 +34388,7 @@
         <v>3317</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>6854</v>
+        <v>6853</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>3205</v>
@@ -34490,7 +34490,7 @@
         <v>3323</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>6855</v>
+        <v>6854</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>3205</v>
@@ -34524,7 +34524,7 @@
         <v>3325</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>6856</v>
+        <v>6855</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>3205</v>
@@ -34575,7 +34575,7 @@
         <v>3328</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>3205</v>
@@ -34719,16 +34719,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3333</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>3205</v>
@@ -34736,16 +34736,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3333</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>6859</v>
+        <v>6858</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>3205</v>
@@ -34830,7 +34830,7 @@
         <v>3342</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>3205</v>
@@ -35093,16 +35093,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3348</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>6861</v>
+        <v>6860</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>3205</v>
@@ -35153,7 +35153,7 @@
         <v>3362</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>6862</v>
+        <v>6861</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>3205</v>
@@ -35170,7 +35170,7 @@
         <v>3363</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>6863</v>
+        <v>6862</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>3205</v>
@@ -35289,7 +35289,7 @@
         <v>3370</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>6864</v>
+        <v>6863</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>3205</v>
@@ -35569,16 +35569,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>6519</v>
+        <v>6518</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>3387</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>6519</v>
+        <v>6518</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>3205</v>
@@ -35697,7 +35697,7 @@
         <v>3395</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>6866</v>
+        <v>6865</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>3205</v>
@@ -36105,7 +36105,7 @@
         <v>3411</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>3205</v>
@@ -36122,7 +36122,7 @@
         <v>3412</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>3205</v>
@@ -36292,7 +36292,7 @@
         <v>3423</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>3205</v>
@@ -36309,7 +36309,7 @@
         <v>3424</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>3205</v>
@@ -36326,7 +36326,7 @@
         <v>3425</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>3205</v>
@@ -36360,7 +36360,7 @@
         <v>3427</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>6870</v>
+        <v>6869</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>3205</v>
@@ -36377,7 +36377,7 @@
         <v>3429</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>3205</v>
@@ -36394,7 +36394,7 @@
         <v>3430</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>3205</v>
@@ -36547,7 +36547,7 @@
         <v>3439</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>6871</v>
+        <v>6870</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>3205</v>
@@ -36598,7 +36598,7 @@
         <v>3443</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>3205</v>
@@ -36751,7 +36751,7 @@
         <v>3453</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>6872</v>
+        <v>6871</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>3205</v>
@@ -36921,7 +36921,7 @@
         <v>3464</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>6873</v>
+        <v>6872</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>3205</v>
@@ -37091,7 +37091,7 @@
         <v>3475</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>3205</v>
@@ -37125,7 +37125,7 @@
         <v>3477</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>6875</v>
+        <v>6874</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>3205</v>
@@ -37261,7 +37261,7 @@
         <v>3486</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>3205</v>
@@ -37533,7 +37533,7 @@
         <v>3503</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>6877</v>
+        <v>6876</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>3205</v>
@@ -37584,7 +37584,7 @@
         <v>3506</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>6878</v>
+        <v>6877</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>3205</v>
@@ -37635,7 +37635,7 @@
         <v>3509</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>6879</v>
+        <v>6878</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>3205</v>
@@ -37669,7 +37669,7 @@
         <v>3511</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>6880</v>
+        <v>6879</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>3205</v>
@@ -37788,7 +37788,7 @@
         <v>3519</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>6881</v>
+        <v>6880</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>3205</v>
@@ -37805,7 +37805,7 @@
         <v>3520</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>6882</v>
+        <v>6881</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>3205</v>
@@ -37856,7 +37856,7 @@
         <v>3523</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>6883</v>
+        <v>6882</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>3205</v>
@@ -38383,7 +38383,7 @@
         <v>3545</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>3205</v>
@@ -38867,16 +38867,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
-        <v>6520</v>
+        <v>6519</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>3576</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>6520</v>
+        <v>6519</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>6885</v>
+        <v>6884</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>3205</v>
@@ -39020,16 +39020,16 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
-        <v>6521</v>
+        <v>6520</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>3585</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>6521</v>
+        <v>6520</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>6886</v>
+        <v>6885</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>3205</v>
@@ -39054,16 +39054,16 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
-        <v>6522</v>
+        <v>6521</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>3585</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>6522</v>
+        <v>6521</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>6887</v>
+        <v>6886</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>3205</v>
@@ -40253,7 +40253,7 @@
         <v>3650</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>6888</v>
+        <v>6887</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>3205</v>
@@ -40270,7 +40270,7 @@
         <v>3651</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>3205</v>
@@ -40295,16 +40295,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
-        <v>6523</v>
+        <v>6522</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>3643</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>6523</v>
+        <v>6522</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>6890</v>
+        <v>6889</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>3205</v>
@@ -40465,16 +40465,16 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>3656</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>3205</v>
@@ -41052,7 +41052,7 @@
         <v>3701</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>3205</v>
@@ -41086,7 +41086,7 @@
         <v>3703</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>3205</v>
@@ -41468,16 +41468,16 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
-        <v>6525</v>
+        <v>6524</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>3727</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>6525</v>
+        <v>6524</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
       <c r="E586" s="1" t="s">
         <v>3205</v>
@@ -41689,16 +41689,16 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A599" s="1" t="s">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>3739</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>6895</v>
+        <v>6894</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>3205</v>
@@ -42097,16 +42097,16 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A623" s="1" t="s">
-        <v>6527</v>
+        <v>6526</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>3754</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>6527</v>
+        <v>6526</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>6896</v>
+        <v>6895</v>
       </c>
       <c r="E623" s="1" t="s">
         <v>3205</v>
@@ -42616,7 +42616,7 @@
         <v>3795</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="E653" s="1" t="s">
         <v>3205</v>
@@ -42624,16 +42624,16 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A654" s="1" t="s">
-        <v>6528</v>
+        <v>6527</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>3794</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>6528</v>
+        <v>6527</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>6898</v>
+        <v>6897</v>
       </c>
       <c r="E654" s="1" t="s">
         <v>3205</v>
@@ -42726,16 +42726,16 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A660" s="1" t="s">
-        <v>6529</v>
+        <v>6528</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>3800</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>6529</v>
+        <v>6528</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>6899</v>
+        <v>6898</v>
       </c>
       <c r="E660" s="1" t="s">
         <v>3205</v>
@@ -42777,16 +42777,16 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A663" s="1" t="s">
-        <v>6530</v>
+        <v>6529</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>3800</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>6530</v>
+        <v>6529</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>3205</v>
@@ -43321,13 +43321,13 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A695" s="1" t="s">
-        <v>6531</v>
+        <v>6530</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>3820</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>6531</v>
+        <v>6530</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>937</v>
@@ -43355,16 +43355,16 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A697" s="1" t="s">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>3820</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>6901</v>
+        <v>6900</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>3205</v>
@@ -43372,16 +43372,16 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A698" s="1" t="s">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>3820</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>3205</v>
@@ -43432,7 +43432,7 @@
         <v>3829</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>3205</v>
@@ -44741,7 +44741,7 @@
         <v>3913</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>3205</v>
@@ -44834,16 +44834,16 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>3909</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>6904</v>
+        <v>6903</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>3205</v>
@@ -45072,16 +45072,16 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
-        <v>6535</v>
+        <v>6534</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>3924</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>6535</v>
+        <v>6534</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>3205</v>
@@ -45361,16 +45361,16 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
-        <v>6536</v>
+        <v>6535</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>3952</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>6536</v>
+        <v>6535</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>3205</v>
@@ -45438,7 +45438,7 @@
         <v>3957</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>6907</v>
+        <v>6906</v>
       </c>
       <c r="E819" s="1" t="s">
         <v>3203</v>
@@ -45701,16 +45701,16 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
-        <v>6537</v>
+        <v>6536</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>3957</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>6537</v>
+        <v>6536</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>3205</v>
@@ -46092,16 +46092,16 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
-        <v>6538</v>
+        <v>6537</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>3974</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>6538</v>
+        <v>6537</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>3205</v>
@@ -46109,16 +46109,16 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>3974</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>3205</v>
@@ -46177,16 +46177,16 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
-        <v>6540</v>
+        <v>6539</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>3984</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>6540</v>
+        <v>6539</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>3205</v>
@@ -46194,16 +46194,16 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>3984</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="E864" s="1" t="s">
         <v>3205</v>
@@ -46313,16 +46313,16 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
-        <v>6542</v>
+        <v>6541</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>3990</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>6542</v>
+        <v>6541</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>3205</v>
@@ -46339,7 +46339,7 @@
         <v>3995</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>3205</v>
@@ -46356,7 +46356,7 @@
         <v>3996</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>3205</v>
@@ -46483,16 +46483,16 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A881" s="1" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>4000</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="E881" s="1" t="s">
         <v>3205</v>
@@ -46568,16 +46568,16 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A886" s="1" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>4006</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>3205</v>
@@ -46585,16 +46585,16 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A887" s="1" t="s">
-        <v>6545</v>
+        <v>6544</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>4006</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>6545</v>
+        <v>6544</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>3205</v>
@@ -46704,13 +46704,13 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A894" s="1" t="s">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>4014</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>381</v>
@@ -46840,16 +46840,16 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A902" s="1" t="s">
-        <v>6547</v>
+        <v>6546</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>4022</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>6547</v>
+        <v>6546</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>6919</v>
+        <v>6918</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>3205</v>
@@ -46917,7 +46917,7 @@
         <v>4029</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>3205</v>
@@ -46942,16 +46942,16 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A908" s="1" t="s">
-        <v>6548</v>
+        <v>6547</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>4028</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>6548</v>
+        <v>6547</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>6921</v>
+        <v>6920</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>3205</v>
@@ -46959,16 +46959,16 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A909" s="1" t="s">
-        <v>6549</v>
+        <v>6548</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>4028</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>6549</v>
+        <v>6548</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>6922</v>
+        <v>6921</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>3205</v>
@@ -47061,16 +47061,16 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A915" s="1" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>4034</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>3205</v>
@@ -47214,16 +47214,16 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A924" s="1" t="s">
-        <v>6551</v>
+        <v>6550</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>4043</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>6551</v>
+        <v>6550</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>6924</v>
+        <v>6923</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>3205</v>
@@ -47418,16 +47418,16 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A936" s="1" t="s">
-        <v>6552</v>
+        <v>6551</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>4056</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>6552</v>
+        <v>6551</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>3205</v>
@@ -47894,16 +47894,16 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A964" s="1" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>4069</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>3205</v>
@@ -47971,7 +47971,7 @@
         <v>4081</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>6927</v>
+        <v>6926</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>3205</v>
@@ -48064,16 +48064,16 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A974" s="1" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>4082</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>6928</v>
+        <v>6927</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>3205</v>
@@ -48200,16 +48200,16 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A982" s="1" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>4092</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>6929</v>
+        <v>6928</v>
       </c>
       <c r="E982" s="1" t="s">
         <v>3205</v>
@@ -48345,7 +48345,7 @@
         <v>4104</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>6930</v>
+        <v>6929</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>3205</v>
@@ -48557,16 +48557,16 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1003" s="1" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>4117</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>3205</v>
@@ -48574,16 +48574,16 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1004" s="1" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>4117</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>6932</v>
+        <v>6931</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>3205</v>
@@ -49101,16 +49101,16 @@
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1035" s="1" t="s">
-        <v>6558</v>
+        <v>6557</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>4144</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>6558</v>
+        <v>6557</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="E1035" s="1" t="s">
         <v>3205</v>
@@ -49662,13 +49662,13 @@
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1068" s="1" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>4164</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
       <c r="D1068" s="1" t="s">
         <v>1342</v>
@@ -49679,13 +49679,13 @@
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1069" s="1" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>4164</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
       <c r="D1069" s="1" t="s">
         <v>1341</v>
@@ -49722,7 +49722,7 @@
         <v>4174</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>3205</v>
@@ -49747,16 +49747,16 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1073" s="1" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>4172</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="E1073" s="1" t="s">
         <v>3205</v>
@@ -49815,13 +49815,13 @@
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1077" s="1" t="s">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>4172</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="D1077" s="1" t="s">
         <v>1343</v>
@@ -50053,16 +50053,16 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1091" s="1" t="s">
-        <v>6563</v>
+        <v>6562</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>4187</v>
       </c>
       <c r="C1091" s="1" t="s">
-        <v>6563</v>
+        <v>6562</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="E1091" s="1" t="s">
         <v>3205</v>
@@ -50104,16 +50104,16 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1094" s="1" t="s">
-        <v>6564</v>
+        <v>6563</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>4194</v>
       </c>
       <c r="C1094" s="1" t="s">
-        <v>6564</v>
+        <v>6563</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>6937</v>
+        <v>6936</v>
       </c>
       <c r="E1094" s="1" t="s">
         <v>3205</v>
@@ -50138,13 +50138,13 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1096" s="1" t="s">
-        <v>6565</v>
+        <v>6564</v>
       </c>
       <c r="B1096" s="1" t="s">
         <v>4194</v>
       </c>
       <c r="C1096" s="1" t="s">
-        <v>6565</v>
+        <v>6564</v>
       </c>
       <c r="D1096" s="1" t="s">
         <v>1344</v>
@@ -50155,16 +50155,16 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1097" s="1" t="s">
-        <v>6566</v>
+        <v>6565</v>
       </c>
       <c r="B1097" s="1" t="s">
         <v>4194</v>
       </c>
       <c r="C1097" s="1" t="s">
-        <v>6566</v>
+        <v>6565</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>6938</v>
+        <v>6937</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>3205</v>
@@ -50240,16 +50240,16 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1102" s="1" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
       <c r="B1102" s="1" t="s">
         <v>4203</v>
       </c>
       <c r="C1102" s="1" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>3205</v>
@@ -50257,16 +50257,16 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1103" s="1" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
       <c r="B1103" s="1" t="s">
         <v>4203</v>
       </c>
       <c r="C1103" s="1" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="E1103" s="1" t="s">
         <v>3205</v>
@@ -50283,7 +50283,7 @@
         <v>4204</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>3205</v>
@@ -50291,13 +50291,13 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1105" s="1" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="B1105" s="1" t="s">
         <v>4203</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="D1105" s="1" t="s">
         <v>1307</v>
@@ -50351,7 +50351,7 @@
         <v>4208</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>6941</v>
+        <v>6940</v>
       </c>
       <c r="E1108" s="1" t="s">
         <v>3205</v>
@@ -50538,7 +50538,7 @@
         <v>4220</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>6942</v>
+        <v>6941</v>
       </c>
       <c r="E1119" s="1" t="s">
         <v>3205</v>
@@ -50572,7 +50572,7 @@
         <v>4222</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>3205</v>
@@ -50878,7 +50878,7 @@
         <v>4243</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>6944</v>
+        <v>6943</v>
       </c>
       <c r="E1139" s="1" t="s">
         <v>3205</v>
@@ -50912,7 +50912,7 @@
         <v>4245</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>6945</v>
+        <v>6944</v>
       </c>
       <c r="E1141" s="1" t="s">
         <v>3205</v>
@@ -50946,7 +50946,7 @@
         <v>4247</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>6946</v>
+        <v>6945</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>3205</v>
@@ -50988,16 +50988,16 @@
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1146" s="1" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>4248</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>6947</v>
+        <v>6946</v>
       </c>
       <c r="E1146" s="1" t="s">
         <v>3205</v>
@@ -51269,7 +51269,7 @@
         <v>4269</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
       <c r="E1162" s="1" t="s">
         <v>3205</v>
@@ -51694,7 +51694,7 @@
         <v>4287</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>3205</v>
@@ -52017,7 +52017,7 @@
         <v>4309</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>6950</v>
+        <v>6949</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>3205</v>
@@ -52501,16 +52501,16 @@
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1235" s="1" t="s">
-        <v>6571</v>
+        <v>6570</v>
       </c>
       <c r="B1235" s="1" t="s">
         <v>4339</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>6571</v>
+        <v>6570</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>6951</v>
+        <v>6950</v>
       </c>
       <c r="E1235" s="1" t="s">
         <v>3205</v>
@@ -52671,13 +52671,13 @@
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1245" s="1" t="s">
-        <v>6572</v>
+        <v>6571</v>
       </c>
       <c r="B1245" s="1" t="s">
         <v>4349</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>6572</v>
+        <v>6571</v>
       </c>
       <c r="D1245" s="1" t="s">
         <v>2032</v>
@@ -53198,16 +53198,16 @@
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1276" s="1" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
       <c r="B1276" s="1" t="s">
         <v>4367</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="E1276" s="1" t="s">
         <v>3205</v>
@@ -53428,7 +53428,7 @@
         <v>4388</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="E1289" s="1" t="s">
         <v>3205</v>
@@ -53462,7 +53462,7 @@
         <v>4390</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="E1291" s="1" t="s">
         <v>3205</v>
@@ -53606,16 +53606,16 @@
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1300" s="1" t="s">
-        <v>6574</v>
+        <v>6573</v>
       </c>
       <c r="B1300" s="1" t="s">
         <v>4387</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>6574</v>
+        <v>6573</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="E1300" s="1" t="s">
         <v>3205</v>
@@ -53623,16 +53623,16 @@
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1301" s="1" t="s">
-        <v>6575</v>
+        <v>6574</v>
       </c>
       <c r="B1301" s="1" t="s">
         <v>4387</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>6575</v>
+        <v>6574</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>6956</v>
+        <v>6955</v>
       </c>
       <c r="E1301" s="1" t="s">
         <v>3205</v>
@@ -53742,16 +53742,16 @@
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1308" s="1" t="s">
-        <v>6576</v>
+        <v>6575</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>4406</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>6576</v>
+        <v>6575</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>6957</v>
+        <v>6956</v>
       </c>
       <c r="E1308" s="1" t="s">
         <v>3205</v>
@@ -53759,16 +53759,16 @@
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1309" s="1" t="s">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>4406</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="E1309" s="1" t="s">
         <v>3205</v>
@@ -54439,16 +54439,16 @@
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1349" s="1" t="s">
-        <v>6578</v>
+        <v>6577</v>
       </c>
       <c r="B1349" s="1" t="s">
         <v>4448</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>6578</v>
+        <v>6577</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="E1349" s="1" t="s">
         <v>3205</v>
@@ -54626,16 +54626,16 @@
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1360" s="1" t="s">
-        <v>6579</v>
+        <v>6578</v>
       </c>
       <c r="B1360" s="1" t="s">
         <v>4459</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>6579</v>
+        <v>6578</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
       <c r="E1360" s="1" t="s">
         <v>3205</v>
@@ -54652,7 +54652,7 @@
         <v>4461</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
       <c r="E1361" s="1" t="s">
         <v>3205</v>
@@ -55204,16 +55204,16 @@
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1394" s="1" t="s">
-        <v>6580</v>
+        <v>6579</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>4472</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>6580</v>
+        <v>6579</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="E1394" s="1" t="s">
         <v>3205</v>
@@ -55400,7 +55400,7 @@
         <v>4490</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="E1405" s="1" t="s">
         <v>3205</v>
@@ -55714,16 +55714,16 @@
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1424" s="1" t="s">
-        <v>6581</v>
+        <v>6580</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>4509</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>6581</v>
+        <v>6580</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="E1424" s="1" t="s">
         <v>3205</v>
@@ -56190,16 +56190,16 @@
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1452" s="1" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
       <c r="B1452" s="1" t="s">
         <v>4540</v>
       </c>
       <c r="C1452" s="1" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
       <c r="D1452" s="1" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="E1452" s="1" t="s">
         <v>3205</v>
@@ -56360,16 +56360,16 @@
     </row>
     <row r="1462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1462" s="1" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
       <c r="B1462" s="1" t="s">
         <v>4551</v>
       </c>
       <c r="C1462" s="1" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
       <c r="D1462" s="1" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
       <c r="E1462" s="1" t="s">
         <v>3205</v>
@@ -56377,13 +56377,13 @@
     </row>
     <row r="1463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1463" s="1" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
       <c r="B1463" s="1" t="s">
         <v>4551</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
       <c r="D1463" s="1" t="s">
         <v>1639</v>
@@ -56479,16 +56479,16 @@
     </row>
     <row r="1469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1469" s="1" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
       <c r="B1469" s="1" t="s">
         <v>4556</v>
       </c>
       <c r="C1469" s="1" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>3205</v>
@@ -56590,7 +56590,7 @@
         <v>4564</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>6968</v>
+        <v>6967</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>3205</v>
@@ -56743,7 +56743,7 @@
         <v>4575</v>
       </c>
       <c r="D1484" s="1" t="s">
-        <v>6969</v>
+        <v>6968</v>
       </c>
       <c r="E1484" s="1" t="s">
         <v>3205</v>
@@ -56760,7 +56760,7 @@
         <v>4576</v>
       </c>
       <c r="D1485" s="1" t="s">
-        <v>6970</v>
+        <v>6969</v>
       </c>
       <c r="E1485" s="1" t="s">
         <v>3205</v>
@@ -56853,16 +56853,16 @@
     </row>
     <row r="1491" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1491" s="1" t="s">
-        <v>6586</v>
+        <v>6585</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4581</v>
       </c>
       <c r="C1491" s="1" t="s">
-        <v>6586</v>
+        <v>6585</v>
       </c>
       <c r="D1491" s="1" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
       <c r="E1491" s="1" t="s">
         <v>3205</v>
@@ -57066,7 +57066,7 @@
         <v>4595</v>
       </c>
       <c r="D1503" s="1" t="s">
-        <v>6972</v>
+        <v>6971</v>
       </c>
       <c r="E1503" s="1" t="s">
         <v>3205</v>
@@ -57117,7 +57117,7 @@
         <v>4598</v>
       </c>
       <c r="D1506" s="1" t="s">
-        <v>6973</v>
+        <v>6972</v>
       </c>
       <c r="E1506" s="1" t="s">
         <v>3205</v>
@@ -57176,16 +57176,16 @@
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1510" s="1" t="s">
-        <v>6587</v>
+        <v>6586</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4601</v>
       </c>
       <c r="C1510" s="1" t="s">
-        <v>6587</v>
+        <v>6586</v>
       </c>
       <c r="D1510" s="1" t="s">
-        <v>6974</v>
+        <v>6973</v>
       </c>
       <c r="E1510" s="1" t="s">
         <v>3205</v>
@@ -57295,16 +57295,16 @@
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1517" s="1" t="s">
-        <v>6588</v>
+        <v>6587</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4608</v>
       </c>
       <c r="C1517" s="1" t="s">
-        <v>6588</v>
+        <v>6587</v>
       </c>
       <c r="D1517" s="1" t="s">
-        <v>6975</v>
+        <v>6974</v>
       </c>
       <c r="E1517" s="1" t="s">
         <v>3205</v>
@@ -57321,7 +57321,7 @@
         <v>4610</v>
       </c>
       <c r="D1518" s="1" t="s">
-        <v>6976</v>
+        <v>6975</v>
       </c>
       <c r="E1518" s="1" t="s">
         <v>3205</v>
@@ -57338,7 +57338,7 @@
         <v>4611</v>
       </c>
       <c r="D1519" s="1" t="s">
-        <v>6977</v>
+        <v>6976</v>
       </c>
       <c r="E1519" s="1" t="s">
         <v>3205</v>
@@ -57720,13 +57720,13 @@
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1542" s="1" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4617</v>
       </c>
       <c r="C1542" s="1" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
       <c r="D1542" s="1" t="s">
         <v>1772</v>
@@ -57831,7 +57831,7 @@
         <v>4624</v>
       </c>
       <c r="D1548" s="1" t="s">
-        <v>6978</v>
+        <v>6977</v>
       </c>
       <c r="E1548" s="1" t="s">
         <v>3205</v>
@@ -58001,7 +58001,7 @@
         <v>4635</v>
       </c>
       <c r="D1558" s="1" t="s">
-        <v>6979</v>
+        <v>6978</v>
       </c>
       <c r="E1558" s="1" t="s">
         <v>3205</v>
@@ -58009,16 +58009,16 @@
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1559" s="1" t="s">
-        <v>6589</v>
+        <v>6588</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4631</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>6589</v>
+        <v>6588</v>
       </c>
       <c r="D1559" s="1" t="s">
-        <v>6980</v>
+        <v>6979</v>
       </c>
       <c r="E1559" s="1" t="s">
         <v>3205</v>
@@ -58035,7 +58035,7 @@
         <v>4636</v>
       </c>
       <c r="D1560" s="1" t="s">
-        <v>6981</v>
+        <v>6980</v>
       </c>
       <c r="E1560" s="1" t="s">
         <v>3205</v>
@@ -58137,7 +58137,7 @@
         <v>4643</v>
       </c>
       <c r="D1566" s="1" t="s">
-        <v>6982</v>
+        <v>6981</v>
       </c>
       <c r="E1566" s="1" t="s">
         <v>3205</v>
@@ -58179,13 +58179,13 @@
     </row>
     <row r="1569" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1569" s="1" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4640</v>
       </c>
       <c r="C1569" s="1" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
       <c r="D1569" s="1" t="s">
         <v>1721</v>
@@ -58256,7 +58256,7 @@
         <v>4649</v>
       </c>
       <c r="D1573" s="1" t="s">
-        <v>6983</v>
+        <v>6982</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>3205</v>
@@ -58443,7 +58443,7 @@
         <v>4661</v>
       </c>
       <c r="D1584" s="1" t="s">
-        <v>6984</v>
+        <v>6983</v>
       </c>
       <c r="E1584" s="1" t="s">
         <v>3205</v>
@@ -58477,7 +58477,7 @@
         <v>4663</v>
       </c>
       <c r="D1586" s="1" t="s">
-        <v>6985</v>
+        <v>6984</v>
       </c>
       <c r="E1586" s="1" t="s">
         <v>3205</v>
@@ -58630,7 +58630,7 @@
         <v>4673</v>
       </c>
       <c r="D1595" s="1" t="s">
-        <v>6986</v>
+        <v>6985</v>
       </c>
       <c r="E1595" s="1" t="s">
         <v>3205</v>
@@ -58732,7 +58732,7 @@
         <v>4680</v>
       </c>
       <c r="D1601" s="1" t="s">
-        <v>6987</v>
+        <v>6986</v>
       </c>
       <c r="E1601" s="1" t="s">
         <v>3205</v>
@@ -58749,7 +58749,7 @@
         <v>4681</v>
       </c>
       <c r="D1602" s="1" t="s">
-        <v>6988</v>
+        <v>6987</v>
       </c>
       <c r="E1602" s="1" t="s">
         <v>3205</v>
@@ -59089,7 +59089,7 @@
         <v>4703</v>
       </c>
       <c r="D1622" s="1" t="s">
-        <v>6989</v>
+        <v>6988</v>
       </c>
       <c r="E1622" s="1" t="s">
         <v>3205</v>
@@ -59191,7 +59191,7 @@
         <v>4710</v>
       </c>
       <c r="D1628" s="1" t="s">
-        <v>6990</v>
+        <v>6989</v>
       </c>
       <c r="E1628" s="1" t="s">
         <v>3205</v>
@@ -59250,16 +59250,16 @@
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1632" s="1" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>4713</v>
       </c>
       <c r="C1632" s="1" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
       <c r="D1632" s="1" t="s">
-        <v>6991</v>
+        <v>6990</v>
       </c>
       <c r="E1632" s="1" t="s">
         <v>3205</v>
@@ -59437,16 +59437,16 @@
     </row>
     <row r="1643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1643" s="1" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>4725</v>
       </c>
       <c r="C1643" s="1" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
       <c r="D1643" s="1" t="s">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>3205</v>
@@ -59803,7 +59803,7 @@
         <v>4749</v>
       </c>
       <c r="D1664" s="1" t="s">
-        <v>6993</v>
+        <v>6992</v>
       </c>
       <c r="E1664" s="1" t="s">
         <v>3205</v>
@@ -59905,7 +59905,7 @@
         <v>4756</v>
       </c>
       <c r="D1670" s="1" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
       <c r="E1670" s="1" t="s">
         <v>3205</v>
@@ -59973,7 +59973,7 @@
         <v>4760</v>
       </c>
       <c r="D1674" s="1" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
       <c r="E1674" s="1" t="s">
         <v>3205</v>
@@ -60058,7 +60058,7 @@
         <v>4765</v>
       </c>
       <c r="D1679" s="1" t="s">
-        <v>6996</v>
+        <v>6995</v>
       </c>
       <c r="E1679" s="1" t="s">
         <v>3205</v>
@@ -60483,7 +60483,7 @@
         <v>4832</v>
       </c>
       <c r="D1704" s="1" t="s">
-        <v>7000</v>
+        <v>6999</v>
       </c>
       <c r="E1704" s="1" t="s">
         <v>3203</v>
@@ -60738,7 +60738,7 @@
         <v>4792</v>
       </c>
       <c r="D1719" s="1" t="s">
-        <v>6997</v>
+        <v>6996</v>
       </c>
       <c r="E1719" s="1" t="s">
         <v>3205</v>
@@ -61052,16 +61052,16 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1738" s="1" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
       <c r="B1738" s="1" t="s">
         <v>4810</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
       <c r="D1738" s="1" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
       <c r="E1738" s="1" t="s">
         <v>3205</v>
@@ -61129,7 +61129,7 @@
         <v>4816</v>
       </c>
       <c r="D1742" s="1" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="E1742" s="1" t="s">
         <v>3205</v>
@@ -61418,7 +61418,7 @@
         <v>4835</v>
       </c>
       <c r="D1759" s="1" t="s">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="E1759" s="1" t="s">
         <v>3205</v>
@@ -62191,13 +62191,13 @@
     </row>
     <row r="1805" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1805" s="1" t="s">
-        <v>6595</v>
+        <v>6594</v>
       </c>
       <c r="B1805" s="1" t="s">
         <v>4887</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>6595</v>
+        <v>6594</v>
       </c>
       <c r="D1805" s="1" t="s">
         <v>1947</v>
@@ -62208,16 +62208,16 @@
     </row>
     <row r="1806" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1806" s="1" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
       <c r="B1806" s="1" t="s">
         <v>4887</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
       <c r="D1806" s="1" t="s">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="E1806" s="1" t="s">
         <v>3205</v>
@@ -62701,16 +62701,16 @@
     </row>
     <row r="1835" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1835" s="1" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
       <c r="B1835" s="1" t="s">
         <v>4903</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
       <c r="D1835" s="1" t="s">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="E1835" s="1" t="s">
         <v>3205</v>
@@ -62744,7 +62744,7 @@
         <v>4910</v>
       </c>
       <c r="D1837" s="1" t="s">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="E1837" s="1" t="s">
         <v>3205</v>
@@ -62863,7 +62863,7 @@
         <v>4918</v>
       </c>
       <c r="D1844" s="1" t="s">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="E1844" s="1" t="s">
         <v>3205</v>
@@ -63645,7 +63645,7 @@
         <v>4969</v>
       </c>
       <c r="D1890" s="1" t="s">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="E1890" s="1" t="s">
         <v>3205</v>
@@ -63832,7 +63832,7 @@
         <v>4982</v>
       </c>
       <c r="D1901" s="1" t="s">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="E1901" s="1" t="s">
         <v>3205</v>
@@ -64087,7 +64087,7 @@
         <v>4999</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>7008</v>
+        <v>7007</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>3205</v>
@@ -64172,7 +64172,7 @@
         <v>5004</v>
       </c>
       <c r="D1921" s="1" t="s">
-        <v>7009</v>
+        <v>7008</v>
       </c>
       <c r="E1921" s="1" t="s">
         <v>3205</v>
@@ -64996,16 +64996,16 @@
     </row>
     <row r="1970" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1970" s="1" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
       <c r="B1970" s="1" t="s">
         <v>5038</v>
       </c>
       <c r="C1970" s="1" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
       <c r="D1970" s="1" t="s">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="E1970" s="1" t="s">
         <v>3203</v>
@@ -65200,16 +65200,16 @@
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1982" s="1" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
       <c r="B1982" s="1" t="s">
         <v>5039</v>
       </c>
       <c r="C1982" s="1" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
       <c r="D1982" s="1" t="s">
-        <v>7010</v>
+        <v>7009</v>
       </c>
       <c r="E1982" s="1" t="s">
         <v>3205</v>
@@ -65217,16 +65217,16 @@
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1983" s="1" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
       <c r="B1983" s="1" t="s">
         <v>5039</v>
       </c>
       <c r="C1983" s="1" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
       <c r="D1983" s="1" t="s">
-        <v>7011</v>
+        <v>7010</v>
       </c>
       <c r="E1983" s="1" t="s">
         <v>3205</v>
@@ -65234,16 +65234,16 @@
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1984" s="1" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
       <c r="B1984" s="1" t="s">
         <v>5039</v>
       </c>
       <c r="C1984" s="1" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="E1984" s="1" t="s">
         <v>3205</v>
@@ -65523,13 +65523,13 @@
     </row>
     <row r="2001" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2001" s="1" t="s">
-        <v>6601</v>
+        <v>6600</v>
       </c>
       <c r="B2001" s="1" t="s">
         <v>5059</v>
       </c>
       <c r="C2001" s="1" t="s">
-        <v>6601</v>
+        <v>6600</v>
       </c>
       <c r="D2001" s="1" t="s">
         <v>2336</v>
@@ -65540,16 +65540,16 @@
     </row>
     <row r="2002" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2002" s="1" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
       <c r="B2002" s="1" t="s">
         <v>5059</v>
       </c>
       <c r="C2002" s="1" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
       <c r="D2002" s="1" t="s">
-        <v>7013</v>
+        <v>7012</v>
       </c>
       <c r="E2002" s="1" t="s">
         <v>3205</v>
@@ -66101,16 +66101,16 @@
     </row>
     <row r="2035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2035" s="1" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B2035" s="1" t="s">
         <v>5102</v>
       </c>
       <c r="C2035" s="1" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="D2035" s="1" t="s">
-        <v>7014</v>
+        <v>7013</v>
       </c>
       <c r="E2035" s="1" t="s">
         <v>3205</v>
@@ -66203,16 +66203,16 @@
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2041" s="1" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B2041" s="1" t="s">
         <v>5107</v>
       </c>
       <c r="C2041" s="1" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="D2041" s="1" t="s">
-        <v>7015</v>
+        <v>7014</v>
       </c>
       <c r="E2041" s="1" t="s">
         <v>3205</v>
@@ -66407,16 +66407,16 @@
     </row>
     <row r="2053" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2053" s="1" t="s">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B2053" s="1" t="s">
         <v>5121</v>
       </c>
       <c r="C2053" s="1" t="s">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="D2053" s="1" t="s">
-        <v>7016</v>
+        <v>7015</v>
       </c>
       <c r="E2053" s="1" t="s">
         <v>3205</v>
@@ -66535,7 +66535,7 @@
         <v>5130</v>
       </c>
       <c r="D2060" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E2060" s="1" t="s">
         <v>3205</v>
@@ -66713,16 +66713,16 @@
     </row>
     <row r="2071" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2071" s="1" t="s">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B2071" s="1" t="s">
         <v>5141</v>
       </c>
       <c r="C2071" s="1" t="s">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="D2071" s="1" t="s">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="E2071" s="1" t="s">
         <v>3205</v>
@@ -66781,16 +66781,16 @@
     </row>
     <row r="2075" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2075" s="1" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
       <c r="B2075" s="1" t="s">
         <v>5145</v>
       </c>
       <c r="C2075" s="1" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="E2075" s="1" t="s">
         <v>3205</v>
@@ -66917,16 +66917,16 @@
     </row>
     <row r="2083" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2083" s="1" t="s">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="B2083" s="1" t="s">
         <v>5155</v>
       </c>
       <c r="C2083" s="1" t="s">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="D2083" s="1" t="s">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="E2083" s="1" t="s">
         <v>3205</v>
@@ -66968,16 +66968,16 @@
     </row>
     <row r="2086" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2086" s="1" t="s">
-        <v>6610</v>
+        <v>6609</v>
       </c>
       <c r="B2086" s="1" t="s">
         <v>5158</v>
       </c>
       <c r="C2086" s="1" t="s">
-        <v>6610</v>
+        <v>6609</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>3205</v>
@@ -67053,16 +67053,16 @@
     </row>
     <row r="2091" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2091" s="1" t="s">
-        <v>6611</v>
+        <v>6610</v>
       </c>
       <c r="B2091" s="1" t="s">
         <v>5163</v>
       </c>
       <c r="C2091" s="1" t="s">
-        <v>6611</v>
+        <v>6610</v>
       </c>
       <c r="D2091" s="1" t="s">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="E2091" s="1" t="s">
         <v>3205</v>
@@ -67461,16 +67461,16 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2115" s="1" t="s">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="B2115" s="1" t="s">
         <v>5169</v>
       </c>
       <c r="C2115" s="1" t="s">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="D2115" s="1" t="s">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="E2115" s="1" t="s">
         <v>3205</v>
@@ -67555,7 +67555,7 @@
         <v>5180</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="E2120" s="1" t="s">
         <v>3205</v>
@@ -67631,16 +67631,16 @@
     </row>
     <row r="2125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2125" s="1" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="B2125" s="1" t="s">
         <v>5181</v>
       </c>
       <c r="C2125" s="1" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="D2125" s="1" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="E2125" s="1" t="s">
         <v>3205</v>
@@ -67818,16 +67818,16 @@
     </row>
     <row r="2136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2136" s="1" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="B2136" s="1" t="s">
         <v>5191</v>
       </c>
       <c r="C2136" s="1" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="D2136" s="1" t="s">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="E2136" s="1" t="s">
         <v>3205</v>
@@ -67997,7 +67997,7 @@
         <v>5206</v>
       </c>
       <c r="D2146" s="1" t="s">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="E2146" s="1" t="s">
         <v>3205</v>
@@ -68056,16 +68056,16 @@
     </row>
     <row r="2150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2150" s="1" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
       <c r="B2150" s="1" t="s">
         <v>5208</v>
       </c>
       <c r="C2150" s="1" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
       <c r="D2150" s="1" t="s">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="E2150" s="1" t="s">
         <v>3205</v>
@@ -68099,7 +68099,7 @@
         <v>5212</v>
       </c>
       <c r="D2152" s="1" t="s">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="E2152" s="1" t="s">
         <v>3205</v>
@@ -68447,16 +68447,16 @@
     </row>
     <row r="2173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2173" s="1" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
       <c r="B2173" s="1" t="s">
         <v>5236</v>
       </c>
       <c r="C2173" s="1" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
       <c r="D2173" s="1" t="s">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="E2173" s="1" t="s">
         <v>3205</v>
@@ -68473,7 +68473,7 @@
         <v>5238</v>
       </c>
       <c r="D2174" s="1" t="s">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="E2174" s="1" t="s">
         <v>3205</v>
@@ -68736,16 +68736,16 @@
     </row>
     <row r="2190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2190" s="1" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
       <c r="B2190" s="1" t="s">
         <v>5243</v>
       </c>
       <c r="C2190" s="1" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
       <c r="D2190" s="1" t="s">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="E2190" s="1" t="s">
         <v>3205</v>
@@ -68770,16 +68770,16 @@
     </row>
     <row r="2192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2192" s="1" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
       <c r="B2192" s="1" t="s">
         <v>5255</v>
       </c>
       <c r="C2192" s="1" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
       <c r="D2192" s="1" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="E2192" s="1" t="s">
         <v>3205</v>
@@ -68855,16 +68855,16 @@
     </row>
     <row r="2197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2197" s="1" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
       <c r="B2197" s="1" t="s">
         <v>5260</v>
       </c>
       <c r="C2197" s="1" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
       <c r="D2197" s="1" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="E2197" s="1" t="s">
         <v>3205</v>
@@ -69136,7 +69136,7 @@
         <v>5279</v>
       </c>
       <c r="D2213" s="1" t="s">
-        <v>7035</v>
+        <v>7034</v>
       </c>
       <c r="E2213" s="1" t="s">
         <v>3205</v>
@@ -69280,16 +69280,16 @@
     </row>
     <row r="2222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2222" s="1" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2222" s="1" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>3203</v>
@@ -69297,13 +69297,13 @@
     </row>
     <row r="2223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2223" s="1" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2223" s="1" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="D2223" s="1" t="s">
         <v>2342</v>
@@ -69399,13 +69399,13 @@
     </row>
     <row r="2229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2229" s="1" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2229" s="1" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
       <c r="D2229" s="1" t="s">
         <v>2346</v>
@@ -69416,13 +69416,13 @@
     </row>
     <row r="2230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2230" s="1" t="s">
-        <v>6630</v>
+        <v>6629</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2230" s="1" t="s">
-        <v>6630</v>
+        <v>6629</v>
       </c>
       <c r="D2230" s="1" t="s">
         <v>2347</v>
@@ -69433,13 +69433,13 @@
     </row>
     <row r="2231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2231" s="1" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2231" s="1" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
       <c r="D2231" s="1" t="s">
         <v>2348</v>
@@ -69450,13 +69450,13 @@
     </row>
     <row r="2232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2232" s="1" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2232" s="1" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="D2232" s="1" t="s">
         <v>2349</v>
@@ -69535,13 +69535,13 @@
     </row>
     <row r="2237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2237" s="1" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>5286</v>
       </c>
       <c r="C2237" s="1" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
       <c r="D2237" s="1" t="s">
         <v>2354</v>
@@ -69637,16 +69637,16 @@
     </row>
     <row r="2243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2243" s="1" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2243" s="1" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
       <c r="D2243" s="1" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="E2243" s="1" t="s">
         <v>3205</v>
@@ -69654,16 +69654,16 @@
     </row>
     <row r="2244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2244" s="1" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2244" s="1" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
       <c r="D2244" s="1" t="s">
-        <v>7037</v>
+        <v>7036</v>
       </c>
       <c r="E2244" s="1" t="s">
         <v>3205</v>
@@ -69671,16 +69671,16 @@
     </row>
     <row r="2245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2245" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2245" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="D2245" s="1" t="s">
-        <v>7038</v>
+        <v>7037</v>
       </c>
       <c r="E2245" s="1" t="s">
         <v>3205</v>
@@ -69688,16 +69688,16 @@
     </row>
     <row r="2246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2246" s="1" t="s">
-        <v>6623</v>
+        <v>6622</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>5292</v>
       </c>
       <c r="C2246" s="1" t="s">
-        <v>6623</v>
+        <v>6622</v>
       </c>
       <c r="D2246" s="1" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
       <c r="E2246" s="1" t="s">
         <v>3205</v>
@@ -69705,13 +69705,13 @@
     </row>
     <row r="2247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2247" s="1" t="s">
-        <v>6625</v>
+        <v>6624</v>
       </c>
       <c r="B2247" s="1" t="s">
+        <v>6623</v>
+      </c>
+      <c r="C2247" s="1" t="s">
         <v>6624</v>
-      </c>
-      <c r="C2247" s="1" t="s">
-        <v>6625</v>
       </c>
       <c r="D2247" s="1" t="s">
         <v>2356</v>
@@ -69722,13 +69722,13 @@
     </row>
     <row r="2248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2248" s="1" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
       <c r="B2248" s="1" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="C2248" s="1" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
       <c r="D2248" s="1" t="s">
         <v>2357</v>
@@ -69739,16 +69739,16 @@
     </row>
     <row r="2249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2249" s="1" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
       <c r="B2249" s="1" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="C2249" s="1" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
       <c r="D2249" s="1" t="s">
-        <v>7041</v>
+        <v>7040</v>
       </c>
       <c r="E2249" s="1" t="s">
         <v>3205</v>
@@ -69765,7 +69765,7 @@
         <v>5304</v>
       </c>
       <c r="D2250" s="1" t="s">
-        <v>7042</v>
+        <v>7041</v>
       </c>
       <c r="E2250" s="1" t="s">
         <v>3203</v>
@@ -69782,7 +69782,7 @@
         <v>5320</v>
       </c>
       <c r="D2251" s="1" t="s">
-        <v>7056</v>
+        <v>7055</v>
       </c>
       <c r="E2251" s="1" t="s">
         <v>3203</v>
@@ -69952,7 +69952,7 @@
         <v>5314</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>7043</v>
+        <v>7042</v>
       </c>
       <c r="E2261" s="1" t="s">
         <v>3205</v>
@@ -69969,7 +69969,7 @@
         <v>5315</v>
       </c>
       <c r="D2262" s="1" t="s">
-        <v>7044</v>
+        <v>7043</v>
       </c>
       <c r="E2262" s="1" t="s">
         <v>3205</v>
@@ -70045,16 +70045,16 @@
     </row>
     <row r="2267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2267" s="1" t="s">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2267" s="1" t="s">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="D2267" s="1" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
       <c r="E2267" s="1" t="s">
         <v>3205</v>
@@ -70062,16 +70062,16 @@
     </row>
     <row r="2268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2268" s="1" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2268" s="1" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="D2268" s="1" t="s">
-        <v>7046</v>
+        <v>7045</v>
       </c>
       <c r="E2268" s="1" t="s">
         <v>3205</v>
@@ -70079,16 +70079,16 @@
     </row>
     <row r="2269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2269" s="1" t="s">
-        <v>6636</v>
+        <v>6635</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2269" s="1" t="s">
-        <v>6636</v>
+        <v>6635</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>7047</v>
+        <v>7046</v>
       </c>
       <c r="E2269" s="1" t="s">
         <v>3205</v>
@@ -70096,16 +70096,16 @@
     </row>
     <row r="2270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2270" s="1" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2270" s="1" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="D2270" s="1" t="s">
-        <v>7048</v>
+        <v>7047</v>
       </c>
       <c r="E2270" s="1" t="s">
         <v>3205</v>
@@ -70113,16 +70113,16 @@
     </row>
     <row r="2271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2271" s="1" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2271" s="1" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>7049</v>
+        <v>7048</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>3205</v>
@@ -70130,16 +70130,16 @@
     </row>
     <row r="2272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2272" s="1" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2272" s="1" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="D2272" s="1" t="s">
-        <v>7050</v>
+        <v>7049</v>
       </c>
       <c r="E2272" s="1" t="s">
         <v>3205</v>
@@ -70147,16 +70147,16 @@
     </row>
     <row r="2273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2273" s="1" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2273" s="1" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="D2273" s="1" t="s">
-        <v>7051</v>
+        <v>7050</v>
       </c>
       <c r="E2273" s="1" t="s">
         <v>3205</v>
@@ -70164,16 +70164,16 @@
     </row>
     <row r="2274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2274" s="1" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2274" s="1" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
       <c r="D2274" s="1" t="s">
-        <v>7052</v>
+        <v>7051</v>
       </c>
       <c r="E2274" s="1" t="s">
         <v>3205</v>
@@ -70181,16 +70181,16 @@
     </row>
     <row r="2275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2275" s="1" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>5304</v>
       </c>
       <c r="C2275" s="1" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
       <c r="D2275" s="1" t="s">
-        <v>7053</v>
+        <v>7052</v>
       </c>
       <c r="E2275" s="1" t="s">
         <v>3205</v>
@@ -70198,16 +70198,16 @@
     </row>
     <row r="2276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2276" s="1" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>5320</v>
       </c>
       <c r="C2276" s="1" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="D2276" s="1" t="s">
-        <v>7054</v>
+        <v>7053</v>
       </c>
       <c r="E2276" s="1" t="s">
         <v>3205</v>
@@ -70215,16 +70215,16 @@
     </row>
     <row r="2277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2277" s="1" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>5320</v>
       </c>
       <c r="C2277" s="1" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="D2277" s="1" t="s">
-        <v>7055</v>
+        <v>7054</v>
       </c>
       <c r="E2277" s="1" t="s">
         <v>3205</v>
@@ -70292,7 +70292,7 @@
         <v>5324</v>
       </c>
       <c r="D2281" s="1" t="s">
-        <v>7057</v>
+        <v>7056</v>
       </c>
       <c r="E2281" s="1" t="s">
         <v>3205</v>
@@ -70946,16 +70946,16 @@
     </row>
     <row r="2320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2320" s="1" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
       <c r="B2320" s="1" t="s">
         <v>5334</v>
       </c>
       <c r="C2320" s="1" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
       <c r="D2320" s="1" t="s">
-        <v>7058</v>
+        <v>7057</v>
       </c>
       <c r="E2320" s="1" t="s">
         <v>3205</v>
@@ -70963,16 +70963,16 @@
     </row>
     <row r="2321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2321" s="1" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="B2321" s="1" t="s">
         <v>5334</v>
       </c>
       <c r="C2321" s="1" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="D2321" s="1" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
       <c r="E2321" s="1" t="s">
         <v>3205</v>
@@ -71116,13 +71116,13 @@
     </row>
     <row r="2330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2330" s="1" t="s">
-        <v>6647</v>
+        <v>6646</v>
       </c>
       <c r="B2330" s="1" t="s">
         <v>5334</v>
       </c>
       <c r="C2330" s="1" t="s">
-        <v>6647</v>
+        <v>6646</v>
       </c>
       <c r="D2330" s="1" t="s">
         <v>2512</v>
@@ -71210,7 +71210,7 @@
         <v>5357</v>
       </c>
       <c r="D2335" s="1" t="s">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="E2335" s="1" t="s">
         <v>3205</v>
@@ -71244,7 +71244,7 @@
         <v>5360</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>7061</v>
+        <v>7060</v>
       </c>
       <c r="E2337" s="1" t="s">
         <v>3205</v>
@@ -71261,7 +71261,7 @@
         <v>5361</v>
       </c>
       <c r="D2338" s="1" t="s">
-        <v>7062</v>
+        <v>7061</v>
       </c>
       <c r="E2338" s="1" t="s">
         <v>3205</v>
@@ -71380,7 +71380,7 @@
         <v>5369</v>
       </c>
       <c r="D2345" s="1" t="s">
-        <v>7063</v>
+        <v>7062</v>
       </c>
       <c r="E2345" s="1" t="s">
         <v>3205</v>
@@ -71482,7 +71482,7 @@
         <v>5376</v>
       </c>
       <c r="D2351" s="1" t="s">
-        <v>7064</v>
+        <v>7063</v>
       </c>
       <c r="E2351" s="1" t="s">
         <v>3205</v>
@@ -71575,16 +71575,16 @@
     </row>
     <row r="2357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2357" s="1" t="s">
-        <v>6648</v>
+        <v>6647</v>
       </c>
       <c r="B2357" s="1" t="s">
         <v>5380</v>
       </c>
       <c r="C2357" s="1" t="s">
-        <v>6648</v>
+        <v>6647</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>7065</v>
+        <v>7064</v>
       </c>
       <c r="E2357" s="1" t="s">
         <v>3205</v>
@@ -71703,7 +71703,7 @@
         <v>5390</v>
       </c>
       <c r="D2364" s="1" t="s">
-        <v>7066</v>
+        <v>7065</v>
       </c>
       <c r="E2364" s="1" t="s">
         <v>3205</v>
@@ -71720,7 +71720,7 @@
         <v>5391</v>
       </c>
       <c r="D2365" s="1" t="s">
-        <v>7067</v>
+        <v>7066</v>
       </c>
       <c r="E2365" s="1" t="s">
         <v>3205</v>
@@ -71966,16 +71966,16 @@
     </row>
     <row r="2380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2380" s="1" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
       <c r="B2380" s="1" t="s">
         <v>5403</v>
       </c>
       <c r="C2380" s="1" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
       <c r="D2380" s="1" t="s">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="E2380" s="1" t="s">
         <v>3205</v>
@@ -72340,16 +72340,16 @@
     </row>
     <row r="2402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2402" s="1" t="s">
-        <v>6650</v>
+        <v>6649</v>
       </c>
       <c r="B2402" s="1" t="s">
         <v>5430</v>
       </c>
       <c r="C2402" s="1" t="s">
-        <v>6650</v>
+        <v>6649</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>7069</v>
+        <v>7068</v>
       </c>
       <c r="E2402" s="1" t="s">
         <v>3205</v>
@@ -72442,16 +72442,16 @@
     </row>
     <row r="2408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2408" s="1" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="B2408" s="1" t="s">
         <v>5436</v>
       </c>
       <c r="C2408" s="1" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="D2408" s="1" t="s">
-        <v>7070</v>
+        <v>7069</v>
       </c>
       <c r="E2408" s="1" t="s">
         <v>3205</v>
@@ -72519,7 +72519,7 @@
         <v>5441</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
       <c r="E2412" s="1" t="s">
         <v>3205</v>
@@ -72536,7 +72536,7 @@
         <v>5442</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>7072</v>
+        <v>7071</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>3205</v>
@@ -72612,16 +72612,16 @@
     </row>
     <row r="2418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2418" s="1" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="B2418" s="1" t="s">
         <v>5446</v>
       </c>
       <c r="C2418" s="1" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="D2418" s="1" t="s">
-        <v>7073</v>
+        <v>7072</v>
       </c>
       <c r="E2418" s="1" t="s">
         <v>3205</v>
@@ -72689,7 +72689,7 @@
         <v>5451</v>
       </c>
       <c r="D2422" s="1" t="s">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="E2422" s="1" t="s">
         <v>3205</v>
@@ -72714,16 +72714,16 @@
     </row>
     <row r="2424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2424" s="1" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
       <c r="B2424" s="1" t="s">
         <v>5452</v>
       </c>
       <c r="C2424" s="1" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
       <c r="D2424" s="1" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
       <c r="E2424" s="1" t="s">
         <v>3205</v>
@@ -72791,7 +72791,7 @@
         <v>5457</v>
       </c>
       <c r="D2428" s="1" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
       <c r="E2428" s="1" t="s">
         <v>3205</v>
@@ -72833,16 +72833,16 @@
     </row>
     <row r="2431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2431" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
       <c r="B2431" s="1" t="s">
         <v>5459</v>
       </c>
       <c r="C2431" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
       <c r="D2431" s="1" t="s">
-        <v>7077</v>
+        <v>7076</v>
       </c>
       <c r="E2431" s="1" t="s">
         <v>3205</v>
@@ -72969,16 +72969,16 @@
     </row>
     <row r="2439" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2439" s="1" t="s">
-        <v>6655</v>
+        <v>6654</v>
       </c>
       <c r="B2439" s="1" t="s">
         <v>5467</v>
       </c>
       <c r="C2439" s="1" t="s">
-        <v>6655</v>
+        <v>6654</v>
       </c>
       <c r="D2439" s="1" t="s">
-        <v>7078</v>
+        <v>7077</v>
       </c>
       <c r="E2439" s="1" t="s">
         <v>3205</v>
@@ -73088,16 +73088,16 @@
     </row>
     <row r="2446" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2446" s="1" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="B2446" s="1" t="s">
         <v>5476</v>
       </c>
       <c r="C2446" s="1" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
       <c r="E2446" s="1" t="s">
         <v>3205</v>
@@ -73131,7 +73131,7 @@
         <v>5478</v>
       </c>
       <c r="D2448" s="1" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
       <c r="E2448" s="1" t="s">
         <v>3205</v>
@@ -73148,7 +73148,7 @@
         <v>5479</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="E2449" s="1" t="s">
         <v>3205</v>
@@ -73309,16 +73309,16 @@
     </row>
     <row r="2459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2459" s="1" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="B2459" s="1" t="s">
         <v>5489</v>
       </c>
       <c r="C2459" s="1" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="D2459" s="1" t="s">
-        <v>7082</v>
+        <v>7081</v>
       </c>
       <c r="E2459" s="1" t="s">
         <v>3205</v>
@@ -73972,13 +73972,13 @@
     </row>
     <row r="2498" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2498" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="B2498" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2498" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="D2498" s="1" t="s">
         <v>2603</v>
@@ -73989,13 +73989,13 @@
     </row>
     <row r="2499" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2499" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="B2499" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2499" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="D2499" s="1" t="s">
         <v>2594</v>
@@ -74006,16 +74006,16 @@
     </row>
     <row r="2500" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2500" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="B2500" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2500" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="D2500" s="1" t="s">
-        <v>7091</v>
+        <v>7090</v>
       </c>
       <c r="E2500" s="1" t="s">
         <v>3203</v>
@@ -74142,16 +74142,16 @@
     </row>
     <row r="2508" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2508" s="1" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="B2508" s="1" t="s">
         <v>5526</v>
       </c>
       <c r="C2508" s="1" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="D2508" s="1" t="s">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="E2508" s="1" t="s">
         <v>3205</v>
@@ -74278,16 +74278,16 @@
     </row>
     <row r="2516" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2516" s="1" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
       <c r="B2516" s="1" t="s">
         <v>5536</v>
       </c>
       <c r="C2516" s="1" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
       <c r="D2516" s="1" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
       <c r="E2516" s="1" t="s">
         <v>3205</v>
@@ -74329,16 +74329,16 @@
     </row>
     <row r="2519" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2519" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="B2519" s="1" t="s">
         <v>5540</v>
       </c>
       <c r="C2519" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>7085</v>
+        <v>7084</v>
       </c>
       <c r="E2519" s="1" t="s">
         <v>3205</v>
@@ -74550,16 +74550,16 @@
     </row>
     <row r="2532" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2532" s="1" t="s">
-        <v>6661</v>
+        <v>6660</v>
       </c>
       <c r="B2532" s="1" t="s">
         <v>5554</v>
       </c>
       <c r="C2532" s="1" t="s">
-        <v>6661</v>
+        <v>6660</v>
       </c>
       <c r="D2532" s="1" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="E2532" s="1" t="s">
         <v>3205</v>
@@ -74635,16 +74635,16 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2537" s="1" t="s">
-        <v>6663</v>
+        <v>6662</v>
       </c>
       <c r="B2537" s="1" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C2537" s="1" t="s">
         <v>6662</v>
       </c>
-      <c r="C2537" s="1" t="s">
-        <v>6663</v>
-      </c>
       <c r="D2537" s="1" t="s">
-        <v>7087</v>
+        <v>7086</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>3205</v>
@@ -74652,13 +74652,13 @@
     </row>
     <row r="2538" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2538" s="1" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
       <c r="B2538" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2538" s="1" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
       <c r="D2538" s="1" t="s">
         <v>2604</v>
@@ -74669,13 +74669,13 @@
     </row>
     <row r="2539" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2539" s="1" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="B2539" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2539" s="1" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="D2539" s="1" t="s">
         <v>2605</v>
@@ -74686,13 +74686,13 @@
     </row>
     <row r="2540" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2540" s="1" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="B2540" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2540" s="1" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="D2540" s="1" t="s">
         <v>2606</v>
@@ -74703,13 +74703,13 @@
     </row>
     <row r="2541" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2541" s="1" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2541" s="1" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
       <c r="D2541" s="1" t="s">
         <v>2607</v>
@@ -74720,13 +74720,13 @@
     </row>
     <row r="2542" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2542" s="1" t="s">
-        <v>6668</v>
+        <v>6667</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2542" s="1" t="s">
-        <v>6668</v>
+        <v>6667</v>
       </c>
       <c r="D2542" s="1" t="s">
         <v>2608</v>
@@ -74737,16 +74737,16 @@
     </row>
     <row r="2543" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2543" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2543" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="D2543" s="1" t="s">
-        <v>7088</v>
+        <v>7087</v>
       </c>
       <c r="E2543" s="1" t="s">
         <v>3205</v>
@@ -74754,13 +74754,13 @@
     </row>
     <row r="2544" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2544" s="1" t="s">
-        <v>6670</v>
+        <v>6669</v>
       </c>
       <c r="B2544" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="C2544" s="1" t="s">
-        <v>6670</v>
+        <v>6669</v>
       </c>
       <c r="D2544" s="1" t="s">
         <v>2609</v>
@@ -74771,16 +74771,16 @@
     </row>
     <row r="2545" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2545" s="1" t="s">
-        <v>6672</v>
+        <v>6671</v>
       </c>
       <c r="B2545" s="1" t="s">
+        <v>6670</v>
+      </c>
+      <c r="C2545" s="1" t="s">
         <v>6671</v>
       </c>
-      <c r="C2545" s="1" t="s">
-        <v>6672</v>
-      </c>
       <c r="D2545" s="1" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
       <c r="E2545" s="1" t="s">
         <v>3205</v>
@@ -74788,16 +74788,16 @@
     </row>
     <row r="2546" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2546" s="1" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2546" s="1" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
       <c r="E2546" s="1" t="s">
         <v>3205</v>
@@ -74805,13 +74805,13 @@
     </row>
     <row r="2547" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2547" s="1" t="s">
-        <v>6674</v>
+        <v>6673</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2547" s="1" t="s">
-        <v>6674</v>
+        <v>6673</v>
       </c>
       <c r="D2547" s="1" t="s">
         <v>2595</v>
@@ -74822,13 +74822,13 @@
     </row>
     <row r="2548" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2548" s="1" t="s">
-        <v>6675</v>
+        <v>6674</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2548" s="1" t="s">
-        <v>6675</v>
+        <v>6674</v>
       </c>
       <c r="D2548" s="1" t="s">
         <v>2596</v>
@@ -74839,13 +74839,13 @@
     </row>
     <row r="2549" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2549" s="1" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="B2549" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2549" s="1" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="D2549" s="1" t="s">
         <v>2597</v>
@@ -74856,13 +74856,13 @@
     </row>
     <row r="2550" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2550" s="1" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2550" s="1" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="D2550" s="1" t="s">
         <v>2598</v>
@@ -74873,13 +74873,13 @@
     </row>
     <row r="2551" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2551" s="1" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="B2551" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2551" s="1" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="D2551" s="1" t="s">
         <v>2599</v>
@@ -74890,13 +74890,13 @@
     </row>
     <row r="2552" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2552" s="1" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2552" s="1" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="D2552" s="1" t="s">
         <v>2600</v>
@@ -74907,13 +74907,13 @@
     </row>
     <row r="2553" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2553" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="B2553" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2553" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="D2553" s="1" t="s">
         <v>2601</v>
@@ -74924,13 +74924,13 @@
     </row>
     <row r="2554" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2554" s="1" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="C2554" s="1" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
       <c r="D2554" s="1" t="s">
         <v>2602</v>
@@ -74941,16 +74941,16 @@
     </row>
     <row r="2555" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2555" s="1" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="B2555" s="1" t="s">
+        <v>6681</v>
+      </c>
+      <c r="C2555" s="1" t="s">
         <v>6682</v>
       </c>
-      <c r="C2555" s="1" t="s">
-        <v>6683</v>
-      </c>
       <c r="D2555" s="1" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
       <c r="E2555" s="1" t="s">
         <v>3205</v>
@@ -74958,16 +74958,16 @@
     </row>
     <row r="2556" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2556" s="1" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2556" s="1" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="D2556" s="1" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
       <c r="E2556" s="1" t="s">
         <v>3205</v>
@@ -74975,16 +74975,16 @@
     </row>
     <row r="2557" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2557" s="1" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="B2557" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2557" s="1" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="D2557" s="1" t="s">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="E2557" s="1" t="s">
         <v>3205</v>
@@ -74992,16 +74992,16 @@
     </row>
     <row r="2558" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2558" s="1" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2558" s="1" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="D2558" s="1" t="s">
-        <v>7095</v>
+        <v>7094</v>
       </c>
       <c r="E2558" s="1" t="s">
         <v>3205</v>
@@ -75009,16 +75009,16 @@
     </row>
     <row r="2559" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2559" s="1" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="B2559" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2559" s="1" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="D2559" s="1" t="s">
-        <v>7096</v>
+        <v>7095</v>
       </c>
       <c r="E2559" s="1" t="s">
         <v>3205</v>
@@ -75026,16 +75026,16 @@
     </row>
     <row r="2560" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2560" s="1" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2560" s="1" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
       <c r="E2560" s="1" t="s">
         <v>3205</v>
@@ -75043,16 +75043,16 @@
     </row>
     <row r="2561" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2561" s="1" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="B2561" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2561" s="1" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="D2561" s="1" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
       <c r="E2561" s="1" t="s">
         <v>3205</v>
@@ -75060,16 +75060,16 @@
     </row>
     <row r="2562" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2562" s="1" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="B2562" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="C2562" s="1" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="D2562" s="1" t="s">
-        <v>7099</v>
+        <v>7098</v>
       </c>
       <c r="E2562" s="1" t="s">
         <v>3205</v>
@@ -75664,7 +75664,7 @@
         <v>5644</v>
       </c>
       <c r="D2597" s="1" t="s">
-        <v>7106</v>
+        <v>7105</v>
       </c>
       <c r="E2597" s="1" t="s">
         <v>3203</v>
@@ -75910,16 +75910,16 @@
     </row>
     <row r="2612" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2612" s="1" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="B2612" s="1" t="s">
         <v>5591</v>
       </c>
       <c r="C2612" s="1" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="D2612" s="1" t="s">
-        <v>7100</v>
+        <v>7099</v>
       </c>
       <c r="E2612" s="1" t="s">
         <v>3205</v>
@@ -75927,16 +75927,16 @@
     </row>
     <row r="2613" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2613" s="1" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="B2613" s="1" t="s">
         <v>5591</v>
       </c>
       <c r="C2613" s="1" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="D2613" s="1" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
       <c r="E2613" s="1" t="s">
         <v>3205</v>
@@ -76080,16 +76080,16 @@
     </row>
     <row r="2622" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2622" s="1" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="B2622" s="1" t="s">
         <v>5604</v>
       </c>
       <c r="C2622" s="1" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="D2622" s="1" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="E2622" s="1" t="s">
         <v>3205</v>
@@ -76233,16 +76233,16 @@
     </row>
     <row r="2631" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2631" s="1" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="B2631" s="1" t="s">
         <v>5613</v>
       </c>
       <c r="C2631" s="1" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="D2631" s="1" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="E2631" s="1" t="s">
         <v>3205</v>
@@ -76352,16 +76352,16 @@
     </row>
     <row r="2638" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2638" s="1" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="B2638" s="1" t="s">
         <v>5613</v>
       </c>
       <c r="C2638" s="1" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="D2638" s="1" t="s">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="E2638" s="1" t="s">
         <v>3205</v>
@@ -76437,16 +76437,16 @@
     </row>
     <row r="2643" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2643" s="1" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="B2643" s="1" t="s">
         <v>5621</v>
       </c>
       <c r="C2643" s="1" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="D2643" s="1" t="s">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="E2643" s="1" t="s">
         <v>3205</v>
@@ -76735,7 +76735,7 @@
         <v>5645</v>
       </c>
       <c r="D2660" s="1" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
       <c r="E2660" s="1" t="s">
         <v>3205</v>
@@ -76752,7 +76752,7 @@
         <v>5646</v>
       </c>
       <c r="D2661" s="1" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="E2661" s="1" t="s">
         <v>3205</v>
@@ -76811,16 +76811,16 @@
     </row>
     <row r="2665" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2665" s="1" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="B2665" s="1" t="s">
         <v>5644</v>
       </c>
       <c r="C2665" s="1" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="D2665" s="1" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="E2665" s="1" t="s">
         <v>3205</v>
@@ -76845,16 +76845,16 @@
     </row>
     <row r="2667" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2667" s="1" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="B2667" s="1" t="s">
         <v>5644</v>
       </c>
       <c r="C2667" s="1" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="D2667" s="1" t="s">
-        <v>7110</v>
+        <v>7109</v>
       </c>
       <c r="E2667" s="1" t="s">
         <v>3205</v>
@@ -76939,7 +76939,7 @@
         <v>5656</v>
       </c>
       <c r="D2672" s="1" t="s">
-        <v>7111</v>
+        <v>7110</v>
       </c>
       <c r="E2672" s="1" t="s">
         <v>3205</v>
@@ -76981,16 +76981,16 @@
     </row>
     <row r="2675" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2675" s="1" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="B2675" s="1" t="s">
         <v>5653</v>
       </c>
       <c r="C2675" s="1" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="D2675" s="1" t="s">
-        <v>7112</v>
+        <v>7111</v>
       </c>
       <c r="E2675" s="1" t="s">
         <v>3205</v>
@@ -77236,16 +77236,16 @@
     </row>
     <row r="2690" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2690" s="1" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="B2690" s="1" t="s">
         <v>5672</v>
       </c>
       <c r="C2690" s="1" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="D2690" s="1" t="s">
-        <v>7113</v>
+        <v>7112</v>
       </c>
       <c r="E2690" s="1" t="s">
         <v>3205</v>
@@ -77253,16 +77253,16 @@
     </row>
     <row r="2691" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2691" s="1" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="B2691" s="1" t="s">
         <v>5672</v>
       </c>
       <c r="C2691" s="1" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="D2691" s="1" t="s">
-        <v>7114</v>
+        <v>7113</v>
       </c>
       <c r="E2691" s="1" t="s">
         <v>3205</v>
@@ -77372,16 +77372,16 @@
     </row>
     <row r="2698" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2698" s="1" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="B2698" s="1" t="s">
         <v>5672</v>
       </c>
       <c r="C2698" s="1" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="D2698" s="1" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
       <c r="E2698" s="1" t="s">
         <v>3205</v>
@@ -77423,16 +77423,16 @@
     </row>
     <row r="2701" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2701" s="1" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="B2701" s="1" t="s">
         <v>5683</v>
       </c>
       <c r="C2701" s="1" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="D2701" s="1" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="E2701" s="1" t="s">
         <v>3205</v>
@@ -77840,7 +77840,7 @@
         <v>5710</v>
       </c>
       <c r="D2725" s="1" t="s">
-        <v>7117</v>
+        <v>7116</v>
       </c>
       <c r="E2725" s="1" t="s">
         <v>3205</v>
@@ -77899,16 +77899,16 @@
     </row>
     <row r="2729" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2729" s="1" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="B2729" s="1" t="s">
         <v>5714</v>
       </c>
       <c r="C2729" s="1" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="D2729" s="1" t="s">
-        <v>7118</v>
+        <v>7117</v>
       </c>
       <c r="E2729" s="1" t="s">
         <v>3205</v>
@@ -77967,16 +77967,16 @@
     </row>
     <row r="2733" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2733" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="B2733" s="1" t="s">
         <v>5718</v>
       </c>
       <c r="C2733" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="D2733" s="1" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
       <c r="E2733" s="1" t="s">
         <v>3205</v>
@@ -78035,13 +78035,13 @@
     </row>
     <row r="2737" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2737" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="B2737" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2737" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="D2737" s="1" t="s">
         <v>2796</v>
@@ -78052,16 +78052,16 @@
     </row>
     <row r="2738" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2738" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="B2738" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2738" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="D2738" s="1" t="s">
-        <v>7122</v>
+        <v>7121</v>
       </c>
       <c r="E2738" s="1" t="s">
         <v>3203</v>
@@ -78069,16 +78069,16 @@
     </row>
     <row r="2739" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2739" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="B2739" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2739" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="D2739" s="1" t="s">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="E2739" s="1" t="s">
         <v>3203</v>
@@ -78086,16 +78086,16 @@
     </row>
     <row r="2740" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2740" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="B2740" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2740" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="D2740" s="1" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="E2740" s="1" t="s">
         <v>3203</v>
@@ -78154,16 +78154,16 @@
     </row>
     <row r="2744" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2744" s="1" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="B2744" s="1" t="s">
         <v>5722</v>
       </c>
       <c r="C2744" s="1" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="D2744" s="1" t="s">
-        <v>7120</v>
+        <v>7119</v>
       </c>
       <c r="E2744" s="1" t="s">
         <v>3205</v>
@@ -78273,16 +78273,16 @@
     </row>
     <row r="2751" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2751" s="1" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="B2751" s="1" t="s">
+        <v>6706</v>
+      </c>
+      <c r="C2751" s="1" t="s">
         <v>6707</v>
       </c>
-      <c r="C2751" s="1" t="s">
-        <v>6708</v>
-      </c>
       <c r="D2751" s="1" t="s">
-        <v>7121</v>
+        <v>7120</v>
       </c>
       <c r="E2751" s="1" t="s">
         <v>3205</v>
@@ -78290,13 +78290,13 @@
     </row>
     <row r="2752" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2752" s="1" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
       <c r="B2752" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2752" s="1" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
       <c r="D2752" s="1" t="s">
         <v>2797</v>
@@ -78307,13 +78307,13 @@
     </row>
     <row r="2753" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2753" s="1" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="B2753" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2753" s="1" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="D2753" s="1" t="s">
         <v>2798</v>
@@ -78324,13 +78324,13 @@
     </row>
     <row r="2754" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2754" s="1" t="s">
-        <v>6711</v>
+        <v>6710</v>
       </c>
       <c r="B2754" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2754" s="1" t="s">
-        <v>6711</v>
+        <v>6710</v>
       </c>
       <c r="D2754" s="1" t="s">
         <v>2799</v>
@@ -78341,13 +78341,13 @@
     </row>
     <row r="2755" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2755" s="1" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
       <c r="B2755" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2755" s="1" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
       <c r="D2755" s="1" t="s">
         <v>2800</v>
@@ -78358,13 +78358,13 @@
     </row>
     <row r="2756" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2756" s="1" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="B2756" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2756" s="1" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="D2756" s="1" t="s">
         <v>2801</v>
@@ -78375,13 +78375,13 @@
     </row>
     <row r="2757" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2757" s="1" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="B2757" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2757" s="1" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="D2757" s="1" t="s">
         <v>2802</v>
@@ -78392,13 +78392,13 @@
     </row>
     <row r="2758" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2758" s="1" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="B2758" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2758" s="1" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="D2758" s="1" t="s">
         <v>2803</v>
@@ -78409,13 +78409,13 @@
     </row>
     <row r="2759" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2759" s="1" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="B2759" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2759" s="1" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="D2759" s="1" t="s">
         <v>2804</v>
@@ -78426,13 +78426,13 @@
     </row>
     <row r="2760" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2760" s="1" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="B2760" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2760" s="1" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="D2760" s="1" t="s">
         <v>2805</v>
@@ -78443,13 +78443,13 @@
     </row>
     <row r="2761" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2761" s="1" t="s">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="B2761" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2761" s="1" t="s">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="D2761" s="1" t="s">
         <v>2806</v>
@@ -78460,13 +78460,13 @@
     </row>
     <row r="2762" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2762" s="1" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="B2762" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2762" s="1" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="D2762" s="1" t="s">
         <v>2807</v>
@@ -78477,13 +78477,13 @@
     </row>
     <row r="2763" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2763" s="1" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="B2763" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2763" s="1" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="D2763" s="1" t="s">
         <v>2808</v>
@@ -78494,13 +78494,13 @@
     </row>
     <row r="2764" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2764" s="1" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="B2764" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2764" s="1" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="D2764" s="1" t="s">
         <v>2809</v>
@@ -78511,13 +78511,13 @@
     </row>
     <row r="2765" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2765" s="1" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="B2765" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2765" s="1" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="D2765" s="1" t="s">
         <v>2810</v>
@@ -78528,13 +78528,13 @@
     </row>
     <row r="2766" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2766" s="1" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="B2766" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2766" s="1" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="D2766" s="1" t="s">
         <v>2811</v>
@@ -78545,13 +78545,13 @@
     </row>
     <row r="2767" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2767" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="B2767" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2767" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="D2767" s="1" t="s">
         <v>2812</v>
@@ -78562,13 +78562,13 @@
     </row>
     <row r="2768" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2768" s="1" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
       <c r="B2768" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="C2768" s="1" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
       <c r="D2768" s="1" t="s">
         <v>2813</v>
@@ -78579,16 +78579,16 @@
     </row>
     <row r="2769" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2769" s="1" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
       <c r="B2769" s="1" t="s">
+        <v>6725</v>
+      </c>
+      <c r="C2769" s="1" t="s">
         <v>6726</v>
       </c>
-      <c r="C2769" s="1" t="s">
-        <v>6727</v>
-      </c>
       <c r="D2769" s="1" t="s">
-        <v>7123</v>
+        <v>7122</v>
       </c>
       <c r="E2769" s="1" t="s">
         <v>3205</v>
@@ -78596,13 +78596,13 @@
     </row>
     <row r="2770" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2770" s="1" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="B2770" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2770" s="1" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="D2770" s="1" t="s">
         <v>2775</v>
@@ -78613,13 +78613,13 @@
     </row>
     <row r="2771" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2771" s="1" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="B2771" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2771" s="1" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="D2771" s="1" t="s">
         <v>2776</v>
@@ -78630,13 +78630,13 @@
     </row>
     <row r="2772" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2772" s="1" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="B2772" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2772" s="1" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="D2772" s="1" t="s">
         <v>2777</v>
@@ -78647,13 +78647,13 @@
     </row>
     <row r="2773" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2773" s="1" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="B2773" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2773" s="1" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="D2773" s="1" t="s">
         <v>2778</v>
@@ -78664,13 +78664,13 @@
     </row>
     <row r="2774" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2774" s="1" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="B2774" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2774" s="1" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="D2774" s="1" t="s">
         <v>2779</v>
@@ -78681,13 +78681,13 @@
     </row>
     <row r="2775" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2775" s="1" t="s">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="B2775" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2775" s="1" t="s">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="D2775" s="1" t="s">
         <v>2780</v>
@@ -78698,13 +78698,13 @@
     </row>
     <row r="2776" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2776" s="1" t="s">
-        <v>6734</v>
+        <v>6733</v>
       </c>
       <c r="B2776" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2776" s="1" t="s">
-        <v>6734</v>
+        <v>6733</v>
       </c>
       <c r="D2776" s="1" t="s">
         <v>2781</v>
@@ -78715,13 +78715,13 @@
     </row>
     <row r="2777" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2777" s="1" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="B2777" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2777" s="1" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="D2777" s="1" t="s">
         <v>2782</v>
@@ -78732,13 +78732,13 @@
     </row>
     <row r="2778" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2778" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="B2778" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2778" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="D2778" s="1" t="s">
         <v>2783</v>
@@ -78749,13 +78749,13 @@
     </row>
     <row r="2779" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2779" s="1" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
       <c r="B2779" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="C2779" s="1" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
       <c r="D2779" s="1" t="s">
         <v>2784</v>
@@ -78766,16 +78766,16 @@
     </row>
     <row r="2780" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2780" s="1" t="s">
-        <v>6739</v>
+        <v>6738</v>
       </c>
       <c r="B2780" s="1" t="s">
+        <v>6737</v>
+      </c>
+      <c r="C2780" s="1" t="s">
         <v>6738</v>
       </c>
-      <c r="C2780" s="1" t="s">
-        <v>6739</v>
-      </c>
       <c r="D2780" s="1" t="s">
-        <v>7125</v>
+        <v>7124</v>
       </c>
       <c r="E2780" s="1" t="s">
         <v>3205</v>
@@ -78783,13 +78783,13 @@
     </row>
     <row r="2781" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2781" s="1" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
       <c r="B2781" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="C2781" s="1" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
       <c r="D2781" s="1" t="s">
         <v>2832</v>
@@ -78800,13 +78800,13 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2782" s="1" t="s">
-        <v>6741</v>
+        <v>6740</v>
       </c>
       <c r="B2782" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="C2782" s="1" t="s">
-        <v>6741</v>
+        <v>6740</v>
       </c>
       <c r="D2782" s="1" t="s">
         <v>2833</v>
@@ -78817,13 +78817,13 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2783" s="1" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
       <c r="B2783" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="C2783" s="1" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
       <c r="D2783" s="1" t="s">
         <v>2834</v>
@@ -78834,13 +78834,13 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2784" s="1" t="s">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="B2784" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="C2784" s="1" t="s">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="D2784" s="1" t="s">
         <v>2835</v>
@@ -78851,13 +78851,13 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2785" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="B2785" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="C2785" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="D2785" s="1" t="s">
         <v>2836</v>
@@ -78868,16 +78868,16 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2786" s="1" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
       <c r="B2786" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="C2786" s="1" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
       <c r="D2786" s="1" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="E2786" s="1" t="s">
         <v>3205</v>
@@ -78885,16 +78885,16 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2787" s="1" t="s">
-        <v>6747</v>
+        <v>6746</v>
       </c>
       <c r="B2787" s="1" t="s">
+        <v>6745</v>
+      </c>
+      <c r="C2787" s="1" t="s">
         <v>6746</v>
       </c>
-      <c r="C2787" s="1" t="s">
-        <v>6747</v>
-      </c>
       <c r="D2787" s="1" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="E2787" s="1" t="s">
         <v>3205</v>
@@ -78902,13 +78902,13 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2788" s="1" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="B2788" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2788" s="1" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="D2788" s="1" t="s">
         <v>2785</v>
@@ -78919,13 +78919,13 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2789" s="1" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
       <c r="B2789" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2789" s="1" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
       <c r="D2789" s="1" t="s">
         <v>2786</v>
@@ -78936,13 +78936,13 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2790" s="1" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
       <c r="B2790" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2790" s="1" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
       <c r="D2790" s="1" t="s">
         <v>2787</v>
@@ -78953,13 +78953,13 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2791" s="1" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="B2791" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2791" s="1" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="D2791" s="1" t="s">
         <v>2788</v>
@@ -78970,13 +78970,13 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2792" s="1" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="B2792" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2792" s="1" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="D2792" s="1" t="s">
         <v>2789</v>
@@ -78987,13 +78987,13 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2793" s="1" t="s">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="B2793" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2793" s="1" t="s">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="D2793" s="1" t="s">
         <v>2790</v>
@@ -79004,13 +79004,13 @@
     </row>
     <row r="2794" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2794" s="1" t="s">
-        <v>6754</v>
+        <v>6753</v>
       </c>
       <c r="B2794" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2794" s="1" t="s">
-        <v>6754</v>
+        <v>6753</v>
       </c>
       <c r="D2794" s="1" t="s">
         <v>2791</v>
@@ -79021,13 +79021,13 @@
     </row>
     <row r="2795" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2795" s="1" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
       <c r="B2795" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2795" s="1" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
       <c r="D2795" s="1" t="s">
         <v>2792</v>
@@ -79038,13 +79038,13 @@
     </row>
     <row r="2796" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2796" s="1" t="s">
-        <v>6756</v>
+        <v>6755</v>
       </c>
       <c r="B2796" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2796" s="1" t="s">
-        <v>6756</v>
+        <v>6755</v>
       </c>
       <c r="D2796" s="1" t="s">
         <v>2793</v>
@@ -79055,13 +79055,13 @@
     </row>
     <row r="2797" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2797" s="1" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
       <c r="B2797" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2797" s="1" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
       <c r="D2797" s="1" t="s">
         <v>2794</v>
@@ -79072,13 +79072,13 @@
     </row>
     <row r="2798" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2798" s="1" t="s">
-        <v>6758</v>
+        <v>6757</v>
       </c>
       <c r="B2798" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="C2798" s="1" t="s">
-        <v>6758</v>
+        <v>6757</v>
       </c>
       <c r="D2798" s="1" t="s">
         <v>2795</v>
@@ -79200,7 +79200,7 @@
         <v>5737</v>
       </c>
       <c r="D2805" s="1" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="E2805" s="1" t="s">
         <v>3205</v>
@@ -79259,16 +79259,16 @@
     </row>
     <row r="2809" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2809" s="1" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
       <c r="B2809" s="1" t="s">
         <v>5730</v>
       </c>
       <c r="C2809" s="1" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
       <c r="D2809" s="1" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
       <c r="E2809" s="1" t="s">
         <v>3205</v>
@@ -79718,16 +79718,16 @@
     </row>
     <row r="2836" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2836" s="1" t="s">
-        <v>6760</v>
+        <v>6759</v>
       </c>
       <c r="B2836" s="1" t="s">
         <v>5750</v>
       </c>
       <c r="C2836" s="1" t="s">
-        <v>6760</v>
+        <v>6759</v>
       </c>
       <c r="D2836" s="1" t="s">
-        <v>7131</v>
+        <v>7130</v>
       </c>
       <c r="E2836" s="1" t="s">
         <v>3205</v>
@@ -79735,16 +79735,16 @@
     </row>
     <row r="2837" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2837" s="1" t="s">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="B2837" s="1" t="s">
         <v>5750</v>
       </c>
       <c r="C2837" s="1" t="s">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="D2837" s="1" t="s">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="E2837" s="1" t="s">
         <v>3205</v>
@@ -79965,7 +79965,7 @@
         <v>5774</v>
       </c>
       <c r="D2850" s="1" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="E2850" s="1" t="s">
         <v>3205</v>
@@ -79982,7 +79982,7 @@
         <v>5775</v>
       </c>
       <c r="D2851" s="1" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="E2851" s="1" t="s">
         <v>3205</v>
@@ -80033,7 +80033,7 @@
         <v>5778</v>
       </c>
       <c r="D2854" s="1" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="E2854" s="1" t="s">
         <v>3205</v>
@@ -80084,7 +80084,7 @@
         <v>5782</v>
       </c>
       <c r="D2857" s="1" t="s">
-        <v>7136</v>
+        <v>7135</v>
       </c>
       <c r="E2857" s="1" t="s">
         <v>3205</v>
@@ -80152,7 +80152,7 @@
         <v>5786</v>
       </c>
       <c r="D2861" s="1" t="s">
-        <v>7137</v>
+        <v>7136</v>
       </c>
       <c r="E2861" s="1" t="s">
         <v>3205</v>
@@ -80203,7 +80203,7 @@
         <v>5789</v>
       </c>
       <c r="D2864" s="1" t="s">
-        <v>7138</v>
+        <v>7137</v>
       </c>
       <c r="E2864" s="1" t="s">
         <v>3205</v>
@@ -80313,16 +80313,16 @@
     </row>
     <row r="2871" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2871" s="1" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
       <c r="B2871" s="1" t="s">
         <v>5795</v>
       </c>
       <c r="C2871" s="1" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
       <c r="D2871" s="1" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
       <c r="E2871" s="1" t="s">
         <v>3205</v>
@@ -80483,16 +80483,16 @@
     </row>
     <row r="2881" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2881" s="1" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
       <c r="B2881" s="1" t="s">
         <v>5806</v>
       </c>
       <c r="C2881" s="1" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
       <c r="D2881" s="1" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
       <c r="E2881" s="1" t="s">
         <v>3205</v>
@@ -80500,16 +80500,16 @@
     </row>
     <row r="2882" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2882" s="1" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
       <c r="B2882" s="1" t="s">
         <v>5806</v>
       </c>
       <c r="C2882" s="1" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
       <c r="D2882" s="1" t="s">
-        <v>7141</v>
+        <v>7140</v>
       </c>
       <c r="E2882" s="1" t="s">
         <v>3205</v>
@@ -80594,7 +80594,7 @@
         <v>5811</v>
       </c>
       <c r="D2887" s="1" t="s">
-        <v>7142</v>
+        <v>7141</v>
       </c>
       <c r="E2887" s="1" t="s">
         <v>3205</v>
@@ -80628,7 +80628,7 @@
         <v>5813</v>
       </c>
       <c r="D2889" s="1" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="E2889" s="1" t="s">
         <v>3205</v>
@@ -80730,7 +80730,7 @@
         <v>5820</v>
       </c>
       <c r="D2895" s="1" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="E2895" s="1" t="s">
         <v>3205</v>
@@ -80764,7 +80764,7 @@
         <v>5822</v>
       </c>
       <c r="D2897" s="1" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="E2897" s="1" t="s">
         <v>3205</v>
@@ -80798,7 +80798,7 @@
         <v>5824</v>
       </c>
       <c r="D2899" s="1" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="E2899" s="1" t="s">
         <v>3205</v>
@@ -80908,16 +80908,16 @@
     </row>
     <row r="2906" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2906" s="1" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="B2906" s="1" t="s">
         <v>5830</v>
       </c>
       <c r="C2906" s="1" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="D2906" s="1" t="s">
-        <v>7147</v>
+        <v>7146</v>
       </c>
       <c r="E2906" s="1" t="s">
         <v>3205</v>
@@ -81019,7 +81019,7 @@
         <v>5837</v>
       </c>
       <c r="D2912" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E2912" s="1" t="s">
         <v>3205</v>
@@ -81078,16 +81078,16 @@
     </row>
     <row r="2916" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2916" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="B2916" s="1" t="s">
         <v>5830</v>
       </c>
       <c r="C2916" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="D2916" s="1" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="E2916" s="1" t="s">
         <v>3205</v>
@@ -81886,7 +81886,7 @@
         <v>5881</v>
       </c>
       <c r="D2963" s="1" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
       <c r="E2963" s="1" t="s">
         <v>3205</v>
@@ -81903,7 +81903,7 @@
         <v>5882</v>
       </c>
       <c r="D2964" s="1" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
       <c r="E2964" s="1" t="s">
         <v>3205</v>
@@ -82328,7 +82328,7 @@
         <v>5911</v>
       </c>
       <c r="D2989" s="1" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="E2989" s="1" t="s">
         <v>3205</v>
@@ -82447,7 +82447,7 @@
         <v>5919</v>
       </c>
       <c r="D2996" s="1" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
       <c r="E2996" s="1" t="s">
         <v>3205</v>
@@ -82515,7 +82515,7 @@
         <v>5923</v>
       </c>
       <c r="D3000" s="1" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
       <c r="E3000" s="1" t="s">
         <v>3205</v>
@@ -82634,7 +82634,7 @@
         <v>5931</v>
       </c>
       <c r="D3007" s="1" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
       <c r="E3007" s="1" t="s">
         <v>3205</v>
@@ -82651,7 +82651,7 @@
         <v>5932</v>
       </c>
       <c r="D3008" s="1" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="E3008" s="1" t="s">
         <v>3205</v>
@@ -82685,7 +82685,7 @@
         <v>5935</v>
       </c>
       <c r="D3010" s="1" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="E3010" s="1" t="s">
         <v>3205</v>
@@ -82702,7 +82702,7 @@
         <v>5936</v>
       </c>
       <c r="D3011" s="1" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="E3011" s="1" t="s">
         <v>3205</v>
@@ -82736,7 +82736,7 @@
         <v>5938</v>
       </c>
       <c r="D3013" s="1" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="E3013" s="1" t="s">
         <v>3205</v>
@@ -82770,7 +82770,7 @@
         <v>5940</v>
       </c>
       <c r="D3015" s="1" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="E3015" s="1" t="s">
         <v>3205</v>
@@ -82787,7 +82787,7 @@
         <v>5941</v>
       </c>
       <c r="D3016" s="1" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="E3016" s="1" t="s">
         <v>3205</v>
@@ -82931,16 +82931,16 @@
     </row>
     <row r="3025" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3025" s="1" t="s">
-        <v>6767</v>
+        <v>6766</v>
       </c>
       <c r="B3025" s="1" t="s">
         <v>5943</v>
       </c>
       <c r="C3025" s="1" t="s">
-        <v>6767</v>
+        <v>6766</v>
       </c>
       <c r="D3025" s="1" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="E3025" s="1" t="s">
         <v>3205</v>
@@ -83101,16 +83101,16 @@
     </row>
     <row r="3035" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3035" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="B3035" s="1" t="s">
         <v>5960</v>
       </c>
       <c r="C3035" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="D3035" s="1" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="E3035" s="1" t="s">
         <v>3203</v>
@@ -83339,16 +83339,16 @@
     </row>
     <row r="3049" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3049" s="1" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="B3049" s="1" t="s">
+        <v>6767</v>
+      </c>
+      <c r="C3049" s="1" t="s">
         <v>6768</v>
       </c>
-      <c r="C3049" s="1" t="s">
-        <v>6769</v>
-      </c>
       <c r="D3049" s="1" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="E3049" s="1" t="s">
         <v>3205</v>
@@ -83356,16 +83356,16 @@
     </row>
     <row r="3050" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3050" s="1" t="s">
-        <v>6770</v>
+        <v>6769</v>
       </c>
       <c r="B3050" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="C3050" s="1" t="s">
-        <v>6770</v>
+        <v>6769</v>
       </c>
       <c r="D3050" s="1" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="E3050" s="1" t="s">
         <v>3205</v>
@@ -83373,13 +83373,13 @@
     </row>
     <row r="3051" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3051" s="1" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
       <c r="B3051" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="C3051" s="1" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
       <c r="D3051" s="1" t="s">
         <v>3029</v>
@@ -83390,13 +83390,13 @@
     </row>
     <row r="3052" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3052" s="1" t="s">
-        <v>6772</v>
+        <v>6771</v>
       </c>
       <c r="B3052" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="C3052" s="1" t="s">
-        <v>6772</v>
+        <v>6771</v>
       </c>
       <c r="D3052" s="1" t="s">
         <v>3030</v>
@@ -83407,13 +83407,13 @@
     </row>
     <row r="3053" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3053" s="1" t="s">
-        <v>6773</v>
+        <v>6772</v>
       </c>
       <c r="B3053" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="C3053" s="1" t="s">
-        <v>6773</v>
+        <v>6772</v>
       </c>
       <c r="D3053" s="1" t="s">
         <v>3031</v>
@@ -83424,13 +83424,13 @@
     </row>
     <row r="3054" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3054" s="1" t="s">
-        <v>6774</v>
+        <v>6773</v>
       </c>
       <c r="B3054" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="C3054" s="1" t="s">
-        <v>6774</v>
+        <v>6773</v>
       </c>
       <c r="D3054" s="1" t="s">
         <v>3032</v>
@@ -83764,16 +83764,16 @@
     </row>
     <row r="3074" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3074" s="1" t="s">
-        <v>6775</v>
+        <v>6774</v>
       </c>
       <c r="B3074" s="1" t="s">
         <v>5992</v>
       </c>
       <c r="C3074" s="1" t="s">
-        <v>6775</v>
+        <v>6774</v>
       </c>
       <c r="D3074" s="1" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="E3074" s="1" t="s">
         <v>3205</v>
@@ -83951,16 +83951,16 @@
     </row>
     <row r="3085" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3085" s="1" t="s">
-        <v>6776</v>
+        <v>6775</v>
       </c>
       <c r="B3085" s="1" t="s">
         <v>5998</v>
       </c>
       <c r="C3085" s="1" t="s">
-        <v>6776</v>
+        <v>6775</v>
       </c>
       <c r="D3085" s="1" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="E3085" s="1" t="s">
         <v>3205</v>
@@ -84223,16 +84223,16 @@
     </row>
     <row r="3101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3101" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="B3101" s="1" t="s">
         <v>6016</v>
       </c>
       <c r="C3101" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="D3101" s="1" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="E3101" s="1" t="s">
         <v>3205</v>
@@ -84461,13 +84461,13 @@
     </row>
     <row r="3115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3115" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="B3115" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3115" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="D3115" s="1" t="s">
         <v>3108</v>
@@ -84478,13 +84478,13 @@
     </row>
     <row r="3116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3116" s="1" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="B3116" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3116" s="1" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="D3116" s="1" t="s">
         <v>3111</v>
@@ -84563,16 +84563,16 @@
     </row>
     <row r="3121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3121" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B3121" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3121" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="D3121" s="1" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="E3121" s="1" t="s">
         <v>3203</v>
@@ -84733,16 +84733,16 @@
     </row>
     <row r="3131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3131" s="1" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="B3131" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3131" s="1" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="D3131" s="1" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="E3131" s="1" t="s">
         <v>3203</v>
@@ -84750,16 +84750,16 @@
     </row>
     <row r="3132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3132" s="1" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="B3132" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3132" s="1" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="D3132" s="1" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="E3132" s="1" t="s">
         <v>3203</v>
@@ -84767,16 +84767,16 @@
     </row>
     <row r="3133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3133" s="1" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="B3133" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3133" s="1" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="D3133" s="1" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="E3133" s="1" t="s">
         <v>3203</v>
@@ -84784,16 +84784,16 @@
     </row>
     <row r="3134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3134" s="1" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="B3134" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3134" s="1" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="D3134" s="1" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="E3134" s="1" t="s">
         <v>3203</v>
@@ -84801,16 +84801,16 @@
     </row>
     <row r="3135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3135" s="1" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="B3135" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3135" s="1" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="D3135" s="1" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="E3135" s="1" t="s">
         <v>3203</v>
@@ -84920,16 +84920,16 @@
     </row>
     <row r="3142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3142" s="1" t="s">
-        <v>6778</v>
+        <v>6777</v>
       </c>
       <c r="B3142" s="1" t="s">
         <v>6032</v>
       </c>
       <c r="C3142" s="1" t="s">
-        <v>6778</v>
+        <v>6777</v>
       </c>
       <c r="D3142" s="1" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="E3142" s="1" t="s">
         <v>3205</v>
@@ -85022,16 +85022,16 @@
     </row>
     <row r="3148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3148" s="1" t="s">
-        <v>6780</v>
+        <v>6779</v>
       </c>
       <c r="B3148" s="1" t="s">
+        <v>6778</v>
+      </c>
+      <c r="C3148" s="1" t="s">
         <v>6779</v>
       </c>
-      <c r="C3148" s="1" t="s">
-        <v>6780</v>
-      </c>
       <c r="D3148" s="1" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E3148" s="1" t="s">
         <v>3205</v>
@@ -85039,13 +85039,13 @@
     </row>
     <row r="3149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3149" s="1" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
       <c r="B3149" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="C3149" s="1" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
       <c r="D3149" s="1" t="s">
         <v>3109</v>
@@ -85056,13 +85056,13 @@
     </row>
     <row r="3150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3150" s="1" t="s">
-        <v>6782</v>
+        <v>6781</v>
       </c>
       <c r="B3150" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="C3150" s="1" t="s">
-        <v>6782</v>
+        <v>6781</v>
       </c>
       <c r="D3150" s="1" t="s">
         <v>3110</v>
@@ -85073,16 +85073,16 @@
     </row>
     <row r="3151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3151" s="1" t="s">
-        <v>6784</v>
+        <v>6783</v>
       </c>
       <c r="B3151" s="1" t="s">
+        <v>6782</v>
+      </c>
+      <c r="C3151" s="1" t="s">
         <v>6783</v>
       </c>
-      <c r="C3151" s="1" t="s">
-        <v>6784</v>
-      </c>
       <c r="D3151" s="1" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="E3151" s="1" t="s">
         <v>3205</v>
@@ -85090,13 +85090,13 @@
     </row>
     <row r="3152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3152" s="1" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
       <c r="B3152" s="1" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="C3152" s="1" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
       <c r="D3152" s="1" t="s">
         <v>3112</v>
@@ -85107,13 +85107,13 @@
     </row>
     <row r="3153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3153" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="B3153" s="1" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="C3153" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="D3153" s="1" t="s">
         <v>3113</v>
@@ -85260,16 +85260,16 @@
     </row>
     <row r="3162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3162" s="1" t="s">
-        <v>6787</v>
+        <v>6786</v>
       </c>
       <c r="B3162" s="1" t="s">
         <v>6053</v>
       </c>
       <c r="C3162" s="1" t="s">
-        <v>6787</v>
+        <v>6786</v>
       </c>
       <c r="D3162" s="1" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="E3162" s="1" t="s">
         <v>3205</v>
@@ -85617,16 +85617,16 @@
     </row>
     <row r="3183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3183" s="1" t="s">
-        <v>6789</v>
+        <v>6788</v>
       </c>
       <c r="B3183" s="1" t="s">
+        <v>6787</v>
+      </c>
+      <c r="C3183" s="1" t="s">
         <v>6788</v>
       </c>
-      <c r="C3183" s="1" t="s">
-        <v>6789</v>
-      </c>
       <c r="D3183" s="1" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="E3183" s="1" t="s">
         <v>3205</v>
@@ -85634,16 +85634,16 @@
     </row>
     <row r="3184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3184" s="1" t="s">
-        <v>6790</v>
+        <v>6789</v>
       </c>
       <c r="B3184" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="C3184" s="1" t="s">
-        <v>6790</v>
+        <v>6789</v>
       </c>
       <c r="D3184" s="1" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="E3184" s="1" t="s">
         <v>3205</v>
@@ -85651,16 +85651,16 @@
     </row>
     <row r="3185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3185" s="1" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
       <c r="B3185" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="C3185" s="1" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
       <c r="D3185" s="1" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="E3185" s="1" t="s">
         <v>3205</v>
@@ -85668,16 +85668,16 @@
     </row>
     <row r="3186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3186" s="1" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
       <c r="B3186" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="C3186" s="1" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
       <c r="D3186" s="1" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="E3186" s="1" t="s">
         <v>3205</v>
@@ -85872,16 +85872,16 @@
     </row>
     <row r="3198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3198" s="1" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
       <c r="B3198" s="1" t="s">
         <v>6077</v>
       </c>
       <c r="C3198" s="1" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
       <c r="D3198" s="1" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="E3198" s="1" t="s">
         <v>3205</v>
@@ -86059,16 +86059,16 @@
     </row>
     <row r="3209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3209" s="1" t="s">
-        <v>6794</v>
+        <v>6793</v>
       </c>
       <c r="B3209" s="1" t="s">
         <v>6098</v>
       </c>
       <c r="C3209" s="1" t="s">
-        <v>6794</v>
+        <v>6793</v>
       </c>
       <c r="D3209" s="1" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="E3209" s="1" t="s">
         <v>3205</v>
@@ -86450,16 +86450,16 @@
     </row>
     <row r="3232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3232" s="1" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="B3232" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3232" s="1" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="D3232" s="1" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="E3232" s="1" t="s">
         <v>3205</v>
@@ -86467,16 +86467,16 @@
     </row>
     <row r="3233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3233" s="1" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="B3233" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3233" s="1" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="D3233" s="1" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="E3233" s="1" t="s">
         <v>3205</v>
@@ -86484,16 +86484,16 @@
     </row>
     <row r="3234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3234" s="1" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="B3234" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3234" s="1" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="D3234" s="1" t="s">
-        <v>7061</v>
+        <v>7060</v>
       </c>
       <c r="E3234" s="1" t="s">
         <v>3205</v>
@@ -86501,16 +86501,16 @@
     </row>
     <row r="3235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3235" s="1" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
       <c r="B3235" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3235" s="1" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
       <c r="D3235" s="1" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="E3235" s="1" t="s">
         <v>3205</v>
@@ -86518,16 +86518,16 @@
     </row>
     <row r="3236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3236" s="1" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="B3236" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3236" s="1" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="D3236" s="1" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="E3236" s="1" t="s">
         <v>3205</v>
@@ -86535,16 +86535,16 @@
     </row>
     <row r="3237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3237" s="1" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
       <c r="B3237" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3237" s="1" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
       <c r="D3237" s="1" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="E3237" s="1" t="s">
         <v>3205</v>
@@ -86552,16 +86552,16 @@
     </row>
     <row r="3238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3238" s="1" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
       <c r="B3238" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3238" s="1" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
       <c r="D3238" s="1" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="E3238" s="1" t="s">
         <v>3205</v>
@@ -86569,16 +86569,16 @@
     </row>
     <row r="3239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3239" s="1" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
       <c r="B3239" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3239" s="1" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
       <c r="D3239" s="1" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="E3239" s="1" t="s">
         <v>3205</v>
@@ -86586,16 +86586,16 @@
     </row>
     <row r="3240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3240" s="1" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="B3240" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3240" s="1" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="D3240" s="1" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="E3240" s="1" t="s">
         <v>3205</v>
@@ -86603,16 +86603,16 @@
     </row>
     <row r="3241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3241" s="1" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="B3241" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3241" s="1" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="D3241" s="1" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="E3241" s="1" t="s">
         <v>3205</v>
@@ -86620,16 +86620,16 @@
     </row>
     <row r="3242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3242" s="1" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
       <c r="B3242" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3242" s="1" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
       <c r="D3242" s="1" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="E3242" s="1" t="s">
         <v>3205</v>
@@ -86637,16 +86637,16 @@
     </row>
     <row r="3243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3243" s="1" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
       <c r="B3243" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3243" s="1" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
       <c r="D3243" s="1" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="E3243" s="1" t="s">
         <v>3205</v>
@@ -86654,16 +86654,16 @@
     </row>
     <row r="3244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3244" s="1" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
       <c r="B3244" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3244" s="1" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
       <c r="D3244" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="E3244" s="1" t="s">
         <v>3205</v>
@@ -86671,16 +86671,16 @@
     </row>
     <row r="3245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3245" s="1" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
       <c r="B3245" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3245" s="1" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
       <c r="D3245" s="1" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="E3245" s="1" t="s">
         <v>3205</v>
@@ -86688,16 +86688,16 @@
     </row>
     <row r="3246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3246" s="1" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
       <c r="B3246" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3246" s="1" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
       <c r="D3246" s="1" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E3246" s="1" t="s">
         <v>3205</v>
@@ -86705,16 +86705,16 @@
     </row>
     <row r="3247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3247" s="1" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
       <c r="B3247" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3247" s="1" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
       <c r="D3247" s="1" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="E3247" s="1" t="s">
         <v>3205</v>
@@ -86722,16 +86722,16 @@
     </row>
     <row r="3248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3248" s="1" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
       <c r="B3248" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3248" s="1" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
       <c r="D3248" s="1" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="E3248" s="1" t="s">
         <v>3205</v>
@@ -86739,16 +86739,16 @@
     </row>
     <row r="3249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3249" s="1" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="B3249" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3249" s="1" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="D3249" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="E3249" s="1" t="s">
         <v>3205</v>
@@ -86756,16 +86756,16 @@
     </row>
     <row r="3250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3250" s="1" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="B3250" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3250" s="1" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="D3250" s="1" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="E3250" s="1" t="s">
         <v>3205</v>
@@ -86773,16 +86773,16 @@
     </row>
     <row r="3251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3251" s="1" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
       <c r="B3251" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3251" s="1" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
       <c r="D3251" s="1" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E3251" s="1" t="s">
         <v>3205</v>
@@ -86790,16 +86790,16 @@
     </row>
     <row r="3252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3252" s="1" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
       <c r="B3252" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3252" s="1" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
       <c r="D3252" s="1" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="E3252" s="1" t="s">
         <v>3205</v>
@@ -86807,16 +86807,16 @@
     </row>
     <row r="3253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3253" s="1" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="B3253" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3253" s="1" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="D3253" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="E3253" s="1" t="s">
         <v>3205</v>
@@ -86824,16 +86824,16 @@
     </row>
     <row r="3254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3254" s="1" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="B3254" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3254" s="1" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="D3254" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="E3254" s="1" t="s">
         <v>3205</v>
@@ -86841,16 +86841,16 @@
     </row>
     <row r="3255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3255" s="1" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="B3255" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3255" s="1" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="D3255" s="1" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="E3255" s="1" t="s">
         <v>3205</v>
@@ -86858,16 +86858,16 @@
     </row>
     <row r="3256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3256" s="1" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
       <c r="B3256" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3256" s="1" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
       <c r="D3256" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="E3256" s="1" t="s">
         <v>3205</v>
@@ -86875,16 +86875,16 @@
     </row>
     <row r="3257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3257" s="1" t="s">
-        <v>6825</v>
+        <v>6824</v>
       </c>
       <c r="B3257" s="1" t="s">
         <v>6131</v>
       </c>
       <c r="C3257" s="1" t="s">
-        <v>6825</v>
+        <v>6824</v>
       </c>
       <c r="D3257" s="1" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="E3257" s="1" t="s">
         <v>3205</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23EB582-8440-4271-BD7B-0BE0AC36A04A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A884844-A614-4647-B739-32C64A9E99B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23241,7 +23241,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.0</t>
+    <t>4.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24411,7 +24411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -25502,9 +25502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25563,7 +25563,7 @@
       <c r="D3" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -28977,8 +28977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C9F63-17A9-4FA7-B608-B5B8EEF181A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D1690-7E94-4F2E-9FF7-4CB0E82FF47C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5700" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="624" yWindow="396" windowWidth="22188" windowHeight="10908" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18610" uniqueCount="7253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18615" uniqueCount="7256">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23243,6 +23243,17 @@
   </si>
   <si>
     <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主框架页-主导航菜单显示风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys.index.menuStyle</t>
+  </si>
+  <si>
+    <t>1：菜单全部在左侧；2：根菜单显示在顶部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23865,11 +23876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -23935,10 +23946,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>7253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>7254</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -23947,185 +23958,185 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+        <v>7255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6391</v>
+        <v>305</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6390</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6275</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6392</v>
+        <v>6391</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>6390</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>6275</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7251</v>
+        <v>6392</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>7251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6385</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6386</v>
+        <v>6385</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6388</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6387</v>
+        <v>6386</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>6388</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6242</v>
+        <v>6387</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6253</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6254</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6242</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6253</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>55</v>
@@ -24134,63 +24145,80 @@
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E18">
-    <sortCondition ref="B4"/>
+  <sortState ref="A2:E19">
+    <sortCondition ref="B5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25503,7 +25531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D1690-7E94-4F2E-9FF7-4CB0E82FF47C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562CE9F9-00E9-496E-B499-20C05F4C13AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="396" windowWidth="22188" windowHeight="10908" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$3257</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18615" uniqueCount="7256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18686" uniqueCount="7267">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23242,10 +23242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主框架页-主导航菜单显示风格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23254,6 +23250,120 @@
   </si>
   <si>
     <t>1：菜单全部在左侧；2：根菜单显示在顶部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>__id__my</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站内消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>__id__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>msg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-speech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/msg/msgInner/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg:msgInner:view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg:msgInner:edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg:msgInner:auth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23432,7 +23542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23473,16 +23583,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -23518,7 +23622,6 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -23528,14 +23631,17 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -23878,7 +23984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -23946,10 +24052,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7252</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7253</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7254</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -23958,7 +24064,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24477,16 +24583,16 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>6370</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>6371</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>6372</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>6373</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -24501,7 +24607,7 @@
       <c r="M1" s="2" t="s">
         <v>6389</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="27" t="s">
         <v>6374</v>
       </c>
     </row>
@@ -24533,7 +24639,7 @@
       <c r="I2" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" t="s">
         <v>6369</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -24577,7 +24683,7 @@
       <c r="I3" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" t="s">
         <v>6369</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -24621,7 +24727,7 @@
       <c r="I4" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" t="s">
         <v>6369</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -24665,7 +24771,7 @@
       <c r="I5" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" t="s">
         <v>6369</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -24709,7 +24815,7 @@
       <c r="I6" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" t="s">
         <v>6369</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -24753,7 +24859,7 @@
       <c r="I7" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" t="s">
         <v>6369</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -24797,7 +24903,7 @@
       <c r="I8" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" t="s">
         <v>6369</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -24841,7 +24947,7 @@
       <c r="I9" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" t="s">
         <v>6369</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -24885,7 +24991,7 @@
       <c r="I10" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" t="s">
         <v>6369</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -24929,7 +25035,7 @@
       <c r="I11" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" t="s">
         <v>6369</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -24973,7 +25079,7 @@
       <c r="I12" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" t="s">
         <v>6369</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -25017,7 +25123,7 @@
       <c r="I13" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" t="s">
         <v>6369</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -25061,7 +25167,7 @@
       <c r="I14" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" t="s">
         <v>6369</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -25105,7 +25211,7 @@
       <c r="I15" s="1" t="s">
         <v>6284</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" t="s">
         <v>6369</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -25149,7 +25255,7 @@
       <c r="I16" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" t="s">
         <v>6369</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -25193,7 +25299,7 @@
       <c r="I17" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" t="s">
         <v>6369</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -25237,7 +25343,7 @@
       <c r="I18" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" t="s">
         <v>6369</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -25281,7 +25387,7 @@
       <c r="I19" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" t="s">
         <v>6369</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -25325,7 +25431,7 @@
       <c r="I20" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" t="s">
         <v>6369</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -25369,7 +25475,7 @@
       <c r="I21" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" t="s">
         <v>6369</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -25413,7 +25519,7 @@
       <c r="I22" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" t="s">
         <v>6369</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -25457,7 +25563,7 @@
       <c r="I23" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" t="s">
         <v>6369</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -25501,7 +25607,7 @@
       <c r="I24" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" t="s">
         <v>6369</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -25533,7 +25639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25569,14 +25675,14 @@
       <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>7252</v>
+      <c r="E2" s="1" t="s">
+        <v>7256</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25592,7 +25698,7 @@
       <c r="D3" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -25605,11 +25711,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25709,13 +25815,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="1" t="s">
         <v>6243</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="1" t="s">
         <v>6244</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -25819,10 +25925,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="1" t="s">
         <v>6161</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -25841,7 +25947,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="1" t="s">
         <v>6149</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -25852,13 +25958,13 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="1" t="s">
         <v>6450</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6451</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -25885,36 +25991,80 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="1" t="s">
         <v>6172</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="1" t="s">
         <v>6162</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="1" t="s">
         <v>6181</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>6182</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="1" t="s">
         <v>6162</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="1" t="s">
         <v>6169</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="1" t="s">
         <v>6173</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="1" t="s">
         <v>6162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6208</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6187</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6209</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6195</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6207</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -25929,11 +26079,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25941,7 +26091,7 @@
     <col min="1" max="1" width="10" style="7" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="7" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28" style="14" customWidth="1"/>
     <col min="5" max="5" width="21" style="7" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" style="7" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="7" customWidth="1"/>
@@ -25996,7 +26146,7 @@
       <c r="C2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>151</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -26008,7 +26158,7 @@
       <c r="G2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26022,7 +26172,7 @@
       <c r="C3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>152</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -26037,7 +26187,7 @@
       <c r="I3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26051,7 +26201,7 @@
       <c r="C4" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>316</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -26063,7 +26213,7 @@
       <c r="G4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26077,7 +26227,7 @@
       <c r="C5" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>317</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -26092,7 +26242,7 @@
       <c r="I5" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26106,7 +26256,7 @@
       <c r="C6" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>318</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -26121,7 +26271,7 @@
       <c r="I6" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26135,7 +26285,7 @@
       <c r="C7" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>319</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -26150,7 +26300,7 @@
       <c r="I7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26164,7 +26314,7 @@
       <c r="C8" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>321</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -26176,7 +26326,7 @@
       <c r="G8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26190,7 +26340,7 @@
       <c r="C9" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>320</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -26202,7 +26352,7 @@
       <c r="G9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26216,7 +26366,7 @@
       <c r="C10" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>322</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -26231,7 +26381,7 @@
       <c r="I10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26245,7 +26395,7 @@
       <c r="C11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>196</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -26257,7 +26407,7 @@
       <c r="G11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26271,7 +26421,7 @@
       <c r="C12" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>197</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -26286,7 +26436,7 @@
       <c r="I12" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26297,13 +26447,13 @@
       <c r="B13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="1" t="s">
         <v>6393</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="3" t="s">
         <v>6395</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="1" t="s">
         <v>6402</v>
       </c>
       <c r="F13" s="7" t="s">
@@ -26312,7 +26462,7 @@
       <c r="G13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26323,22 +26473,22 @@
       <c r="B14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="1" t="s">
         <v>6393</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="3" t="s">
         <v>7217</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="1" t="s">
         <v>7218</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="1" t="s">
         <v>6250</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26352,7 +26502,7 @@
       <c r="C15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -26364,7 +26514,7 @@
       <c r="G15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26378,7 +26528,7 @@
       <c r="C16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -26390,7 +26540,7 @@
       <c r="G16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26404,19 +26554,19 @@
       <c r="C17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>130</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="1" t="s">
         <v>6268</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26430,19 +26580,19 @@
       <c r="C18" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>129</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="1" t="s">
         <v>6148</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26456,7 +26606,7 @@
       <c r="C19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -26468,7 +26618,7 @@
       <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26482,7 +26632,7 @@
       <c r="C20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="7" t="s">
@@ -26494,7 +26644,7 @@
       <c r="G20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26508,7 +26658,7 @@
       <c r="C21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -26520,10 +26670,10 @@
       <c r="G21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="1" t="s">
         <v>6257</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26534,13 +26684,13 @@
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="1" t="s">
         <v>6245</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="3" t="s">
         <v>6246</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="1" t="s">
         <v>6249</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -26549,7 +26699,7 @@
       <c r="G22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26560,13 +26710,13 @@
       <c r="B23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="1" t="s">
         <v>6245</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="3" t="s">
         <v>6247</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="1" t="s">
         <v>6250</v>
       </c>
       <c r="F23" s="7" t="s">
@@ -26575,7 +26725,7 @@
       <c r="G23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26586,13 +26736,13 @@
       <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="1" t="s">
         <v>6245</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="1" t="s">
         <v>6251</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -26601,7 +26751,7 @@
       <c r="G24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26612,13 +26762,13 @@
       <c r="B25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="1" t="s">
         <v>6245</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="3" t="s">
         <v>6248</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="1" t="s">
         <v>6252</v>
       </c>
       <c r="F25" s="7" t="s">
@@ -26627,10 +26777,10 @@
       <c r="G25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="1" t="s">
         <v>6257</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26644,7 +26794,7 @@
       <c r="C26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>120</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -26656,7 +26806,7 @@
       <c r="G26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26670,7 +26820,7 @@
       <c r="C27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -26682,7 +26832,7 @@
       <c r="G27" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26696,7 +26846,7 @@
       <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>122</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -26708,7 +26858,7 @@
       <c r="G28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26722,7 +26872,7 @@
       <c r="C29" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>123</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -26734,7 +26884,7 @@
       <c r="G29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26748,7 +26898,7 @@
       <c r="C30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -26760,7 +26910,7 @@
       <c r="G30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26774,7 +26924,7 @@
       <c r="C31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
         <v>139</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -26786,7 +26936,7 @@
       <c r="G31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26800,7 +26950,7 @@
       <c r="C32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="3" t="s">
         <v>6198</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -26812,7 +26962,7 @@
       <c r="G32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26826,7 +26976,7 @@
       <c r="C33" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="14" t="s">
         <v>141</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -26838,7 +26988,7 @@
       <c r="G33" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26852,7 +27002,7 @@
       <c r="C34" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="14" t="s">
         <v>142</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -26864,10 +27014,10 @@
       <c r="G34" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="1" t="s">
         <v>6479</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26881,7 +27031,7 @@
       <c r="C35" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>143</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -26893,7 +27043,7 @@
       <c r="G35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26907,7 +27057,7 @@
       <c r="C36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -26919,7 +27069,7 @@
       <c r="G36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26933,7 +27083,7 @@
       <c r="C37" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="14" t="s">
         <v>145</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -26945,7 +27095,7 @@
       <c r="G37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26959,7 +27109,7 @@
       <c r="C38" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="14" t="s">
         <v>146</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -26971,10 +27121,10 @@
       <c r="G38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -26988,7 +27138,7 @@
       <c r="C39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="14" t="s">
         <v>147</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -27003,7 +27153,7 @@
       <c r="I39" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27017,10 +27167,10 @@
       <c r="C40" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="1" t="s">
         <v>6231</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -27029,7 +27179,7 @@
       <c r="G40" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27043,10 +27193,10 @@
       <c r="C41" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="1" t="s">
         <v>6232</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -27055,7 +27205,7 @@
       <c r="G41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27069,10 +27219,10 @@
       <c r="C42" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="1" t="s">
         <v>6233</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -27081,7 +27231,7 @@
       <c r="G42" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27095,10 +27245,10 @@
       <c r="C43" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="1" t="s">
         <v>6234</v>
       </c>
       <c r="F43" s="7" t="s">
@@ -27107,7 +27257,7 @@
       <c r="G43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27121,10 +27271,10 @@
       <c r="C44" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="1" t="s">
         <v>6235</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -27133,7 +27283,7 @@
       <c r="G44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27150,7 +27300,7 @@
       <c r="D45" s="3" t="s">
         <v>6139</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="1" t="s">
         <v>6144</v>
       </c>
       <c r="F45" s="7" t="s">
@@ -27159,7 +27309,7 @@
       <c r="G45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27176,7 +27326,7 @@
       <c r="D46" s="3" t="s">
         <v>6140</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="1" t="s">
         <v>6145</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -27185,7 +27335,7 @@
       <c r="G46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27202,7 +27352,7 @@
       <c r="D47" s="3" t="s">
         <v>6141</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="1" t="s">
         <v>6146</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -27211,7 +27361,7 @@
       <c r="G47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27228,16 +27378,16 @@
       <c r="D48" s="3" t="s">
         <v>6142</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="1" t="s">
         <v>6147</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="1" t="s">
         <v>6148</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27254,7 +27404,7 @@
       <c r="D49" s="3" t="s">
         <v>6143</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -27263,7 +27413,7 @@
       <c r="G49" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27277,10 +27427,10 @@
       <c r="C50" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="3" t="s">
         <v>7246</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="7" t="s">
@@ -27289,7 +27439,7 @@
       <c r="G50" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27303,10 +27453,10 @@
       <c r="C51" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="3" t="s">
         <v>7247</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -27315,7 +27465,7 @@
       <c r="G51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27329,19 +27479,19 @@
       <c r="C52" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="3" t="s">
         <v>7250</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27355,19 +27505,19 @@
       <c r="C53" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="3" t="s">
         <v>7249</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27381,19 +27531,19 @@
       <c r="C54" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="3" t="s">
         <v>7248</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="1" t="s">
         <v>219</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27410,7 +27560,7 @@
       <c r="D55" s="3" t="s">
         <v>6139</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -27419,7 +27569,7 @@
       <c r="G55" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27436,7 +27586,7 @@
       <c r="D56" s="3" t="s">
         <v>6140</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="1" t="s">
         <v>6145</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -27445,7 +27595,7 @@
       <c r="G56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27462,7 +27612,7 @@
       <c r="D57" s="3" t="s">
         <v>6141</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="1" t="s">
         <v>6146</v>
       </c>
       <c r="F57" s="7" t="s">
@@ -27471,7 +27621,7 @@
       <c r="G57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27488,16 +27638,16 @@
       <c r="D58" s="3" t="s">
         <v>6142</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="1" t="s">
         <v>6147</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="1" t="s">
         <v>6148</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K58" s="14" t="s">
+      <c r="K58" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27508,13 +27658,13 @@
       <c r="B59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="3" t="s">
         <v>6159</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="1" t="s">
         <v>6467</v>
       </c>
       <c r="F59" s="7" t="s">
@@ -27523,7 +27673,7 @@
       <c r="G59" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K59" s="14" t="s">
+      <c r="K59" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27534,13 +27684,13 @@
       <c r="B60" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="3" t="s">
         <v>6471</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="1" t="s">
         <v>6468</v>
       </c>
       <c r="F60" s="7" t="s">
@@ -27549,7 +27699,7 @@
       <c r="G60" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K60" s="14" t="s">
+      <c r="K60" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27560,22 +27710,22 @@
       <c r="B61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="3" t="s">
         <v>6472</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="1" t="s">
         <v>6469</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="1" t="s">
         <v>6268</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27586,22 +27736,22 @@
       <c r="B62" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="3" t="s">
         <v>6473</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="1" t="s">
         <v>6470</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="1" t="s">
         <v>6148</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K62" s="14" t="s">
+      <c r="K62" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27615,10 +27765,10 @@
       <c r="C63" s="1" t="s">
         <v>6152</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="3" t="s">
         <v>6153</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="1" t="s">
         <v>6457</v>
       </c>
       <c r="F63" s="7" t="s">
@@ -27627,7 +27777,7 @@
       <c r="G63" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27641,10 +27791,10 @@
       <c r="C64" s="1" t="s">
         <v>6152</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="3" t="s">
         <v>6154</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="1" t="s">
         <v>6458</v>
       </c>
       <c r="F64" s="7" t="s">
@@ -27653,7 +27803,7 @@
       <c r="G64" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="K64" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27664,13 +27814,13 @@
       <c r="B65" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="1" t="s">
         <v>6149</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="3" t="s">
         <v>6150</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="1" t="s">
         <v>6144</v>
       </c>
       <c r="F65" s="7" t="s">
@@ -27679,7 +27829,7 @@
       <c r="G65" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27690,13 +27840,13 @@
       <c r="B66" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="1" t="s">
         <v>6149</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="3" t="s">
         <v>6151</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="1" t="s">
         <v>6145</v>
       </c>
       <c r="F66" s="7" t="s">
@@ -27705,7 +27855,7 @@
       <c r="G66" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27716,13 +27866,13 @@
       <c r="B67" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="1" t="s">
         <v>6450</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F67" s="7" t="s">
@@ -27731,7 +27881,7 @@
       <c r="G67" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27742,13 +27892,13 @@
       <c r="B68" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="1" t="s">
         <v>6450</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="7" t="s">
@@ -27757,7 +27907,7 @@
       <c r="G68" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27768,13 +27918,13 @@
       <c r="B69" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="1" t="s">
         <v>6450</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="3" t="s">
         <v>6452</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F69" s="7" t="s">
@@ -27783,10 +27933,10 @@
       <c r="G69" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="1" t="s">
         <v>6479</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27797,13 +27947,13 @@
       <c r="B70" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="1" t="s">
         <v>6450</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="3" t="s">
         <v>6453</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F70" s="7" t="s">
@@ -27812,7 +27962,7 @@
       <c r="G70" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K70" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27823,13 +27973,13 @@
       <c r="B71" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="1" t="s">
         <v>6450</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="3" t="s">
         <v>6455</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F71" s="7" t="s">
@@ -27838,10 +27988,10 @@
       <c r="G71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="1" t="s">
         <v>6479</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27852,22 +28002,22 @@
       <c r="B72" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="1" t="s">
         <v>6450</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="3" t="s">
         <v>6454</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="1" t="s">
         <v>6268</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27884,7 +28034,7 @@
       <c r="D73" s="1" t="s">
         <v>6418</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="1" t="s">
         <v>6415</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -27893,7 +28043,7 @@
       <c r="G73" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27907,10 +28057,10 @@
       <c r="C74" s="1" t="s">
         <v>6411</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="3" t="s">
         <v>6419</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="1" t="s">
         <v>6416</v>
       </c>
       <c r="F74" s="7" t="s">
@@ -27919,7 +28069,7 @@
       <c r="G74" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27933,10 +28083,10 @@
       <c r="C75" s="1" t="s">
         <v>6411</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="3" t="s">
         <v>6420</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="1" t="s">
         <v>6417</v>
       </c>
       <c r="F75" s="7" t="s">
@@ -27945,7 +28095,7 @@
       <c r="G75" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27959,10 +28109,10 @@
       <c r="C76" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="3" t="s">
         <v>6426</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="1" t="s">
         <v>6421</v>
       </c>
       <c r="F76" s="7" t="s">
@@ -27971,7 +28121,7 @@
       <c r="G76" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K76" s="14" t="s">
+      <c r="K76" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -27985,10 +28135,10 @@
       <c r="C77" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="3" t="s">
         <v>6427</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="1" t="s">
         <v>6422</v>
       </c>
       <c r="F77" s="7" t="s">
@@ -27997,7 +28147,7 @@
       <c r="G77" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28011,10 +28161,10 @@
       <c r="C78" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="3" t="s">
         <v>6428</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="1" t="s">
         <v>6423</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -28023,7 +28173,7 @@
       <c r="G78" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28037,19 +28187,19 @@
       <c r="C79" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="3" t="s">
         <v>6429</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="1" t="s">
         <v>6424</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="1" t="s">
         <v>6148</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28063,19 +28213,19 @@
       <c r="C80" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="3" t="s">
         <v>6430</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="1" t="s">
         <v>6425</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="1" t="s">
         <v>6180</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K80" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28089,19 +28239,19 @@
       <c r="C81" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="3" t="s">
         <v>6434</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="1" t="s">
         <v>6431</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="1" t="s">
         <v>6252</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K81" s="14" t="s">
+      <c r="K81" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28118,16 +28268,16 @@
       <c r="D82" s="1" t="s">
         <v>6456</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="1" t="s">
         <v>6432</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="1" t="s">
         <v>6444</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K82" s="14" t="s">
+      <c r="K82" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28141,19 +28291,19 @@
       <c r="C83" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="3" t="s">
         <v>6435</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="1" t="s">
         <v>6433</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="1" t="s">
         <v>220</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K83" s="14" t="s">
+      <c r="K83" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28167,19 +28317,19 @@
       <c r="C84" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="3" t="s">
         <v>6440</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="1" t="s">
         <v>6436</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="1" t="s">
         <v>6445</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K84" s="14" t="s">
+      <c r="K84" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28193,19 +28343,19 @@
       <c r="C85" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="3" t="s">
         <v>6441</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="1" t="s">
         <v>6437</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="1" t="s">
         <v>6446</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K85" s="14" t="s">
+      <c r="K85" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28219,19 +28369,19 @@
       <c r="C86" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="3" t="s">
         <v>6442</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="1" t="s">
         <v>6438</v>
       </c>
-      <c r="F86" s="14" t="s">
+      <c r="F86" s="1" t="s">
         <v>6447</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K86" s="14" t="s">
+      <c r="K86" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28245,19 +28395,19 @@
       <c r="C87" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="3" t="s">
         <v>6443</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="1" t="s">
         <v>6439</v>
       </c>
-      <c r="F87" s="14" t="s">
+      <c r="F87" s="1" t="s">
         <v>6448</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K87" s="14" t="s">
+      <c r="K87" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28268,13 +28418,13 @@
       <c r="B88" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="3" t="s">
         <v>6165</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F88" s="7" t="s">
@@ -28283,10 +28433,10 @@
       <c r="G88" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="1" t="s">
         <v>6172</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K88" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28297,13 +28447,13 @@
       <c r="B89" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="3" t="s">
         <v>6168</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="1" t="s">
         <v>6236</v>
       </c>
       <c r="F89" s="7" t="s">
@@ -28312,7 +28462,7 @@
       <c r="G89" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K89" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28323,13 +28473,13 @@
       <c r="B90" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C90" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="3" t="s">
         <v>6164</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="1" t="s">
         <v>6237</v>
       </c>
       <c r="F90" s="7" t="s">
@@ -28338,7 +28488,7 @@
       <c r="G90" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="K90" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28349,22 +28499,22 @@
       <c r="B91" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="3" t="s">
         <v>6166</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="1" t="s">
         <v>6238</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="1" t="s">
         <v>6148</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28375,22 +28525,22 @@
       <c r="B92" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="3" t="s">
         <v>6167</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="1" t="s">
         <v>6180</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28401,25 +28551,25 @@
       <c r="B93" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="1" t="s">
         <v>6181</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="3" t="s">
         <v>7209</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="1" t="s">
         <v>6480</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="K93" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28430,23 +28580,23 @@
       <c r="B94" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="1" t="s">
         <v>6181</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="3" t="s">
         <v>6183</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="1" t="s">
         <v>6185</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="H94" s="14"/>
-      <c r="K94" s="14" t="s">
+      <c r="H94" s="1"/>
+      <c r="K94" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28457,25 +28607,25 @@
       <c r="B95" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="1" t="s">
         <v>6181</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="3" t="s">
         <v>6184</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I95" s="14" t="s">
+      <c r="I95" s="1" t="s">
         <v>6479</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="K95" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28486,13 +28636,13 @@
       <c r="B96" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="1" t="s">
         <v>6169</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="3" t="s">
         <v>6174</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="1" t="s">
         <v>6175</v>
       </c>
       <c r="F96" s="7" t="s">
@@ -28501,10 +28651,10 @@
       <c r="G96" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="1" t="s">
         <v>6173</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="K96" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28515,13 +28665,13 @@
       <c r="B97" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="1" t="s">
         <v>6169</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="3" t="s">
         <v>6170</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="1" t="s">
         <v>6162</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -28530,8 +28680,8 @@
       <c r="G97" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="14"/>
-      <c r="K97" s="14" t="s">
+      <c r="H97" s="1"/>
+      <c r="K97" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28542,13 +28692,13 @@
       <c r="B98" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="1" t="s">
         <v>6169</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="3" t="s">
         <v>6171</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="1" t="s">
         <v>6176</v>
       </c>
       <c r="F98" s="7" t="s">
@@ -28557,7 +28707,7 @@
       <c r="G98" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K98" s="14" t="s">
+      <c r="K98" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28568,13 +28718,13 @@
       <c r="B99" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="1" t="s">
         <v>6208</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D99" s="3" t="s">
         <v>6188</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="1" t="s">
         <v>6162</v>
       </c>
       <c r="F99" s="7" t="s">
@@ -28583,10 +28733,10 @@
       <c r="G99" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="K99" s="14" t="s">
+      <c r="K99" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28597,13 +28747,13 @@
       <c r="B100" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="1" t="s">
         <v>6208</v>
       </c>
-      <c r="D100" s="15" t="s">
+      <c r="D100" s="3" t="s">
         <v>6189</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="1" t="s">
         <v>6176</v>
       </c>
       <c r="F100" s="7" t="s">
@@ -28612,7 +28762,7 @@
       <c r="G100" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28623,13 +28773,13 @@
       <c r="B101" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="1" t="s">
         <v>6208</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="3" t="s">
         <v>6190</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="1" t="s">
         <v>6177</v>
       </c>
       <c r="F101" s="7" t="s">
@@ -28638,10 +28788,10 @@
       <c r="G101" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I101" s="14" t="s">
+      <c r="I101" s="1" t="s">
         <v>6479</v>
       </c>
-      <c r="K101" s="14" t="s">
+      <c r="K101" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28652,13 +28802,13 @@
       <c r="B102" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="1" t="s">
         <v>6209</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="3" t="s">
         <v>6191</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="1" t="s">
         <v>6162</v>
       </c>
       <c r="F102" s="7" t="s">
@@ -28667,10 +28817,10 @@
       <c r="G102" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="1" t="s">
         <v>6195</v>
       </c>
-      <c r="K102" s="14" t="s">
+      <c r="K102" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28681,13 +28831,13 @@
       <c r="B103" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="1" t="s">
         <v>6209</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="3" t="s">
         <v>6192</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="1" t="s">
         <v>6176</v>
       </c>
       <c r="F103" s="7" t="s">
@@ -28696,7 +28846,7 @@
       <c r="G103" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K103" s="14" t="s">
+      <c r="K103" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28707,13 +28857,13 @@
       <c r="B104" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="1" t="s">
         <v>6209</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="3" t="s">
         <v>6193</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="1" t="s">
         <v>6177</v>
       </c>
       <c r="F104" s="7" t="s">
@@ -28722,7 +28872,7 @@
       <c r="G104" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K104" s="14" t="s">
+      <c r="K104" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28733,22 +28883,22 @@
       <c r="B105" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="1" t="s">
         <v>6209</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="3" t="s">
         <v>6194</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="1" t="s">
         <v>6178</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="1" t="s">
         <v>6214</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K105" s="14" t="s">
+      <c r="K105" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28759,14 +28909,14 @@
       <c r="B106" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="1" t="s">
         <v>6210</v>
       </c>
-      <c r="D106" s="15" t="s">
-        <v>6197</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>6162</v>
+      <c r="D106" s="3" t="s">
+        <v>7255</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>75</v>
@@ -28774,10 +28924,10 @@
       <c r="G106" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="1" t="s">
         <v>6196</v>
       </c>
-      <c r="K106" s="14" t="s">
+      <c r="K106" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28788,22 +28938,23 @@
       <c r="B107" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="1" t="s">
         <v>6210</v>
       </c>
-      <c r="D107" s="15" t="s">
-        <v>6198</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>6176</v>
+      <c r="D107" s="3" t="s">
+        <v>6197</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6162</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K107" s="14" t="s">
+      <c r="H107" s="1"/>
+      <c r="K107" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28814,22 +28965,22 @@
       <c r="B108" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="1" t="s">
         <v>6210</v>
       </c>
-      <c r="D108" s="15" t="s">
-        <v>6199</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>6177</v>
+      <c r="D108" s="3" t="s">
+        <v>6198</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>6176</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K108" s="14" t="s">
+      <c r="K108" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28840,22 +28991,22 @@
       <c r="B109" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C109" s="1" t="s">
         <v>6210</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>6200</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>6178</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>6214</v>
+      <c r="D109" s="3" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>6177</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K109" s="14" t="s">
+      <c r="K109" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28866,25 +29017,22 @@
       <c r="B110" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>6211</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>6201</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>6175</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>75</v>
+      <c r="C110" s="1" t="s">
+        <v>6210</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>6200</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6178</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>6214</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H110" s="14" t="s">
-        <v>6207</v>
-      </c>
-      <c r="K110" s="14" t="s">
+      <c r="K110" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28895,22 +29043,25 @@
       <c r="B111" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C111" s="1" t="s">
         <v>6211</v>
       </c>
-      <c r="D111" s="15" t="s">
-        <v>6202</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>6162</v>
+      <c r="D111" s="3" t="s">
+        <v>6201</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>6175</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K111" s="14" t="s">
+      <c r="H111" s="1" t="s">
+        <v>6207</v>
+      </c>
+      <c r="K111" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -28921,77 +29072,103 @@
       <c r="B112" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="1" t="s">
         <v>6211</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>6203</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>6178</v>
+      <c r="D112" s="3" t="s">
+        <v>6202</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>6162</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K112" s="14" t="s">
+      <c r="K112" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="1" t="s">
         <v>6211</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>6204</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>6179</v>
-      </c>
-      <c r="F113" s="14" t="s">
-        <v>6214</v>
+      <c r="D113" s="3" t="s">
+        <v>6203</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6178</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I113" s="14" t="s">
-        <v>6479</v>
-      </c>
-      <c r="K113" s="14" t="s">
+      <c r="K113" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="1" t="s">
         <v>6211</v>
       </c>
-      <c r="D114" s="15" t="s">
-        <v>6205</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>6206</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>6215</v>
+      <c r="D114" s="3" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>6179</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>6214</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K114" s="14" t="s">
+      <c r="I114" s="1" t="s">
+        <v>6479</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>6205</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>6206</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>6215</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -29004,24 +29181,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="10" customWidth="1"/>
     <col min="5" max="5" width="30.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="5" style="10" customWidth="1"/>
     <col min="7" max="7" width="5.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="7.21875" style="10" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" style="10" customWidth="1"/>
@@ -29031,7 +29208,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>182</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -29052,7 +29229,7 @@
       <c r="G1" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>6239</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -29075,19 +29252,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="31" t="s">
         <v>273</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -29096,7 +29273,7 @@
       <c r="G2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="28" t="s">
         <v>76</v>
       </c>
       <c r="L2" s="10" t="s">
@@ -29107,19 +29284,19 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>274</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>239</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -29128,7 +29305,7 @@
       <c r="G3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="28" t="s">
         <v>76</v>
       </c>
       <c r="L3" s="10" t="s">
@@ -29139,13 +29316,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="31" t="s">
         <v>367</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -29154,16 +29331,16 @@
       <c r="E4" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="3" t="s">
         <v>6274</v>
       </c>
       <c r="L4" s="10" t="s">
@@ -29174,13 +29351,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -29195,7 +29372,7 @@
       <c r="G5" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="28" t="s">
         <v>76</v>
       </c>
       <c r="K5" s="10" t="s">
@@ -29206,13 +29383,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -29227,10 +29404,10 @@
       <c r="G6" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="1" t="s">
         <v>368</v>
       </c>
       <c r="N6" s="10" t="s">
@@ -29238,13 +29415,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -29253,16 +29430,16 @@
       <c r="E7" s="13" t="s">
         <v>6261</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="1" t="s">
         <v>6267</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="1" t="s">
         <v>6262</v>
       </c>
       <c r="N7" s="10" t="s">
@@ -29270,13 +29447,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -29285,16 +29462,16 @@
       <c r="E8" s="13" t="s">
         <v>6259</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="1" t="s">
         <v>6268</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="1" t="s">
         <v>6260</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -29302,13 +29479,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -29317,16 +29494,16 @@
       <c r="E9" s="13" t="s">
         <v>6264</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="1" t="s">
         <v>6267</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="1" t="s">
         <v>6265</v>
       </c>
       <c r="N9" s="10" t="s">
@@ -29334,13 +29511,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -29349,16 +29526,16 @@
       <c r="E10" s="13" t="s">
         <v>6263</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="1" t="s">
         <v>6269</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="1" t="s">
         <v>6266</v>
       </c>
       <c r="N10" s="10" t="s">
@@ -29366,31 +29543,31 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>347</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>6216</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="31" t="s">
         <v>255</v>
       </c>
       <c r="L11" s="10" t="s">
@@ -29401,13 +29578,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -29422,7 +29599,7 @@
       <c r="G12" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="K12" s="10" t="s">
@@ -29433,13 +29610,13 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -29454,7 +29631,7 @@
       <c r="G13" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -29465,13 +29642,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>355</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -29480,16 +29657,16 @@
       <c r="E14" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="31" t="s">
         <v>256</v>
       </c>
       <c r="L14" s="10" t="s">
@@ -29500,13 +29677,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -29521,7 +29698,7 @@
       <c r="G15" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -29532,13 +29709,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -29553,7 +29730,7 @@
       <c r="G16" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="K16" s="10" t="s">
@@ -29564,13 +29741,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>363</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -29579,16 +29756,16 @@
       <c r="E17" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="31" t="s">
         <v>254</v>
       </c>
       <c r="L17" s="10" t="s">
@@ -29599,13 +29776,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -29620,7 +29797,7 @@
       <c r="G18" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="K18" s="10" t="s">
@@ -29631,13 +29808,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="31" t="s">
         <v>348</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -29652,7 +29829,7 @@
       <c r="G19" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="K19" s="10" t="s">
@@ -29663,19 +29840,19 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="17" t="s">
         <v>242</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -29684,7 +29861,7 @@
       <c r="G20" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L20" s="10" t="s">
@@ -29695,16 +29872,16 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -29716,13 +29893,13 @@
       <c r="G21" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="1" t="s">
         <v>6384</v>
       </c>
       <c r="L21" s="10" t="s">
@@ -29733,19 +29910,19 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>6247</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -29754,13 +29931,13 @@
       <c r="G22" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="1" t="s">
         <v>6258</v>
       </c>
       <c r="L22" s="10" t="s">
@@ -29771,34 +29948,34 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="1" t="s">
         <v>6268</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="26" t="s">
         <v>6383</v>
       </c>
       <c r="L23" s="10" t="s">
@@ -29809,28 +29986,28 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="1" t="s">
         <v>296</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="L24" s="10" t="s">
@@ -29841,13 +30018,13 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="10" t="s">
@@ -29862,13 +30039,13 @@
       <c r="G25" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="1" t="s">
         <v>6217</v>
       </c>
       <c r="L25" s="10" t="s">
@@ -29879,13 +30056,13 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -29900,13 +30077,13 @@
       <c r="G26" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="1" t="s">
         <v>6218</v>
       </c>
       <c r="L26" s="10" t="s">
@@ -29917,13 +30094,13 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D27" s="10" t="s">
@@ -29938,13 +30115,13 @@
       <c r="G27" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="1" t="s">
         <v>6219</v>
       </c>
       <c r="L27" s="10" t="s">
@@ -29955,13 +30132,13 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="3" t="s">
         <v>6227</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -29976,13 +30153,13 @@
       <c r="G28" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="K28" s="14"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="10" t="s">
         <v>193</v>
       </c>
@@ -29991,16 +30168,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="1" t="s">
         <v>6227</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -30012,10 +30189,10 @@
       <c r="G29" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="1" t="s">
         <v>6221</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -30023,16 +30200,16 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="1" t="s">
         <v>6227</v>
       </c>
       <c r="E30" s="13" t="s">
@@ -30044,10 +30221,10 @@
       <c r="G30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="1" t="s">
         <v>6222</v>
       </c>
       <c r="N30" s="10" t="s">
@@ -30055,16 +30232,16 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="1" t="s">
         <v>6227</v>
       </c>
       <c r="E31" s="13" t="s">
@@ -30076,10 +30253,10 @@
       <c r="G31" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="1" t="s">
         <v>6255</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -30087,16 +30264,16 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="1" t="s">
         <v>6227</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -30108,10 +30285,10 @@
       <c r="G32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="1" t="s">
         <v>6256</v>
       </c>
       <c r="N32" s="10" t="s">
@@ -30119,13 +30296,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -30140,16 +30317,16 @@
       <c r="G33" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="1" t="s">
         <v>6220</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="1" t="s">
         <v>6399</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -30157,73 +30334,73 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="15" t="s">
         <v>6396</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="1" t="s">
         <v>6252</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="3" t="s">
         <v>6397</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="1" t="s">
         <v>6398</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="15" t="s">
         <v>6400</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="1" t="s">
         <v>6401</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="3" t="s">
         <v>6278</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14" t="s">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
         <v>6277</v>
       </c>
       <c r="N35" s="10" t="s">
@@ -30231,28 +30408,28 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="31" t="s">
         <v>232</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="1" t="s">
         <v>6270</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="25" t="s">
         <v>6240</v>
       </c>
       <c r="L36" s="10" t="s">
@@ -30263,13 +30440,13 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -30284,13 +30461,13 @@
       <c r="G37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="K37" s="14" t="s">
+      <c r="K37" s="1" t="s">
         <v>6409</v>
       </c>
       <c r="L37" s="10" t="s">
@@ -30301,13 +30478,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -30322,13 +30499,13 @@
       <c r="G38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="3" t="s">
         <v>6403</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="1" t="s">
         <v>6494</v>
       </c>
       <c r="L38" s="10" t="s">
@@ -30339,13 +30516,13 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D39" s="10" t="s">
@@ -30360,13 +30537,13 @@
       <c r="G39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="3" t="s">
         <v>7239</v>
       </c>
-      <c r="K39" s="14" t="s">
+      <c r="K39" s="1" t="s">
         <v>7237</v>
       </c>
       <c r="L39" s="10" t="s">
@@ -30377,19 +30554,19 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="15" t="s">
         <v>6405</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -30398,16 +30575,16 @@
       <c r="G40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="3" t="s">
         <v>7240</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="1" t="s">
         <v>6495</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="1" t="s">
         <v>6406</v>
       </c>
       <c r="N40" s="10" t="s">
@@ -30415,13 +30592,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -30436,13 +30613,13 @@
       <c r="G41" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="3" t="s">
         <v>6449</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="1" t="s">
         <v>6496</v>
       </c>
       <c r="L41" s="10" t="s">
@@ -30453,19 +30630,19 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="15" t="s">
         <v>246</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -30474,13 +30651,13 @@
       <c r="G42" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="25" t="s">
         <v>6240</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="K42" s="14" t="s">
+      <c r="K42" s="1" t="s">
         <v>6410</v>
       </c>
       <c r="L42" s="10" t="s">
@@ -30491,71 +30668,71 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>7245</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="1" t="s">
         <v>7242</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="3" t="s">
         <v>7243</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="1" t="s">
         <v>7241</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="L43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="1" t="s">
         <v>7244</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="3" t="s">
         <v>7222</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="16" t="s">
         <v>7223</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="1" t="s">
         <v>7227</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14" t="s">
+      <c r="I44" s="3"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
         <v>7236</v>
       </c>
       <c r="N44" s="10" t="s">
@@ -30563,34 +30740,34 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="3" t="s">
         <v>7222</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="15" t="s">
         <v>7224</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="1" t="s">
         <v>7228</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="3" t="s">
         <v>7231</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="1" t="s">
         <v>7234</v>
       </c>
       <c r="N45" s="10" t="s">
@@ -30598,34 +30775,34 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="3" t="s">
         <v>7222</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="E46" s="15" t="s">
         <v>7225</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="1" t="s">
         <v>7229</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="3" t="s">
         <v>7232</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="1" t="s">
         <v>7234</v>
       </c>
       <c r="N46" s="10" t="s">
@@ -30633,34 +30810,34 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="3" t="s">
         <v>7222</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="15" t="s">
         <v>7226</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="1" t="s">
         <v>7230</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="3" t="s">
         <v>7233</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="1" t="s">
         <v>7235</v>
       </c>
       <c r="N47" s="10" t="s">
@@ -30668,28 +30845,28 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="31" t="s">
         <v>234</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="1" t="s">
         <v>6271</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="24" t="s">
         <v>6241</v>
       </c>
       <c r="L48" s="10" t="s">
@@ -30700,13 +30877,13 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -30721,13 +30898,13 @@
       <c r="G49" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="1" t="s">
         <v>6272</v>
       </c>
       <c r="L49" s="10" t="s">
@@ -30738,19 +30915,19 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="31" t="s">
         <v>235</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>216</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -30759,7 +30936,7 @@
       <c r="G50" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="24" t="s">
         <v>6241</v>
       </c>
       <c r="L50" s="10" t="s">
@@ -30770,19 +30947,19 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="30" t="s">
         <v>6476</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -30791,10 +30968,10 @@
       <c r="G51" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="3" t="s">
         <v>6474</v>
       </c>
       <c r="K51" s="10" t="s">
@@ -30805,19 +30982,19 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="30" t="s">
         <v>6477</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -30826,10 +31003,10 @@
       <c r="G52" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="3" t="s">
         <v>6475</v>
       </c>
       <c r="K52" s="10" t="s">
@@ -30840,19 +31017,19 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="31" t="s">
         <v>237</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>286</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -30861,7 +31038,7 @@
       <c r="G53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="24" t="s">
         <v>6241</v>
       </c>
       <c r="N53" s="10" t="s">
@@ -30869,19 +31046,19 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E54" s="19" t="s">
         <v>217</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -30890,10 +31067,10 @@
       <c r="G54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="3" t="s">
         <v>7212</v>
       </c>
       <c r="N54" s="10" t="s">
@@ -30901,19 +31078,19 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="19" t="s">
         <v>218</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -30922,10 +31099,10 @@
       <c r="G55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="3" t="s">
         <v>7213</v>
       </c>
       <c r="N55" s="10" t="s">
@@ -30933,19 +31110,19 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="31" t="s">
         <v>236</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="18" t="s">
         <v>285</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -30954,7 +31131,7 @@
       <c r="G56" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="24" t="s">
         <v>6241</v>
       </c>
       <c r="N56" s="10" t="s">
@@ -30962,19 +31139,19 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="19" t="s">
         <v>287</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -30983,10 +31160,10 @@
       <c r="G57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="3" t="s">
         <v>7214</v>
       </c>
       <c r="N57" s="10" t="s">
@@ -30994,19 +31171,19 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="21" t="s">
+      <c r="E58" s="19" t="s">
         <v>288</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -31015,10 +31192,10 @@
       <c r="G58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="3" t="s">
         <v>7215</v>
       </c>
       <c r="N58" s="10" t="s">
@@ -31026,19 +31203,19 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="31" t="s">
         <v>230</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="19" t="s">
         <v>289</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -31047,10 +31224,10 @@
       <c r="G59" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="3" t="s">
         <v>7216</v>
       </c>
       <c r="N59" s="10" t="s">
@@ -31058,19 +31235,19 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="31" t="s">
         <v>291</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="18" t="s">
         <v>297</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -31079,7 +31256,7 @@
       <c r="G60" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="24" t="s">
         <v>6241</v>
       </c>
       <c r="N60" s="10" t="s">
@@ -31087,19 +31264,19 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="19" t="s">
         <v>290</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -31108,10 +31285,10 @@
       <c r="G61" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="24" t="s">
         <v>6241</v>
       </c>
-      <c r="I61" s="34" t="s">
+      <c r="I61" s="31" t="s">
         <v>314</v>
       </c>
       <c r="N61" s="10" t="s">
@@ -31119,28 +31296,28 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="3" t="s">
         <v>6466</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="17" t="s">
         <v>6459</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F62" s="1" t="s">
         <v>6461</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="24" t="s">
         <v>219</v>
       </c>
       <c r="L62" s="10" t="s">
@@ -31151,19 +31328,19 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="1" t="s">
         <v>6466</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="15" t="s">
         <v>6460</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -31172,13 +31349,13 @@
       <c r="G63" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I63" s="32" t="s">
+      <c r="I63" s="29" t="s">
         <v>6462</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="1" t="s">
         <v>7210</v>
       </c>
       <c r="N63" s="10" t="s">
@@ -31186,19 +31363,19 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="1" t="s">
         <v>6466</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="15" t="s">
         <v>6463</v>
       </c>
       <c r="F64" s="10" t="s">
@@ -31207,10 +31384,10 @@
       <c r="G64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I64" s="32" t="s">
+      <c r="I64" s="29" t="s">
         <v>6464</v>
       </c>
       <c r="J64" s="10" t="s">
@@ -31221,19 +31398,19 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="1" t="s">
         <v>6466</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="15" t="s">
         <v>6484</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -31242,10 +31419,10 @@
       <c r="G65" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="29" t="s">
         <v>6483</v>
       </c>
       <c r="J65" s="10" t="s">
@@ -31256,37 +31433,201 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="1" t="s">
         <v>6466</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="15" t="s">
         <v>6481</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="1" t="s">
         <v>6148</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="I66" s="32" t="s">
+      <c r="I66" s="29" t="s">
         <v>6465</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>7211</v>
       </c>
       <c r="N66" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>7257</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>7258</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>7259</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7261</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>7257</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>7260</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>7263</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>7262</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>7261</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>7264</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>7261</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>7265</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>7261</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>6203</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>6268</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>7266</v>
+      </c>
+      <c r="N71" s="10" t="s">
         <v>74</v>
       </c>
     </row>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562CE9F9-00E9-496E-B499-20C05F4C13AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507B4A3-5C71-4BC5-B120-48F71129CE39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18686" uniqueCount="7267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18686" uniqueCount="7268">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23364,6 +23364,10 @@
   </si>
   <si>
     <t>msg:msgInner:auth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-screen-desktop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29185,7 +29189,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -31492,8 +31496,8 @@
       <c r="H67" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>188</v>
+      <c r="L67" s="1" t="s">
+        <v>7267</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>74</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507B4A3-5C71-4BC5-B120-48F71129CE39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD081CC-7265-4E85-A5D1-B9759E9D8831}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="648" windowWidth="19476" windowHeight="10380" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18686" uniqueCount="7268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18691" uniqueCount="7272">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23368,6 +23368,76 @@
   </si>
   <si>
     <t>icon-screen-desktop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilemanager</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共文件柜、个人文件柜、文件分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.jeesite.modules.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filemanager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.web.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filemanager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Controller</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23546,7 +23616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23646,6 +23716,9 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -25639,18 +25712,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.21875" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="48.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="60.109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.21875" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
@@ -25704,6 +25777,23 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>7268</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>7270</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>7271</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7256</v>
       </c>
     </row>
   </sheetData>
@@ -29187,7 +29277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD081CC-7265-4E85-A5D1-B9759E9D8831}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99729CD8-A7FC-4209-8EA3-7C86ADBA9D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="648" windowWidth="19476" windowHeight="10380" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="1776" windowWidth="18816" windowHeight="8976" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$3257</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18691" uniqueCount="7272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18751" uniqueCount="7286">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22874,9 +22874,6 @@
     <t>路凼填海区</t>
   </si>
   <si>
-    <t>圣方济各堂区</t>
-  </si>
-  <si>
     <t>北京市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23254,10 +23251,6 @@
   </si>
   <si>
     <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23438,6 +23431,70 @@
       </rPr>
       <t>Controller</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemanager/filemanagerShared/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/filemanager/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__id__filemgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filemanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filemanager_group_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共文件柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人文件柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门文件柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣方济各堂区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23616,7 +23673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23719,6 +23776,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24129,10 +24198,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7251</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7252</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7253</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -24141,7 +24210,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24214,7 +24283,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
@@ -24470,10 +24539,10 @@
       <c r="B3" s="1" t="s">
         <v>6287</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="37" t="s">
         <v>6284</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="37" t="s">
         <v>6285</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -24488,10 +24557,10 @@
       <c r="B4" s="1" t="s">
         <v>6290</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="37" t="s">
         <v>6291</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="37" t="s">
         <v>6292</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -25716,7 +25785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25759,7 +25828,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7256</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25781,19 +25850,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>7266</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>7267</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>7268</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>7269</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>7270</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>7271</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>7256</v>
+        <v>7285</v>
       </c>
     </row>
   </sheetData>
@@ -25805,11 +25874,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26161,6 +26230,17 @@
         <v>74</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7276</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7277</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C27">
     <sortCondition ref="A6"/>
@@ -26173,11 +26253,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E106" sqref="E106"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26206,7 +26286,7 @@
         <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -26227,7 +26307,7 @@
         <v>91</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -26571,10 +26651,10 @@
         <v>6393</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>7216</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>7217</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7218</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6250</v>
@@ -27522,7 +27602,7 @@
         <v>6137</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>74</v>
@@ -27548,7 +27628,7 @@
         <v>6137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>88</v>
@@ -27574,7 +27654,7 @@
         <v>6137</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>126</v>
@@ -27600,7 +27680,7 @@
         <v>6137</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>327</v>
@@ -27626,7 +27706,7 @@
         <v>6137</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>328</v>
@@ -28649,7 +28729,7 @@
         <v>6181</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>77</v>
@@ -29007,7 +29087,7 @@
         <v>6210</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>77</v>
@@ -29263,6 +29343,87 @@
         <v>55</v>
       </c>
       <c r="K115" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7276</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>7281</v>
+      </c>
+      <c r="E116" s="34" t="s">
+        <v>7278</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>7277</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7276</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>7282</v>
+      </c>
+      <c r="E117" s="34" t="s">
+        <v>7279</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>7276</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>7283</v>
+      </c>
+      <c r="E118" s="34" t="s">
+        <v>7280</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -29275,11 +29436,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29315,7 +29476,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -29327,7 +29488,7 @@
         <v>6239</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>278</v>
@@ -30635,10 +30796,10 @@
         <v>6241</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>210</v>
@@ -30673,7 +30834,7 @@
         <v>219</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>6495</v>
@@ -30775,10 +30936,10 @@
         <v>232</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>74</v>
@@ -30787,16 +30948,16 @@
         <v>219</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -30807,16 +30968,16 @@
         <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>273</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>74</v>
@@ -30827,7 +30988,7 @@
       <c r="I44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>74</v>
@@ -30844,13 +31005,13 @@
         <v>79</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>74</v>
@@ -30859,10 +31020,10 @@
         <v>83</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>74</v>
@@ -30879,13 +31040,13 @@
         <v>79</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>74</v>
@@ -30894,10 +31055,10 @@
         <v>83</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>74</v>
@@ -30914,13 +31075,13 @@
         <v>79</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>74</v>
@@ -30929,10 +31090,10 @@
         <v>83</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>74</v>
@@ -31165,7 +31326,7 @@
         <v>6241</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>74</v>
@@ -31197,7 +31358,7 @@
         <v>6241</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>74</v>
@@ -31258,7 +31419,7 @@
         <v>6241</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>74</v>
@@ -31290,7 +31451,7 @@
         <v>6241</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>74</v>
@@ -31322,7 +31483,7 @@
         <v>6241</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>74</v>
@@ -31450,7 +31611,7 @@
         <v>6462</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>74</v>
@@ -31485,7 +31646,7 @@
         <v>6464</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>74</v>
@@ -31520,7 +31681,7 @@
         <v>6483</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>74</v>
@@ -31555,7 +31716,7 @@
         <v>6465</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>74</v>
@@ -31569,16 +31730,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7257</v>
+        <v>7255</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>7258</v>
+        <v>7256</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>7259</v>
+        <v>7257</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>74</v>
@@ -31587,7 +31748,7 @@
         <v>76</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>7267</v>
+        <v>7265</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>74</v>
@@ -31601,13 +31762,13 @@
         <v>26</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>7257</v>
+        <v>7255</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>7260</v>
+        <v>7258</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>222</v>
@@ -31619,11 +31780,11 @@
         <v>76</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>7263</v>
+        <v>7261</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>7262</v>
+        <v>7260</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>74</v>
@@ -31640,7 +31801,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>344</v>
@@ -31655,7 +31816,7 @@
         <v>76</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>7264</v>
+        <v>7262</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>74</v>
@@ -31672,7 +31833,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>350</v>
@@ -31687,7 +31848,7 @@
         <v>76</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>7265</v>
+        <v>7263</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>74</v>
@@ -31704,7 +31865,7 @@
         <v>79</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>7261</v>
+        <v>7259</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>6203</v>
@@ -31719,9 +31880,111 @@
         <v>76</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>7266</v>
+        <v>7264</v>
       </c>
       <c r="N71" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>7273</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>7255</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>7267</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>6461</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L72" s="34" t="s">
+        <v>7275</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>7273</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>7267</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="35" t="s">
+        <v>7271</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>7274</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>7273</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>7272</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>7270</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>7274</v>
+      </c>
+      <c r="N74" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -31973,8 +32236,8 @@
   <dimension ref="A1:E3257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2251" sqref="B2251"/>
+      <pane ySplit="1" topLeftCell="A3236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3257" sqref="D3257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -32013,7 +32276,7 @@
         <v>3200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -87348,7 +87611,7 @@
         <v>6823</v>
       </c>
       <c r="D3257" s="1" t="s">
-        <v>7207</v>
+        <v>7284</v>
       </c>
       <c r="E3257" s="1" t="s">
         <v>3204</v>
@@ -87371,14 +87634,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="36" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
@@ -87433,10 +87696,10 @@
       <c r="B3" s="1" t="s">
         <v>6287</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="37" t="s">
         <v>6284</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="37" t="s">
         <v>6285</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -87453,10 +87716,10 @@
       <c r="B4" s="1" t="s">
         <v>6288</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="38" t="s">
         <v>6295</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="38" t="s">
         <v>6301</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -87473,10 +87736,10 @@
       <c r="B5" s="1" t="s">
         <v>6288</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="38" t="s">
         <v>6296</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="38" t="s">
         <v>6302</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -87493,10 +87756,10 @@
       <c r="B6" s="1" t="s">
         <v>6288</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="15" t="s">
         <v>6297</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="38" t="s">
         <v>6303</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -87513,10 +87776,10 @@
       <c r="B7" s="1" t="s">
         <v>6290</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="37" t="s">
         <v>6291</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="37" t="s">
         <v>6292</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -87533,10 +87796,10 @@
       <c r="B8" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="38" t="s">
         <v>6295</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="38" t="s">
         <v>6326</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -87553,10 +87816,10 @@
       <c r="B9" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="38" t="s">
         <v>6296</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="38" t="s">
         <v>6327</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -87573,10 +87836,10 @@
       <c r="B10" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="15" t="s">
         <v>6297</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="38" t="s">
         <v>6328</v>
       </c>
       <c r="E10" s="1" t="s">

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99729CD8-A7FC-4209-8EA3-7C86ADBA9D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884B53E4-DC89-4668-A0FE-F8A69F976E65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2112" yWindow="1776" windowWidth="18816" windowHeight="8976" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18751" uniqueCount="7286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18751" uniqueCount="7287">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23495,6 +23495,10 @@
   </si>
   <si>
     <t>4.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-directions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25783,7 +25787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -26255,9 +26259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -27380,7 +27384,7 @@
         <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -27406,7 +27410,7 @@
         <v>55</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -27432,7 +27436,7 @@
         <v>55</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -27458,7 +27462,7 @@
         <v>55</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -29440,7 +29444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
+      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -31575,8 +31579,8 @@
       <c r="H62" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="L62" s="10" t="s">
-        <v>204</v>
+      <c r="L62" s="34" t="s">
+        <v>7286</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>74</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884B53E4-DC89-4668-A0FE-F8A69F976E65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8126E-F8CF-4475-B889-8E0C30B42C9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$3257</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18751" uniqueCount="7287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18759" uniqueCount="7289">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22984,10 +22984,6 @@
       </rPr>
       <t>m/tableForm</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23499,6 +23495,18 @@
   </si>
   <si>
     <t>icon-directions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja_JP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24202,10 +24210,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7250</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7251</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7252</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -24214,7 +24222,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24287,7 +24295,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
@@ -25832,7 +25840,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7285</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25854,19 +25862,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>7265</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>7266</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>7267</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>7268</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>7269</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>7285</v>
+        <v>7284</v>
       </c>
     </row>
   </sheetData>
@@ -26236,10 +26244,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>7275</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>7276</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7277</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>74</v>
@@ -26257,11 +26265,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26290,7 +26298,7 @@
         <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -26311,7 +26319,7 @@
         <v>91</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -26655,10 +26663,10 @@
         <v>6393</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>7288</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>7216</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7217</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6250</v>
@@ -26677,20 +26685,20 @@
       <c r="B15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
+      <c r="C15" s="1" t="s">
+        <v>6393</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7287</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7286</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>77</v>
@@ -26707,13 +26715,13 @@
         <v>135</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>74</v>
@@ -26733,16 +26741,16 @@
         <v>135</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6268</v>
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>77</v>
@@ -26759,16 +26767,16 @@
         <v>135</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6148</v>
+        <v>6268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>77</v>
@@ -26782,19 +26790,19 @@
         <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>135</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>133</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>77</v>
@@ -26808,19 +26816,19 @@
         <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>77</v>
@@ -26837,19 +26845,16 @@
         <v>98</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>6257</v>
+        <v>89</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>77</v>
@@ -26862,20 +26867,23 @@
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6245</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6246</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6249</v>
+      <c r="C22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6257</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>77</v>
@@ -26892,13 +26900,13 @@
         <v>6245</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6247</v>
+        <v>6246</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6250</v>
+        <v>6249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>74</v>
@@ -26918,13 +26926,13 @@
         <v>6245</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>7</v>
+        <v>6247</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>74</v>
@@ -26944,19 +26952,16 @@
         <v>6245</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6248</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6252</v>
+        <v>6251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>6257</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>77</v>
@@ -26967,22 +26972,25 @@
         <v>79</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6245</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6248</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6252</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6257</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>77</v>
@@ -26999,13 +27007,13 @@
         <v>104</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>74</v>
@@ -27025,16 +27033,16 @@
         <v>104</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>77</v>
@@ -27051,16 +27059,16 @@
         <v>104</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>77</v>
@@ -27071,22 +27079,22 @@
         <v>79</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>77</v>
@@ -27103,13 +27111,13 @@
         <v>102</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>74</v>
@@ -27128,17 +27136,17 @@
       <c r="C32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6198</v>
+      <c r="D32" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>77</v>
@@ -27152,16 +27160,16 @@
         <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>141</v>
+        <v>102</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6198</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>55</v>
@@ -27178,22 +27186,19 @@
         <v>56</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>77</v>
@@ -27207,19 +27212,22 @@
         <v>56</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>77</v>
@@ -27236,13 +27244,13 @@
         <v>114</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>55</v>
@@ -27259,16 +27267,16 @@
         <v>56</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>55</v>
@@ -27285,22 +27293,19 @@
         <v>56</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>77</v>
@@ -27317,19 +27322,19 @@
         <v>100</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>250</v>
+      <c r="I39" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>77</v>
@@ -27343,19 +27348,22 @@
         <v>56</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6231</v>
+        <v>147</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>77</v>
@@ -27372,19 +27380,19 @@
         <v>97</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -27398,13 +27406,13 @@
         <v>97</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>6233</v>
+        <v>6232</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>55</v>
@@ -27424,13 +27432,13 @@
         <v>97</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>55</v>
@@ -27450,13 +27458,13 @@
         <v>97</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>6235</v>
+        <v>6234</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>55</v>
@@ -27472,23 +27480,23 @@
       <c r="B45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>6139</v>
+      <c r="C45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>6144</v>
+        <v>6235</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -27502,13 +27510,13 @@
         <v>6134</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>55</v>
@@ -27528,13 +27536,13 @@
         <v>6134</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>55</v>
@@ -27554,13 +27562,13 @@
         <v>6134</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>6147</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>6148</v>
+        <v>6146</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>55</v>
@@ -27577,16 +27585,16 @@
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6137</v>
+        <v>6134</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>75</v>
+        <v>6147</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>55</v>
@@ -27606,13 +27614,13 @@
         <v>6137</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7245</v>
+        <v>6143</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>55</v>
@@ -27632,13 +27640,13 @@
         <v>6137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7246</v>
+        <v>7244</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>55</v>
@@ -27658,13 +27666,13 @@
         <v>6137</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7249</v>
+        <v>7245</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>55</v>
@@ -27687,10 +27695,10 @@
         <v>7248</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>55</v>
@@ -27713,10 +27721,10 @@
         <v>7247</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>55</v>
@@ -27733,16 +27741,16 @@
         <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6155</v>
+        <v>6137</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6139</v>
+        <v>7246</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>75</v>
+        <v>328</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>55</v>
@@ -27762,13 +27770,13 @@
         <v>6155</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6145</v>
+        <v>74</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>55</v>
@@ -27788,13 +27796,13 @@
         <v>6155</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>55</v>
@@ -27814,13 +27822,13 @@
         <v>6155</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6147</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>6148</v>
+        <v>6146</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>55</v>
@@ -27837,16 +27845,16 @@
         <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6160</v>
+        <v>6155</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6159</v>
+        <v>6142</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6467</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>75</v>
+        <v>6147</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>55</v>
@@ -27866,13 +27874,13 @@
         <v>6160</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6471</v>
+        <v>6159</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>55</v>
@@ -27892,16 +27900,16 @@
         <v>6160</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6472</v>
+        <v>6471</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6469</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6268</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>74</v>
+        <v>6468</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>77</v>
@@ -27918,13 +27926,13 @@
         <v>6160</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6473</v>
+        <v>6472</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>6148</v>
+        <v>6268</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>74</v>
@@ -27941,19 +27949,19 @@
         <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6152</v>
+        <v>6160</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6153</v>
+        <v>6473</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6457</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>55</v>
+        <v>6470</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6148</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>77</v>
@@ -27970,13 +27978,13 @@
         <v>6152</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6154</v>
+        <v>6153</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>55</v>
@@ -27993,16 +28001,16 @@
         <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6149</v>
+        <v>6152</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6150</v>
+        <v>6154</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6144</v>
+        <v>6458</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>55</v>
@@ -28022,13 +28030,13 @@
         <v>6149</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>55</v>
@@ -28045,16 +28053,16 @@
         <v>56</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6450</v>
+        <v>6149</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>141</v>
+        <v>6151</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>77</v>
+        <v>6145</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>55</v>
@@ -28074,13 +28082,13 @@
         <v>6450</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>55</v>
@@ -28100,19 +28108,16 @@
         <v>6450</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>6452</v>
+        <v>317</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>77</v>
@@ -28129,16 +28134,19 @@
         <v>6450</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>6453</v>
+        <v>6452</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>77</v>
@@ -28155,19 +28163,16 @@
         <v>6450</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>6455</v>
+        <v>6453</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>77</v>
@@ -28184,16 +28189,19 @@
         <v>6450</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>6454</v>
+        <v>6455</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>6268</v>
+        <v>327</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>77</v>
@@ -28207,16 +28215,16 @@
         <v>56</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6411</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>6418</v>
+        <v>6450</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>6454</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>6415</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>75</v>
+        <v>328</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6268</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>55</v>
@@ -28235,14 +28243,14 @@
       <c r="C74" s="1" t="s">
         <v>6411</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>6419</v>
+      <c r="D74" s="1" t="s">
+        <v>6418</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>6416</v>
+        <v>6415</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>55</v>
@@ -28262,13 +28270,13 @@
         <v>6411</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>6417</v>
+        <v>6416</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>55</v>
@@ -28285,16 +28293,16 @@
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6426</v>
+        <v>6420</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>6421</v>
+        <v>6417</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>55</v>
@@ -28314,13 +28322,13 @@
         <v>6412</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>55</v>
@@ -28340,13 +28348,13 @@
         <v>6412</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>6428</v>
+        <v>6427</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>55</v>
@@ -28366,13 +28374,13 @@
         <v>6412</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>6424</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>6148</v>
+        <v>6423</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>55</v>
@@ -28392,13 +28400,13 @@
         <v>6412</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>6180</v>
+        <v>6148</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>55</v>
@@ -28418,13 +28426,13 @@
         <v>6412</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6434</v>
+        <v>6430</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>6431</v>
+        <v>6425</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>6252</v>
+        <v>6180</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>55</v>
@@ -28443,14 +28451,14 @@
       <c r="C82" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>6456</v>
+      <c r="D82" s="3" t="s">
+        <v>6434</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>6444</v>
+        <v>6252</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
@@ -28469,14 +28477,14 @@
       <c r="C83" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>6435</v>
+      <c r="D83" s="1" t="s">
+        <v>6456</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>6444</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>55</v>
@@ -28496,13 +28504,13 @@
         <v>6412</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>6440</v>
+        <v>6435</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>6436</v>
+        <v>6433</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>6445</v>
+        <v>220</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
@@ -28522,13 +28530,13 @@
         <v>6412</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
@@ -28548,13 +28556,13 @@
         <v>6412</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>6447</v>
+        <v>6446</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
@@ -28574,13 +28582,13 @@
         <v>6412</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>6448</v>
+        <v>6447</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
@@ -28597,22 +28605,19 @@
         <v>56</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6163</v>
+        <v>6412</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6165</v>
+        <v>6443</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>75</v>
+        <v>6439</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>6448</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>6172</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>77</v>
@@ -28629,16 +28634,19 @@
         <v>6163</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6168</v>
+        <v>6165</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>6236</v>
+        <v>131</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>6172</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>77</v>
@@ -28655,13 +28663,13 @@
         <v>6163</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>6164</v>
+        <v>6168</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>55</v>
@@ -28681,13 +28689,13 @@
         <v>6163</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>6238</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>6148</v>
+        <v>6237</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>55</v>
@@ -28707,13 +28715,13 @@
         <v>6163</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>133</v>
+        <v>6238</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>6180</v>
+        <v>6148</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>55</v>
@@ -28730,22 +28738,19 @@
         <v>56</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6181</v>
+        <v>6163</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>7208</v>
+        <v>6167</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>6480</v>
+        <v>6180</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>77</v>
@@ -28762,18 +28767,20 @@
         <v>6181</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6183</v>
+        <v>7208</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>6162</v>
+        <v>77</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>6185</v>
+        <v>75</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>6162</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>6480</v>
+      </c>
       <c r="K94" s="1" t="s">
         <v>77</v>
       </c>
@@ -28789,20 +28796,18 @@
         <v>6181</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6184</v>
+        <v>6183</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>6186</v>
+        <v>6185</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>6479</v>
-      </c>
+      <c r="H95" s="1"/>
       <c r="K95" s="1" t="s">
         <v>77</v>
       </c>
@@ -28815,22 +28820,22 @@
         <v>56</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6169</v>
+        <v>6181</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>6174</v>
+        <v>6184</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>6175</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>6173</v>
+        <v>6176</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>6186</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>6162</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>77</v>
@@ -28847,18 +28852,20 @@
         <v>6169</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>6170</v>
+        <v>6174</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>6162</v>
+        <v>6175</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>6173</v>
+      </c>
       <c r="K97" s="1" t="s">
         <v>77</v>
       </c>
@@ -28874,17 +28881,18 @@
         <v>6169</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>6171</v>
+        <v>6170</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H98" s="1"/>
       <c r="K98" s="1" t="s">
         <v>77</v>
       </c>
@@ -28897,22 +28905,19 @@
         <v>56</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>6208</v>
+        <v>6169</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>6188</v>
+        <v>6171</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>6162</v>
+        <v>6176</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>6187</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>77</v>
@@ -28929,16 +28934,19 @@
         <v>6208</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6189</v>
+        <v>6188</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>6187</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>77</v>
@@ -28955,19 +28963,16 @@
         <v>6208</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6190</v>
+        <v>6189</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>77</v>
@@ -28981,22 +28986,22 @@
         <v>56</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6209</v>
+        <v>6208</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>6191</v>
+        <v>6190</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>6162</v>
+        <v>6177</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>6195</v>
+      <c r="I102" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>77</v>
@@ -29013,16 +29018,19 @@
         <v>6209</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>6192</v>
+        <v>6191</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>6195</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>77</v>
@@ -29039,13 +29047,13 @@
         <v>6209</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>6193</v>
+        <v>6192</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>55</v>
@@ -29065,13 +29073,13 @@
         <v>6209</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>6194</v>
+        <v>6193</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>6178</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>6214</v>
+        <v>6177</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>55</v>
@@ -29088,22 +29096,19 @@
         <v>56</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>7254</v>
+        <v>6194</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>75</v>
+        <v>6178</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>6214</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>6196</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>77</v>
@@ -29120,10 +29125,10 @@
         <v>6210</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>6197</v>
+        <v>7253</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>6162</v>
+        <v>77</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>75</v>
@@ -29131,7 +29136,9 @@
       <c r="G107" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>6196</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>77</v>
       </c>
@@ -29147,17 +29154,18 @@
         <v>6210</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>6198</v>
+        <v>6197</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H108" s="1"/>
       <c r="K108" s="1" t="s">
         <v>77</v>
       </c>
@@ -29173,13 +29181,13 @@
         <v>6210</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>6199</v>
+        <v>6198</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>55</v>
@@ -29199,13 +29207,13 @@
         <v>6210</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>6200</v>
+        <v>6199</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>6178</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>6214</v>
+        <v>6177</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>55</v>
@@ -29222,22 +29230,19 @@
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6211</v>
+        <v>6210</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>6201</v>
+        <v>6200</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>6175</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>75</v>
+        <v>6178</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>6214</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>6207</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>77</v>
@@ -29254,16 +29259,19 @@
         <v>6211</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6202</v>
+        <v>6201</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>6162</v>
+        <v>6175</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>6207</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>77</v>
@@ -29280,13 +29288,13 @@
         <v>6211</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>6178</v>
+        <v>6162</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>55</v>
@@ -29296,7 +29304,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -29306,26 +29314,23 @@
         <v>6211</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>6179</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>6214</v>
+        <v>6178</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>6479</v>
-      </c>
       <c r="K114" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -29335,16 +29340,19 @@
         <v>6211</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>6206</v>
+        <v>6179</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>6215</v>
+        <v>6214</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>77</v>
@@ -29358,76 +29366,102 @@
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7276</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>7281</v>
-      </c>
-      <c r="E116" s="34" t="s">
-        <v>7278</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>75</v>
+        <v>6211</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>6205</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6206</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>6215</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>7277</v>
-      </c>
       <c r="K116" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>7276</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>7282</v>
+        <v>7275</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>7280</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>7279</v>
+        <v>7277</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H117" s="1" t="s">
+        <v>7276</v>
+      </c>
       <c r="K117" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>7276</v>
+        <v>7275</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>7283</v>
+        <v>7281</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>7280</v>
+        <v>7278</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K118" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7275</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>7282</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>7279</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -29443,7 +29477,7 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -29480,7 +29514,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -29492,7 +29526,7 @@
         <v>6239</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>278</v>
@@ -30800,10 +30834,10 @@
         <v>6241</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>210</v>
@@ -30838,7 +30872,7 @@
         <v>219</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>6495</v>
@@ -30940,10 +30974,10 @@
         <v>232</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>74</v>
@@ -30952,16 +30986,16 @@
         <v>219</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -30972,16 +31006,16 @@
         <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>273</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>74</v>
@@ -30992,7 +31026,7 @@
       <c r="I44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>74</v>
@@ -31009,13 +31043,13 @@
         <v>79</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>74</v>
@@ -31024,10 +31058,10 @@
         <v>83</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>74</v>
@@ -31044,13 +31078,13 @@
         <v>79</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>74</v>
@@ -31059,10 +31093,10 @@
         <v>83</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>74</v>
@@ -31079,13 +31113,13 @@
         <v>79</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>74</v>
@@ -31094,10 +31128,10 @@
         <v>83</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>74</v>
@@ -31580,7 +31614,7 @@
         <v>219</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>7286</v>
+        <v>7285</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>74</v>
@@ -31734,16 +31768,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E67" s="20" t="s">
+        <v>7255</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>7256</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>7257</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>74</v>
@@ -31752,7 +31786,7 @@
         <v>76</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>74</v>
@@ -31766,13 +31800,13 @@
         <v>26</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>222</v>
@@ -31784,11 +31818,11 @@
         <v>76</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>74</v>
@@ -31805,7 +31839,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>344</v>
@@ -31820,7 +31854,7 @@
         <v>76</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>74</v>
@@ -31837,7 +31871,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>350</v>
@@ -31852,7 +31886,7 @@
         <v>76</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>74</v>
@@ -31869,7 +31903,7 @@
         <v>79</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>6203</v>
@@ -31884,7 +31918,7 @@
         <v>76</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>74</v>
@@ -31898,13 +31932,13 @@
         <v>26</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>7267</v>
+        <v>7266</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>6461</v>
@@ -31916,7 +31950,7 @@
         <v>76</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>74</v>
@@ -31933,10 +31967,10 @@
         <v>79</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>7267</v>
+        <v>7266</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>75</v>
@@ -31948,10 +31982,10 @@
         <v>76</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>7274</v>
+        <v>7273</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>74</v>
@@ -31968,10 +32002,10 @@
         <v>79</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>82</v>
@@ -31983,10 +32017,10 @@
         <v>76</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>7274</v>
+        <v>7273</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>74</v>
@@ -87615,7 +87649,7 @@
         <v>6823</v>
       </c>
       <c r="D3257" s="1" t="s">
-        <v>7284</v>
+        <v>7283</v>
       </c>
       <c r="E3257" s="1" t="s">
         <v>3204</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884B53E4-DC89-4668-A0FE-F8A69F976E65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2B4461-3DFC-4B0E-871C-2C0205E0EDA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$3257</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18751" uniqueCount="7287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18759" uniqueCount="7289">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23499,6 +23499,14 @@
   </si>
   <si>
     <t>icon-directions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja_JP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -26257,11 +26265,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26677,20 +26685,20 @@
       <c r="B15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>75</v>
+      <c r="C15" s="1" t="s">
+        <v>6393</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7287</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7288</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>77</v>
@@ -26707,13 +26715,13 @@
         <v>135</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>74</v>
@@ -26733,16 +26741,16 @@
         <v>135</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6268</v>
+        <v>132</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>77</v>
@@ -26759,16 +26767,16 @@
         <v>135</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6148</v>
+        <v>6268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>77</v>
@@ -26782,19 +26790,19 @@
         <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
+        <v>135</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>133</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>77</v>
@@ -26808,19 +26816,19 @@
         <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>77</v>
@@ -26837,19 +26845,16 @@
         <v>98</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>6257</v>
+        <v>89</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>77</v>
@@ -26862,20 +26867,23 @@
       <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6245</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6246</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6249</v>
+      <c r="C22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>6257</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>77</v>
@@ -26892,13 +26900,13 @@
         <v>6245</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6247</v>
+        <v>6246</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6250</v>
+        <v>6249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>74</v>
@@ -26918,13 +26926,13 @@
         <v>6245</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>7</v>
+        <v>6247</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6251</v>
+        <v>6250</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>74</v>
@@ -26944,19 +26952,16 @@
         <v>6245</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>6248</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6252</v>
+        <v>6251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>6257</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>77</v>
@@ -26967,22 +26972,25 @@
         <v>79</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6245</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6248</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>6252</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>6257</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>77</v>
@@ -26999,13 +27007,13 @@
         <v>104</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>74</v>
@@ -27025,16 +27033,16 @@
         <v>104</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>77</v>
@@ -27051,16 +27059,16 @@
         <v>104</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>77</v>
@@ -27071,22 +27079,22 @@
         <v>79</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>77</v>
@@ -27103,13 +27111,13 @@
         <v>102</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>74</v>
@@ -27128,17 +27136,17 @@
       <c r="C32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6198</v>
+      <c r="D32" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>77</v>
@@ -27152,16 +27160,16 @@
         <v>56</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>141</v>
+        <v>102</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6198</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>55</v>
@@ -27178,22 +27186,19 @@
         <v>56</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>77</v>
@@ -27207,19 +27212,22 @@
         <v>56</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>77</v>
@@ -27236,13 +27244,13 @@
         <v>114</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>55</v>
@@ -27259,16 +27267,16 @@
         <v>56</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>55</v>
@@ -27285,22 +27293,19 @@
         <v>56</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>100</v>
+        <v>337</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>77</v>
@@ -27317,19 +27322,19 @@
         <v>100</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>250</v>
+      <c r="I39" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>77</v>
@@ -27343,19 +27348,22 @@
         <v>56</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>6231</v>
+        <v>147</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>77</v>
@@ -27372,19 +27380,19 @@
         <v>97</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -27398,13 +27406,13 @@
         <v>97</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>6233</v>
+        <v>6232</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>55</v>
@@ -27424,13 +27432,13 @@
         <v>97</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>55</v>
@@ -27450,13 +27458,13 @@
         <v>97</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>6235</v>
+        <v>6234</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>55</v>
@@ -27472,23 +27480,23 @@
       <c r="B45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>6134</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>6139</v>
+      <c r="C45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>6144</v>
+        <v>6235</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -27502,13 +27510,13 @@
         <v>6134</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>55</v>
@@ -27528,13 +27536,13 @@
         <v>6134</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>55</v>
@@ -27554,13 +27562,13 @@
         <v>6134</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>6147</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>6148</v>
+        <v>6146</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>55</v>
@@ -27577,16 +27585,16 @@
         <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6137</v>
+        <v>6134</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>75</v>
+        <v>6147</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>55</v>
@@ -27606,13 +27614,13 @@
         <v>6137</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7245</v>
+        <v>6143</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>55</v>
@@ -27632,13 +27640,13 @@
         <v>6137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>55</v>
@@ -27658,13 +27666,13 @@
         <v>6137</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7249</v>
+        <v>7246</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>55</v>
@@ -27684,13 +27692,13 @@
         <v>6137</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7248</v>
+        <v>7249</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>55</v>
@@ -27710,13 +27718,13 @@
         <v>6137</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7247</v>
+        <v>7248</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>55</v>
@@ -27733,16 +27741,16 @@
         <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6155</v>
+        <v>6137</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>6139</v>
+        <v>7247</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>75</v>
+        <v>328</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>55</v>
@@ -27762,13 +27770,13 @@
         <v>6155</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6145</v>
+        <v>74</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>55</v>
@@ -27788,13 +27796,13 @@
         <v>6155</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>55</v>
@@ -27814,13 +27822,13 @@
         <v>6155</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6147</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>6148</v>
+        <v>6146</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>55</v>
@@ -27837,16 +27845,16 @@
         <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6160</v>
+        <v>6155</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6159</v>
+        <v>6142</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6467</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>75</v>
+        <v>6147</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>55</v>
@@ -27866,13 +27874,13 @@
         <v>6160</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6471</v>
+        <v>6159</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>55</v>
@@ -27892,16 +27900,16 @@
         <v>6160</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6472</v>
+        <v>6471</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6469</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6268</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>74</v>
+        <v>6468</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>77</v>
@@ -27918,13 +27926,13 @@
         <v>6160</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6473</v>
+        <v>6472</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>6148</v>
+        <v>6268</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>74</v>
@@ -27941,19 +27949,19 @@
         <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6152</v>
+        <v>6160</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6153</v>
+        <v>6473</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6457</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>55</v>
+        <v>6470</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6148</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>77</v>
@@ -27970,13 +27978,13 @@
         <v>6152</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6154</v>
+        <v>6153</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>55</v>
@@ -27993,16 +28001,16 @@
         <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>6149</v>
+        <v>6152</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6150</v>
+        <v>6154</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6144</v>
+        <v>6458</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>55</v>
@@ -28022,13 +28030,13 @@
         <v>6149</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>55</v>
@@ -28045,16 +28053,16 @@
         <v>56</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6450</v>
+        <v>6149</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>141</v>
+        <v>6151</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>77</v>
+        <v>6145</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>55</v>
@@ -28074,13 +28082,13 @@
         <v>6450</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>317</v>
+        <v>141</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>55</v>
@@ -28100,19 +28108,16 @@
         <v>6450</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>6452</v>
+        <v>317</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>77</v>
@@ -28129,16 +28134,19 @@
         <v>6450</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>6453</v>
+        <v>6452</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>77</v>
@@ -28155,19 +28163,16 @@
         <v>6450</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>6455</v>
+        <v>6453</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>77</v>
@@ -28184,16 +28189,19 @@
         <v>6450</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>6454</v>
+        <v>6455</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>6268</v>
+        <v>327</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>77</v>
@@ -28207,16 +28215,16 @@
         <v>56</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6411</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>6418</v>
+        <v>6450</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>6454</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>6415</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>75</v>
+        <v>328</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6268</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>55</v>
@@ -28235,14 +28243,14 @@
       <c r="C74" s="1" t="s">
         <v>6411</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>6419</v>
+      <c r="D74" s="1" t="s">
+        <v>6418</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>6416</v>
+        <v>6415</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>55</v>
@@ -28262,13 +28270,13 @@
         <v>6411</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>6417</v>
+        <v>6416</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>55</v>
@@ -28285,16 +28293,16 @@
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6426</v>
+        <v>6420</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>6421</v>
+        <v>6417</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>55</v>
@@ -28314,13 +28322,13 @@
         <v>6412</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>55</v>
@@ -28340,13 +28348,13 @@
         <v>6412</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>6428</v>
+        <v>6427</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>55</v>
@@ -28366,13 +28374,13 @@
         <v>6412</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>6424</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>6148</v>
+        <v>6423</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>55</v>
@@ -28392,13 +28400,13 @@
         <v>6412</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>6180</v>
+        <v>6148</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>55</v>
@@ -28418,13 +28426,13 @@
         <v>6412</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6434</v>
+        <v>6430</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>6431</v>
+        <v>6425</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>6252</v>
+        <v>6180</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>55</v>
@@ -28443,14 +28451,14 @@
       <c r="C82" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>6456</v>
+      <c r="D82" s="3" t="s">
+        <v>6434</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>6444</v>
+        <v>6252</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
@@ -28469,14 +28477,14 @@
       <c r="C83" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>6435</v>
+      <c r="D83" s="1" t="s">
+        <v>6456</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>6444</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>55</v>
@@ -28496,13 +28504,13 @@
         <v>6412</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>6440</v>
+        <v>6435</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>6436</v>
+        <v>6433</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>6445</v>
+        <v>220</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
@@ -28522,13 +28530,13 @@
         <v>6412</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
@@ -28548,13 +28556,13 @@
         <v>6412</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>6447</v>
+        <v>6446</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
@@ -28574,13 +28582,13 @@
         <v>6412</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>6448</v>
+        <v>6447</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
@@ -28597,22 +28605,19 @@
         <v>56</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6163</v>
+        <v>6412</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6165</v>
+        <v>6443</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>75</v>
+        <v>6439</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>6448</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>6172</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>77</v>
@@ -28629,16 +28634,19 @@
         <v>6163</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6168</v>
+        <v>6165</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>6236</v>
+        <v>131</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>6172</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>77</v>
@@ -28655,13 +28663,13 @@
         <v>6163</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>6164</v>
+        <v>6168</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>55</v>
@@ -28681,13 +28689,13 @@
         <v>6163</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>6238</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>6148</v>
+        <v>6237</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>55</v>
@@ -28707,13 +28715,13 @@
         <v>6163</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>133</v>
+        <v>6238</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>6180</v>
+        <v>6148</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>55</v>
@@ -28730,22 +28738,19 @@
         <v>56</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6181</v>
+        <v>6163</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>7208</v>
+        <v>6167</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>6480</v>
+        <v>6180</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>77</v>
@@ -28762,18 +28767,20 @@
         <v>6181</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6183</v>
+        <v>7208</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>6162</v>
+        <v>77</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>6185</v>
+        <v>75</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>6162</v>
-      </c>
-      <c r="H94" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>6480</v>
+      </c>
       <c r="K94" s="1" t="s">
         <v>77</v>
       </c>
@@ -28789,20 +28796,18 @@
         <v>6181</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6184</v>
+        <v>6183</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>6186</v>
+        <v>6185</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>6479</v>
-      </c>
+      <c r="H95" s="1"/>
       <c r="K95" s="1" t="s">
         <v>77</v>
       </c>
@@ -28815,22 +28820,22 @@
         <v>56</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6169</v>
+        <v>6181</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>6174</v>
+        <v>6184</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>6175</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>6173</v>
+        <v>6176</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>6186</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>6162</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>77</v>
@@ -28847,18 +28852,20 @@
         <v>6169</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>6170</v>
+        <v>6174</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>6162</v>
+        <v>6175</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>6173</v>
+      </c>
       <c r="K97" s="1" t="s">
         <v>77</v>
       </c>
@@ -28874,17 +28881,18 @@
         <v>6169</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>6171</v>
+        <v>6170</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H98" s="1"/>
       <c r="K98" s="1" t="s">
         <v>77</v>
       </c>
@@ -28897,22 +28905,19 @@
         <v>56</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>6208</v>
+        <v>6169</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>6188</v>
+        <v>6171</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>6162</v>
+        <v>6176</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>6187</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>77</v>
@@ -28929,16 +28934,19 @@
         <v>6208</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6189</v>
+        <v>6188</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>6187</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>77</v>
@@ -28955,19 +28963,16 @@
         <v>6208</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6190</v>
+        <v>6189</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>6479</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>77</v>
@@ -28981,22 +28986,22 @@
         <v>56</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6209</v>
+        <v>6208</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>6191</v>
+        <v>6190</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>6162</v>
+        <v>6177</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>6195</v>
+      <c r="I102" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>77</v>
@@ -29013,16 +29018,19 @@
         <v>6209</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>6192</v>
+        <v>6191</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>6195</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>77</v>
@@ -29039,13 +29047,13 @@
         <v>6209</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>6193</v>
+        <v>6192</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>55</v>
@@ -29065,13 +29073,13 @@
         <v>6209</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>6194</v>
+        <v>6193</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>6178</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>6214</v>
+        <v>6177</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>55</v>
@@ -29088,22 +29096,19 @@
         <v>56</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>7254</v>
+        <v>6194</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>75</v>
+        <v>6178</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>6214</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>6196</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>77</v>
@@ -29120,10 +29125,10 @@
         <v>6210</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>6197</v>
+        <v>7254</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>6162</v>
+        <v>77</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>75</v>
@@ -29131,7 +29136,9 @@
       <c r="G107" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>6196</v>
+      </c>
       <c r="K107" s="1" t="s">
         <v>77</v>
       </c>
@@ -29147,17 +29154,18 @@
         <v>6210</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>6198</v>
+        <v>6197</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>6176</v>
+        <v>6162</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H108" s="1"/>
       <c r="K108" s="1" t="s">
         <v>77</v>
       </c>
@@ -29173,13 +29181,13 @@
         <v>6210</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>6199</v>
+        <v>6198</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>55</v>
@@ -29199,13 +29207,13 @@
         <v>6210</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>6200</v>
+        <v>6199</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>6178</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>6214</v>
+        <v>6177</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>55</v>
@@ -29222,22 +29230,19 @@
         <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>6211</v>
+        <v>6210</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>6201</v>
+        <v>6200</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>6175</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>75</v>
+        <v>6178</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>6214</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>6207</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>77</v>
@@ -29254,16 +29259,19 @@
         <v>6211</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6202</v>
+        <v>6201</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>6162</v>
+        <v>6175</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>6207</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>77</v>
@@ -29280,13 +29288,13 @@
         <v>6211</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>6203</v>
+        <v>6202</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>6178</v>
+        <v>6162</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>55</v>
@@ -29296,7 +29304,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -29306,26 +29314,23 @@
         <v>6211</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>6179</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>6214</v>
+        <v>6178</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>6479</v>
-      </c>
       <c r="K114" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B115" s="7" t="s">
@@ -29335,16 +29340,19 @@
         <v>6211</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>6205</v>
+        <v>6204</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>6206</v>
+        <v>6179</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>6215</v>
+        <v>6214</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>6479</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>77</v>
@@ -29358,29 +29366,26 @@
         <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>7276</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>7281</v>
-      </c>
-      <c r="E116" s="34" t="s">
-        <v>7278</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>75</v>
+        <v>6211</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>6205</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6206</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>6215</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>7277</v>
-      </c>
       <c r="K116" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B117" s="7" t="s">
@@ -29389,24 +29394,27 @@
       <c r="C117" s="1" t="s">
         <v>7276</v>
       </c>
-      <c r="D117" s="35" t="s">
-        <v>7282</v>
+      <c r="D117" s="1" t="s">
+        <v>7281</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="H117" s="1" t="s">
+        <v>7277</v>
+      </c>
       <c r="K117" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B118" s="7" t="s">
@@ -29416,18 +29424,44 @@
         <v>7276</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>7283</v>
+        <v>7282</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K118" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7276</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>7283</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>7280</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -29443,7 +29477,7 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8126E-F8CF-4475-B889-8E0C30B42C9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F408AC18-EA8B-4658-ADC6-84F82BF4C86D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20221,10 +20221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//druid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -23507,6 +23503,10 @@
   </si>
   <si>
     <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//druid/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24210,10 +24210,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7249</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7250</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7251</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
@@ -24222,7 +24222,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24295,7 +24295,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>58</v>
@@ -24460,7 +24460,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6478</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -24777,7 +24777,7 @@
         <v>6329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6493</v>
+        <v>6492</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6231</v>
@@ -24821,7 +24821,7 @@
         <v>6329</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6492</v>
+        <v>6491</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6231</v>
@@ -24865,7 +24865,7 @@
         <v>6329</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6491</v>
+        <v>6490</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6231</v>
@@ -24909,7 +24909,7 @@
         <v>6329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6490</v>
+        <v>6489</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6231</v>
@@ -24953,7 +24953,7 @@
         <v>6329</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6489</v>
+        <v>6488</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6231</v>
@@ -24997,7 +24997,7 @@
         <v>6329</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6488</v>
+        <v>6487</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6231</v>
@@ -25041,7 +25041,7 @@
         <v>6329</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6487</v>
+        <v>6486</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6231</v>
@@ -25085,7 +25085,7 @@
         <v>6329</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6486</v>
+        <v>6485</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6231</v>
@@ -25129,7 +25129,7 @@
         <v>6329</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6485</v>
+        <v>6484</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6231</v>
@@ -25840,7 +25840,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7284</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25862,19 +25862,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>7264</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>7265</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
         <v>7266</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="34" t="s">
         <v>7267</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>7268</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>7284</v>
+        <v>7283</v>
       </c>
     </row>
   </sheetData>
@@ -26134,10 +26134,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>6450</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6451</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>74</v>
@@ -26145,10 +26145,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>6411</v>
+        <v>6410</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6413</v>
+        <v>6412</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>74</v>
@@ -26156,10 +26156,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6414</v>
+        <v>6413</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>74</v>
@@ -26244,10 +26244,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>7274</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>7275</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7276</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>74</v>
@@ -26269,7 +26269,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26298,7 +26298,7 @@
         <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -26319,7 +26319,7 @@
         <v>91</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -26663,10 +26663,10 @@
         <v>6393</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6250</v>
@@ -26689,10 +26689,10 @@
         <v>6393</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7287</v>
+        <v>7286</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7286</v>
+        <v>7285</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>83</v>
@@ -27227,7 +27227,7 @@
         <v>55</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>77</v>
@@ -27640,7 +27640,7 @@
         <v>6137</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>74</v>
@@ -27666,7 +27666,7 @@
         <v>6137</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>88</v>
@@ -27692,7 +27692,7 @@
         <v>6137</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>126</v>
@@ -27718,7 +27718,7 @@
         <v>6137</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>327</v>
@@ -27744,7 +27744,7 @@
         <v>6137</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>328</v>
@@ -27877,7 +27877,7 @@
         <v>6159</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6467</v>
+        <v>6466</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>75</v>
@@ -27900,10 +27900,10 @@
         <v>6160</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>6471</v>
+        <v>6470</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6468</v>
+        <v>6467</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>76</v>
@@ -27926,10 +27926,10 @@
         <v>6160</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6472</v>
+        <v>6471</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6469</v>
+        <v>6468</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>6268</v>
@@ -27952,10 +27952,10 @@
         <v>6160</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6473</v>
+        <v>6472</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>6148</v>
@@ -27981,7 +27981,7 @@
         <v>6153</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>6457</v>
+        <v>6456</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>75</v>
@@ -28007,7 +28007,7 @@
         <v>6154</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>76</v>
@@ -28079,7 +28079,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>141</v>
@@ -28105,7 +28105,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>317</v>
@@ -28131,10 +28131,10 @@
         <v>56</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>6452</v>
+        <v>6451</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>88</v>
@@ -28146,7 +28146,7 @@
         <v>55</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>77</v>
@@ -28160,10 +28160,10 @@
         <v>56</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>6453</v>
+        <v>6452</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>126</v>
@@ -28186,10 +28186,10 @@
         <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>6455</v>
+        <v>6454</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>327</v>
@@ -28201,7 +28201,7 @@
         <v>55</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>77</v>
@@ -28215,10 +28215,10 @@
         <v>56</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6450</v>
+        <v>6449</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>6454</v>
+        <v>6453</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>328</v>
@@ -28241,13 +28241,13 @@
         <v>56</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6411</v>
+        <v>6410</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>6418</v>
+        <v>6417</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>6415</v>
+        <v>6414</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>75</v>
@@ -28267,13 +28267,13 @@
         <v>56</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6411</v>
+        <v>6410</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6419</v>
+        <v>6418</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>6416</v>
+        <v>6415</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>76</v>
@@ -28293,13 +28293,13 @@
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6411</v>
+        <v>6410</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6420</v>
+        <v>6419</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>6417</v>
+        <v>6416</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>82</v>
@@ -28319,13 +28319,13 @@
         <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>6421</v>
+        <v>6420</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>75</v>
@@ -28345,13 +28345,13 @@
         <v>56</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>6427</v>
+        <v>6426</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>76</v>
@@ -28371,13 +28371,13 @@
         <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>6428</v>
+        <v>6427</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>6423</v>
+        <v>6422</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>82</v>
@@ -28397,13 +28397,13 @@
         <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>6429</v>
+        <v>6428</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>6148</v>
@@ -28423,13 +28423,13 @@
         <v>56</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>6425</v>
+        <v>6424</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>6180</v>
@@ -28449,13 +28449,13 @@
         <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>6434</v>
+        <v>6433</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>6431</v>
+        <v>6430</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>6252</v>
@@ -28475,16 +28475,16 @@
         <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>6456</v>
+        <v>6455</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>6432</v>
+        <v>6431</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>6444</v>
+        <v>6443</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>55</v>
@@ -28501,13 +28501,13 @@
         <v>56</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>6433</v>
+        <v>6432</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>220</v>
@@ -28527,16 +28527,16 @@
         <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>6440</v>
+        <v>6439</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>6436</v>
+        <v>6435</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>6445</v>
+        <v>6444</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
@@ -28553,16 +28553,16 @@
         <v>56</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6441</v>
+        <v>6440</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>6437</v>
+        <v>6436</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>6446</v>
+        <v>6445</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
@@ -28579,16 +28579,16 @@
         <v>56</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>6438</v>
+        <v>6437</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>6447</v>
+        <v>6446</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
@@ -28605,16 +28605,16 @@
         <v>56</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6412</v>
+        <v>6411</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6443</v>
+        <v>6442</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>6439</v>
+        <v>6438</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>6448</v>
+        <v>6447</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>55</v>
@@ -28767,7 +28767,7 @@
         <v>6181</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>77</v>
@@ -28779,7 +28779,7 @@
         <v>74</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>6480</v>
+        <v>6479</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>77</v>
@@ -28835,7 +28835,7 @@
         <v>6162</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>77</v>
@@ -29001,7 +29001,7 @@
         <v>55</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>77</v>
@@ -29125,7 +29125,7 @@
         <v>6210</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>77</v>
@@ -29352,7 +29352,7 @@
         <v>55</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>6479</v>
+        <v>6478</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>77</v>
@@ -29392,13 +29392,13 @@
         <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>7277</v>
+        <v>7276</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>75</v>
@@ -29407,7 +29407,7 @@
         <v>55</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>7276</v>
+        <v>7275</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>77</v>
@@ -29421,13 +29421,13 @@
         <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>7281</v>
+        <v>7280</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>7278</v>
+        <v>7277</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>76</v>
@@ -29447,13 +29447,13 @@
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>7282</v>
+        <v>7281</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>82</v>
@@ -29477,8 +29477,8 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29514,7 +29514,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -29526,7 +29526,7 @@
         <v>6239</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>278</v>
@@ -30196,7 +30196,7 @@
         <v>6384</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>6407</v>
+        <v>6406</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>177</v>
@@ -30761,7 +30761,7 @@
         <v>211</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>6409</v>
+        <v>6408</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>267</v>
@@ -30796,10 +30796,10 @@
         <v>6241</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>6403</v>
+        <v>7288</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>6494</v>
+        <v>6493</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>208</v>
@@ -30834,10 +30834,10 @@
         <v>6241</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>210</v>
@@ -30860,7 +30860,7 @@
         <v>232</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>6405</v>
+        <v>6404</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>335</v>
@@ -30872,13 +30872,13 @@
         <v>219</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>6495</v>
+        <v>6494</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>6406</v>
+        <v>6405</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>74</v>
@@ -30910,10 +30910,10 @@
         <v>6241</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>6449</v>
+        <v>6448</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>6496</v>
+        <v>6495</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>214</v>
@@ -30939,7 +30939,7 @@
         <v>246</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>6404</v>
+        <v>6403</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>177</v>
@@ -30951,7 +30951,7 @@
         <v>271</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>6410</v>
+        <v>6409</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>266</v>
@@ -30974,10 +30974,10 @@
         <v>232</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>74</v>
@@ -30986,16 +30986,16 @@
         <v>219</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -31006,16 +31006,16 @@
         <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>273</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>74</v>
@@ -31026,7 +31026,7 @@
       <c r="I44" s="3"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="N44" s="10" t="s">
         <v>74</v>
@@ -31043,13 +31043,13 @@
         <v>79</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>74</v>
@@ -31058,10 +31058,10 @@
         <v>83</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>74</v>
@@ -31078,13 +31078,13 @@
         <v>79</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>74</v>
@@ -31093,10 +31093,10 @@
         <v>83</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>74</v>
@@ -31113,13 +31113,13 @@
         <v>79</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>74</v>
@@ -31128,10 +31128,10 @@
         <v>83</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>74</v>
@@ -31253,7 +31253,7 @@
         <v>235</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>6476</v>
+        <v>6475</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>224</v>
@@ -31265,7 +31265,7 @@
         <v>6241</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>6474</v>
+        <v>6473</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>353</v>
@@ -31288,7 +31288,7 @@
         <v>235</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>6477</v>
+        <v>6476</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>206</v>
@@ -31300,7 +31300,7 @@
         <v>6241</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>6475</v>
+        <v>6474</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>354</v>
@@ -31364,7 +31364,7 @@
         <v>6241</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>74</v>
@@ -31396,7 +31396,7 @@
         <v>6241</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>74</v>
@@ -31457,7 +31457,7 @@
         <v>6241</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>74</v>
@@ -31489,7 +31489,7 @@
         <v>6241</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>74</v>
@@ -31521,7 +31521,7 @@
         <v>6241</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>74</v>
@@ -31596,16 +31596,16 @@
         <v>26</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>273</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>6459</v>
+        <v>6458</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>6461</v>
+        <v>6460</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>74</v>
@@ -31614,7 +31614,7 @@
         <v>219</v>
       </c>
       <c r="L62" s="34" t="s">
-        <v>7285</v>
+        <v>7284</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>74</v>
@@ -31631,10 +31631,10 @@
         <v>79</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>75</v>
@@ -31646,10 +31646,10 @@
         <v>219</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>6462</v>
+        <v>6461</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>74</v>
@@ -31666,10 +31666,10 @@
         <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>82</v>
@@ -31681,10 +31681,10 @@
         <v>219</v>
       </c>
       <c r="I64" s="29" t="s">
-        <v>6464</v>
+        <v>6463</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>74</v>
@@ -31701,10 +31701,10 @@
         <v>79</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>6484</v>
+        <v>6483</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>76</v>
@@ -31716,10 +31716,10 @@
         <v>219</v>
       </c>
       <c r="I65" s="29" t="s">
-        <v>6483</v>
+        <v>6482</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>74</v>
@@ -31736,10 +31736,10 @@
         <v>79</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>6466</v>
+        <v>6465</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>6481</v>
+        <v>6480</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>6148</v>
@@ -31751,10 +31751,10 @@
         <v>219</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>6465</v>
+        <v>6464</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>74</v>
@@ -31768,16 +31768,16 @@
         <v>26</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E67" s="20" t="s">
+        <v>7254</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>7255</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>7256</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>74</v>
@@ -31786,7 +31786,7 @@
         <v>76</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="N67" s="10" t="s">
         <v>74</v>
@@ -31800,13 +31800,13 @@
         <v>26</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>222</v>
@@ -31818,11 +31818,11 @@
         <v>76</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="N68" s="10" t="s">
         <v>74</v>
@@ -31839,7 +31839,7 @@
         <v>79</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>344</v>
@@ -31854,7 +31854,7 @@
         <v>76</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>74</v>
@@ -31871,7 +31871,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>350</v>
@@ -31886,7 +31886,7 @@
         <v>76</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>74</v>
@@ -31903,7 +31903,7 @@
         <v>79</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>6203</v>
@@ -31918,7 +31918,7 @@
         <v>76</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>74</v>
@@ -31932,16 +31932,16 @@
         <v>26</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>7266</v>
+        <v>7265</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>6461</v>
+        <v>6460</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>74</v>
@@ -31950,7 +31950,7 @@
         <v>76</v>
       </c>
       <c r="L72" s="34" t="s">
-        <v>7274</v>
+        <v>7273</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>74</v>
@@ -31967,10 +31967,10 @@
         <v>79</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>7266</v>
+        <v>7265</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>75</v>
@@ -31982,10 +31982,10 @@
         <v>76</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>74</v>
@@ -32002,10 +32002,10 @@
         <v>79</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>82</v>
@@ -32017,10 +32017,10 @@
         <v>76</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>7269</v>
+        <v>7268</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>74</v>
@@ -32224,7 +32224,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6408</v>
+        <v>6407</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -32259,7 +32259,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6482</v>
+        <v>6481</v>
       </c>
     </row>
   </sheetData>
@@ -32314,7 +32314,7 @@
         <v>3200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -32892,7 +32892,7 @@
         <v>3201</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>6824</v>
+        <v>6823</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>3202</v>
@@ -33138,16 +33138,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>6497</v>
+        <v>6496</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3201</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6497</v>
+        <v>6496</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6825</v>
+        <v>6824</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>3204</v>
@@ -33155,16 +33155,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>6498</v>
+        <v>6497</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3201</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6498</v>
+        <v>6497</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>6826</v>
+        <v>6825</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>3204</v>
@@ -33181,7 +33181,7 @@
         <v>3219</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6827</v>
+        <v>6826</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>3202</v>
@@ -33393,16 +33393,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>3219</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>6499</v>
+        <v>6498</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>6828</v>
+        <v>6827</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>3204</v>
@@ -33410,16 +33410,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3219</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>6500</v>
+        <v>6499</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>6829</v>
+        <v>6828</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>3204</v>
@@ -33427,16 +33427,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>3219</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6501</v>
+        <v>6500</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>6830</v>
+        <v>6829</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>3204</v>
@@ -33444,16 +33444,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3219</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6502</v>
+        <v>6501</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>6831</v>
+        <v>6830</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>3204</v>
@@ -33733,16 +33733,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>6503</v>
+        <v>6502</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>3233</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>6503</v>
+        <v>6502</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>6832</v>
+        <v>6831</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>3204</v>
@@ -33750,16 +33750,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3233</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>6504</v>
+        <v>6503</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>6833</v>
+        <v>6832</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>3204</v>
@@ -33767,16 +33767,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>3233</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6505</v>
+        <v>6504</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>6834</v>
+        <v>6833</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>3204</v>
@@ -33963,7 +33963,7 @@
         <v>3249</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>6835</v>
+        <v>6834</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>3204</v>
@@ -34124,16 +34124,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>6506</v>
+        <v>6505</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3253</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>6506</v>
+        <v>6505</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>6836</v>
+        <v>6835</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>3204</v>
@@ -34150,7 +34150,7 @@
         <v>3260</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>6837</v>
+        <v>6836</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>3204</v>
@@ -34311,16 +34311,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>6507</v>
+        <v>6506</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>3267</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>6507</v>
+        <v>6506</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>6838</v>
+        <v>6837</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>3204</v>
@@ -34447,16 +34447,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>3274</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>6839</v>
+        <v>6838</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>3204</v>
@@ -34464,16 +34464,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>6509</v>
+        <v>6508</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3274</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6509</v>
+        <v>6508</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>6840</v>
+        <v>6839</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>3204</v>
@@ -34541,7 +34541,7 @@
         <v>3282</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>6841</v>
+        <v>6840</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>3204</v>
@@ -34558,7 +34558,7 @@
         <v>3283</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>6842</v>
+        <v>6841</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>3204</v>
@@ -34575,7 +34575,7 @@
         <v>3284</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>6843</v>
+        <v>6842</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>3204</v>
@@ -34643,7 +34643,7 @@
         <v>3288</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>6844</v>
+        <v>6843</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>3204</v>
@@ -34813,7 +34813,7 @@
         <v>3299</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>6845</v>
+        <v>6844</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>3204</v>
@@ -34932,7 +34932,7 @@
         <v>3306</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>6846</v>
+        <v>6845</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>3204</v>
@@ -35017,7 +35017,7 @@
         <v>3312</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>6847</v>
+        <v>6846</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>3204</v>
@@ -35025,16 +35025,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3311</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>6510</v>
+        <v>6509</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>6848</v>
+        <v>6847</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>3204</v>
@@ -35042,16 +35042,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>6511</v>
+        <v>6510</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3311</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>6511</v>
+        <v>6510</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>6849</v>
+        <v>6848</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>3204</v>
@@ -35059,16 +35059,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>6512</v>
+        <v>6511</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3311</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>6512</v>
+        <v>6511</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>6850</v>
+        <v>6849</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>3204</v>
@@ -35076,16 +35076,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>6513</v>
+        <v>6512</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3311</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>6513</v>
+        <v>6512</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>6851</v>
+        <v>6850</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>3204</v>
@@ -35153,7 +35153,7 @@
         <v>3316</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>6852</v>
+        <v>6851</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>3204</v>
@@ -35255,7 +35255,7 @@
         <v>3322</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>6853</v>
+        <v>6852</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>3204</v>
@@ -35289,7 +35289,7 @@
         <v>3324</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>6854</v>
+        <v>6853</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>3204</v>
@@ -35340,7 +35340,7 @@
         <v>3327</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>6855</v>
+        <v>6854</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>3204</v>
@@ -35484,16 +35484,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>6514</v>
+        <v>6513</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3332</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>6514</v>
+        <v>6513</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>6856</v>
+        <v>6855</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>3204</v>
@@ -35501,16 +35501,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>6515</v>
+        <v>6514</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3332</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>6515</v>
+        <v>6514</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>3204</v>
@@ -35595,7 +35595,7 @@
         <v>3341</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>3204</v>
@@ -35858,16 +35858,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3347</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>6516</v>
+        <v>6515</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>6859</v>
+        <v>6858</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>3204</v>
@@ -35918,7 +35918,7 @@
         <v>3361</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>3204</v>
@@ -35935,7 +35935,7 @@
         <v>3362</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>6861</v>
+        <v>6860</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>3204</v>
@@ -36054,7 +36054,7 @@
         <v>3369</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>6862</v>
+        <v>6861</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>3204</v>
@@ -36334,16 +36334,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>3386</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>6517</v>
+        <v>6516</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>6863</v>
+        <v>6862</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>3204</v>
@@ -36462,7 +36462,7 @@
         <v>3394</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>6864</v>
+        <v>6863</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>3204</v>
@@ -36870,7 +36870,7 @@
         <v>3410</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>3204</v>
@@ -36887,7 +36887,7 @@
         <v>3411</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>6866</v>
+        <v>6865</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>3204</v>
@@ -37057,7 +37057,7 @@
         <v>3422</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>3204</v>
@@ -37074,7 +37074,7 @@
         <v>3423</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>6866</v>
+        <v>6865</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>3204</v>
@@ -37091,7 +37091,7 @@
         <v>3424</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>3204</v>
@@ -37125,7 +37125,7 @@
         <v>3426</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>6868</v>
+        <v>6867</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>3204</v>
@@ -37142,7 +37142,7 @@
         <v>3428</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>3204</v>
@@ -37159,7 +37159,7 @@
         <v>3429</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>3204</v>
@@ -37312,7 +37312,7 @@
         <v>3438</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>6869</v>
+        <v>6868</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>3204</v>
@@ -37363,7 +37363,7 @@
         <v>3442</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>3204</v>
@@ -37516,7 +37516,7 @@
         <v>3452</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>6870</v>
+        <v>6869</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>3204</v>
@@ -37686,7 +37686,7 @@
         <v>3463</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>6871</v>
+        <v>6870</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>3204</v>
@@ -37856,7 +37856,7 @@
         <v>3474</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>6872</v>
+        <v>6871</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>3204</v>
@@ -37890,7 +37890,7 @@
         <v>3476</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>6873</v>
+        <v>6872</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>3204</v>
@@ -38026,7 +38026,7 @@
         <v>3485</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>6874</v>
+        <v>6873</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>3204</v>
@@ -38298,7 +38298,7 @@
         <v>3502</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>6875</v>
+        <v>6874</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>3204</v>
@@ -38349,7 +38349,7 @@
         <v>3505</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>6876</v>
+        <v>6875</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>3204</v>
@@ -38400,7 +38400,7 @@
         <v>3508</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>6877</v>
+        <v>6876</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>3204</v>
@@ -38434,7 +38434,7 @@
         <v>3510</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>6878</v>
+        <v>6877</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>3204</v>
@@ -38553,7 +38553,7 @@
         <v>3518</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>6879</v>
+        <v>6878</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>3204</v>
@@ -38570,7 +38570,7 @@
         <v>3519</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>6880</v>
+        <v>6879</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>3204</v>
@@ -38621,7 +38621,7 @@
         <v>3522</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>6881</v>
+        <v>6880</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>3204</v>
@@ -39148,7 +39148,7 @@
         <v>3544</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>6882</v>
+        <v>6881</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>3204</v>
@@ -39632,16 +39632,16 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>3575</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>6518</v>
+        <v>6517</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>6883</v>
+        <v>6882</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>3204</v>
@@ -39785,16 +39785,16 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>6519</v>
+        <v>6518</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>3584</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>6519</v>
+        <v>6518</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>6884</v>
+        <v>6883</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>3204</v>
@@ -39819,16 +39819,16 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>6520</v>
+        <v>6519</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>3584</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>6520</v>
+        <v>6519</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>6885</v>
+        <v>6884</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>3204</v>
@@ -41018,7 +41018,7 @@
         <v>3649</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>6886</v>
+        <v>6885</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>3204</v>
@@ -41035,7 +41035,7 @@
         <v>3650</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>6887</v>
+        <v>6886</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>3204</v>
@@ -41060,16 +41060,16 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>6521</v>
+        <v>6520</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>3642</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>6521</v>
+        <v>6520</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>6888</v>
+        <v>6887</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>3204</v>
@@ -41230,16 +41230,16 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>6522</v>
+        <v>6521</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>3655</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>6522</v>
+        <v>6521</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>6889</v>
+        <v>6888</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>3204</v>
@@ -41817,7 +41817,7 @@
         <v>3700</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>6890</v>
+        <v>6889</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>3204</v>
@@ -41851,7 +41851,7 @@
         <v>3702</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>6891</v>
+        <v>6890</v>
       </c>
       <c r="E563" s="1" t="s">
         <v>3204</v>
@@ -42233,16 +42233,16 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>6523</v>
+        <v>6522</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>3726</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>6523</v>
+        <v>6522</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>6892</v>
+        <v>6891</v>
       </c>
       <c r="E586" s="1" t="s">
         <v>3204</v>
@@ -42454,16 +42454,16 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>3738</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>6524</v>
+        <v>6523</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>6893</v>
+        <v>6892</v>
       </c>
       <c r="E599" s="1" t="s">
         <v>3204</v>
@@ -42862,16 +42862,16 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>6525</v>
+        <v>6524</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>3753</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>6525</v>
+        <v>6524</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>6894</v>
+        <v>6893</v>
       </c>
       <c r="E623" s="1" t="s">
         <v>3204</v>
@@ -43381,7 +43381,7 @@
         <v>3794</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>6895</v>
+        <v>6894</v>
       </c>
       <c r="E653" s="1" t="s">
         <v>3204</v>
@@ -43389,16 +43389,16 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>3793</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>6526</v>
+        <v>6525</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>6896</v>
+        <v>6895</v>
       </c>
       <c r="E654" s="1" t="s">
         <v>3204</v>
@@ -43491,16 +43491,16 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>6527</v>
+        <v>6526</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>3799</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>6527</v>
+        <v>6526</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="E660" s="1" t="s">
         <v>3204</v>
@@ -43542,16 +43542,16 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>6528</v>
+        <v>6527</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>3799</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>6528</v>
+        <v>6527</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>6898</v>
+        <v>6897</v>
       </c>
       <c r="E663" s="1" t="s">
         <v>3204</v>
@@ -44086,13 +44086,13 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>6529</v>
+        <v>6528</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>3819</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>6529</v>
+        <v>6528</v>
       </c>
       <c r="D695" s="1" t="s">
         <v>936</v>
@@ -44120,16 +44120,16 @@
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>6530</v>
+        <v>6529</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>3819</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>6530</v>
+        <v>6529</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>6899</v>
+        <v>6898</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>3204</v>
@@ -44137,16 +44137,16 @@
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>6531</v>
+        <v>6530</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>3819</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>6531</v>
+        <v>6530</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>6900</v>
+        <v>6899</v>
       </c>
       <c r="E698" s="1" t="s">
         <v>3204</v>
@@ -44197,7 +44197,7 @@
         <v>3828</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>6901</v>
+        <v>6900</v>
       </c>
       <c r="E701" s="1" t="s">
         <v>3204</v>
@@ -45506,7 +45506,7 @@
         <v>3912</v>
       </c>
       <c r="D778" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E778" s="1" t="s">
         <v>3204</v>
@@ -45599,16 +45599,16 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="B784" s="1" t="s">
         <v>3908</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>6532</v>
+        <v>6531</v>
       </c>
       <c r="D784" s="1" t="s">
-        <v>6902</v>
+        <v>6901</v>
       </c>
       <c r="E784" s="1" t="s">
         <v>3204</v>
@@ -45837,16 +45837,16 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>3923</v>
       </c>
       <c r="C798" s="1" t="s">
-        <v>6533</v>
+        <v>6532</v>
       </c>
       <c r="D798" s="1" t="s">
-        <v>6903</v>
+        <v>6902</v>
       </c>
       <c r="E798" s="1" t="s">
         <v>3204</v>
@@ -46126,16 +46126,16 @@
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>3951</v>
       </c>
       <c r="C815" s="1" t="s">
-        <v>6534</v>
+        <v>6533</v>
       </c>
       <c r="D815" s="1" t="s">
-        <v>6904</v>
+        <v>6903</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>3204</v>
@@ -46203,7 +46203,7 @@
         <v>3956</v>
       </c>
       <c r="D819" s="1" t="s">
-        <v>6905</v>
+        <v>6904</v>
       </c>
       <c r="E819" s="1" t="s">
         <v>3202</v>
@@ -46466,16 +46466,16 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
-        <v>6535</v>
+        <v>6534</v>
       </c>
       <c r="B835" s="1" t="s">
         <v>3956</v>
       </c>
       <c r="C835" s="1" t="s">
-        <v>6535</v>
+        <v>6534</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>6906</v>
+        <v>6905</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>3204</v>
@@ -46857,16 +46857,16 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
-        <v>6536</v>
+        <v>6535</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>3973</v>
       </c>
       <c r="C858" s="1" t="s">
-        <v>6536</v>
+        <v>6535</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>6907</v>
+        <v>6906</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>3204</v>
@@ -46874,16 +46874,16 @@
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
-        <v>6537</v>
+        <v>6536</v>
       </c>
       <c r="B859" s="1" t="s">
         <v>3973</v>
       </c>
       <c r="C859" s="1" t="s">
-        <v>6537</v>
+        <v>6536</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>6908</v>
+        <v>6907</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>3204</v>
@@ -46942,16 +46942,16 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
-        <v>6538</v>
+        <v>6537</v>
       </c>
       <c r="B863" s="1" t="s">
         <v>3983</v>
       </c>
       <c r="C863" s="1" t="s">
-        <v>6538</v>
+        <v>6537</v>
       </c>
       <c r="D863" s="1" t="s">
-        <v>6909</v>
+        <v>6908</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>3204</v>
@@ -46959,16 +46959,16 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="B864" s="1" t="s">
         <v>3983</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>6539</v>
+        <v>6538</v>
       </c>
       <c r="D864" s="1" t="s">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="E864" s="1" t="s">
         <v>3204</v>
@@ -47078,16 +47078,16 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
-        <v>6540</v>
+        <v>6539</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>3989</v>
       </c>
       <c r="C871" s="1" t="s">
-        <v>6540</v>
+        <v>6539</v>
       </c>
       <c r="D871" s="1" t="s">
-        <v>6911</v>
+        <v>6910</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>3204</v>
@@ -47104,7 +47104,7 @@
         <v>3994</v>
       </c>
       <c r="D872" s="1" t="s">
-        <v>6912</v>
+        <v>6911</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>3204</v>
@@ -47121,7 +47121,7 @@
         <v>3995</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>6913</v>
+        <v>6912</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>3204</v>
@@ -47248,16 +47248,16 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" s="1" t="s">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>3999</v>
       </c>
       <c r="C881" s="1" t="s">
-        <v>6541</v>
+        <v>6540</v>
       </c>
       <c r="D881" s="1" t="s">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="E881" s="1" t="s">
         <v>3204</v>
@@ -47333,16 +47333,16 @@
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
-        <v>6542</v>
+        <v>6541</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>4005</v>
       </c>
       <c r="C886" s="1" t="s">
-        <v>6542</v>
+        <v>6541</v>
       </c>
       <c r="D886" s="1" t="s">
-        <v>6915</v>
+        <v>6914</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>3204</v>
@@ -47350,16 +47350,16 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="B887" s="1" t="s">
         <v>4005</v>
       </c>
       <c r="C887" s="1" t="s">
-        <v>6543</v>
+        <v>6542</v>
       </c>
       <c r="D887" s="1" t="s">
-        <v>6916</v>
+        <v>6915</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>3204</v>
@@ -47469,13 +47469,13 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>4013</v>
       </c>
       <c r="C894" s="1" t="s">
-        <v>6544</v>
+        <v>6543</v>
       </c>
       <c r="D894" s="1" t="s">
         <v>380</v>
@@ -47605,16 +47605,16 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
-        <v>6545</v>
+        <v>6544</v>
       </c>
       <c r="B902" s="1" t="s">
         <v>4021</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>6545</v>
+        <v>6544</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>6917</v>
+        <v>6916</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>3204</v>
@@ -47682,7 +47682,7 @@
         <v>4028</v>
       </c>
       <c r="D906" s="1" t="s">
-        <v>6918</v>
+        <v>6917</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>3204</v>
@@ -47707,16 +47707,16 @@
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>4027</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>6919</v>
+        <v>6918</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>3204</v>
@@ -47724,16 +47724,16 @@
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
-        <v>6547</v>
+        <v>6546</v>
       </c>
       <c r="B909" s="1" t="s">
         <v>4027</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>6547</v>
+        <v>6546</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>6920</v>
+        <v>6919</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>3204</v>
@@ -47826,16 +47826,16 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
-        <v>6548</v>
+        <v>6547</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>4033</v>
       </c>
       <c r="C915" s="1" t="s">
-        <v>6548</v>
+        <v>6547</v>
       </c>
       <c r="D915" s="1" t="s">
-        <v>6921</v>
+        <v>6920</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>3204</v>
@@ -47979,16 +47979,16 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
-        <v>6549</v>
+        <v>6548</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>4042</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>6549</v>
+        <v>6548</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>6922</v>
+        <v>6921</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>3204</v>
@@ -48183,16 +48183,16 @@
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
       <c r="B936" s="1" t="s">
         <v>4055</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>6550</v>
+        <v>6549</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>6923</v>
+        <v>6922</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>3204</v>
@@ -48659,16 +48659,16 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
-        <v>6551</v>
+        <v>6550</v>
       </c>
       <c r="B964" s="1" t="s">
         <v>4068</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>6551</v>
+        <v>6550</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>6924</v>
+        <v>6923</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>3204</v>
@@ -48736,7 +48736,7 @@
         <v>4080</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>3204</v>
@@ -48829,16 +48829,16 @@
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
-        <v>6552</v>
+        <v>6551</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>4081</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>6552</v>
+        <v>6551</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>3204</v>
@@ -48965,16 +48965,16 @@
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="B982" s="1" t="s">
         <v>4091</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>6553</v>
+        <v>6552</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>6927</v>
+        <v>6926</v>
       </c>
       <c r="E982" s="1" t="s">
         <v>3204</v>
@@ -49110,7 +49110,7 @@
         <v>4103</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>6928</v>
+        <v>6927</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>3204</v>
@@ -49322,16 +49322,16 @@
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>4116</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>6929</v>
+        <v>6928</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>3204</v>
@@ -49339,16 +49339,16 @@
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>4116</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>6555</v>
+        <v>6554</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>6930</v>
+        <v>6929</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>3204</v>
@@ -49866,16 +49866,16 @@
     </row>
     <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>4143</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>6556</v>
+        <v>6555</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>6931</v>
+        <v>6930</v>
       </c>
       <c r="E1035" s="1" t="s">
         <v>3204</v>
@@ -50427,13 +50427,13 @@
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" s="1" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>4163</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>6557</v>
+        <v>6556</v>
       </c>
       <c r="D1068" s="1" t="s">
         <v>1341</v>
@@ -50444,13 +50444,13 @@
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1069" s="1" t="s">
-        <v>6558</v>
+        <v>6557</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>4163</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>6558</v>
+        <v>6557</v>
       </c>
       <c r="D1069" s="1" t="s">
         <v>1340</v>
@@ -50487,7 +50487,7 @@
         <v>4173</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>6932</v>
+        <v>6931</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>3204</v>
@@ -50512,16 +50512,16 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" s="1" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
       <c r="B1073" s="1" t="s">
         <v>4171</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>6559</v>
+        <v>6558</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>6933</v>
+        <v>6932</v>
       </c>
       <c r="E1073" s="1" t="s">
         <v>3204</v>
@@ -50580,13 +50580,13 @@
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" s="1" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>4171</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>6560</v>
+        <v>6559</v>
       </c>
       <c r="D1077" s="1" t="s">
         <v>1342</v>
@@ -50818,16 +50818,16 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1091" s="1" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
       <c r="B1091" s="1" t="s">
         <v>4186</v>
       </c>
       <c r="C1091" s="1" t="s">
-        <v>6561</v>
+        <v>6560</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>6934</v>
+        <v>6933</v>
       </c>
       <c r="E1091" s="1" t="s">
         <v>3204</v>
@@ -50869,16 +50869,16 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1094" s="1" t="s">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="B1094" s="1" t="s">
         <v>4193</v>
       </c>
       <c r="C1094" s="1" t="s">
-        <v>6562</v>
+        <v>6561</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>6935</v>
+        <v>6934</v>
       </c>
       <c r="E1094" s="1" t="s">
         <v>3204</v>
@@ -50903,13 +50903,13 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1096" s="1" t="s">
-        <v>6563</v>
+        <v>6562</v>
       </c>
       <c r="B1096" s="1" t="s">
         <v>4193</v>
       </c>
       <c r="C1096" s="1" t="s">
-        <v>6563</v>
+        <v>6562</v>
       </c>
       <c r="D1096" s="1" t="s">
         <v>1343</v>
@@ -50920,16 +50920,16 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1097" s="1" t="s">
-        <v>6564</v>
+        <v>6563</v>
       </c>
       <c r="B1097" s="1" t="s">
         <v>4193</v>
       </c>
       <c r="C1097" s="1" t="s">
-        <v>6564</v>
+        <v>6563</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>6936</v>
+        <v>6935</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>3204</v>
@@ -51005,16 +51005,16 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1102" s="1" t="s">
-        <v>6565</v>
+        <v>6564</v>
       </c>
       <c r="B1102" s="1" t="s">
         <v>4202</v>
       </c>
       <c r="C1102" s="1" t="s">
-        <v>6565</v>
+        <v>6564</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>6937</v>
+        <v>6936</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>3204</v>
@@ -51022,16 +51022,16 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" s="1" t="s">
-        <v>6566</v>
+        <v>6565</v>
       </c>
       <c r="B1103" s="1" t="s">
         <v>4202</v>
       </c>
       <c r="C1103" s="1" t="s">
-        <v>6566</v>
+        <v>6565</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>6938</v>
+        <v>6937</v>
       </c>
       <c r="E1103" s="1" t="s">
         <v>3204</v>
@@ -51048,7 +51048,7 @@
         <v>4203</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>6867</v>
+        <v>6866</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>3204</v>
@@ -51056,13 +51056,13 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1105" s="1" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
       <c r="B1105" s="1" t="s">
         <v>4202</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>6567</v>
+        <v>6566</v>
       </c>
       <c r="D1105" s="1" t="s">
         <v>1306</v>
@@ -51116,7 +51116,7 @@
         <v>4207</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>6939</v>
+        <v>6938</v>
       </c>
       <c r="E1108" s="1" t="s">
         <v>3204</v>
@@ -51303,7 +51303,7 @@
         <v>4219</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>6940</v>
+        <v>6939</v>
       </c>
       <c r="E1119" s="1" t="s">
         <v>3204</v>
@@ -51337,7 +51337,7 @@
         <v>4221</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>6941</v>
+        <v>6940</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>3204</v>
@@ -51643,7 +51643,7 @@
         <v>4242</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>6942</v>
+        <v>6941</v>
       </c>
       <c r="E1139" s="1" t="s">
         <v>3204</v>
@@ -51677,7 +51677,7 @@
         <v>4244</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>6943</v>
+        <v>6942</v>
       </c>
       <c r="E1141" s="1" t="s">
         <v>3204</v>
@@ -51711,7 +51711,7 @@
         <v>4246</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>6944</v>
+        <v>6943</v>
       </c>
       <c r="E1143" s="1" t="s">
         <v>3204</v>
@@ -51753,16 +51753,16 @@
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1146" s="1" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>4247</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>6568</v>
+        <v>6567</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>6945</v>
+        <v>6944</v>
       </c>
       <c r="E1146" s="1" t="s">
         <v>3204</v>
@@ -52034,7 +52034,7 @@
         <v>4268</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>6946</v>
+        <v>6945</v>
       </c>
       <c r="E1162" s="1" t="s">
         <v>3204</v>
@@ -52459,7 +52459,7 @@
         <v>4286</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>6947</v>
+        <v>6946</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>3204</v>
@@ -52782,7 +52782,7 @@
         <v>4308</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>3204</v>
@@ -53266,16 +53266,16 @@
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1235" s="1" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="B1235" s="1" t="s">
         <v>4338</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>6569</v>
+        <v>6568</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="E1235" s="1" t="s">
         <v>3204</v>
@@ -53436,13 +53436,13 @@
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1245" s="1" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="B1245" s="1" t="s">
         <v>4348</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>6570</v>
+        <v>6569</v>
       </c>
       <c r="D1245" s="1" t="s">
         <v>2031</v>
@@ -53963,16 +53963,16 @@
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1276" s="1" t="s">
-        <v>6571</v>
+        <v>6570</v>
       </c>
       <c r="B1276" s="1" t="s">
         <v>4366</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>6571</v>
+        <v>6570</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>6950</v>
+        <v>6949</v>
       </c>
       <c r="E1276" s="1" t="s">
         <v>3204</v>
@@ -54193,7 +54193,7 @@
         <v>4387</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>6951</v>
+        <v>6950</v>
       </c>
       <c r="E1289" s="1" t="s">
         <v>3204</v>
@@ -54227,7 +54227,7 @@
         <v>4389</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="E1291" s="1" t="s">
         <v>3204</v>
@@ -54371,16 +54371,16 @@
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1300" s="1" t="s">
-        <v>6572</v>
+        <v>6571</v>
       </c>
       <c r="B1300" s="1" t="s">
         <v>4386</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>6572</v>
+        <v>6571</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="E1300" s="1" t="s">
         <v>3204</v>
@@ -54388,16 +54388,16 @@
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1301" s="1" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
       <c r="B1301" s="1" t="s">
         <v>4386</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>6573</v>
+        <v>6572</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="E1301" s="1" t="s">
         <v>3204</v>
@@ -54507,16 +54507,16 @@
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1308" s="1" t="s">
-        <v>6574</v>
+        <v>6573</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>4405</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>6574</v>
+        <v>6573</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="E1308" s="1" t="s">
         <v>3204</v>
@@ -54524,16 +54524,16 @@
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1309" s="1" t="s">
-        <v>6575</v>
+        <v>6574</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>4405</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>6575</v>
+        <v>6574</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>6956</v>
+        <v>6955</v>
       </c>
       <c r="E1309" s="1" t="s">
         <v>3204</v>
@@ -55204,16 +55204,16 @@
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1349" s="1" t="s">
-        <v>6576</v>
+        <v>6575</v>
       </c>
       <c r="B1349" s="1" t="s">
         <v>4447</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>6576</v>
+        <v>6575</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>6957</v>
+        <v>6956</v>
       </c>
       <c r="E1349" s="1" t="s">
         <v>3204</v>
@@ -55391,16 +55391,16 @@
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1360" s="1" t="s">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="B1360" s="1" t="s">
         <v>4458</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="E1360" s="1" t="s">
         <v>3204</v>
@@ -55417,7 +55417,7 @@
         <v>4460</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="E1361" s="1" t="s">
         <v>3204</v>
@@ -55969,16 +55969,16 @@
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1394" s="1" t="s">
-        <v>6578</v>
+        <v>6577</v>
       </c>
       <c r="B1394" s="1" t="s">
         <v>4471</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>6578</v>
+        <v>6577</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
       <c r="E1394" s="1" t="s">
         <v>3204</v>
@@ -56165,7 +56165,7 @@
         <v>4489</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
       <c r="E1405" s="1" t="s">
         <v>3204</v>
@@ -56479,16 +56479,16 @@
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
-        <v>6579</v>
+        <v>6578</v>
       </c>
       <c r="B1424" s="1" t="s">
         <v>4508</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>6579</v>
+        <v>6578</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="E1424" s="1" t="s">
         <v>3204</v>
@@ -56955,16 +56955,16 @@
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
-        <v>6580</v>
+        <v>6579</v>
       </c>
       <c r="B1452" s="1" t="s">
         <v>4539</v>
       </c>
       <c r="C1452" s="1" t="s">
-        <v>6580</v>
+        <v>6579</v>
       </c>
       <c r="D1452" s="1" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="E1452" s="1" t="s">
         <v>3204</v>
@@ -57125,16 +57125,16 @@
     </row>
     <row r="1462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
-        <v>6581</v>
+        <v>6580</v>
       </c>
       <c r="B1462" s="1" t="s">
         <v>4550</v>
       </c>
       <c r="C1462" s="1" t="s">
-        <v>6581</v>
+        <v>6580</v>
       </c>
       <c r="D1462" s="1" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="E1462" s="1" t="s">
         <v>3204</v>
@@ -57142,13 +57142,13 @@
     </row>
     <row r="1463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
       <c r="B1463" s="1" t="s">
         <v>4550</v>
       </c>
       <c r="C1463" s="1" t="s">
-        <v>6582</v>
+        <v>6581</v>
       </c>
       <c r="D1463" s="1" t="s">
         <v>1638</v>
@@ -57244,16 +57244,16 @@
     </row>
     <row r="1469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
       <c r="B1469" s="1" t="s">
         <v>4555</v>
       </c>
       <c r="C1469" s="1" t="s">
-        <v>6583</v>
+        <v>6582</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="E1469" s="1" t="s">
         <v>3204</v>
@@ -57355,7 +57355,7 @@
         <v>4563</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
       <c r="E1475" s="1" t="s">
         <v>3204</v>
@@ -57508,7 +57508,7 @@
         <v>4574</v>
       </c>
       <c r="D1484" s="1" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
       <c r="E1484" s="1" t="s">
         <v>3204</v>
@@ -57525,7 +57525,7 @@
         <v>4575</v>
       </c>
       <c r="D1485" s="1" t="s">
-        <v>6968</v>
+        <v>6967</v>
       </c>
       <c r="E1485" s="1" t="s">
         <v>3204</v>
@@ -57618,16 +57618,16 @@
     </row>
     <row r="1491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
       <c r="B1491" s="1" t="s">
         <v>4580</v>
       </c>
       <c r="C1491" s="1" t="s">
-        <v>6584</v>
+        <v>6583</v>
       </c>
       <c r="D1491" s="1" t="s">
-        <v>6969</v>
+        <v>6968</v>
       </c>
       <c r="E1491" s="1" t="s">
         <v>3204</v>
@@ -57831,7 +57831,7 @@
         <v>4594</v>
       </c>
       <c r="D1503" s="1" t="s">
-        <v>6970</v>
+        <v>6969</v>
       </c>
       <c r="E1503" s="1" t="s">
         <v>3204</v>
@@ -57882,7 +57882,7 @@
         <v>4597</v>
       </c>
       <c r="D1506" s="1" t="s">
-        <v>6971</v>
+        <v>6970</v>
       </c>
       <c r="E1506" s="1" t="s">
         <v>3204</v>
@@ -57941,16 +57941,16 @@
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
       <c r="B1510" s="1" t="s">
         <v>4600</v>
       </c>
       <c r="C1510" s="1" t="s">
-        <v>6585</v>
+        <v>6584</v>
       </c>
       <c r="D1510" s="1" t="s">
-        <v>6972</v>
+        <v>6971</v>
       </c>
       <c r="E1510" s="1" t="s">
         <v>3204</v>
@@ -58060,16 +58060,16 @@
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
-        <v>6586</v>
+        <v>6585</v>
       </c>
       <c r="B1517" s="1" t="s">
         <v>4607</v>
       </c>
       <c r="C1517" s="1" t="s">
-        <v>6586</v>
+        <v>6585</v>
       </c>
       <c r="D1517" s="1" t="s">
-        <v>6973</v>
+        <v>6972</v>
       </c>
       <c r="E1517" s="1" t="s">
         <v>3204</v>
@@ -58086,7 +58086,7 @@
         <v>4609</v>
       </c>
       <c r="D1518" s="1" t="s">
-        <v>6974</v>
+        <v>6973</v>
       </c>
       <c r="E1518" s="1" t="s">
         <v>3204</v>
@@ -58103,7 +58103,7 @@
         <v>4610</v>
       </c>
       <c r="D1519" s="1" t="s">
-        <v>6975</v>
+        <v>6974</v>
       </c>
       <c r="E1519" s="1" t="s">
         <v>3204</v>
@@ -58485,13 +58485,13 @@
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1542" s="1" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
       <c r="B1542" s="1" t="s">
         <v>4616</v>
       </c>
       <c r="C1542" s="1" t="s">
-        <v>6591</v>
+        <v>6590</v>
       </c>
       <c r="D1542" s="1" t="s">
         <v>1771</v>
@@ -58596,7 +58596,7 @@
         <v>4623</v>
       </c>
       <c r="D1548" s="1" t="s">
-        <v>6976</v>
+        <v>6975</v>
       </c>
       <c r="E1548" s="1" t="s">
         <v>3204</v>
@@ -58766,7 +58766,7 @@
         <v>4634</v>
       </c>
       <c r="D1558" s="1" t="s">
-        <v>6977</v>
+        <v>6976</v>
       </c>
       <c r="E1558" s="1" t="s">
         <v>3204</v>
@@ -58774,16 +58774,16 @@
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
-        <v>6587</v>
+        <v>6586</v>
       </c>
       <c r="B1559" s="1" t="s">
         <v>4630</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>6587</v>
+        <v>6586</v>
       </c>
       <c r="D1559" s="1" t="s">
-        <v>6978</v>
+        <v>6977</v>
       </c>
       <c r="E1559" s="1" t="s">
         <v>3204</v>
@@ -58800,7 +58800,7 @@
         <v>4635</v>
       </c>
       <c r="D1560" s="1" t="s">
-        <v>6979</v>
+        <v>6978</v>
       </c>
       <c r="E1560" s="1" t="s">
         <v>3204</v>
@@ -58902,7 +58902,7 @@
         <v>4642</v>
       </c>
       <c r="D1566" s="1" t="s">
-        <v>6980</v>
+        <v>6979</v>
       </c>
       <c r="E1566" s="1" t="s">
         <v>3204</v>
@@ -58944,13 +58944,13 @@
     </row>
     <row r="1569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1569" s="1" t="s">
-        <v>6588</v>
+        <v>6587</v>
       </c>
       <c r="B1569" s="1" t="s">
         <v>4639</v>
       </c>
       <c r="C1569" s="1" t="s">
-        <v>6588</v>
+        <v>6587</v>
       </c>
       <c r="D1569" s="1" t="s">
         <v>1720</v>
@@ -59021,7 +59021,7 @@
         <v>4648</v>
       </c>
       <c r="D1573" s="1" t="s">
-        <v>6981</v>
+        <v>6980</v>
       </c>
       <c r="E1573" s="1" t="s">
         <v>3204</v>
@@ -59208,7 +59208,7 @@
         <v>4660</v>
       </c>
       <c r="D1584" s="1" t="s">
-        <v>6982</v>
+        <v>6981</v>
       </c>
       <c r="E1584" s="1" t="s">
         <v>3204</v>
@@ -59242,7 +59242,7 @@
         <v>4662</v>
       </c>
       <c r="D1586" s="1" t="s">
-        <v>6983</v>
+        <v>6982</v>
       </c>
       <c r="E1586" s="1" t="s">
         <v>3204</v>
@@ -59395,7 +59395,7 @@
         <v>4672</v>
       </c>
       <c r="D1595" s="1" t="s">
-        <v>6984</v>
+        <v>6983</v>
       </c>
       <c r="E1595" s="1" t="s">
         <v>3204</v>
@@ -59497,7 +59497,7 @@
         <v>4679</v>
       </c>
       <c r="D1601" s="1" t="s">
-        <v>6985</v>
+        <v>6984</v>
       </c>
       <c r="E1601" s="1" t="s">
         <v>3204</v>
@@ -59514,7 +59514,7 @@
         <v>4680</v>
       </c>
       <c r="D1602" s="1" t="s">
-        <v>6986</v>
+        <v>6985</v>
       </c>
       <c r="E1602" s="1" t="s">
         <v>3204</v>
@@ -59854,7 +59854,7 @@
         <v>4702</v>
       </c>
       <c r="D1622" s="1" t="s">
-        <v>6987</v>
+        <v>6986</v>
       </c>
       <c r="E1622" s="1" t="s">
         <v>3204</v>
@@ -59956,7 +59956,7 @@
         <v>4709</v>
       </c>
       <c r="D1628" s="1" t="s">
-        <v>6988</v>
+        <v>6987</v>
       </c>
       <c r="E1628" s="1" t="s">
         <v>3204</v>
@@ -60015,16 +60015,16 @@
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1632" s="1" t="s">
-        <v>6589</v>
+        <v>6588</v>
       </c>
       <c r="B1632" s="1" t="s">
         <v>4712</v>
       </c>
       <c r="C1632" s="1" t="s">
-        <v>6589</v>
+        <v>6588</v>
       </c>
       <c r="D1632" s="1" t="s">
-        <v>6989</v>
+        <v>6988</v>
       </c>
       <c r="E1632" s="1" t="s">
         <v>3204</v>
@@ -60202,16 +60202,16 @@
     </row>
     <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1643" s="1" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
       <c r="B1643" s="1" t="s">
         <v>4724</v>
       </c>
       <c r="C1643" s="1" t="s">
-        <v>6590</v>
+        <v>6589</v>
       </c>
       <c r="D1643" s="1" t="s">
-        <v>6990</v>
+        <v>6989</v>
       </c>
       <c r="E1643" s="1" t="s">
         <v>3204</v>
@@ -60568,7 +60568,7 @@
         <v>4748</v>
       </c>
       <c r="D1664" s="1" t="s">
-        <v>6991</v>
+        <v>6990</v>
       </c>
       <c r="E1664" s="1" t="s">
         <v>3204</v>
@@ -60670,7 +60670,7 @@
         <v>4755</v>
       </c>
       <c r="D1670" s="1" t="s">
-        <v>6992</v>
+        <v>6991</v>
       </c>
       <c r="E1670" s="1" t="s">
         <v>3204</v>
@@ -60738,7 +60738,7 @@
         <v>4759</v>
       </c>
       <c r="D1674" s="1" t="s">
-        <v>6993</v>
+        <v>6992</v>
       </c>
       <c r="E1674" s="1" t="s">
         <v>3204</v>
@@ -60823,7 +60823,7 @@
         <v>4764</v>
       </c>
       <c r="D1679" s="1" t="s">
-        <v>6994</v>
+        <v>6993</v>
       </c>
       <c r="E1679" s="1" t="s">
         <v>3204</v>
@@ -61248,7 +61248,7 @@
         <v>4831</v>
       </c>
       <c r="D1704" s="1" t="s">
-        <v>6998</v>
+        <v>6997</v>
       </c>
       <c r="E1704" s="1" t="s">
         <v>3202</v>
@@ -61503,7 +61503,7 @@
         <v>4791</v>
       </c>
       <c r="D1719" s="1" t="s">
-        <v>6995</v>
+        <v>6994</v>
       </c>
       <c r="E1719" s="1" t="s">
         <v>3204</v>
@@ -61817,16 +61817,16 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" s="1" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
       <c r="B1738" s="1" t="s">
         <v>4809</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>6592</v>
+        <v>6591</v>
       </c>
       <c r="D1738" s="1" t="s">
-        <v>6996</v>
+        <v>6995</v>
       </c>
       <c r="E1738" s="1" t="s">
         <v>3204</v>
@@ -61894,7 +61894,7 @@
         <v>4815</v>
       </c>
       <c r="D1742" s="1" t="s">
-        <v>6997</v>
+        <v>6996</v>
       </c>
       <c r="E1742" s="1" t="s">
         <v>3204</v>
@@ -62183,7 +62183,7 @@
         <v>4834</v>
       </c>
       <c r="D1759" s="1" t="s">
-        <v>6999</v>
+        <v>6998</v>
       </c>
       <c r="E1759" s="1" t="s">
         <v>3204</v>
@@ -62956,13 +62956,13 @@
     </row>
     <row r="1805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
       <c r="B1805" s="1" t="s">
         <v>4886</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>6593</v>
+        <v>6592</v>
       </c>
       <c r="D1805" s="1" t="s">
         <v>1946</v>
@@ -62973,16 +62973,16 @@
     </row>
     <row r="1806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1806" s="1" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
       <c r="B1806" s="1" t="s">
         <v>4886</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>6594</v>
+        <v>6593</v>
       </c>
       <c r="D1806" s="1" t="s">
-        <v>7000</v>
+        <v>6999</v>
       </c>
       <c r="E1806" s="1" t="s">
         <v>3204</v>
@@ -63466,16 +63466,16 @@
     </row>
     <row r="1835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
-        <v>6595</v>
+        <v>6594</v>
       </c>
       <c r="B1835" s="1" t="s">
         <v>4902</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>6595</v>
+        <v>6594</v>
       </c>
       <c r="D1835" s="1" t="s">
-        <v>7001</v>
+        <v>7000</v>
       </c>
       <c r="E1835" s="1" t="s">
         <v>3204</v>
@@ -63509,7 +63509,7 @@
         <v>4909</v>
       </c>
       <c r="D1837" s="1" t="s">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="E1837" s="1" t="s">
         <v>3204</v>
@@ -63628,7 +63628,7 @@
         <v>4917</v>
       </c>
       <c r="D1844" s="1" t="s">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="E1844" s="1" t="s">
         <v>3204</v>
@@ -64410,7 +64410,7 @@
         <v>4968</v>
       </c>
       <c r="D1890" s="1" t="s">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="E1890" s="1" t="s">
         <v>3204</v>
@@ -64597,7 +64597,7 @@
         <v>4981</v>
       </c>
       <c r="D1901" s="1" t="s">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="E1901" s="1" t="s">
         <v>3204</v>
@@ -64852,7 +64852,7 @@
         <v>4998</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>3204</v>
@@ -64937,7 +64937,7 @@
         <v>5003</v>
       </c>
       <c r="D1921" s="1" t="s">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="E1921" s="1" t="s">
         <v>3204</v>
@@ -65761,16 +65761,16 @@
     </row>
     <row r="1970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1970" s="1" t="s">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B1970" s="1" t="s">
         <v>5037</v>
       </c>
       <c r="C1970" s="1" t="s">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="D1970" s="1" t="s">
-        <v>7017</v>
+        <v>7016</v>
       </c>
       <c r="E1970" s="1" t="s">
         <v>3202</v>
@@ -65965,16 +65965,16 @@
     </row>
     <row r="1982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1982" s="1" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
       <c r="B1982" s="1" t="s">
         <v>5038</v>
       </c>
       <c r="C1982" s="1" t="s">
-        <v>6596</v>
+        <v>6595</v>
       </c>
       <c r="D1982" s="1" t="s">
-        <v>7008</v>
+        <v>7007</v>
       </c>
       <c r="E1982" s="1" t="s">
         <v>3204</v>
@@ -65982,16 +65982,16 @@
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1983" s="1" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
       <c r="B1983" s="1" t="s">
         <v>5038</v>
       </c>
       <c r="C1983" s="1" t="s">
-        <v>6597</v>
+        <v>6596</v>
       </c>
       <c r="D1983" s="1" t="s">
-        <v>7009</v>
+        <v>7008</v>
       </c>
       <c r="E1983" s="1" t="s">
         <v>3204</v>
@@ -65999,16 +65999,16 @@
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1984" s="1" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
       <c r="B1984" s="1" t="s">
         <v>5038</v>
       </c>
       <c r="C1984" s="1" t="s">
-        <v>6598</v>
+        <v>6597</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>7010</v>
+        <v>7009</v>
       </c>
       <c r="E1984" s="1" t="s">
         <v>3204</v>
@@ -66288,13 +66288,13 @@
     </row>
     <row r="2001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2001" s="1" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
       <c r="B2001" s="1" t="s">
         <v>5058</v>
       </c>
       <c r="C2001" s="1" t="s">
-        <v>6599</v>
+        <v>6598</v>
       </c>
       <c r="D2001" s="1" t="s">
         <v>2335</v>
@@ -66305,16 +66305,16 @@
     </row>
     <row r="2002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2002" s="1" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
       <c r="B2002" s="1" t="s">
         <v>5058</v>
       </c>
       <c r="C2002" s="1" t="s">
-        <v>6600</v>
+        <v>6599</v>
       </c>
       <c r="D2002" s="1" t="s">
-        <v>7011</v>
+        <v>7010</v>
       </c>
       <c r="E2002" s="1" t="s">
         <v>3204</v>
@@ -66866,16 +66866,16 @@
     </row>
     <row r="2035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2035" s="1" t="s">
-        <v>6601</v>
+        <v>6600</v>
       </c>
       <c r="B2035" s="1" t="s">
         <v>5101</v>
       </c>
       <c r="C2035" s="1" t="s">
-        <v>6601</v>
+        <v>6600</v>
       </c>
       <c r="D2035" s="1" t="s">
-        <v>7012</v>
+        <v>7011</v>
       </c>
       <c r="E2035" s="1" t="s">
         <v>3204</v>
@@ -66968,16 +66968,16 @@
     </row>
     <row r="2041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2041" s="1" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
       <c r="B2041" s="1" t="s">
         <v>5106</v>
       </c>
       <c r="C2041" s="1" t="s">
-        <v>6602</v>
+        <v>6601</v>
       </c>
       <c r="D2041" s="1" t="s">
-        <v>7013</v>
+        <v>7012</v>
       </c>
       <c r="E2041" s="1" t="s">
         <v>3204</v>
@@ -67172,16 +67172,16 @@
     </row>
     <row r="2053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2053" s="1" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B2053" s="1" t="s">
         <v>5120</v>
       </c>
       <c r="C2053" s="1" t="s">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="D2053" s="1" t="s">
-        <v>7014</v>
+        <v>7013</v>
       </c>
       <c r="E2053" s="1" t="s">
         <v>3204</v>
@@ -67300,7 +67300,7 @@
         <v>5129</v>
       </c>
       <c r="D2060" s="1" t="s">
-        <v>6865</v>
+        <v>6864</v>
       </c>
       <c r="E2060" s="1" t="s">
         <v>3204</v>
@@ -67478,16 +67478,16 @@
     </row>
     <row r="2071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2071" s="1" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B2071" s="1" t="s">
         <v>5140</v>
       </c>
       <c r="C2071" s="1" t="s">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="D2071" s="1" t="s">
-        <v>7015</v>
+        <v>7014</v>
       </c>
       <c r="E2071" s="1" t="s">
         <v>3204</v>
@@ -67546,16 +67546,16 @@
     </row>
     <row r="2075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2075" s="1" t="s">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B2075" s="1" t="s">
         <v>5144</v>
       </c>
       <c r="C2075" s="1" t="s">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>7016</v>
+        <v>7015</v>
       </c>
       <c r="E2075" s="1" t="s">
         <v>3204</v>
@@ -67682,16 +67682,16 @@
     </row>
     <row r="2083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2083" s="1" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
       <c r="B2083" s="1" t="s">
         <v>5154</v>
       </c>
       <c r="C2083" s="1" t="s">
-        <v>6607</v>
+        <v>6606</v>
       </c>
       <c r="D2083" s="1" t="s">
-        <v>7018</v>
+        <v>7017</v>
       </c>
       <c r="E2083" s="1" t="s">
         <v>3204</v>
@@ -67733,16 +67733,16 @@
     </row>
     <row r="2086" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
       <c r="B2086" s="1" t="s">
         <v>5157</v>
       </c>
       <c r="C2086" s="1" t="s">
-        <v>6608</v>
+        <v>6607</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>7019</v>
+        <v>7018</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>3204</v>
@@ -67818,16 +67818,16 @@
     </row>
     <row r="2091" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2091" s="1" t="s">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="B2091" s="1" t="s">
         <v>5162</v>
       </c>
       <c r="C2091" s="1" t="s">
-        <v>6609</v>
+        <v>6608</v>
       </c>
       <c r="D2091" s="1" t="s">
-        <v>7020</v>
+        <v>7019</v>
       </c>
       <c r="E2091" s="1" t="s">
         <v>3204</v>
@@ -68226,16 +68226,16 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" s="1" t="s">
-        <v>6610</v>
+        <v>6609</v>
       </c>
       <c r="B2115" s="1" t="s">
         <v>5168</v>
       </c>
       <c r="C2115" s="1" t="s">
-        <v>6610</v>
+        <v>6609</v>
       </c>
       <c r="D2115" s="1" t="s">
-        <v>7021</v>
+        <v>7020</v>
       </c>
       <c r="E2115" s="1" t="s">
         <v>3204</v>
@@ -68320,7 +68320,7 @@
         <v>5179</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>7022</v>
+        <v>7021</v>
       </c>
       <c r="E2120" s="1" t="s">
         <v>3204</v>
@@ -68396,16 +68396,16 @@
     </row>
     <row r="2125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2125" s="1" t="s">
-        <v>6611</v>
+        <v>6610</v>
       </c>
       <c r="B2125" s="1" t="s">
         <v>5180</v>
       </c>
       <c r="C2125" s="1" t="s">
-        <v>6611</v>
+        <v>6610</v>
       </c>
       <c r="D2125" s="1" t="s">
-        <v>7023</v>
+        <v>7022</v>
       </c>
       <c r="E2125" s="1" t="s">
         <v>3204</v>
@@ -68583,16 +68583,16 @@
     </row>
     <row r="2136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2136" s="1" t="s">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="B2136" s="1" t="s">
         <v>5190</v>
       </c>
       <c r="C2136" s="1" t="s">
-        <v>6612</v>
+        <v>6611</v>
       </c>
       <c r="D2136" s="1" t="s">
-        <v>7024</v>
+        <v>7023</v>
       </c>
       <c r="E2136" s="1" t="s">
         <v>3204</v>
@@ -68762,7 +68762,7 @@
         <v>5205</v>
       </c>
       <c r="D2146" s="1" t="s">
-        <v>7025</v>
+        <v>7024</v>
       </c>
       <c r="E2146" s="1" t="s">
         <v>3204</v>
@@ -68821,16 +68821,16 @@
     </row>
     <row r="2150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2150" s="1" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="B2150" s="1" t="s">
         <v>5207</v>
       </c>
       <c r="C2150" s="1" t="s">
-        <v>6613</v>
+        <v>6612</v>
       </c>
       <c r="D2150" s="1" t="s">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="E2150" s="1" t="s">
         <v>3204</v>
@@ -68864,7 +68864,7 @@
         <v>5211</v>
       </c>
       <c r="D2152" s="1" t="s">
-        <v>7027</v>
+        <v>7026</v>
       </c>
       <c r="E2152" s="1" t="s">
         <v>3204</v>
@@ -69212,16 +69212,16 @@
     </row>
     <row r="2173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2173" s="1" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="B2173" s="1" t="s">
         <v>5235</v>
       </c>
       <c r="C2173" s="1" t="s">
-        <v>6614</v>
+        <v>6613</v>
       </c>
       <c r="D2173" s="1" t="s">
-        <v>7028</v>
+        <v>7027</v>
       </c>
       <c r="E2173" s="1" t="s">
         <v>3204</v>
@@ -69238,7 +69238,7 @@
         <v>5237</v>
       </c>
       <c r="D2174" s="1" t="s">
-        <v>7029</v>
+        <v>7028</v>
       </c>
       <c r="E2174" s="1" t="s">
         <v>3204</v>
@@ -69501,16 +69501,16 @@
     </row>
     <row r="2190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2190" s="1" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
       <c r="B2190" s="1" t="s">
         <v>5242</v>
       </c>
       <c r="C2190" s="1" t="s">
-        <v>6615</v>
+        <v>6614</v>
       </c>
       <c r="D2190" s="1" t="s">
-        <v>7030</v>
+        <v>7029</v>
       </c>
       <c r="E2190" s="1" t="s">
         <v>3204</v>
@@ -69535,16 +69535,16 @@
     </row>
     <row r="2192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
       <c r="B2192" s="1" t="s">
         <v>5254</v>
       </c>
       <c r="C2192" s="1" t="s">
-        <v>6616</v>
+        <v>6615</v>
       </c>
       <c r="D2192" s="1" t="s">
-        <v>7031</v>
+        <v>7030</v>
       </c>
       <c r="E2192" s="1" t="s">
         <v>3204</v>
@@ -69620,16 +69620,16 @@
     </row>
     <row r="2197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2197" s="1" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
       <c r="B2197" s="1" t="s">
         <v>5259</v>
       </c>
       <c r="C2197" s="1" t="s">
-        <v>6617</v>
+        <v>6616</v>
       </c>
       <c r="D2197" s="1" t="s">
-        <v>7032</v>
+        <v>7031</v>
       </c>
       <c r="E2197" s="1" t="s">
         <v>3204</v>
@@ -69901,7 +69901,7 @@
         <v>5278</v>
       </c>
       <c r="D2213" s="1" t="s">
-        <v>7033</v>
+        <v>7032</v>
       </c>
       <c r="E2213" s="1" t="s">
         <v>3204</v>
@@ -70045,16 +70045,16 @@
     </row>
     <row r="2222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="B2222" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2222" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>7038</v>
+        <v>7037</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>3202</v>
@@ -70062,13 +70062,13 @@
     </row>
     <row r="2223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2223" s="1" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
       <c r="B2223" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2223" s="1" t="s">
-        <v>6626</v>
+        <v>6625</v>
       </c>
       <c r="D2223" s="1" t="s">
         <v>2341</v>
@@ -70164,13 +70164,13 @@
     </row>
     <row r="2229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
       <c r="B2229" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2229" s="1" t="s">
-        <v>6627</v>
+        <v>6626</v>
       </c>
       <c r="D2229" s="1" t="s">
         <v>2345</v>
@@ -70181,13 +70181,13 @@
     </row>
     <row r="2230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="B2230" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2230" s="1" t="s">
-        <v>6628</v>
+        <v>6627</v>
       </c>
       <c r="D2230" s="1" t="s">
         <v>2346</v>
@@ -70198,13 +70198,13 @@
     </row>
     <row r="2231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
       <c r="B2231" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2231" s="1" t="s">
-        <v>6629</v>
+        <v>6628</v>
       </c>
       <c r="D2231" s="1" t="s">
         <v>2347</v>
@@ -70215,13 +70215,13 @@
     </row>
     <row r="2232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>6630</v>
+        <v>6629</v>
       </c>
       <c r="B2232" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2232" s="1" t="s">
-        <v>6630</v>
+        <v>6629</v>
       </c>
       <c r="D2232" s="1" t="s">
         <v>2348</v>
@@ -70300,13 +70300,13 @@
     </row>
     <row r="2237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
       <c r="B2237" s="1" t="s">
         <v>5285</v>
       </c>
       <c r="C2237" s="1" t="s">
-        <v>6631</v>
+        <v>6630</v>
       </c>
       <c r="D2237" s="1" t="s">
         <v>2353</v>
@@ -70402,16 +70402,16 @@
     </row>
     <row r="2243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2243" s="1" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
       <c r="B2243" s="1" t="s">
         <v>5291</v>
       </c>
       <c r="C2243" s="1" t="s">
-        <v>6618</v>
+        <v>6617</v>
       </c>
       <c r="D2243" s="1" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="E2243" s="1" t="s">
         <v>3204</v>
@@ -70419,16 +70419,16 @@
     </row>
     <row r="2244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2244" s="1" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
       <c r="B2244" s="1" t="s">
         <v>5291</v>
       </c>
       <c r="C2244" s="1" t="s">
-        <v>6619</v>
+        <v>6618</v>
       </c>
       <c r="D2244" s="1" t="s">
-        <v>7035</v>
+        <v>7034</v>
       </c>
       <c r="E2244" s="1" t="s">
         <v>3204</v>
@@ -70436,16 +70436,16 @@
     </row>
     <row r="2245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2245" s="1" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
       <c r="B2245" s="1" t="s">
         <v>5291</v>
       </c>
       <c r="C2245" s="1" t="s">
-        <v>6620</v>
+        <v>6619</v>
       </c>
       <c r="D2245" s="1" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="E2245" s="1" t="s">
         <v>3204</v>
@@ -70453,16 +70453,16 @@
     </row>
     <row r="2246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2246" s="1" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
       <c r="B2246" s="1" t="s">
         <v>5291</v>
       </c>
       <c r="C2246" s="1" t="s">
-        <v>6621</v>
+        <v>6620</v>
       </c>
       <c r="D2246" s="1" t="s">
-        <v>7037</v>
+        <v>7036</v>
       </c>
       <c r="E2246" s="1" t="s">
         <v>3204</v>
@@ -70470,13 +70470,13 @@
     </row>
     <row r="2247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2247" s="1" t="s">
-        <v>6623</v>
+        <v>6622</v>
       </c>
       <c r="B2247" s="1" t="s">
+        <v>6621</v>
+      </c>
+      <c r="C2247" s="1" t="s">
         <v>6622</v>
-      </c>
-      <c r="C2247" s="1" t="s">
-        <v>6623</v>
       </c>
       <c r="D2247" s="1" t="s">
         <v>2355</v>
@@ -70487,13 +70487,13 @@
     </row>
     <row r="2248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2248" s="1" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="B2248" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="C2248" s="1" t="s">
-        <v>6624</v>
+        <v>6623</v>
       </c>
       <c r="D2248" s="1" t="s">
         <v>2356</v>
@@ -70504,16 +70504,16 @@
     </row>
     <row r="2249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
-        <v>6625</v>
+        <v>6624</v>
       </c>
       <c r="B2249" s="1" t="s">
-        <v>6622</v>
+        <v>6621</v>
       </c>
       <c r="C2249" s="1" t="s">
-        <v>6625</v>
+        <v>6624</v>
       </c>
       <c r="D2249" s="1" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
       <c r="E2249" s="1" t="s">
         <v>3204</v>
@@ -70530,7 +70530,7 @@
         <v>5303</v>
       </c>
       <c r="D2250" s="1" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
       <c r="E2250" s="1" t="s">
         <v>3202</v>
@@ -70547,7 +70547,7 @@
         <v>5319</v>
       </c>
       <c r="D2251" s="1" t="s">
-        <v>7054</v>
+        <v>7053</v>
       </c>
       <c r="E2251" s="1" t="s">
         <v>3202</v>
@@ -70717,7 +70717,7 @@
         <v>5313</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>7041</v>
+        <v>7040</v>
       </c>
       <c r="E2261" s="1" t="s">
         <v>3204</v>
@@ -70734,7 +70734,7 @@
         <v>5314</v>
       </c>
       <c r="D2262" s="1" t="s">
-        <v>7042</v>
+        <v>7041</v>
       </c>
       <c r="E2262" s="1" t="s">
         <v>3204</v>
@@ -70810,16 +70810,16 @@
     </row>
     <row r="2267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="B2267" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2267" s="1" t="s">
-        <v>6632</v>
+        <v>6631</v>
       </c>
       <c r="D2267" s="1" t="s">
-        <v>7043</v>
+        <v>7042</v>
       </c>
       <c r="E2267" s="1" t="s">
         <v>3204</v>
@@ -70827,16 +70827,16 @@
     </row>
     <row r="2268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
       <c r="B2268" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2268" s="1" t="s">
-        <v>6633</v>
+        <v>6632</v>
       </c>
       <c r="D2268" s="1" t="s">
-        <v>7044</v>
+        <v>7043</v>
       </c>
       <c r="E2268" s="1" t="s">
         <v>3204</v>
@@ -70844,16 +70844,16 @@
     </row>
     <row r="2269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="B2269" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2269" s="1" t="s">
-        <v>6634</v>
+        <v>6633</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
       <c r="E2269" s="1" t="s">
         <v>3204</v>
@@ -70861,16 +70861,16 @@
     </row>
     <row r="2270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2270" s="1" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="B2270" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2270" s="1" t="s">
-        <v>6635</v>
+        <v>6634</v>
       </c>
       <c r="D2270" s="1" t="s">
-        <v>7046</v>
+        <v>7045</v>
       </c>
       <c r="E2270" s="1" t="s">
         <v>3204</v>
@@ -70878,16 +70878,16 @@
     </row>
     <row r="2271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
-        <v>6636</v>
+        <v>6635</v>
       </c>
       <c r="B2271" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2271" s="1" t="s">
-        <v>6636</v>
+        <v>6635</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>7047</v>
+        <v>7046</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>3204</v>
@@ -70895,16 +70895,16 @@
     </row>
     <row r="2272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2272" s="1" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="B2272" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2272" s="1" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="D2272" s="1" t="s">
-        <v>7048</v>
+        <v>7047</v>
       </c>
       <c r="E2272" s="1" t="s">
         <v>3204</v>
@@ -70912,16 +70912,16 @@
     </row>
     <row r="2273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
       <c r="B2273" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2273" s="1" t="s">
-        <v>6638</v>
+        <v>6637</v>
       </c>
       <c r="D2273" s="1" t="s">
-        <v>7049</v>
+        <v>7048</v>
       </c>
       <c r="E2273" s="1" t="s">
         <v>3204</v>
@@ -70929,16 +70929,16 @@
     </row>
     <row r="2274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="B2274" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2274" s="1" t="s">
-        <v>6639</v>
+        <v>6638</v>
       </c>
       <c r="D2274" s="1" t="s">
-        <v>7050</v>
+        <v>7049</v>
       </c>
       <c r="E2274" s="1" t="s">
         <v>3204</v>
@@ -70946,16 +70946,16 @@
     </row>
     <row r="2275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="B2275" s="1" t="s">
         <v>5303</v>
       </c>
       <c r="C2275" s="1" t="s">
-        <v>6640</v>
+        <v>6639</v>
       </c>
       <c r="D2275" s="1" t="s">
-        <v>7051</v>
+        <v>7050</v>
       </c>
       <c r="E2275" s="1" t="s">
         <v>3204</v>
@@ -70963,16 +70963,16 @@
     </row>
     <row r="2276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
       <c r="B2276" s="1" t="s">
         <v>5319</v>
       </c>
       <c r="C2276" s="1" t="s">
-        <v>6641</v>
+        <v>6640</v>
       </c>
       <c r="D2276" s="1" t="s">
-        <v>7052</v>
+        <v>7051</v>
       </c>
       <c r="E2276" s="1" t="s">
         <v>3204</v>
@@ -70980,16 +70980,16 @@
     </row>
     <row r="2277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
       <c r="B2277" s="1" t="s">
         <v>5319</v>
       </c>
       <c r="C2277" s="1" t="s">
-        <v>6642</v>
+        <v>6641</v>
       </c>
       <c r="D2277" s="1" t="s">
-        <v>7053</v>
+        <v>7052</v>
       </c>
       <c r="E2277" s="1" t="s">
         <v>3204</v>
@@ -71057,7 +71057,7 @@
         <v>5323</v>
       </c>
       <c r="D2281" s="1" t="s">
-        <v>7055</v>
+        <v>7054</v>
       </c>
       <c r="E2281" s="1" t="s">
         <v>3204</v>
@@ -71711,16 +71711,16 @@
     </row>
     <row r="2320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="B2320" s="1" t="s">
         <v>5333</v>
       </c>
       <c r="C2320" s="1" t="s">
-        <v>6643</v>
+        <v>6642</v>
       </c>
       <c r="D2320" s="1" t="s">
-        <v>7056</v>
+        <v>7055</v>
       </c>
       <c r="E2320" s="1" t="s">
         <v>3204</v>
@@ -71728,16 +71728,16 @@
     </row>
     <row r="2321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="B2321" s="1" t="s">
         <v>5333</v>
       </c>
       <c r="C2321" s="1" t="s">
-        <v>6644</v>
+        <v>6643</v>
       </c>
       <c r="D2321" s="1" t="s">
-        <v>7057</v>
+        <v>7056</v>
       </c>
       <c r="E2321" s="1" t="s">
         <v>3204</v>
@@ -71881,13 +71881,13 @@
     </row>
     <row r="2330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2330" s="1" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
       <c r="B2330" s="1" t="s">
         <v>5333</v>
       </c>
       <c r="C2330" s="1" t="s">
-        <v>6645</v>
+        <v>6644</v>
       </c>
       <c r="D2330" s="1" t="s">
         <v>2511</v>
@@ -71975,7 +71975,7 @@
         <v>5356</v>
       </c>
       <c r="D2335" s="1" t="s">
-        <v>7058</v>
+        <v>7057</v>
       </c>
       <c r="E2335" s="1" t="s">
         <v>3204</v>
@@ -72009,7 +72009,7 @@
         <v>5359</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
       <c r="E2337" s="1" t="s">
         <v>3204</v>
@@ -72026,7 +72026,7 @@
         <v>5360</v>
       </c>
       <c r="D2338" s="1" t="s">
-        <v>7060</v>
+        <v>7059</v>
       </c>
       <c r="E2338" s="1" t="s">
         <v>3204</v>
@@ -72145,7 +72145,7 @@
         <v>5368</v>
       </c>
       <c r="D2345" s="1" t="s">
-        <v>7061</v>
+        <v>7060</v>
       </c>
       <c r="E2345" s="1" t="s">
         <v>3204</v>
@@ -72247,7 +72247,7 @@
         <v>5375</v>
       </c>
       <c r="D2351" s="1" t="s">
-        <v>7062</v>
+        <v>7061</v>
       </c>
       <c r="E2351" s="1" t="s">
         <v>3204</v>
@@ -72340,16 +72340,16 @@
     </row>
     <row r="2357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2357" s="1" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="B2357" s="1" t="s">
         <v>5379</v>
       </c>
       <c r="C2357" s="1" t="s">
-        <v>6646</v>
+        <v>6645</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>7063</v>
+        <v>7062</v>
       </c>
       <c r="E2357" s="1" t="s">
         <v>3204</v>
@@ -72468,7 +72468,7 @@
         <v>5389</v>
       </c>
       <c r="D2364" s="1" t="s">
-        <v>7064</v>
+        <v>7063</v>
       </c>
       <c r="E2364" s="1" t="s">
         <v>3204</v>
@@ -72485,7 +72485,7 @@
         <v>5390</v>
       </c>
       <c r="D2365" s="1" t="s">
-        <v>7065</v>
+        <v>7064</v>
       </c>
       <c r="E2365" s="1" t="s">
         <v>3204</v>
@@ -72731,16 +72731,16 @@
     </row>
     <row r="2380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2380" s="1" t="s">
-        <v>6647</v>
+        <v>6646</v>
       </c>
       <c r="B2380" s="1" t="s">
         <v>5402</v>
       </c>
       <c r="C2380" s="1" t="s">
-        <v>6647</v>
+        <v>6646</v>
       </c>
       <c r="D2380" s="1" t="s">
-        <v>7066</v>
+        <v>7065</v>
       </c>
       <c r="E2380" s="1" t="s">
         <v>3204</v>
@@ -73105,16 +73105,16 @@
     </row>
     <row r="2402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2402" s="1" t="s">
-        <v>6648</v>
+        <v>6647</v>
       </c>
       <c r="B2402" s="1" t="s">
         <v>5429</v>
       </c>
       <c r="C2402" s="1" t="s">
-        <v>6648</v>
+        <v>6647</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>7067</v>
+        <v>7066</v>
       </c>
       <c r="E2402" s="1" t="s">
         <v>3204</v>
@@ -73207,16 +73207,16 @@
     </row>
     <row r="2408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2408" s="1" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
       <c r="B2408" s="1" t="s">
         <v>5435</v>
       </c>
       <c r="C2408" s="1" t="s">
-        <v>6649</v>
+        <v>6648</v>
       </c>
       <c r="D2408" s="1" t="s">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="E2408" s="1" t="s">
         <v>3204</v>
@@ -73284,7 +73284,7 @@
         <v>5440</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>7069</v>
+        <v>7068</v>
       </c>
       <c r="E2412" s="1" t="s">
         <v>3204</v>
@@ -73301,7 +73301,7 @@
         <v>5441</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>7070</v>
+        <v>7069</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>3204</v>
@@ -73377,16 +73377,16 @@
     </row>
     <row r="2418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2418" s="1" t="s">
-        <v>6650</v>
+        <v>6649</v>
       </c>
       <c r="B2418" s="1" t="s">
         <v>5445</v>
       </c>
       <c r="C2418" s="1" t="s">
-        <v>6650</v>
+        <v>6649</v>
       </c>
       <c r="D2418" s="1" t="s">
-        <v>7071</v>
+        <v>7070</v>
       </c>
       <c r="E2418" s="1" t="s">
         <v>3204</v>
@@ -73454,7 +73454,7 @@
         <v>5450</v>
       </c>
       <c r="D2422" s="1" t="s">
-        <v>7072</v>
+        <v>7071</v>
       </c>
       <c r="E2422" s="1" t="s">
         <v>3204</v>
@@ -73479,16 +73479,16 @@
     </row>
     <row r="2424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2424" s="1" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="B2424" s="1" t="s">
         <v>5451</v>
       </c>
       <c r="C2424" s="1" t="s">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="D2424" s="1" t="s">
-        <v>7073</v>
+        <v>7072</v>
       </c>
       <c r="E2424" s="1" t="s">
         <v>3204</v>
@@ -73556,7 +73556,7 @@
         <v>5456</v>
       </c>
       <c r="D2428" s="1" t="s">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="E2428" s="1" t="s">
         <v>3204</v>
@@ -73598,16 +73598,16 @@
     </row>
     <row r="2431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2431" s="1" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="B2431" s="1" t="s">
         <v>5458</v>
       </c>
       <c r="C2431" s="1" t="s">
-        <v>6652</v>
+        <v>6651</v>
       </c>
       <c r="D2431" s="1" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
       <c r="E2431" s="1" t="s">
         <v>3204</v>
@@ -73734,16 +73734,16 @@
     </row>
     <row r="2439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2439" s="1" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
       <c r="B2439" s="1" t="s">
         <v>5466</v>
       </c>
       <c r="C2439" s="1" t="s">
-        <v>6653</v>
+        <v>6652</v>
       </c>
       <c r="D2439" s="1" t="s">
-        <v>7076</v>
+        <v>7075</v>
       </c>
       <c r="E2439" s="1" t="s">
         <v>3204</v>
@@ -73853,16 +73853,16 @@
     </row>
     <row r="2446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2446" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
       <c r="B2446" s="1" t="s">
         <v>5475</v>
       </c>
       <c r="C2446" s="1" t="s">
-        <v>6654</v>
+        <v>6653</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>7077</v>
+        <v>7076</v>
       </c>
       <c r="E2446" s="1" t="s">
         <v>3204</v>
@@ -73896,7 +73896,7 @@
         <v>5477</v>
       </c>
       <c r="D2448" s="1" t="s">
-        <v>7078</v>
+        <v>7077</v>
       </c>
       <c r="E2448" s="1" t="s">
         <v>3204</v>
@@ -73913,7 +73913,7 @@
         <v>5478</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>7079</v>
+        <v>7078</v>
       </c>
       <c r="E2449" s="1" t="s">
         <v>3204</v>
@@ -74074,16 +74074,16 @@
     </row>
     <row r="2459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2459" s="1" t="s">
-        <v>6655</v>
+        <v>6654</v>
       </c>
       <c r="B2459" s="1" t="s">
         <v>5488</v>
       </c>
       <c r="C2459" s="1" t="s">
-        <v>6655</v>
+        <v>6654</v>
       </c>
       <c r="D2459" s="1" t="s">
-        <v>7080</v>
+        <v>7079</v>
       </c>
       <c r="E2459" s="1" t="s">
         <v>3204</v>
@@ -74737,13 +74737,13 @@
     </row>
     <row r="2498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2498" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="B2498" s="1" t="s">
         <v>5524</v>
       </c>
       <c r="C2498" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="D2498" s="1" t="s">
         <v>2602</v>
@@ -74754,13 +74754,13 @@
     </row>
     <row r="2499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2499" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="B2499" s="1" t="s">
         <v>5524</v>
       </c>
       <c r="C2499" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="D2499" s="1" t="s">
         <v>2593</v>
@@ -74771,16 +74771,16 @@
     </row>
     <row r="2500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2500" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="B2500" s="1" t="s">
         <v>5524</v>
       </c>
       <c r="C2500" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="D2500" s="1" t="s">
-        <v>7089</v>
+        <v>7088</v>
       </c>
       <c r="E2500" s="1" t="s">
         <v>3202</v>
@@ -74907,16 +74907,16 @@
     </row>
     <row r="2508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2508" s="1" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="B2508" s="1" t="s">
         <v>5525</v>
       </c>
       <c r="C2508" s="1" t="s">
-        <v>6656</v>
+        <v>6655</v>
       </c>
       <c r="D2508" s="1" t="s">
-        <v>7081</v>
+        <v>7080</v>
       </c>
       <c r="E2508" s="1" t="s">
         <v>3204</v>
@@ -75043,16 +75043,16 @@
     </row>
     <row r="2516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2516" s="1" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="B2516" s="1" t="s">
         <v>5535</v>
       </c>
       <c r="C2516" s="1" t="s">
-        <v>6657</v>
+        <v>6656</v>
       </c>
       <c r="D2516" s="1" t="s">
-        <v>7082</v>
+        <v>7081</v>
       </c>
       <c r="E2516" s="1" t="s">
         <v>3204</v>
@@ -75094,16 +75094,16 @@
     </row>
     <row r="2519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2519" s="1" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="B2519" s="1" t="s">
         <v>5539</v>
       </c>
       <c r="C2519" s="1" t="s">
-        <v>6658</v>
+        <v>6657</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="E2519" s="1" t="s">
         <v>3204</v>
@@ -75315,16 +75315,16 @@
     </row>
     <row r="2532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2532" s="1" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
       <c r="B2532" s="1" t="s">
         <v>5553</v>
       </c>
       <c r="C2532" s="1" t="s">
-        <v>6659</v>
+        <v>6658</v>
       </c>
       <c r="D2532" s="1" t="s">
-        <v>7084</v>
+        <v>7083</v>
       </c>
       <c r="E2532" s="1" t="s">
         <v>3204</v>
@@ -75400,16 +75400,16 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" s="1" t="s">
-        <v>6661</v>
+        <v>6660</v>
       </c>
       <c r="B2537" s="1" t="s">
+        <v>6659</v>
+      </c>
+      <c r="C2537" s="1" t="s">
         <v>6660</v>
       </c>
-      <c r="C2537" s="1" t="s">
-        <v>6661</v>
-      </c>
       <c r="D2537" s="1" t="s">
-        <v>7085</v>
+        <v>7084</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>3204</v>
@@ -75417,13 +75417,13 @@
     </row>
     <row r="2538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2538" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="B2538" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2538" s="1" t="s">
-        <v>6662</v>
+        <v>6661</v>
       </c>
       <c r="D2538" s="1" t="s">
         <v>2603</v>
@@ -75434,13 +75434,13 @@
     </row>
     <row r="2539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2539" s="1" t="s">
-        <v>6663</v>
+        <v>6662</v>
       </c>
       <c r="B2539" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2539" s="1" t="s">
-        <v>6663</v>
+        <v>6662</v>
       </c>
       <c r="D2539" s="1" t="s">
         <v>2604</v>
@@ -75451,13 +75451,13 @@
     </row>
     <row r="2540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2540" s="1" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
       <c r="B2540" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2540" s="1" t="s">
-        <v>6664</v>
+        <v>6663</v>
       </c>
       <c r="D2540" s="1" t="s">
         <v>2605</v>
@@ -75468,13 +75468,13 @@
     </row>
     <row r="2541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2541" s="1" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2541" s="1" t="s">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="D2541" s="1" t="s">
         <v>2606</v>
@@ -75485,13 +75485,13 @@
     </row>
     <row r="2542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2542" s="1" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2542" s="1" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="D2542" s="1" t="s">
         <v>2607</v>
@@ -75502,16 +75502,16 @@
     </row>
     <row r="2543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2543" s="1" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2543" s="1" t="s">
-        <v>6667</v>
+        <v>6666</v>
       </c>
       <c r="D2543" s="1" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="E2543" s="1" t="s">
         <v>3204</v>
@@ -75519,13 +75519,13 @@
     </row>
     <row r="2544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2544" s="1" t="s">
-        <v>6668</v>
+        <v>6667</v>
       </c>
       <c r="B2544" s="1" t="s">
-        <v>6660</v>
+        <v>6659</v>
       </c>
       <c r="C2544" s="1" t="s">
-        <v>6668</v>
+        <v>6667</v>
       </c>
       <c r="D2544" s="1" t="s">
         <v>2608</v>
@@ -75536,16 +75536,16 @@
     </row>
     <row r="2545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2545" s="1" t="s">
-        <v>6670</v>
+        <v>6669</v>
       </c>
       <c r="B2545" s="1" t="s">
+        <v>6668</v>
+      </c>
+      <c r="C2545" s="1" t="s">
         <v>6669</v>
       </c>
-      <c r="C2545" s="1" t="s">
-        <v>6670</v>
-      </c>
       <c r="D2545" s="1" t="s">
-        <v>7087</v>
+        <v>7086</v>
       </c>
       <c r="E2545" s="1" t="s">
         <v>3204</v>
@@ -75553,16 +75553,16 @@
     </row>
     <row r="2546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2546" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2546" s="1" t="s">
-        <v>6671</v>
+        <v>6670</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>7088</v>
+        <v>7087</v>
       </c>
       <c r="E2546" s="1" t="s">
         <v>3204</v>
@@ -75570,13 +75570,13 @@
     </row>
     <row r="2547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2547" s="1" t="s">
-        <v>6672</v>
+        <v>6671</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2547" s="1" t="s">
-        <v>6672</v>
+        <v>6671</v>
       </c>
       <c r="D2547" s="1" t="s">
         <v>2594</v>
@@ -75587,13 +75587,13 @@
     </row>
     <row r="2548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2548" s="1" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2548" s="1" t="s">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="D2548" s="1" t="s">
         <v>2595</v>
@@ -75604,13 +75604,13 @@
     </row>
     <row r="2549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2549" s="1" t="s">
-        <v>6674</v>
+        <v>6673</v>
       </c>
       <c r="B2549" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2549" s="1" t="s">
-        <v>6674</v>
+        <v>6673</v>
       </c>
       <c r="D2549" s="1" t="s">
         <v>2596</v>
@@ -75621,13 +75621,13 @@
     </row>
     <row r="2550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2550" s="1" t="s">
-        <v>6675</v>
+        <v>6674</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2550" s="1" t="s">
-        <v>6675</v>
+        <v>6674</v>
       </c>
       <c r="D2550" s="1" t="s">
         <v>2597</v>
@@ -75638,13 +75638,13 @@
     </row>
     <row r="2551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2551" s="1" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="B2551" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2551" s="1" t="s">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="D2551" s="1" t="s">
         <v>2598</v>
@@ -75655,13 +75655,13 @@
     </row>
     <row r="2552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2552" s="1" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2552" s="1" t="s">
-        <v>6677</v>
+        <v>6676</v>
       </c>
       <c r="D2552" s="1" t="s">
         <v>2599</v>
@@ -75672,13 +75672,13 @@
     </row>
     <row r="2553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2553" s="1" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="B2553" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2553" s="1" t="s">
-        <v>6678</v>
+        <v>6677</v>
       </c>
       <c r="D2553" s="1" t="s">
         <v>2600</v>
@@ -75689,13 +75689,13 @@
     </row>
     <row r="2554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2554" s="1" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>6669</v>
+        <v>6668</v>
       </c>
       <c r="C2554" s="1" t="s">
-        <v>6679</v>
+        <v>6678</v>
       </c>
       <c r="D2554" s="1" t="s">
         <v>2601</v>
@@ -75706,16 +75706,16 @@
     </row>
     <row r="2555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2555" s="1" t="s">
-        <v>6681</v>
+        <v>6680</v>
       </c>
       <c r="B2555" s="1" t="s">
+        <v>6679</v>
+      </c>
+      <c r="C2555" s="1" t="s">
         <v>6680</v>
       </c>
-      <c r="C2555" s="1" t="s">
-        <v>6681</v>
-      </c>
       <c r="D2555" s="1" t="s">
-        <v>7090</v>
+        <v>7089</v>
       </c>
       <c r="E2555" s="1" t="s">
         <v>3204</v>
@@ -75723,16 +75723,16 @@
     </row>
     <row r="2556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2556" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2556" s="1" t="s">
-        <v>6682</v>
+        <v>6681</v>
       </c>
       <c r="D2556" s="1" t="s">
-        <v>7091</v>
+        <v>7090</v>
       </c>
       <c r="E2556" s="1" t="s">
         <v>3204</v>
@@ -75740,16 +75740,16 @@
     </row>
     <row r="2557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2557" s="1" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="B2557" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2557" s="1" t="s">
-        <v>6683</v>
+        <v>6682</v>
       </c>
       <c r="D2557" s="1" t="s">
-        <v>7092</v>
+        <v>7091</v>
       </c>
       <c r="E2557" s="1" t="s">
         <v>3204</v>
@@ -75757,16 +75757,16 @@
     </row>
     <row r="2558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2558" s="1" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2558" s="1" t="s">
-        <v>6684</v>
+        <v>6683</v>
       </c>
       <c r="D2558" s="1" t="s">
-        <v>7093</v>
+        <v>7092</v>
       </c>
       <c r="E2558" s="1" t="s">
         <v>3204</v>
@@ -75774,16 +75774,16 @@
     </row>
     <row r="2559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2559" s="1" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="B2559" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2559" s="1" t="s">
-        <v>6685</v>
+        <v>6684</v>
       </c>
       <c r="D2559" s="1" t="s">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="E2559" s="1" t="s">
         <v>3204</v>
@@ -75791,16 +75791,16 @@
     </row>
     <row r="2560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2560" s="1" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2560" s="1" t="s">
-        <v>6686</v>
+        <v>6685</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>7095</v>
+        <v>7094</v>
       </c>
       <c r="E2560" s="1" t="s">
         <v>3204</v>
@@ -75808,16 +75808,16 @@
     </row>
     <row r="2561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2561" s="1" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="B2561" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2561" s="1" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="D2561" s="1" t="s">
-        <v>7096</v>
+        <v>7095</v>
       </c>
       <c r="E2561" s="1" t="s">
         <v>3204</v>
@@ -75825,16 +75825,16 @@
     </row>
     <row r="2562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2562" s="1" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="B2562" s="1" t="s">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="C2562" s="1" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="D2562" s="1" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
       <c r="E2562" s="1" t="s">
         <v>3204</v>
@@ -76429,7 +76429,7 @@
         <v>5643</v>
       </c>
       <c r="D2597" s="1" t="s">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="E2597" s="1" t="s">
         <v>3202</v>
@@ -76675,16 +76675,16 @@
     </row>
     <row r="2612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2612" s="1" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="B2612" s="1" t="s">
         <v>5590</v>
       </c>
       <c r="C2612" s="1" t="s">
-        <v>6689</v>
+        <v>6688</v>
       </c>
       <c r="D2612" s="1" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
       <c r="E2612" s="1" t="s">
         <v>3204</v>
@@ -76692,16 +76692,16 @@
     </row>
     <row r="2613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2613" s="1" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="B2613" s="1" t="s">
         <v>5590</v>
       </c>
       <c r="C2613" s="1" t="s">
-        <v>6690</v>
+        <v>6689</v>
       </c>
       <c r="D2613" s="1" t="s">
-        <v>7099</v>
+        <v>7098</v>
       </c>
       <c r="E2613" s="1" t="s">
         <v>3204</v>
@@ -76845,16 +76845,16 @@
     </row>
     <row r="2622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2622" s="1" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="B2622" s="1" t="s">
         <v>5603</v>
       </c>
       <c r="C2622" s="1" t="s">
-        <v>6691</v>
+        <v>6690</v>
       </c>
       <c r="D2622" s="1" t="s">
-        <v>7100</v>
+        <v>7099</v>
       </c>
       <c r="E2622" s="1" t="s">
         <v>3204</v>
@@ -76998,16 +76998,16 @@
     </row>
     <row r="2631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2631" s="1" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="B2631" s="1" t="s">
         <v>5612</v>
       </c>
       <c r="C2631" s="1" t="s">
-        <v>6692</v>
+        <v>6691</v>
       </c>
       <c r="D2631" s="1" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
       <c r="E2631" s="1" t="s">
         <v>3204</v>
@@ -77117,16 +77117,16 @@
     </row>
     <row r="2638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2638" s="1" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="B2638" s="1" t="s">
         <v>5612</v>
       </c>
       <c r="C2638" s="1" t="s">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="D2638" s="1" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="E2638" s="1" t="s">
         <v>3204</v>
@@ -77202,16 +77202,16 @@
     </row>
     <row r="2643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2643" s="1" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="B2643" s="1" t="s">
         <v>5620</v>
       </c>
       <c r="C2643" s="1" t="s">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="D2643" s="1" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="E2643" s="1" t="s">
         <v>3204</v>
@@ -77500,7 +77500,7 @@
         <v>5644</v>
       </c>
       <c r="D2660" s="1" t="s">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="E2660" s="1" t="s">
         <v>3204</v>
@@ -77517,7 +77517,7 @@
         <v>5645</v>
       </c>
       <c r="D2661" s="1" t="s">
-        <v>7106</v>
+        <v>7105</v>
       </c>
       <c r="E2661" s="1" t="s">
         <v>3204</v>
@@ -77576,16 +77576,16 @@
     </row>
     <row r="2665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2665" s="1" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="B2665" s="1" t="s">
         <v>5643</v>
       </c>
       <c r="C2665" s="1" t="s">
-        <v>6695</v>
+        <v>6694</v>
       </c>
       <c r="D2665" s="1" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
       <c r="E2665" s="1" t="s">
         <v>3204</v>
@@ -77610,16 +77610,16 @@
     </row>
     <row r="2667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2667" s="1" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="B2667" s="1" t="s">
         <v>5643</v>
       </c>
       <c r="C2667" s="1" t="s">
-        <v>6696</v>
+        <v>6695</v>
       </c>
       <c r="D2667" s="1" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="E2667" s="1" t="s">
         <v>3204</v>
@@ -77704,7 +77704,7 @@
         <v>5655</v>
       </c>
       <c r="D2672" s="1" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="E2672" s="1" t="s">
         <v>3204</v>
@@ -77746,16 +77746,16 @@
     </row>
     <row r="2675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2675" s="1" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="B2675" s="1" t="s">
         <v>5652</v>
       </c>
       <c r="C2675" s="1" t="s">
-        <v>6697</v>
+        <v>6696</v>
       </c>
       <c r="D2675" s="1" t="s">
-        <v>7110</v>
+        <v>7109</v>
       </c>
       <c r="E2675" s="1" t="s">
         <v>3204</v>
@@ -78001,16 +78001,16 @@
     </row>
     <row r="2690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2690" s="1" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="B2690" s="1" t="s">
         <v>5671</v>
       </c>
       <c r="C2690" s="1" t="s">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="D2690" s="1" t="s">
-        <v>7111</v>
+        <v>7110</v>
       </c>
       <c r="E2690" s="1" t="s">
         <v>3204</v>
@@ -78018,16 +78018,16 @@
     </row>
     <row r="2691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2691" s="1" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="B2691" s="1" t="s">
         <v>5671</v>
       </c>
       <c r="C2691" s="1" t="s">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="D2691" s="1" t="s">
-        <v>7112</v>
+        <v>7111</v>
       </c>
       <c r="E2691" s="1" t="s">
         <v>3204</v>
@@ -78137,16 +78137,16 @@
     </row>
     <row r="2698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2698" s="1" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="B2698" s="1" t="s">
         <v>5671</v>
       </c>
       <c r="C2698" s="1" t="s">
-        <v>6700</v>
+        <v>6699</v>
       </c>
       <c r="D2698" s="1" t="s">
-        <v>7113</v>
+        <v>7112</v>
       </c>
       <c r="E2698" s="1" t="s">
         <v>3204</v>
@@ -78188,16 +78188,16 @@
     </row>
     <row r="2701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2701" s="1" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="B2701" s="1" t="s">
         <v>5682</v>
       </c>
       <c r="C2701" s="1" t="s">
-        <v>6701</v>
+        <v>6700</v>
       </c>
       <c r="D2701" s="1" t="s">
-        <v>7114</v>
+        <v>7113</v>
       </c>
       <c r="E2701" s="1" t="s">
         <v>3204</v>
@@ -78605,7 +78605,7 @@
         <v>5709</v>
       </c>
       <c r="D2725" s="1" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
       <c r="E2725" s="1" t="s">
         <v>3204</v>
@@ -78664,16 +78664,16 @@
     </row>
     <row r="2729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2729" s="1" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="B2729" s="1" t="s">
         <v>5713</v>
       </c>
       <c r="C2729" s="1" t="s">
-        <v>6702</v>
+        <v>6701</v>
       </c>
       <c r="D2729" s="1" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="E2729" s="1" t="s">
         <v>3204</v>
@@ -78732,16 +78732,16 @@
     </row>
     <row r="2733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2733" s="1" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="B2733" s="1" t="s">
         <v>5717</v>
       </c>
       <c r="C2733" s="1" t="s">
-        <v>6703</v>
+        <v>6702</v>
       </c>
       <c r="D2733" s="1" t="s">
-        <v>7117</v>
+        <v>7116</v>
       </c>
       <c r="E2733" s="1" t="s">
         <v>3204</v>
@@ -78800,13 +78800,13 @@
     </row>
     <row r="2737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2737" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="B2737" s="1" t="s">
         <v>5720</v>
       </c>
       <c r="C2737" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="D2737" s="1" t="s">
         <v>2795</v>
@@ -78817,16 +78817,16 @@
     </row>
     <row r="2738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2738" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="B2738" s="1" t="s">
         <v>5720</v>
       </c>
       <c r="C2738" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="D2738" s="1" t="s">
-        <v>7120</v>
+        <v>7119</v>
       </c>
       <c r="E2738" s="1" t="s">
         <v>3202</v>
@@ -78834,16 +78834,16 @@
     </row>
     <row r="2739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2739" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="B2739" s="1" t="s">
         <v>5720</v>
       </c>
       <c r="C2739" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="D2739" s="1" t="s">
-        <v>7122</v>
+        <v>7121</v>
       </c>
       <c r="E2739" s="1" t="s">
         <v>3202</v>
@@ -78851,16 +78851,16 @@
     </row>
     <row r="2740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2740" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="B2740" s="1" t="s">
         <v>5720</v>
       </c>
       <c r="C2740" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="D2740" s="1" t="s">
-        <v>7125</v>
+        <v>7124</v>
       </c>
       <c r="E2740" s="1" t="s">
         <v>3202</v>
@@ -78919,16 +78919,16 @@
     </row>
     <row r="2744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2744" s="1" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="B2744" s="1" t="s">
         <v>5721</v>
       </c>
       <c r="C2744" s="1" t="s">
-        <v>6704</v>
+        <v>6703</v>
       </c>
       <c r="D2744" s="1" t="s">
-        <v>7118</v>
+        <v>7117</v>
       </c>
       <c r="E2744" s="1" t="s">
         <v>3204</v>
@@ -79038,16 +79038,16 @@
     </row>
     <row r="2751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2751" s="1" t="s">
-        <v>6706</v>
+        <v>6705</v>
       </c>
       <c r="B2751" s="1" t="s">
+        <v>6704</v>
+      </c>
+      <c r="C2751" s="1" t="s">
         <v>6705</v>
       </c>
-      <c r="C2751" s="1" t="s">
-        <v>6706</v>
-      </c>
       <c r="D2751" s="1" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
       <c r="E2751" s="1" t="s">
         <v>3204</v>
@@ -79055,13 +79055,13 @@
     </row>
     <row r="2752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2752" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="B2752" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2752" s="1" t="s">
-        <v>6707</v>
+        <v>6706</v>
       </c>
       <c r="D2752" s="1" t="s">
         <v>2796</v>
@@ -79072,13 +79072,13 @@
     </row>
     <row r="2753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2753" s="1" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="B2753" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2753" s="1" t="s">
-        <v>6708</v>
+        <v>6707</v>
       </c>
       <c r="D2753" s="1" t="s">
         <v>2797</v>
@@ -79089,13 +79089,13 @@
     </row>
     <row r="2754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2754" s="1" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
       <c r="B2754" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2754" s="1" t="s">
-        <v>6709</v>
+        <v>6708</v>
       </c>
       <c r="D2754" s="1" t="s">
         <v>2798</v>
@@ -79106,13 +79106,13 @@
     </row>
     <row r="2755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2755" s="1" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="B2755" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2755" s="1" t="s">
-        <v>6710</v>
+        <v>6709</v>
       </c>
       <c r="D2755" s="1" t="s">
         <v>2799</v>
@@ -79123,13 +79123,13 @@
     </row>
     <row r="2756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2756" s="1" t="s">
-        <v>6711</v>
+        <v>6710</v>
       </c>
       <c r="B2756" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2756" s="1" t="s">
-        <v>6711</v>
+        <v>6710</v>
       </c>
       <c r="D2756" s="1" t="s">
         <v>2800</v>
@@ -79140,13 +79140,13 @@
     </row>
     <row r="2757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2757" s="1" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
       <c r="B2757" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2757" s="1" t="s">
-        <v>6712</v>
+        <v>6711</v>
       </c>
       <c r="D2757" s="1" t="s">
         <v>2801</v>
@@ -79157,13 +79157,13 @@
     </row>
     <row r="2758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2758" s="1" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="B2758" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2758" s="1" t="s">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="D2758" s="1" t="s">
         <v>2802</v>
@@ -79174,13 +79174,13 @@
     </row>
     <row r="2759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2759" s="1" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="B2759" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2759" s="1" t="s">
-        <v>6714</v>
+        <v>6713</v>
       </c>
       <c r="D2759" s="1" t="s">
         <v>2803</v>
@@ -79191,13 +79191,13 @@
     </row>
     <row r="2760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2760" s="1" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="B2760" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2760" s="1" t="s">
-        <v>6715</v>
+        <v>6714</v>
       </c>
       <c r="D2760" s="1" t="s">
         <v>2804</v>
@@ -79208,13 +79208,13 @@
     </row>
     <row r="2761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2761" s="1" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="B2761" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2761" s="1" t="s">
-        <v>6716</v>
+        <v>6715</v>
       </c>
       <c r="D2761" s="1" t="s">
         <v>2805</v>
@@ -79225,13 +79225,13 @@
     </row>
     <row r="2762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2762" s="1" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="B2762" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2762" s="1" t="s">
-        <v>6717</v>
+        <v>6716</v>
       </c>
       <c r="D2762" s="1" t="s">
         <v>2806</v>
@@ -79242,13 +79242,13 @@
     </row>
     <row r="2763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2763" s="1" t="s">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="B2763" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2763" s="1" t="s">
-        <v>6718</v>
+        <v>6717</v>
       </c>
       <c r="D2763" s="1" t="s">
         <v>2807</v>
@@ -79259,13 +79259,13 @@
     </row>
     <row r="2764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2764" s="1" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="B2764" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2764" s="1" t="s">
-        <v>6719</v>
+        <v>6718</v>
       </c>
       <c r="D2764" s="1" t="s">
         <v>2808</v>
@@ -79276,13 +79276,13 @@
     </row>
     <row r="2765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2765" s="1" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="B2765" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2765" s="1" t="s">
-        <v>6720</v>
+        <v>6719</v>
       </c>
       <c r="D2765" s="1" t="s">
         <v>2809</v>
@@ -79293,13 +79293,13 @@
     </row>
     <row r="2766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2766" s="1" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="B2766" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2766" s="1" t="s">
-        <v>6721</v>
+        <v>6720</v>
       </c>
       <c r="D2766" s="1" t="s">
         <v>2810</v>
@@ -79310,13 +79310,13 @@
     </row>
     <row r="2767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2767" s="1" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="B2767" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2767" s="1" t="s">
-        <v>6722</v>
+        <v>6721</v>
       </c>
       <c r="D2767" s="1" t="s">
         <v>2811</v>
@@ -79327,13 +79327,13 @@
     </row>
     <row r="2768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2768" s="1" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="B2768" s="1" t="s">
-        <v>6705</v>
+        <v>6704</v>
       </c>
       <c r="C2768" s="1" t="s">
-        <v>6723</v>
+        <v>6722</v>
       </c>
       <c r="D2768" s="1" t="s">
         <v>2812</v>
@@ -79344,16 +79344,16 @@
     </row>
     <row r="2769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2769" s="1" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
       <c r="B2769" s="1" t="s">
+        <v>6723</v>
+      </c>
+      <c r="C2769" s="1" t="s">
         <v>6724</v>
       </c>
-      <c r="C2769" s="1" t="s">
-        <v>6725</v>
-      </c>
       <c r="D2769" s="1" t="s">
-        <v>7121</v>
+        <v>7120</v>
       </c>
       <c r="E2769" s="1" t="s">
         <v>3204</v>
@@ -79361,13 +79361,13 @@
     </row>
     <row r="2770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2770" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="B2770" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2770" s="1" t="s">
-        <v>6726</v>
+        <v>6725</v>
       </c>
       <c r="D2770" s="1" t="s">
         <v>2774</v>
@@ -79378,13 +79378,13 @@
     </row>
     <row r="2771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2771" s="1" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
       <c r="B2771" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2771" s="1" t="s">
-        <v>6727</v>
+        <v>6726</v>
       </c>
       <c r="D2771" s="1" t="s">
         <v>2775</v>
@@ -79395,13 +79395,13 @@
     </row>
     <row r="2772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2772" s="1" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="B2772" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2772" s="1" t="s">
-        <v>6728</v>
+        <v>6727</v>
       </c>
       <c r="D2772" s="1" t="s">
         <v>2776</v>
@@ -79412,13 +79412,13 @@
     </row>
     <row r="2773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2773" s="1" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="B2773" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2773" s="1" t="s">
-        <v>6729</v>
+        <v>6728</v>
       </c>
       <c r="D2773" s="1" t="s">
         <v>2777</v>
@@ -79429,13 +79429,13 @@
     </row>
     <row r="2774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2774" s="1" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="B2774" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2774" s="1" t="s">
-        <v>6730</v>
+        <v>6729</v>
       </c>
       <c r="D2774" s="1" t="s">
         <v>2778</v>
@@ -79446,13 +79446,13 @@
     </row>
     <row r="2775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2775" s="1" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="B2775" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2775" s="1" t="s">
-        <v>6731</v>
+        <v>6730</v>
       </c>
       <c r="D2775" s="1" t="s">
         <v>2779</v>
@@ -79463,13 +79463,13 @@
     </row>
     <row r="2776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2776" s="1" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="B2776" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2776" s="1" t="s">
-        <v>6732</v>
+        <v>6731</v>
       </c>
       <c r="D2776" s="1" t="s">
         <v>2780</v>
@@ -79480,13 +79480,13 @@
     </row>
     <row r="2777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2777" s="1" t="s">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="B2777" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2777" s="1" t="s">
-        <v>6733</v>
+        <v>6732</v>
       </c>
       <c r="D2777" s="1" t="s">
         <v>2781</v>
@@ -79497,13 +79497,13 @@
     </row>
     <row r="2778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2778" s="1" t="s">
-        <v>6734</v>
+        <v>6733</v>
       </c>
       <c r="B2778" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2778" s="1" t="s">
-        <v>6734</v>
+        <v>6733</v>
       </c>
       <c r="D2778" s="1" t="s">
         <v>2782</v>
@@ -79514,13 +79514,13 @@
     </row>
     <row r="2779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2779" s="1" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="B2779" s="1" t="s">
-        <v>6724</v>
+        <v>6723</v>
       </c>
       <c r="C2779" s="1" t="s">
-        <v>6735</v>
+        <v>6734</v>
       </c>
       <c r="D2779" s="1" t="s">
         <v>2783</v>
@@ -79531,16 +79531,16 @@
     </row>
     <row r="2780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2780" s="1" t="s">
-        <v>6737</v>
+        <v>6736</v>
       </c>
       <c r="B2780" s="1" t="s">
+        <v>6735</v>
+      </c>
+      <c r="C2780" s="1" t="s">
         <v>6736</v>
       </c>
-      <c r="C2780" s="1" t="s">
-        <v>6737</v>
-      </c>
       <c r="D2780" s="1" t="s">
-        <v>7123</v>
+        <v>7122</v>
       </c>
       <c r="E2780" s="1" t="s">
         <v>3204</v>
@@ -79548,13 +79548,13 @@
     </row>
     <row r="2781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2781" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="B2781" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="C2781" s="1" t="s">
-        <v>6738</v>
+        <v>6737</v>
       </c>
       <c r="D2781" s="1" t="s">
         <v>2831</v>
@@ -79565,13 +79565,13 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" s="1" t="s">
-        <v>6739</v>
+        <v>6738</v>
       </c>
       <c r="B2782" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="C2782" s="1" t="s">
-        <v>6739</v>
+        <v>6738</v>
       </c>
       <c r="D2782" s="1" t="s">
         <v>2832</v>
@@ -79582,13 +79582,13 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" s="1" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
       <c r="B2783" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="C2783" s="1" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
       <c r="D2783" s="1" t="s">
         <v>2833</v>
@@ -79599,13 +79599,13 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" s="1" t="s">
-        <v>6741</v>
+        <v>6740</v>
       </c>
       <c r="B2784" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="C2784" s="1" t="s">
-        <v>6741</v>
+        <v>6740</v>
       </c>
       <c r="D2784" s="1" t="s">
         <v>2834</v>
@@ -79616,13 +79616,13 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" s="1" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
       <c r="B2785" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="C2785" s="1" t="s">
-        <v>6742</v>
+        <v>6741</v>
       </c>
       <c r="D2785" s="1" t="s">
         <v>2835</v>
@@ -79633,16 +79633,16 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" s="1" t="s">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="B2786" s="1" t="s">
-        <v>6736</v>
+        <v>6735</v>
       </c>
       <c r="C2786" s="1" t="s">
-        <v>6743</v>
+        <v>6742</v>
       </c>
       <c r="D2786" s="1" t="s">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="E2786" s="1" t="s">
         <v>3204</v>
@@ -79650,16 +79650,16 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" s="1" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
       <c r="B2787" s="1" t="s">
+        <v>6743</v>
+      </c>
+      <c r="C2787" s="1" t="s">
         <v>6744</v>
       </c>
-      <c r="C2787" s="1" t="s">
-        <v>6745</v>
-      </c>
       <c r="D2787" s="1" t="s">
-        <v>7126</v>
+        <v>7125</v>
       </c>
       <c r="E2787" s="1" t="s">
         <v>3204</v>
@@ -79667,13 +79667,13 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="B2788" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2788" s="1" t="s">
-        <v>6746</v>
+        <v>6745</v>
       </c>
       <c r="D2788" s="1" t="s">
         <v>2784</v>
@@ -79684,13 +79684,13 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" s="1" t="s">
-        <v>6747</v>
+        <v>6746</v>
       </c>
       <c r="B2789" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2789" s="1" t="s">
-        <v>6747</v>
+        <v>6746</v>
       </c>
       <c r="D2789" s="1" t="s">
         <v>2785</v>
@@ -79701,13 +79701,13 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" s="1" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="B2790" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2790" s="1" t="s">
-        <v>6748</v>
+        <v>6747</v>
       </c>
       <c r="D2790" s="1" t="s">
         <v>2786</v>
@@ -79718,13 +79718,13 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" s="1" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
       <c r="B2791" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2791" s="1" t="s">
-        <v>6749</v>
+        <v>6748</v>
       </c>
       <c r="D2791" s="1" t="s">
         <v>2787</v>
@@ -79735,13 +79735,13 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" s="1" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
       <c r="B2792" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2792" s="1" t="s">
-        <v>6750</v>
+        <v>6749</v>
       </c>
       <c r="D2792" s="1" t="s">
         <v>2788</v>
@@ -79752,13 +79752,13 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" s="1" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="B2793" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2793" s="1" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="D2793" s="1" t="s">
         <v>2789</v>
@@ -79769,13 +79769,13 @@
     </row>
     <row r="2794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2794" s="1" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="B2794" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2794" s="1" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="D2794" s="1" t="s">
         <v>2790</v>
@@ -79786,13 +79786,13 @@
     </row>
     <row r="2795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2795" s="1" t="s">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="B2795" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2795" s="1" t="s">
-        <v>6753</v>
+        <v>6752</v>
       </c>
       <c r="D2795" s="1" t="s">
         <v>2791</v>
@@ -79803,13 +79803,13 @@
     </row>
     <row r="2796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2796" s="1" t="s">
-        <v>6754</v>
+        <v>6753</v>
       </c>
       <c r="B2796" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2796" s="1" t="s">
-        <v>6754</v>
+        <v>6753</v>
       </c>
       <c r="D2796" s="1" t="s">
         <v>2792</v>
@@ -79820,13 +79820,13 @@
     </row>
     <row r="2797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2797" s="1" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
       <c r="B2797" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2797" s="1" t="s">
-        <v>6755</v>
+        <v>6754</v>
       </c>
       <c r="D2797" s="1" t="s">
         <v>2793</v>
@@ -79837,13 +79837,13 @@
     </row>
     <row r="2798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2798" s="1" t="s">
-        <v>6756</v>
+        <v>6755</v>
       </c>
       <c r="B2798" s="1" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C2798" s="1" t="s">
-        <v>6756</v>
+        <v>6755</v>
       </c>
       <c r="D2798" s="1" t="s">
         <v>2794</v>
@@ -79965,7 +79965,7 @@
         <v>5736</v>
       </c>
       <c r="D2805" s="1" t="s">
-        <v>7127</v>
+        <v>7126</v>
       </c>
       <c r="E2805" s="1" t="s">
         <v>3204</v>
@@ -80024,16 +80024,16 @@
     </row>
     <row r="2809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2809" s="1" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
       <c r="B2809" s="1" t="s">
         <v>5729</v>
       </c>
       <c r="C2809" s="1" t="s">
-        <v>6757</v>
+        <v>6756</v>
       </c>
       <c r="D2809" s="1" t="s">
-        <v>7128</v>
+        <v>7127</v>
       </c>
       <c r="E2809" s="1" t="s">
         <v>3204</v>
@@ -80483,16 +80483,16 @@
     </row>
     <row r="2836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2836" s="1" t="s">
-        <v>6758</v>
+        <v>6757</v>
       </c>
       <c r="B2836" s="1" t="s">
         <v>5749</v>
       </c>
       <c r="C2836" s="1" t="s">
-        <v>6758</v>
+        <v>6757</v>
       </c>
       <c r="D2836" s="1" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="E2836" s="1" t="s">
         <v>3204</v>
@@ -80500,16 +80500,16 @@
     </row>
     <row r="2837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2837" s="1" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
       <c r="B2837" s="1" t="s">
         <v>5749</v>
       </c>
       <c r="C2837" s="1" t="s">
-        <v>6759</v>
+        <v>6758</v>
       </c>
       <c r="D2837" s="1" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
       <c r="E2837" s="1" t="s">
         <v>3204</v>
@@ -80730,7 +80730,7 @@
         <v>5773</v>
       </c>
       <c r="D2850" s="1" t="s">
-        <v>7131</v>
+        <v>7130</v>
       </c>
       <c r="E2850" s="1" t="s">
         <v>3204</v>
@@ -80747,7 +80747,7 @@
         <v>5774</v>
       </c>
       <c r="D2851" s="1" t="s">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="E2851" s="1" t="s">
         <v>3204</v>
@@ -80798,7 +80798,7 @@
         <v>5777</v>
       </c>
       <c r="D2854" s="1" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="E2854" s="1" t="s">
         <v>3204</v>
@@ -80849,7 +80849,7 @@
         <v>5781</v>
       </c>
       <c r="D2857" s="1" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="E2857" s="1" t="s">
         <v>3204</v>
@@ -80917,7 +80917,7 @@
         <v>5785</v>
       </c>
       <c r="D2861" s="1" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="E2861" s="1" t="s">
         <v>3204</v>
@@ -80968,7 +80968,7 @@
         <v>5788</v>
       </c>
       <c r="D2864" s="1" t="s">
-        <v>7136</v>
+        <v>7135</v>
       </c>
       <c r="E2864" s="1" t="s">
         <v>3204</v>
@@ -81078,16 +81078,16 @@
     </row>
     <row r="2871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2871" s="1" t="s">
-        <v>6760</v>
+        <v>6759</v>
       </c>
       <c r="B2871" s="1" t="s">
         <v>5794</v>
       </c>
       <c r="C2871" s="1" t="s">
-        <v>6760</v>
+        <v>6759</v>
       </c>
       <c r="D2871" s="1" t="s">
-        <v>7137</v>
+        <v>7136</v>
       </c>
       <c r="E2871" s="1" t="s">
         <v>3204</v>
@@ -81248,16 +81248,16 @@
     </row>
     <row r="2881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2881" s="1" t="s">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="B2881" s="1" t="s">
         <v>5805</v>
       </c>
       <c r="C2881" s="1" t="s">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="D2881" s="1" t="s">
-        <v>7138</v>
+        <v>7137</v>
       </c>
       <c r="E2881" s="1" t="s">
         <v>3204</v>
@@ -81265,16 +81265,16 @@
     </row>
     <row r="2882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2882" s="1" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
       <c r="B2882" s="1" t="s">
         <v>5805</v>
       </c>
       <c r="C2882" s="1" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
       <c r="D2882" s="1" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
       <c r="E2882" s="1" t="s">
         <v>3204</v>
@@ -81359,7 +81359,7 @@
         <v>5810</v>
       </c>
       <c r="D2887" s="1" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
       <c r="E2887" s="1" t="s">
         <v>3204</v>
@@ -81393,7 +81393,7 @@
         <v>5812</v>
       </c>
       <c r="D2889" s="1" t="s">
-        <v>7141</v>
+        <v>7140</v>
       </c>
       <c r="E2889" s="1" t="s">
         <v>3204</v>
@@ -81495,7 +81495,7 @@
         <v>5819</v>
       </c>
       <c r="D2895" s="1" t="s">
-        <v>7142</v>
+        <v>7141</v>
       </c>
       <c r="E2895" s="1" t="s">
         <v>3204</v>
@@ -81529,7 +81529,7 @@
         <v>5821</v>
       </c>
       <c r="D2897" s="1" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="E2897" s="1" t="s">
         <v>3204</v>
@@ -81563,7 +81563,7 @@
         <v>5823</v>
       </c>
       <c r="D2899" s="1" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="E2899" s="1" t="s">
         <v>3204</v>
@@ -81673,16 +81673,16 @@
     </row>
     <row r="2906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2906" s="1" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
       <c r="B2906" s="1" t="s">
         <v>5829</v>
       </c>
       <c r="C2906" s="1" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
       <c r="D2906" s="1" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="E2906" s="1" t="s">
         <v>3204</v>
@@ -81784,7 +81784,7 @@
         <v>5836</v>
       </c>
       <c r="D2912" s="1" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="E2912" s="1" t="s">
         <v>3204</v>
@@ -81843,16 +81843,16 @@
     </row>
     <row r="2916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2916" s="1" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
       <c r="B2916" s="1" t="s">
         <v>5829</v>
       </c>
       <c r="C2916" s="1" t="s">
-        <v>6764</v>
+        <v>6763</v>
       </c>
       <c r="D2916" s="1" t="s">
-        <v>7147</v>
+        <v>7146</v>
       </c>
       <c r="E2916" s="1" t="s">
         <v>3204</v>
@@ -82651,7 +82651,7 @@
         <v>5880</v>
       </c>
       <c r="D2963" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="E2963" s="1" t="s">
         <v>3204</v>
@@ -82668,7 +82668,7 @@
         <v>5881</v>
       </c>
       <c r="D2964" s="1" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="E2964" s="1" t="s">
         <v>3204</v>
@@ -83093,7 +83093,7 @@
         <v>5910</v>
       </c>
       <c r="D2989" s="1" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
       <c r="E2989" s="1" t="s">
         <v>3204</v>
@@ -83212,7 +83212,7 @@
         <v>5918</v>
       </c>
       <c r="D2996" s="1" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
       <c r="E2996" s="1" t="s">
         <v>3204</v>
@@ -83280,7 +83280,7 @@
         <v>5922</v>
       </c>
       <c r="D3000" s="1" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="E3000" s="1" t="s">
         <v>3204</v>
@@ -83399,7 +83399,7 @@
         <v>5930</v>
       </c>
       <c r="D3007" s="1" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
       <c r="E3007" s="1" t="s">
         <v>3204</v>
@@ -83416,7 +83416,7 @@
         <v>5931</v>
       </c>
       <c r="D3008" s="1" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
       <c r="E3008" s="1" t="s">
         <v>3204</v>
@@ -83450,7 +83450,7 @@
         <v>5934</v>
       </c>
       <c r="D3010" s="1" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
       <c r="E3010" s="1" t="s">
         <v>3204</v>
@@ -83467,7 +83467,7 @@
         <v>5935</v>
       </c>
       <c r="D3011" s="1" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="E3011" s="1" t="s">
         <v>3204</v>
@@ -83501,7 +83501,7 @@
         <v>5937</v>
       </c>
       <c r="D3013" s="1" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="E3013" s="1" t="s">
         <v>3204</v>
@@ -83535,7 +83535,7 @@
         <v>5939</v>
       </c>
       <c r="D3015" s="1" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="E3015" s="1" t="s">
         <v>3204</v>
@@ -83552,7 +83552,7 @@
         <v>5940</v>
       </c>
       <c r="D3016" s="1" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="E3016" s="1" t="s">
         <v>3204</v>
@@ -83696,16 +83696,16 @@
     </row>
     <row r="3025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3025" s="1" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="B3025" s="1" t="s">
         <v>5942</v>
       </c>
       <c r="C3025" s="1" t="s">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="D3025" s="1" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="E3025" s="1" t="s">
         <v>3204</v>
@@ -83866,16 +83866,16 @@
     </row>
     <row r="3035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3035" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="B3035" s="1" t="s">
         <v>5959</v>
       </c>
       <c r="C3035" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="D3035" s="1" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="E3035" s="1" t="s">
         <v>3202</v>
@@ -84104,16 +84104,16 @@
     </row>
     <row r="3049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3049" s="1" t="s">
-        <v>6767</v>
+        <v>6766</v>
       </c>
       <c r="B3049" s="1" t="s">
+        <v>6765</v>
+      </c>
+      <c r="C3049" s="1" t="s">
         <v>6766</v>
       </c>
-      <c r="C3049" s="1" t="s">
-        <v>6767</v>
-      </c>
       <c r="D3049" s="1" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="E3049" s="1" t="s">
         <v>3204</v>
@@ -84121,16 +84121,16 @@
     </row>
     <row r="3050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3050" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="B3050" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="C3050" s="1" t="s">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="D3050" s="1" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="E3050" s="1" t="s">
         <v>3204</v>
@@ -84138,13 +84138,13 @@
     </row>
     <row r="3051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3051" s="1" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="B3051" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="C3051" s="1" t="s">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="D3051" s="1" t="s">
         <v>3028</v>
@@ -84155,13 +84155,13 @@
     </row>
     <row r="3052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3052" s="1" t="s">
-        <v>6770</v>
+        <v>6769</v>
       </c>
       <c r="B3052" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="C3052" s="1" t="s">
-        <v>6770</v>
+        <v>6769</v>
       </c>
       <c r="D3052" s="1" t="s">
         <v>3029</v>
@@ -84172,13 +84172,13 @@
     </row>
     <row r="3053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3053" s="1" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
       <c r="B3053" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="C3053" s="1" t="s">
-        <v>6771</v>
+        <v>6770</v>
       </c>
       <c r="D3053" s="1" t="s">
         <v>3030</v>
@@ -84189,13 +84189,13 @@
     </row>
     <row r="3054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3054" s="1" t="s">
-        <v>6772</v>
+        <v>6771</v>
       </c>
       <c r="B3054" s="1" t="s">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="C3054" s="1" t="s">
-        <v>6772</v>
+        <v>6771</v>
       </c>
       <c r="D3054" s="1" t="s">
         <v>3031</v>
@@ -84529,16 +84529,16 @@
     </row>
     <row r="3074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3074" s="1" t="s">
-        <v>6773</v>
+        <v>6772</v>
       </c>
       <c r="B3074" s="1" t="s">
         <v>5991</v>
       </c>
       <c r="C3074" s="1" t="s">
-        <v>6773</v>
+        <v>6772</v>
       </c>
       <c r="D3074" s="1" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="E3074" s="1" t="s">
         <v>3204</v>
@@ -84716,16 +84716,16 @@
     </row>
     <row r="3085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3085" s="1" t="s">
-        <v>6774</v>
+        <v>6773</v>
       </c>
       <c r="B3085" s="1" t="s">
         <v>5997</v>
       </c>
       <c r="C3085" s="1" t="s">
-        <v>6774</v>
+        <v>6773</v>
       </c>
       <c r="D3085" s="1" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="E3085" s="1" t="s">
         <v>3204</v>
@@ -84988,16 +84988,16 @@
     </row>
     <row r="3101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3101" s="1" t="s">
-        <v>6775</v>
+        <v>6774</v>
       </c>
       <c r="B3101" s="1" t="s">
         <v>6015</v>
       </c>
       <c r="C3101" s="1" t="s">
-        <v>6775</v>
+        <v>6774</v>
       </c>
       <c r="D3101" s="1" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="E3101" s="1" t="s">
         <v>3204</v>
@@ -85226,13 +85226,13 @@
     </row>
     <row r="3115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3115" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="B3115" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3115" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="D3115" s="1" t="s">
         <v>3107</v>
@@ -85243,13 +85243,13 @@
     </row>
     <row r="3116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3116" s="1" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
       <c r="B3116" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3116" s="1" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
       <c r="D3116" s="1" t="s">
         <v>3110</v>
@@ -85328,16 +85328,16 @@
     </row>
     <row r="3121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3121" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="B3121" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3121" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="D3121" s="1" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="E3121" s="1" t="s">
         <v>3202</v>
@@ -85498,16 +85498,16 @@
     </row>
     <row r="3131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3131" s="1" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
       <c r="B3131" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3131" s="1" t="s">
-        <v>6793</v>
+        <v>6792</v>
       </c>
       <c r="D3131" s="1" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="E3131" s="1" t="s">
         <v>3202</v>
@@ -85515,16 +85515,16 @@
     </row>
     <row r="3132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3132" s="1" t="s">
-        <v>6794</v>
+        <v>6793</v>
       </c>
       <c r="B3132" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3132" s="1" t="s">
-        <v>6794</v>
+        <v>6793</v>
       </c>
       <c r="D3132" s="1" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="E3132" s="1" t="s">
         <v>3202</v>
@@ -85532,16 +85532,16 @@
     </row>
     <row r="3133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3133" s="1" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="B3133" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3133" s="1" t="s">
-        <v>6795</v>
+        <v>6794</v>
       </c>
       <c r="D3133" s="1" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="E3133" s="1" t="s">
         <v>3202</v>
@@ -85549,16 +85549,16 @@
     </row>
     <row r="3134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3134" s="1" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="B3134" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3134" s="1" t="s">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="D3134" s="1" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="E3134" s="1" t="s">
         <v>3202</v>
@@ -85566,16 +85566,16 @@
     </row>
     <row r="3135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3135" s="1" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="B3135" s="1" t="s">
         <v>6030</v>
       </c>
       <c r="C3135" s="1" t="s">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="D3135" s="1" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="E3135" s="1" t="s">
         <v>3202</v>
@@ -85685,16 +85685,16 @@
     </row>
     <row r="3142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3142" s="1" t="s">
-        <v>6776</v>
+        <v>6775</v>
       </c>
       <c r="B3142" s="1" t="s">
         <v>6031</v>
       </c>
       <c r="C3142" s="1" t="s">
-        <v>6776</v>
+        <v>6775</v>
       </c>
       <c r="D3142" s="1" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="E3142" s="1" t="s">
         <v>3204</v>
@@ -85787,16 +85787,16 @@
     </row>
     <row r="3148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3148" s="1" t="s">
-        <v>6778</v>
+        <v>6777</v>
       </c>
       <c r="B3148" s="1" t="s">
+        <v>6776</v>
+      </c>
+      <c r="C3148" s="1" t="s">
         <v>6777</v>
       </c>
-      <c r="C3148" s="1" t="s">
-        <v>6778</v>
-      </c>
       <c r="D3148" s="1" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="E3148" s="1" t="s">
         <v>3204</v>
@@ -85804,13 +85804,13 @@
     </row>
     <row r="3149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3149" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="B3149" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="C3149" s="1" t="s">
-        <v>6779</v>
+        <v>6778</v>
       </c>
       <c r="D3149" s="1" t="s">
         <v>3108</v>
@@ -85821,13 +85821,13 @@
     </row>
     <row r="3150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3150" s="1" t="s">
-        <v>6780</v>
+        <v>6779</v>
       </c>
       <c r="B3150" s="1" t="s">
-        <v>6777</v>
+        <v>6776</v>
       </c>
       <c r="C3150" s="1" t="s">
-        <v>6780</v>
+        <v>6779</v>
       </c>
       <c r="D3150" s="1" t="s">
         <v>3109</v>
@@ -85838,16 +85838,16 @@
     </row>
     <row r="3151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3151" s="1" t="s">
-        <v>6782</v>
+        <v>6781</v>
       </c>
       <c r="B3151" s="1" t="s">
+        <v>6780</v>
+      </c>
+      <c r="C3151" s="1" t="s">
         <v>6781</v>
       </c>
-      <c r="C3151" s="1" t="s">
-        <v>6782</v>
-      </c>
       <c r="D3151" s="1" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="E3151" s="1" t="s">
         <v>3204</v>
@@ -85855,13 +85855,13 @@
     </row>
     <row r="3152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3152" s="1" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="B3152" s="1" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
       <c r="C3152" s="1" t="s">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="D3152" s="1" t="s">
         <v>3111</v>
@@ -85872,13 +85872,13 @@
     </row>
     <row r="3153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3153" s="1" t="s">
-        <v>6784</v>
+        <v>6783</v>
       </c>
       <c r="B3153" s="1" t="s">
-        <v>6781</v>
+        <v>6780</v>
       </c>
       <c r="C3153" s="1" t="s">
-        <v>6784</v>
+        <v>6783</v>
       </c>
       <c r="D3153" s="1" t="s">
         <v>3112</v>
@@ -86025,16 +86025,16 @@
     </row>
     <row r="3162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3162" s="1" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
       <c r="B3162" s="1" t="s">
         <v>6052</v>
       </c>
       <c r="C3162" s="1" t="s">
-        <v>6785</v>
+        <v>6784</v>
       </c>
       <c r="D3162" s="1" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E3162" s="1" t="s">
         <v>3204</v>
@@ -86382,16 +86382,16 @@
     </row>
     <row r="3183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3183" s="1" t="s">
-        <v>6787</v>
+        <v>6786</v>
       </c>
       <c r="B3183" s="1" t="s">
+        <v>6785</v>
+      </c>
+      <c r="C3183" s="1" t="s">
         <v>6786</v>
       </c>
-      <c r="C3183" s="1" t="s">
-        <v>6787</v>
-      </c>
       <c r="D3183" s="1" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="E3183" s="1" t="s">
         <v>3204</v>
@@ -86399,16 +86399,16 @@
     </row>
     <row r="3184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3184" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="B3184" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="C3184" s="1" t="s">
-        <v>6788</v>
+        <v>6787</v>
       </c>
       <c r="D3184" s="1" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="E3184" s="1" t="s">
         <v>3204</v>
@@ -86416,16 +86416,16 @@
     </row>
     <row r="3185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3185" s="1" t="s">
-        <v>6789</v>
+        <v>6788</v>
       </c>
       <c r="B3185" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="C3185" s="1" t="s">
-        <v>6789</v>
+        <v>6788</v>
       </c>
       <c r="D3185" s="1" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="E3185" s="1" t="s">
         <v>3204</v>
@@ -86433,16 +86433,16 @@
     </row>
     <row r="3186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3186" s="1" t="s">
-        <v>6790</v>
+        <v>6789</v>
       </c>
       <c r="B3186" s="1" t="s">
-        <v>6786</v>
+        <v>6785</v>
       </c>
       <c r="C3186" s="1" t="s">
-        <v>6790</v>
+        <v>6789</v>
       </c>
       <c r="D3186" s="1" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="E3186" s="1" t="s">
         <v>3204</v>
@@ -86637,16 +86637,16 @@
     </row>
     <row r="3198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3198" s="1" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
       <c r="B3198" s="1" t="s">
         <v>6076</v>
       </c>
       <c r="C3198" s="1" t="s">
-        <v>6791</v>
+        <v>6790</v>
       </c>
       <c r="D3198" s="1" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="E3198" s="1" t="s">
         <v>3204</v>
@@ -86824,16 +86824,16 @@
     </row>
     <row r="3209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3209" s="1" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
       <c r="B3209" s="1" t="s">
         <v>6097</v>
       </c>
       <c r="C3209" s="1" t="s">
-        <v>6792</v>
+        <v>6791</v>
       </c>
       <c r="D3209" s="1" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="E3209" s="1" t="s">
         <v>3204</v>
@@ -87215,16 +87215,16 @@
     </row>
     <row r="3232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3232" s="1" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="B3232" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3232" s="1" t="s">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="D3232" s="1" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="E3232" s="1" t="s">
         <v>3204</v>
@@ -87232,16 +87232,16 @@
     </row>
     <row r="3233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3233" s="1" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="B3233" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3233" s="1" t="s">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="D3233" s="1" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="E3233" s="1" t="s">
         <v>3204</v>
@@ -87249,16 +87249,16 @@
     </row>
     <row r="3234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3234" s="1" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="B3234" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3234" s="1" t="s">
-        <v>6800</v>
+        <v>6799</v>
       </c>
       <c r="D3234" s="1" t="s">
-        <v>7059</v>
+        <v>7058</v>
       </c>
       <c r="E3234" s="1" t="s">
         <v>3204</v>
@@ -87266,16 +87266,16 @@
     </row>
     <row r="3235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3235" s="1" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="B3235" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3235" s="1" t="s">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="D3235" s="1" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="E3235" s="1" t="s">
         <v>3204</v>
@@ -87283,16 +87283,16 @@
     </row>
     <row r="3236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3236" s="1" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="B3236" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3236" s="1" t="s">
-        <v>6802</v>
+        <v>6801</v>
       </c>
       <c r="D3236" s="1" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="E3236" s="1" t="s">
         <v>3204</v>
@@ -87300,16 +87300,16 @@
     </row>
     <row r="3237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3237" s="1" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
       <c r="B3237" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3237" s="1" t="s">
-        <v>6803</v>
+        <v>6802</v>
       </c>
       <c r="D3237" s="1" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="E3237" s="1" t="s">
         <v>3204</v>
@@ -87317,16 +87317,16 @@
     </row>
     <row r="3238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3238" s="1" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="B3238" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3238" s="1" t="s">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="D3238" s="1" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="E3238" s="1" t="s">
         <v>3204</v>
@@ -87334,16 +87334,16 @@
     </row>
     <row r="3239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3239" s="1" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
       <c r="B3239" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3239" s="1" t="s">
-        <v>6805</v>
+        <v>6804</v>
       </c>
       <c r="D3239" s="1" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="E3239" s="1" t="s">
         <v>3204</v>
@@ -87351,16 +87351,16 @@
     </row>
     <row r="3240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3240" s="1" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
       <c r="B3240" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3240" s="1" t="s">
-        <v>6806</v>
+        <v>6805</v>
       </c>
       <c r="D3240" s="1" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="E3240" s="1" t="s">
         <v>3204</v>
@@ -87368,16 +87368,16 @@
     </row>
     <row r="3241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3241" s="1" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
       <c r="B3241" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3241" s="1" t="s">
-        <v>6807</v>
+        <v>6806</v>
       </c>
       <c r="D3241" s="1" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="E3241" s="1" t="s">
         <v>3204</v>
@@ -87385,16 +87385,16 @@
     </row>
     <row r="3242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3242" s="1" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="B3242" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3242" s="1" t="s">
-        <v>6808</v>
+        <v>6807</v>
       </c>
       <c r="D3242" s="1" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="E3242" s="1" t="s">
         <v>3204</v>
@@ -87402,16 +87402,16 @@
     </row>
     <row r="3243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3243" s="1" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="B3243" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3243" s="1" t="s">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="D3243" s="1" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="E3243" s="1" t="s">
         <v>3204</v>
@@ -87419,16 +87419,16 @@
     </row>
     <row r="3244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3244" s="1" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
       <c r="B3244" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3244" s="1" t="s">
-        <v>6810</v>
+        <v>6809</v>
       </c>
       <c r="D3244" s="1" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="E3244" s="1" t="s">
         <v>3204</v>
@@ -87436,16 +87436,16 @@
     </row>
     <row r="3245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3245" s="1" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
       <c r="B3245" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3245" s="1" t="s">
-        <v>6811</v>
+        <v>6810</v>
       </c>
       <c r="D3245" s="1" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="E3245" s="1" t="s">
         <v>3204</v>
@@ -87453,16 +87453,16 @@
     </row>
     <row r="3246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3246" s="1" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
       <c r="B3246" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3246" s="1" t="s">
-        <v>6812</v>
+        <v>6811</v>
       </c>
       <c r="D3246" s="1" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="E3246" s="1" t="s">
         <v>3204</v>
@@ -87470,16 +87470,16 @@
     </row>
     <row r="3247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3247" s="1" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
       <c r="B3247" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3247" s="1" t="s">
-        <v>6813</v>
+        <v>6812</v>
       </c>
       <c r="D3247" s="1" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="E3247" s="1" t="s">
         <v>3204</v>
@@ -87487,16 +87487,16 @@
     </row>
     <row r="3248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3248" s="1" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
       <c r="B3248" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3248" s="1" t="s">
-        <v>6814</v>
+        <v>6813</v>
       </c>
       <c r="D3248" s="1" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E3248" s="1" t="s">
         <v>3204</v>
@@ -87504,16 +87504,16 @@
     </row>
     <row r="3249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3249" s="1" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
       <c r="B3249" s="1" t="s">
         <v>6129</v>
       </c>
       <c r="C3249" s="1" t="s">
-        <v>6815</v>
+        <v>6814</v>
       </c>
       <c r="D3249" s="1" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="E3249" s="1" t="s">
         <v>3204</v>
@@ -87521,16 +87521,16 @@
     </row>
     <row r="3250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3250" s="1" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
       <c r="B3250" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3250" s="1" t="s">
-        <v>6816</v>
+        <v>6815</v>
       </c>
       <c r="D3250" s="1" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="E3250" s="1" t="s">
         <v>3204</v>
@@ -87538,16 +87538,16 @@
     </row>
     <row r="3251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3251" s="1" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="B3251" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3251" s="1" t="s">
-        <v>6817</v>
+        <v>6816</v>
       </c>
       <c r="D3251" s="1" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="E3251" s="1" t="s">
         <v>3204</v>
@@ -87555,16 +87555,16 @@
     </row>
     <row r="3252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3252" s="1" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="B3252" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3252" s="1" t="s">
-        <v>6818</v>
+        <v>6817</v>
       </c>
       <c r="D3252" s="1" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="E3252" s="1" t="s">
         <v>3204</v>
@@ -87572,16 +87572,16 @@
     </row>
     <row r="3253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3253" s="1" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
       <c r="B3253" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3253" s="1" t="s">
-        <v>6819</v>
+        <v>6818</v>
       </c>
       <c r="D3253" s="1" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E3253" s="1" t="s">
         <v>3204</v>
@@ -87589,16 +87589,16 @@
     </row>
     <row r="3254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3254" s="1" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
       <c r="B3254" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3254" s="1" t="s">
-        <v>6820</v>
+        <v>6819</v>
       </c>
       <c r="D3254" s="1" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="E3254" s="1" t="s">
         <v>3204</v>
@@ -87606,16 +87606,16 @@
     </row>
     <row r="3255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3255" s="1" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="B3255" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3255" s="1" t="s">
-        <v>6821</v>
+        <v>6820</v>
       </c>
       <c r="D3255" s="1" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="E3255" s="1" t="s">
         <v>3204</v>
@@ -87623,16 +87623,16 @@
     </row>
     <row r="3256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3256" s="1" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="B3256" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3256" s="1" t="s">
-        <v>6822</v>
+        <v>6821</v>
       </c>
       <c r="D3256" s="1" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="E3256" s="1" t="s">
         <v>3204</v>
@@ -87640,16 +87640,16 @@
     </row>
     <row r="3257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3257" s="1" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="B3257" s="1" t="s">
         <v>6130</v>
       </c>
       <c r="C3257" s="1" t="s">
-        <v>6823</v>
+        <v>6822</v>
       </c>
       <c r="D3257" s="1" t="s">
-        <v>7283</v>
+        <v>7282</v>
       </c>
       <c r="E3257" s="1" t="s">
         <v>3204</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E6399-9402-47E3-B55F-22E54DB82C7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F7816-B8AB-4897-9A15-D4585C2EA2E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1632" windowWidth="20916" windowHeight="10200" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23534,23 +23534,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>/sys/menu/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>index</t>
-    </r>
+    <t>skin-blue-light2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skin-blue-light2</t>
+    <t>/sys/menu/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24186,7 +24174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -24294,7 +24282,7 @@
         <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -29557,9 +29545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -30417,7 +30405,7 @@
         <v>6238</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>7292</v>
+        <v>7293</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>6214</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F7816-B8AB-4897-9A15-D4585C2EA2E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3655B23-030E-4ACD-8320-0592E908C83C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23530,15 +23530,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skin-blue-light2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/sys/menu/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24282,7 +24282,7 @@
         <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7292</v>
+        <v>7291</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -25827,7 +25827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
@@ -25872,7 +25872,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7291</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -29545,7 +29545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -30405,7 +30405,7 @@
         <v>6238</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>6214</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3655B23-030E-4ACD-8320-0592E908C83C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E40A0-BC59-42CE-B61F-CE604A2E0363}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23538,7 +23538,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.7</t>
+    <t>4.1.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25827,9 +25827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29545,9 +29545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231B838-9DE3-4BBA-8696-EFDC3F7D0094}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C15514-A078-4729-93B7-C92AB4850BBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23534,10 +23534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skin-blue、skin-black2、skin-purple、skin-green、skin-red、skin-yellow、skin-blue-light、skin-black-light2、skin-purple-light、skin-green-light、skin-red-light、skin-yellow-light、skin-blue-light2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流程设计器、流程监管控制、流程办理、流程追踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23905,6 +23901,10 @@
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、浅蓝：skin-blue-light2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -24539,7 +24539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -24639,7 +24639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>302</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7292</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -26271,24 +26271,24 @@
         <v>7263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7297</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>7294</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7293</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7295</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7294</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>7293</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7296</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
     </row>
   </sheetData>
@@ -26302,7 +26302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
@@ -26680,10 +26680,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>7341</v>
+        <v>7340</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7340</v>
+        <v>7339</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>74</v>
@@ -26691,10 +26691,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>7343</v>
+        <v>7342</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7342</v>
+        <v>7341</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>74</v>
@@ -26702,10 +26702,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7345</v>
+        <v>7344</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7344</v>
+        <v>7343</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>74</v>
@@ -26713,10 +26713,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7355</v>
+        <v>7354</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>74</v>
@@ -26724,10 +26724,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>7347</v>
+        <v>7346</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7356</v>
+        <v>7355</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>74</v>
@@ -26735,10 +26735,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>7348</v>
+        <v>7347</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7357</v>
+        <v>7356</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>74</v>
@@ -26746,10 +26746,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7349</v>
+        <v>7348</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>74</v>
@@ -26757,10 +26757,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>7352</v>
+        <v>7351</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7351</v>
+        <v>7350</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>74</v>
@@ -26768,10 +26768,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>7354</v>
+        <v>7353</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7353</v>
+        <v>7352</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>74</v>
@@ -26789,8 +26789,8 @@
   <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -30020,10 +30020,10 @@
         <v>56</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>7341</v>
+        <v>7340</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>7358</v>
+        <v>7357</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>55</v>
@@ -30043,10 +30043,10 @@
         <v>56</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>7341</v>
+        <v>7340</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>7359</v>
+        <v>7358</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>3198</v>
@@ -30054,8 +30054,8 @@
       <c r="F122" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H122" s="7" t="s">
-        <v>7360</v>
+      <c r="I122" s="7" t="s">
+        <v>7359</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>77</v>
@@ -30069,10 +30069,10 @@
         <v>56</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>7343</v>
+        <v>7342</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>7361</v>
+        <v>7360</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>55</v>
@@ -30080,8 +30080,8 @@
       <c r="F123" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H123" s="7" t="s">
-        <v>7360</v>
+      <c r="I123" s="7" t="s">
+        <v>7359</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>77</v>
@@ -30095,10 +30095,10 @@
         <v>56</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>7343</v>
+        <v>7342</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>7362</v>
+        <v>7361</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>3198</v>
@@ -30106,8 +30106,8 @@
       <c r="F124" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H124" s="7" t="s">
-        <v>7363</v>
+      <c r="I124" s="7" t="s">
+        <v>7362</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>77</v>
@@ -30121,13 +30121,13 @@
         <v>56</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>7345</v>
+        <v>7344</v>
       </c>
       <c r="D125" s="7" t="s">
+        <v>7363</v>
+      </c>
+      <c r="E125" s="14" t="s">
         <v>7364</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>7365</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>69</v>
@@ -30144,10 +30144,10 @@
         <v>56</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>7366</v>
+        <v>7365</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>56</v>
@@ -30167,19 +30167,19 @@
         <v>56</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="D127" s="7" t="s">
+        <v>7366</v>
+      </c>
+      <c r="E127" s="14" t="s">
         <v>7367</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>7368</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H127" s="7" t="s">
-        <v>7360</v>
+      <c r="I127" s="7" t="s">
+        <v>7359</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>77</v>
@@ -30193,19 +30193,19 @@
         <v>56</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="D128" s="7" t="s">
+        <v>7390</v>
+      </c>
+      <c r="E128" s="14" t="s">
         <v>7391</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>7392</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H128" s="7" t="s">
-        <v>7393</v>
+      <c r="I128" s="7" t="s">
+        <v>7392</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>77</v>
@@ -30219,19 +30219,19 @@
         <v>56</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>7390</v>
+        <v>7389</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>7300</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>7363</v>
+        <v>7299</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>7362</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>77</v>
@@ -30245,19 +30245,19 @@
         <v>56</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>7346</v>
+        <v>7345</v>
       </c>
       <c r="D130" s="7" t="s">
+        <v>7368</v>
+      </c>
+      <c r="E130" s="14" t="s">
         <v>7369</v>
       </c>
-      <c r="E130" s="14" t="s">
-        <v>7370</v>
-      </c>
       <c r="F130" s="7" t="s">
-        <v>7401</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>7363</v>
+        <v>7400</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>7362</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>77</v>
@@ -30271,10 +30271,10 @@
         <v>56</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>7347</v>
+        <v>7346</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>7371</v>
+        <v>7370</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>329</v>
@@ -30294,19 +30294,19 @@
         <v>56</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>7347</v>
+        <v>7346</v>
       </c>
       <c r="D132" s="7" t="s">
+        <v>7371</v>
+      </c>
+      <c r="E132" s="14" t="s">
         <v>7372</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>7373</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H132" s="7" t="s">
-        <v>7374</v>
+      <c r="I132" s="7" t="s">
+        <v>7373</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>77</v>
@@ -30320,19 +30320,19 @@
         <v>56</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>7347</v>
+        <v>7346</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>7375</v>
+        <v>7374</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>6399</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>7360</v>
+      <c r="I133" s="7" t="s">
+        <v>7359</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>77</v>
@@ -30346,10 +30346,10 @@
         <v>56</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>7348</v>
+        <v>7347</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>7376</v>
+        <v>7375</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>55</v>
@@ -30357,8 +30357,8 @@
       <c r="F134" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H134" s="7" t="s">
-        <v>7360</v>
+      <c r="I134" s="7" t="s">
+        <v>7359</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>77</v>
@@ -30372,10 +30372,10 @@
         <v>56</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>7348</v>
+        <v>7347</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>7377</v>
+        <v>7376</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>3198</v>
@@ -30383,8 +30383,8 @@
       <c r="F135" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H135" s="7" t="s">
-        <v>7363</v>
+      <c r="I135" s="7" t="s">
+        <v>7362</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>77</v>
@@ -30398,13 +30398,13 @@
         <v>56</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D136" s="7" t="s">
+        <v>7377</v>
+      </c>
+      <c r="E136" s="14" t="s">
         <v>7378</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>7379</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>69</v>
@@ -30421,13 +30421,13 @@
         <v>56</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D137" s="7" t="s">
+        <v>7379</v>
+      </c>
+      <c r="E137" s="14" t="s">
         <v>7380</v>
-      </c>
-      <c r="E137" s="14" t="s">
-        <v>7381</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>330</v>
@@ -30444,13 +30444,13 @@
         <v>56</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D138" s="7" t="s">
+        <v>7387</v>
+      </c>
+      <c r="E138" s="14" t="s">
         <v>7388</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>7389</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>6399</v>
@@ -30467,13 +30467,13 @@
         <v>56</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D139" s="7" t="s">
+        <v>7381</v>
+      </c>
+      <c r="E139" s="14" t="s">
         <v>7382</v>
-      </c>
-      <c r="E139" s="14" t="s">
-        <v>7383</v>
       </c>
       <c r="F139" s="7" t="s">
         <v>57</v>
@@ -30490,16 +30490,16 @@
         <v>56</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D140" s="7" t="s">
+        <v>7383</v>
+      </c>
+      <c r="E140" s="14" t="s">
         <v>7384</v>
       </c>
-      <c r="E140" s="14" t="s">
-        <v>7385</v>
-      </c>
       <c r="F140" s="7" t="s">
-        <v>7402</v>
+        <v>7401</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>77</v>
@@ -30513,16 +30513,16 @@
         <v>56</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>7350</v>
+        <v>7349</v>
       </c>
       <c r="D141" s="7" t="s">
+        <v>7385</v>
+      </c>
+      <c r="E141" s="14" t="s">
         <v>7386</v>
       </c>
-      <c r="E141" s="14" t="s">
-        <v>7387</v>
-      </c>
       <c r="F141" s="7" t="s">
-        <v>7403</v>
+        <v>7402</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>77</v>
@@ -30536,13 +30536,13 @@
         <v>56</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>7354</v>
+        <v>7353</v>
       </c>
       <c r="D142" s="7" t="s">
+        <v>7393</v>
+      </c>
+      <c r="E142" s="14" t="s">
         <v>7394</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>7395</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>69</v>
@@ -30559,13 +30559,13 @@
         <v>56</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>7354</v>
+        <v>7353</v>
       </c>
       <c r="D143" s="7" t="s">
+        <v>7395</v>
+      </c>
+      <c r="E143" s="14" t="s">
         <v>7396</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>7397</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>330</v>
@@ -30582,13 +30582,13 @@
         <v>56</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>7352</v>
+        <v>7351</v>
       </c>
       <c r="D144" s="7" t="s">
+        <v>7397</v>
+      </c>
+      <c r="E144" s="14" t="s">
         <v>7398</v>
-      </c>
-      <c r="E144" s="14" t="s">
-        <v>7399</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>69</v>
@@ -30605,13 +30605,13 @@
         <v>56</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>7352</v>
+        <v>7351</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>7400</v>
+        <v>7399</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>330</v>
@@ -30632,7 +30632,7 @@
   <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -33186,19 +33186,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>7337</v>
+        <v>7336</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E75" s="20" t="s">
-        <v>7323</v>
+        <v>7322</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>74</v>
@@ -33207,7 +33207,7 @@
         <v>76</v>
       </c>
       <c r="L75" s="34" t="s">
-        <v>7324</v>
+        <v>7323</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>74</v>
@@ -33218,16 +33218,16 @@
         <v>73</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>7337</v>
+        <v>7336</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>7325</v>
+        <v>7324</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>6399</v>
@@ -33239,7 +33239,7 @@
         <v>76</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>7322</v>
+        <v>7321</v>
       </c>
       <c r="N76" s="10" t="s">
         <v>74</v>
@@ -33250,16 +33250,16 @@
         <v>73</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>7332</v>
+        <v>7331</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>69</v>
@@ -33271,7 +33271,7 @@
         <v>76</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>7308</v>
+        <v>7307</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>74</v>
@@ -33282,16 +33282,16 @@
         <v>73</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>7333</v>
+        <v>7332</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>330</v>
@@ -33303,7 +33303,7 @@
         <v>76</v>
       </c>
       <c r="I78" s="31" t="s">
-        <v>7309</v>
+        <v>7308</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>74</v>
@@ -33314,16 +33314,16 @@
         <v>73</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>7334</v>
+        <v>7333</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>6399</v>
@@ -33335,7 +33335,7 @@
         <v>76</v>
       </c>
       <c r="I79" s="31" t="s">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>74</v>
@@ -33346,19 +33346,19 @@
         <v>73</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>7338</v>
+        <v>7337</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>7335</v>
+        <v>7334</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>7300</v>
+        <v>7299</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>74</v>
@@ -33367,10 +33367,10 @@
         <v>76</v>
       </c>
       <c r="I80" s="31" t="s">
-        <v>7311</v>
+        <v>7310</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>7319</v>
+        <v>7318</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>74</v>
@@ -33381,19 +33381,19 @@
         <v>73</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>79</v>
+        <v>7338</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>7338</v>
-      </c>
-      <c r="E81" s="15" t="s">
         <v>7336</v>
       </c>
+      <c r="E81" s="17" t="s">
+        <v>7325</v>
+      </c>
       <c r="F81" s="10" t="s">
-        <v>7302</v>
+        <v>7300</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>74</v>
@@ -33401,10 +33401,7 @@
       <c r="H81" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I81" s="31" t="s">
-        <v>7312</v>
-      </c>
-      <c r="K81" s="10" t="s">
+      <c r="L81" s="10" t="s">
         <v>7320</v>
       </c>
       <c r="N81" s="10" t="s">
@@ -33416,19 +33413,19 @@
         <v>73</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>7339</v>
+        <v>79</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>7337</v>
-      </c>
-      <c r="E82" s="17" t="s">
+        <v>7338</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>7326</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>7301</v>
+        <v>330</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>74</v>
@@ -33436,8 +33433,11 @@
       <c r="H82" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>7321</v>
+      <c r="I82" s="31" t="s">
+        <v>7302</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>7313</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>74</v>
@@ -33448,19 +33448,19 @@
         <v>73</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>7327</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>330</v>
+        <v>6399</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>74</v>
@@ -33483,19 +33483,19 @@
         <v>73</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>7328</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>6399</v>
+        <v>69</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>74</v>
@@ -33518,19 +33518,19 @@
         <v>73</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>7329</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>69</v>
+        <v>7299</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>74</v>
@@ -33553,13 +33553,13 @@
         <v>73</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>7330</v>
@@ -33588,16 +33588,16 @@
         <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>7339</v>
+        <v>7338</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>7331</v>
+        <v>7335</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>7301</v>
@@ -33609,10 +33609,10 @@
         <v>76</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>7307</v>
+        <v>7311</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>7318</v>
+        <v>7319</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>74</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C15514-A078-4729-93B7-C92AB4850BBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8BC1A7-B418-4A30-8B94-CCDBA784763D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19125" uniqueCount="7404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19150" uniqueCount="7405">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23904,6 +23904,10 @@
   </si>
   <si>
     <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、浅蓝：skin-blue-light2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24539,7 +24543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -26788,9 +26792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -30031,6 +30035,9 @@
       <c r="F121" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G121" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K121" s="1" t="s">
         <v>77</v>
       </c>
@@ -30054,6 +30061,9 @@
       <c r="F122" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G122" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I122" s="7" t="s">
         <v>7359</v>
       </c>
@@ -30080,6 +30090,9 @@
       <c r="F123" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G123" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I123" s="7" t="s">
         <v>7359</v>
       </c>
@@ -30106,6 +30119,9 @@
       <c r="F124" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G124" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I124" s="7" t="s">
         <v>7362</v>
       </c>
@@ -30132,6 +30148,9 @@
       <c r="F125" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G125" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K125" s="1" t="s">
         <v>77</v>
       </c>
@@ -30155,6 +30174,9 @@
       <c r="F126" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G126" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K126" s="1" t="s">
         <v>77</v>
       </c>
@@ -30178,6 +30200,9 @@
       <c r="F127" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G127" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I127" s="7" t="s">
         <v>7359</v>
       </c>
@@ -30204,6 +30229,9 @@
       <c r="F128" s="7" t="s">
         <v>332</v>
       </c>
+      <c r="G128" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I128" s="7" t="s">
         <v>7392</v>
       </c>
@@ -30230,6 +30258,9 @@
       <c r="F129" s="7" t="s">
         <v>7299</v>
       </c>
+      <c r="G129" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I129" s="7" t="s">
         <v>7362</v>
       </c>
@@ -30256,6 +30287,9 @@
       <c r="F130" s="7" t="s">
         <v>7400</v>
       </c>
+      <c r="G130" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I130" s="7" t="s">
         <v>7362</v>
       </c>
@@ -30282,6 +30316,9 @@
       <c r="F131" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G131" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K131" s="1" t="s">
         <v>77</v>
       </c>
@@ -30305,6 +30342,9 @@
       <c r="F132" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G132" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I132" s="7" t="s">
         <v>7373</v>
       </c>
@@ -30331,6 +30371,9 @@
       <c r="F133" s="7" t="s">
         <v>6399</v>
       </c>
+      <c r="G133" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I133" s="7" t="s">
         <v>7359</v>
       </c>
@@ -30357,6 +30400,9 @@
       <c r="F134" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G134" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I134" s="7" t="s">
         <v>7359</v>
       </c>
@@ -30383,6 +30429,9 @@
       <c r="F135" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G135" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="I135" s="7" t="s">
         <v>7362</v>
       </c>
@@ -30409,6 +30458,9 @@
       <c r="F136" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G136" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K136" s="1" t="s">
         <v>77</v>
       </c>
@@ -30432,6 +30484,9 @@
       <c r="F137" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G137" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K137" s="1" t="s">
         <v>77</v>
       </c>
@@ -30455,6 +30510,9 @@
       <c r="F138" s="7" t="s">
         <v>6399</v>
       </c>
+      <c r="G138" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K138" s="1" t="s">
         <v>77</v>
       </c>
@@ -30478,6 +30536,9 @@
       <c r="F139" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="G139" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K139" s="1" t="s">
         <v>77</v>
       </c>
@@ -30501,6 +30562,9 @@
       <c r="F140" s="7" t="s">
         <v>7401</v>
       </c>
+      <c r="G140" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K140" s="1" t="s">
         <v>77</v>
       </c>
@@ -30524,6 +30588,9 @@
       <c r="F141" s="7" t="s">
         <v>7402</v>
       </c>
+      <c r="G141" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K141" s="1" t="s">
         <v>77</v>
       </c>
@@ -30547,6 +30614,9 @@
       <c r="F142" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G142" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K142" s="1" t="s">
         <v>77</v>
       </c>
@@ -30570,6 +30640,9 @@
       <c r="F143" s="7" t="s">
         <v>330</v>
       </c>
+      <c r="G143" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K143" s="1" t="s">
         <v>77</v>
       </c>
@@ -30593,6 +30666,9 @@
       <c r="F144" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="G144" s="34" t="s">
+        <v>7404</v>
+      </c>
       <c r="K144" s="1" t="s">
         <v>77</v>
       </c>
@@ -30615,6 +30691,9 @@
       </c>
       <c r="F145" s="7" t="s">
         <v>330</v>
+      </c>
+      <c r="G145" s="34" t="s">
+        <v>7404</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>77</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38169F50-C1FC-4617-B8AA-EC625B631308}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BA8EE-2066-4942-BA99-46E6BE066476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15890" uniqueCount="7400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15902" uniqueCount="7404">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23898,6 +23898,20 @@
   <si>
     <t>北京市</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/audit/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全审计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:audit</t>
+  </si>
+  <si>
+    <t>icon-energy</t>
   </si>
 </sst>
 </file>
@@ -30700,11 +30714,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -31489,7 +31503,7 @@
         <v>71</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>6121</v>
+        <v>215</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>252</v>
@@ -31509,31 +31523,37 @@
         <v>70</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>197</v>
+        <v>227</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>7401</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>6120</v>
+        <v>71</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>6121</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>7400</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>7402</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>185</v>
+        <v>7403</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -31544,31 +31564,25 @@
         <v>191</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>77</v>
+        <v>266</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>6121</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>7165</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>6097</v>
+      <c r="H25" s="25" t="s">
+        <v>6120</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>174</v>
@@ -31579,7 +31593,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>224</v>
@@ -31588,10 +31602,10 @@
         <v>75</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>174</v>
@@ -31599,14 +31613,14 @@
       <c r="H26" s="24" t="s">
         <v>6121</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>180</v>
+      <c r="I26" s="35" t="s">
+        <v>7165</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>6098</v>
+        <v>6097</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>174</v>
@@ -31626,25 +31640,25 @@
         <v>75</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>80</v>
+      <c r="H27" s="24" t="s">
+        <v>6121</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>6099</v>
+        <v>6098</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>174</v>
@@ -31657,30 +31671,32 @@
       <c r="B28" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>6107</v>
+      <c r="C28" s="31" t="s">
+        <v>224</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>174</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>6120</v>
+        <v>80</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="K28" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>6099</v>
+      </c>
       <c r="L28" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>174</v>
@@ -31693,29 +31709,33 @@
       <c r="B29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>6107</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>6103</v>
+      <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>6101</v>
+        <v>6120</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -31732,19 +31752,19 @@
         <v>6107</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>6121</v>
+      <c r="H30" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>71</v>
@@ -31764,19 +31784,19 @@
         <v>6107</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="25" t="s">
-        <v>6120</v>
+      <c r="H31" s="24" t="s">
+        <v>6121</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>6135</v>
+        <v>6102</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>71</v>
@@ -31796,10 +31816,10 @@
         <v>6107</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>85</v>
@@ -31808,7 +31828,7 @@
         <v>6120</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>71</v>
@@ -31822,34 +31842,28 @@
         <v>26</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>6106</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="H33" s="25" t="s">
         <v>6120</v>
       </c>
-      <c r="I33" s="31" t="s">
-        <v>183</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>6100</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>6278</v>
+        <v>6136</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -31860,34 +31874,34 @@
         <v>26</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>6275</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>6132</v>
+      <c r="E34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>6276</v>
+        <v>174</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>6120</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>183</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>6277</v>
+        <v>6100</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>71</v>
+        <v>6278</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -31904,10 +31918,10 @@
         <v>75</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>6279</v>
+        <v>6275</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>6280</v>
+        <v>6132</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>71</v>
@@ -31916,13 +31930,15 @@
         <v>215</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>6158</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>6276</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>6277</v>
+      </c>
       <c r="L35" s="1" t="s">
-        <v>6157</v>
-      </c>
-      <c r="N35" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -31934,25 +31950,29 @@
         <v>26</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>209</v>
+        <v>75</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>6279</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>6150</v>
+        <v>6280</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>6120</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>225</v>
+      <c r="H36" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>6158</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>6157</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>71</v>
@@ -31966,16 +31986,16 @@
         <v>26</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>73</v>
+        <v>266</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6150</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>71</v>
@@ -31983,14 +32003,8 @@
       <c r="H37" s="25" t="s">
         <v>6120</v>
       </c>
-      <c r="I37" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>6287</v>
-      </c>
       <c r="L37" s="10" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="N37" s="10" t="s">
         <v>71</v>
@@ -32010,25 +32024,25 @@
         <v>226</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="24" t="s">
-        <v>6121</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>7158</v>
+      <c r="H38" s="25" t="s">
+        <v>6120</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>207</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>6372</v>
+        <v>6287</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="N38" s="10" t="s">
         <v>71</v>
@@ -32048,10 +32062,10 @@
         <v>226</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>71</v>
@@ -32060,13 +32074,13 @@
         <v>6121</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7108</v>
+        <v>7158</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>7106</v>
+        <v>6372</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>71</v>
@@ -32080,31 +32094,31 @@
         <v>26</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>6283</v>
+      <c r="E40" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>215</v>
+        <v>6121</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>6373</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>6284</v>
+        <v>7106</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>71</v>
@@ -32118,31 +32132,31 @@
         <v>26</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>208</v>
+      <c r="E41" s="15" t="s">
+        <v>6283</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>6121</v>
+        <v>215</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>6327</v>
+        <v>7109</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>6374</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>210</v>
+        <v>6373</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>6284</v>
       </c>
       <c r="N41" s="10" t="s">
         <v>71</v>
@@ -32156,34 +32170,34 @@
         <v>26</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>240</v>
+      <c r="E42" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>6282</v>
+        <v>327</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>6120</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>264</v>
+        <v>71</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>6121</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>6327</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>6288</v>
+        <v>6374</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -32200,28 +32214,28 @@
         <v>226</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>7114</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>7111</v>
+        <v>240</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>6282</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>7112</v>
+        <v>174</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>6120</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>264</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>7110</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>7113</v>
+        <v>6288</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -32231,31 +32245,35 @@
       <c r="B44" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>7091</v>
+      <c r="C44" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>7092</v>
+        <v>226</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>7114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7096</v>
+        <v>7111</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H44" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="K44" s="1"/>
+      <c r="H44" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>7112</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>7110</v>
+      </c>
       <c r="L44" s="1" t="s">
-        <v>7105</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>71</v>
+        <v>186</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>7113</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -32265,17 +32283,17 @@
       <c r="B45" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>7091</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>7093</v>
+      <c r="D45" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>7092</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7097</v>
+        <v>7096</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>71</v>
@@ -32283,11 +32301,10 @@
       <c r="H45" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>7100</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>7103</v>
+      <c r="I45" s="3"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>7105</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>71</v>
@@ -32307,10 +32324,10 @@
         <v>7091</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>71</v>
@@ -32319,7 +32336,7 @@
         <v>80</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>7103</v>
@@ -32342,10 +32359,10 @@
         <v>7091</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>7095</v>
+        <v>7094</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7099</v>
+        <v>7098</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>71</v>
@@ -32354,10 +32371,10 @@
         <v>80</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>71</v>
@@ -32367,29 +32384,32 @@
       <c r="A48" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>199</v>
+        <v>76</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7091</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>7095</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>6151</v>
+        <v>7099</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="24" t="s">
-        <v>6121</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>200</v>
+      <c r="H48" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>7102</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>7104</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>71</v>
@@ -32399,32 +32419,26 @@
       <c r="A49" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>219</v>
+        <v>266</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6151</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H49" s="24" t="s">
         <v>6121</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>6152</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>200</v>
@@ -32441,16 +32455,16 @@
         <v>26</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>212</v>
+      <c r="E50" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>71</v>
@@ -32458,8 +32472,14 @@
       <c r="H50" s="24" t="s">
         <v>6121</v>
       </c>
+      <c r="I50" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>6152</v>
+      </c>
       <c r="L50" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="N50" s="10" t="s">
         <v>71</v>
@@ -32473,16 +32493,16 @@
         <v>26</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>6354</v>
+        <v>228</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>71</v>
@@ -32490,11 +32510,8 @@
       <c r="H51" s="24" t="s">
         <v>6121</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>6352</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>344</v>
+      <c r="L51" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="N51" s="10" t="s">
         <v>71</v>
@@ -32514,10 +32531,10 @@
         <v>229</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>71</v>
@@ -32526,10 +32543,10 @@
         <v>6121</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>6353</v>
+        <v>6352</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N52" s="10" t="s">
         <v>71</v>
@@ -32543,22 +32560,28 @@
         <v>26</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>279</v>
+        <v>229</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>6355</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H53" s="24" t="s">
         <v>6121</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>6353</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>71</v>
@@ -32572,25 +32595,22 @@
         <v>26</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>213</v>
+        <v>228</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H54" s="24" t="s">
         <v>6121</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>7082</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>71</v>
@@ -32604,25 +32624,25 @@
         <v>26</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>231</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>215</v>
+        <v>6121</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="N55" s="10" t="s">
         <v>71</v>
@@ -32636,25 +32656,25 @@
         <v>26</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>7281</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>6148</v>
+      <c r="E56" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>6121</v>
+        <v>215</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>7282</v>
+        <v>7083</v>
       </c>
       <c r="N56" s="10" t="s">
         <v>71</v>
@@ -32668,22 +32688,25 @@
         <v>26</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>218</v>
+        <v>231</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>7281</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>6148</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H57" s="24" t="s">
         <v>6121</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>7282</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>71</v>
@@ -32697,25 +32720,22 @@
         <v>26</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>280</v>
+        <v>228</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H58" s="24" t="s">
         <v>6121</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>7084</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>71</v>
@@ -32735,10 +32755,10 @@
         <v>230</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>71</v>
@@ -32747,7 +32767,7 @@
         <v>6121</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>7085</v>
+        <v>7084</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>71</v>
@@ -32761,25 +32781,25 @@
         <v>26</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>230</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>215</v>
+        <v>6121</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>7086</v>
+        <v>7085</v>
       </c>
       <c r="N60" s="10" t="s">
         <v>71</v>
@@ -32793,25 +32813,25 @@
         <v>26</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>230</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>7284</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>6028</v>
+        <v>282</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>6121</v>
+        <v>215</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>7283</v>
+        <v>7086</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>71</v>
@@ -32825,22 +32845,25 @@
         <v>26</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>285</v>
+        <v>230</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>7284</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>6028</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="H62" s="24" t="s">
         <v>6121</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>7283</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>71</v>
@@ -32854,25 +32877,22 @@
         <v>26</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>283</v>
+        <v>228</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H63" s="24" t="s">
         <v>6121</v>
-      </c>
-      <c r="I63" s="31" t="s">
-        <v>305</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>71</v>
@@ -32885,26 +32905,26 @@
       <c r="B64" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>6344</v>
+      <c r="C64" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>6337</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>6339</v>
+        <v>284</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="L64" s="34" t="s">
-        <v>7154</v>
+        <v>6121</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>305</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>71</v>
@@ -32917,17 +32937,17 @@
       <c r="B65" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>6344</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>6338</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>72</v>
+      <c r="D65" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>6337</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6339</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>71</v>
@@ -32935,11 +32955,8 @@
       <c r="H65" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="I65" s="29" t="s">
-        <v>6340</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>7080</v>
+      <c r="L65" s="34" t="s">
+        <v>7154</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>71</v>
@@ -32959,10 +32976,10 @@
         <v>6344</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>6341</v>
+        <v>6338</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>71</v>
@@ -32971,10 +32988,10 @@
         <v>215</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>6342</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>7081</v>
+        <v>6340</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>7080</v>
       </c>
       <c r="N66" s="10" t="s">
         <v>71</v>
@@ -32994,10 +33011,10 @@
         <v>6344</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>6362</v>
+        <v>6341</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>71</v>
@@ -33006,7 +33023,7 @@
         <v>215</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>6361</v>
+        <v>6342</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>7081</v>
@@ -33029,10 +33046,10 @@
         <v>6344</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>6359</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>6028</v>
+        <v>6362</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>71</v>
@@ -33041,7 +33058,7 @@
         <v>215</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>6343</v>
+        <v>6361</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>7081</v>
@@ -33057,26 +33074,29 @@
       <c r="B69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>7125</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>7126</v>
+      <c r="C69" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>6344</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>6359</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>7127</v>
+        <v>6028</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H69" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>7135</v>
+      <c r="H69" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>6343</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>7081</v>
       </c>
       <c r="N69" s="10" t="s">
         <v>71</v>
@@ -33090,16 +33110,16 @@
         <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>7143</v>
-      </c>
-      <c r="D70" s="3" t="s">
         <v>7125</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>7137</v>
+      <c r="D70" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>7126</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>289</v>
+        <v>7127</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>71</v>
@@ -33107,8 +33127,8 @@
       <c r="H70" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L70" s="34" t="s">
-        <v>7145</v>
+      <c r="L70" s="1" t="s">
+        <v>7135</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>71</v>
@@ -33121,17 +33141,17 @@
       <c r="B71" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="31" t="s">
-        <v>76</v>
+      <c r="C71" s="3" t="s">
+        <v>7143</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>7143</v>
-      </c>
-      <c r="E71" s="15" t="s">
+        <v>7125</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>7137</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>72</v>
+      <c r="F71" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>71</v>
@@ -33139,11 +33159,8 @@
       <c r="H71" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I71" s="35" t="s">
-        <v>7141</v>
-      </c>
-      <c r="K71" s="34" t="s">
-        <v>7144</v>
+      <c r="L71" s="34" t="s">
+        <v>7145</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>71</v>
@@ -33156,17 +33173,17 @@
       <c r="B72" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>7143</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>7142</v>
+        <v>7137</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>71</v>
@@ -33175,7 +33192,7 @@
         <v>73</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>7140</v>
+        <v>7141</v>
       </c>
       <c r="K72" s="34" t="s">
         <v>7144</v>
@@ -33192,16 +33209,16 @@
         <v>26</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>7129</v>
+        <v>76</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7125</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>7128</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>6150</v>
+        <v>7143</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>7142</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>71</v>
@@ -33209,12 +33226,11 @@
       <c r="H73" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>7131</v>
-      </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1" t="s">
-        <v>7130</v>
+      <c r="I73" s="35" t="s">
+        <v>7140</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>7144</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>71</v>
@@ -33227,26 +33243,30 @@
       <c r="B74" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="31" t="s">
-        <v>76</v>
+      <c r="C74" s="3" t="s">
+        <v>7129</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7129</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>72</v>
+        <v>7125</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>7128</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>6150</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H74" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>7132</v>
+      <c r="I74" s="3" t="s">
+        <v>7131</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>7130</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>71</v>
@@ -33259,17 +33279,17 @@
       <c r="B75" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>7129</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>85</v>
@@ -33278,7 +33298,7 @@
         <v>73</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="N75" s="10" t="s">
         <v>71</v>
@@ -33298,10 +33318,10 @@
         <v>7129</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>6083</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>6148</v>
+        <v>341</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>85</v>
@@ -33310,7 +33330,7 @@
         <v>73</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="N76" s="10" t="s">
         <v>71</v>
@@ -33321,28 +33341,28 @@
         <v>70</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>7187</v>
+        <v>26</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>7211</v>
+        <v>76</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>7197</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>7173</v>
+        <v>7129</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>6083</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>6148</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H77" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L77" s="34" t="s">
-        <v>7198</v>
+      <c r="K77" s="1" t="s">
+        <v>7134</v>
       </c>
       <c r="N77" s="10" t="s">
         <v>71</v>
@@ -33356,16 +33376,16 @@
         <v>7187</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>7211</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>7199</v>
+        <v>76</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>7197</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>6282</v>
+        <v>7173</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>71</v>
@@ -33373,8 +33393,8 @@
       <c r="H78" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L78" s="10" t="s">
-        <v>7196</v>
+      <c r="L78" s="34" t="s">
+        <v>7198</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>71</v>
@@ -33388,16 +33408,16 @@
         <v>7187</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>76</v>
+        <v>7212</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>7212</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>7206</v>
+        <v>7211</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>7199</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>66</v>
+        <v>6282</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>71</v>
@@ -33405,8 +33425,8 @@
       <c r="H79" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I79" s="31" t="s">
-        <v>7182</v>
+      <c r="L79" s="10" t="s">
+        <v>7196</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>71</v>
@@ -33426,10 +33446,10 @@
         <v>7212</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>71</v>
@@ -33438,7 +33458,7 @@
         <v>73</v>
       </c>
       <c r="I80" s="31" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>71</v>
@@ -33458,10 +33478,10 @@
         <v>7212</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>6282</v>
+        <v>325</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>71</v>
@@ -33470,7 +33490,7 @@
         <v>73</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>71</v>
@@ -33490,10 +33510,10 @@
         <v>7212</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>7174</v>
+        <v>6282</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>71</v>
@@ -33502,10 +33522,7 @@
         <v>73</v>
       </c>
       <c r="I82" s="31" t="s">
-        <v>7185</v>
-      </c>
-      <c r="K82" s="10" t="s">
-        <v>7193</v>
+        <v>7184</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>71</v>
@@ -33519,16 +33536,16 @@
         <v>7187</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>7213</v>
+        <v>76</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>7211</v>
-      </c>
-      <c r="E83" s="17" t="s">
-        <v>7200</v>
+        <v>7212</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>7209</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>71</v>
@@ -33536,8 +33553,11 @@
       <c r="H83" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L83" s="10" t="s">
-        <v>7195</v>
+      <c r="I83" s="31" t="s">
+        <v>7185</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>7193</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>71</v>
@@ -33551,16 +33571,16 @@
         <v>7187</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>76</v>
+        <v>7213</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>7213</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>7201</v>
+        <v>7211</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>7200</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>325</v>
+        <v>7175</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>71</v>
@@ -33568,11 +33588,8 @@
       <c r="H84" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="31" t="s">
-        <v>7177</v>
-      </c>
-      <c r="K84" s="10" t="s">
-        <v>7188</v>
+      <c r="L84" s="10" t="s">
+        <v>7195</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>71</v>
@@ -33592,10 +33609,10 @@
         <v>7213</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>6282</v>
+        <v>325</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>71</v>
@@ -33604,10 +33621,10 @@
         <v>73</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>71</v>
@@ -33627,10 +33644,10 @@
         <v>7213</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>66</v>
+        <v>6282</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>71</v>
@@ -33639,10 +33656,10 @@
         <v>73</v>
       </c>
       <c r="I86" s="31" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>71</v>
@@ -33662,10 +33679,10 @@
         <v>7213</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>7174</v>
+        <v>66</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>71</v>
@@ -33674,10 +33691,10 @@
         <v>73</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>71</v>
@@ -33697,10 +33714,10 @@
         <v>7213</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>71</v>
@@ -33709,10 +33726,10 @@
         <v>73</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="N88" s="10" t="s">
         <v>71</v>
@@ -33732,10 +33749,10 @@
         <v>7213</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>7210</v>
+        <v>7205</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>71</v>
@@ -33744,22 +33761,57 @@
         <v>73</v>
       </c>
       <c r="I89" s="31" t="s">
+        <v>7181</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>7192</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>7187</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>7213</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>7210</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>7176</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I90" s="31" t="s">
         <v>7186</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K90" s="10" t="s">
         <v>7194</v>
       </c>
-      <c r="N89" s="10" t="s">
+      <c r="N90" s="10" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I67" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="I65" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="I66" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="I66" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="I68" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I66" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="I67" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="I67" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -34000,7 +34052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E3251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048BA8EE-2066-4942-BA99-46E6BE066476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEE6D27-5372-442E-9EB6-9455DA4A47E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="336" yWindow="0" windowWidth="21624" windowHeight="12360" tabRatio="763" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15902" uniqueCount="7404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15934" uniqueCount="7411">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23150,10 +23150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流程设计器、流程监管控制、流程办理、流程追踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23180,14 +23176,6 @@
     <t>com.jeesite.modules.bpm.entity.BpmEntity</t>
   </si>
   <si>
-    <t>4.1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9090</t>
   </si>
   <si>
@@ -23912,6 +23900,37 @@
   </si>
   <si>
     <t>icon-energy</t>
+  </si>
+  <si>
+    <t>4.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始</t>
+  </si>
+  <si>
+    <t>活动完成</t>
+  </si>
+  <si>
+    <t>活动取消</t>
+  </si>
+  <si>
+    <t>连接线事件</t>
+  </si>
+  <si>
+    <t>ACTIVITY_STARTED</t>
+  </si>
+  <si>
+    <t>ACTIVITY_COMPLETED</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CANCELLED</t>
+  </si>
+  <si>
+    <t>SEQUENCEFLOW_TAKEN</t>
+  </si>
+  <si>
+    <t>280</t>
   </si>
 </sst>
 </file>
@@ -24663,7 +24682,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7278</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24725,13 +24744,13 @@
         <v>6265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7286</v>
+        <v>7283</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7287</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24742,13 +24761,13 @@
         <v>6266</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7288</v>
+        <v>7285</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7285</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24888,7 +24907,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
     <sortCondition ref="B5"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -25019,7 +25038,7 @@
         <v>6186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7280</v>
+        <v>7277</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6187</v>
@@ -26189,7 +26208,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
     <sortCondition ref="C2:C24"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26247,7 +26266,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7166</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -26281,24 +26300,24 @@
         <v>7139</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7171</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>7168</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7167</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7166</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7169</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7168</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>7167</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7170</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>7172</v>
+        <v>7401</v>
       </c>
     </row>
   </sheetData>
@@ -26690,10 +26709,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>7215</v>
+        <v>7212</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7214</v>
+        <v>7211</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>71</v>
@@ -26701,10 +26720,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>7217</v>
+        <v>7214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7216</v>
+        <v>7213</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>71</v>
@@ -26712,10 +26731,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>7219</v>
+        <v>7216</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7218</v>
+        <v>7215</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>71</v>
@@ -26723,10 +26742,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7229</v>
+        <v>7226</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>71</v>
@@ -26734,10 +26753,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7230</v>
+        <v>7227</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>71</v>
@@ -26745,10 +26764,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>7222</v>
+        <v>7219</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7231</v>
+        <v>7228</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>71</v>
@@ -26756,10 +26775,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7223</v>
+        <v>7220</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>71</v>
@@ -26767,10 +26786,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7225</v>
+        <v>7222</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>71</v>
@@ -26778,10 +26797,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>7228</v>
+        <v>7225</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7227</v>
+        <v>7224</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>71</v>
@@ -26796,11 +26815,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -30030,10 +30049,10 @@
         <v>53</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>7215</v>
+        <v>7212</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>52</v>
@@ -30042,7 +30061,7 @@
         <v>66</v>
       </c>
       <c r="G121" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K121" s="1" t="s">
         <v>74</v>
@@ -30056,10 +30075,10 @@
         <v>53</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>7215</v>
+        <v>7212</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>3144</v>
@@ -30068,10 +30087,10 @@
         <v>325</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>74</v>
@@ -30085,10 +30104,10 @@
         <v>53</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>7217</v>
+        <v>7214</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>7235</v>
+        <v>7232</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>52</v>
@@ -30097,10 +30116,10 @@
         <v>66</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>74</v>
@@ -30114,10 +30133,10 @@
         <v>53</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>7217</v>
+        <v>7214</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>7236</v>
+        <v>7233</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>3144</v>
@@ -30126,10 +30145,10 @@
         <v>325</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>74</v>
@@ -30143,19 +30162,19 @@
         <v>53</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>7219</v>
+        <v>7216</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>7238</v>
+        <v>7235</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>74</v>
@@ -30169,10 +30188,10 @@
         <v>53</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>7240</v>
+        <v>7237</v>
       </c>
       <c r="E126" s="14" t="s">
         <v>53</v>
@@ -30181,7 +30200,7 @@
         <v>66</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>74</v>
@@ -30195,22 +30214,22 @@
         <v>53</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>74</v>
@@ -30224,22 +30243,22 @@
         <v>53</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>7265</v>
+        <v>7262</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>7266</v>
+        <v>7263</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>327</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>7267</v>
+        <v>7264</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>74</v>
@@ -30253,22 +30272,22 @@
         <v>53</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>7264</v>
+        <v>7261</v>
       </c>
       <c r="E129" s="14" t="s">
         <v>52</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>7174</v>
+        <v>7171</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>74</v>
@@ -30282,22 +30301,22 @@
         <v>53</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>7244</v>
+        <v>7241</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>7275</v>
+        <v>7272</v>
       </c>
       <c r="G130" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>74</v>
@@ -30311,10 +30330,10 @@
         <v>53</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="E131" s="14" t="s">
         <v>324</v>
@@ -30323,7 +30342,7 @@
         <v>66</v>
       </c>
       <c r="G131" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>74</v>
@@ -30337,22 +30356,22 @@
         <v>53</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G132" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>74</v>
@@ -30366,22 +30385,22 @@
         <v>53</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>7249</v>
+        <v>7246</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>7175</v>
+        <v>7172</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>6282</v>
       </c>
       <c r="G133" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>74</v>
@@ -30395,10 +30414,10 @@
         <v>53</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>7222</v>
+        <v>7219</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>7250</v>
+        <v>7247</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>52</v>
@@ -30407,10 +30426,10 @@
         <v>66</v>
       </c>
       <c r="G134" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="K134" s="1" t="s">
         <v>74</v>
@@ -30424,10 +30443,10 @@
         <v>53</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>7222</v>
+        <v>7219</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>7251</v>
+        <v>7248</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>3144</v>
@@ -30436,10 +30455,10 @@
         <v>325</v>
       </c>
       <c r="G135" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
       <c r="K135" s="1" t="s">
         <v>74</v>
@@ -30453,19 +30472,19 @@
         <v>53</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>7252</v>
+        <v>7249</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>7253</v>
+        <v>7250</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G136" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K136" s="1" t="s">
         <v>74</v>
@@ -30479,19 +30498,19 @@
         <v>53</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>7254</v>
+        <v>7251</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>7255</v>
+        <v>7252</v>
       </c>
       <c r="F137" s="7" t="s">
         <v>325</v>
       </c>
       <c r="G137" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>74</v>
@@ -30505,19 +30524,19 @@
         <v>53</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>7262</v>
+        <v>7259</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>7263</v>
+        <v>7260</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>6282</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>74</v>
@@ -30531,19 +30550,19 @@
         <v>53</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>7256</v>
+        <v>7402</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>7257</v>
+        <v>7406</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>54</v>
+        <v>7244</v>
       </c>
       <c r="G139" s="34" t="s">
-        <v>7279</v>
+        <v>71</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>74</v>
@@ -30557,19 +30576,19 @@
         <v>53</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>7258</v>
+        <v>7403</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>7259</v>
+        <v>7407</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>7276</v>
+        <v>7171</v>
       </c>
       <c r="G140" s="34" t="s">
-        <v>7279</v>
+        <v>71</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>74</v>
@@ -30583,19 +30602,19 @@
         <v>53</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>7260</v>
+        <v>7404</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>7261</v>
+        <v>7408</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>7277</v>
+        <v>7172</v>
       </c>
       <c r="G141" s="34" t="s">
-        <v>7279</v>
+        <v>71</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>74</v>
@@ -30609,19 +30628,19 @@
         <v>53</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>7228</v>
+        <v>7221</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>7268</v>
+        <v>7253</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>7269</v>
+        <v>7254</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G142" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>74</v>
@@ -30635,19 +30654,19 @@
         <v>53</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>7228</v>
+        <v>7221</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>7270</v>
+        <v>7255</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>7271</v>
+        <v>7256</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>325</v>
+        <v>7273</v>
       </c>
       <c r="G143" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K143" s="1" t="s">
         <v>74</v>
@@ -30661,19 +30680,19 @@
         <v>53</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>7226</v>
+        <v>7221</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>7272</v>
+        <v>7257</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>7273</v>
+        <v>7258</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>66</v>
+        <v>7274</v>
       </c>
       <c r="G144" s="34" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>74</v>
@@ -30687,21 +30706,125 @@
         <v>53</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>7226</v>
+        <v>7221</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>7274</v>
+        <v>7405</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>7187</v>
+        <v>7409</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>7410</v>
+      </c>
+      <c r="G145" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>7225</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>7265</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>7266</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G146" s="34" t="s">
+        <v>7276</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>7225</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>7267</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>7268</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G145" s="34" t="s">
-        <v>7279</v>
-      </c>
-      <c r="K145" s="1" t="s">
+      <c r="G147" s="34" t="s">
+        <v>7276</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>7223</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>7269</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>7270</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G148" s="34" t="s">
+        <v>7276</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>7223</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>7271</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>7184</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G149" s="34" t="s">
+        <v>7276</v>
+      </c>
+      <c r="K149" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -30716,7 +30839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
@@ -31532,7 +31655,7 @@
         <v>227</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7401</v>
+        <v>7398</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>215</v>
@@ -31544,13 +31667,13 @@
         <v>6121</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>7397</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>7399</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>7400</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>7402</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>7403</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>71</v>
@@ -32694,7 +32817,7 @@
         <v>231</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7281</v>
+        <v>7278</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6148</v>
@@ -32706,7 +32829,7 @@
         <v>6121</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7282</v>
+        <v>7279</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>71</v>
@@ -32851,7 +32974,7 @@
         <v>230</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7284</v>
+        <v>7281</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6028</v>
@@ -32863,7 +32986,7 @@
         <v>6121</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7283</v>
+        <v>7280</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>71</v>
@@ -33373,19 +33496,19 @@
         <v>70</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>7197</v>
+        <v>7194</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>7173</v>
+        <v>7170</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>71</v>
@@ -33394,7 +33517,7 @@
         <v>73</v>
       </c>
       <c r="L78" s="34" t="s">
-        <v>7198</v>
+        <v>7195</v>
       </c>
       <c r="N78" s="10" t="s">
         <v>71</v>
@@ -33405,16 +33528,16 @@
         <v>70</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>7199</v>
+        <v>7196</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>6282</v>
@@ -33426,7 +33549,7 @@
         <v>73</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>7196</v>
+        <v>7193</v>
       </c>
       <c r="N79" s="10" t="s">
         <v>71</v>
@@ -33437,16 +33560,16 @@
         <v>70</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>7206</v>
+        <v>7203</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>66</v>
@@ -33458,7 +33581,7 @@
         <v>73</v>
       </c>
       <c r="I80" s="31" t="s">
-        <v>7182</v>
+        <v>7179</v>
       </c>
       <c r="N80" s="10" t="s">
         <v>71</v>
@@ -33469,16 +33592,16 @@
         <v>70</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>7207</v>
+        <v>7204</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>325</v>
@@ -33490,7 +33613,7 @@
         <v>73</v>
       </c>
       <c r="I81" s="31" t="s">
-        <v>7183</v>
+        <v>7180</v>
       </c>
       <c r="N81" s="10" t="s">
         <v>71</v>
@@ -33501,16 +33624,16 @@
         <v>70</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>7208</v>
+        <v>7205</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>6282</v>
@@ -33522,7 +33645,7 @@
         <v>73</v>
       </c>
       <c r="I82" s="31" t="s">
-        <v>7184</v>
+        <v>7181</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>71</v>
@@ -33533,19 +33656,19 @@
         <v>70</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>7209</v>
+        <v>7206</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>7174</v>
+        <v>7171</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>71</v>
@@ -33554,10 +33677,10 @@
         <v>73</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>7185</v>
+        <v>7182</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>7193</v>
+        <v>7190</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>71</v>
@@ -33568,19 +33691,19 @@
         <v>70</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>7200</v>
+        <v>7197</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>7175</v>
+        <v>7172</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>71</v>
@@ -33589,7 +33712,7 @@
         <v>73</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>7195</v>
+        <v>7192</v>
       </c>
       <c r="N84" s="10" t="s">
         <v>71</v>
@@ -33600,16 +33723,16 @@
         <v>70</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>7201</v>
+        <v>7198</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>325</v>
@@ -33621,10 +33744,10 @@
         <v>73</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>7177</v>
+        <v>7174</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>7188</v>
+        <v>7185</v>
       </c>
       <c r="N85" s="10" t="s">
         <v>71</v>
@@ -33635,16 +33758,16 @@
         <v>70</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>7202</v>
+        <v>7199</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>6282</v>
@@ -33656,10 +33779,10 @@
         <v>73</v>
       </c>
       <c r="I86" s="31" t="s">
-        <v>7178</v>
+        <v>7175</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>7189</v>
+        <v>7186</v>
       </c>
       <c r="N86" s="10" t="s">
         <v>71</v>
@@ -33670,16 +33793,16 @@
         <v>70</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>7203</v>
+        <v>7200</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>66</v>
@@ -33691,10 +33814,10 @@
         <v>73</v>
       </c>
       <c r="I87" s="31" t="s">
-        <v>7179</v>
+        <v>7176</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>7190</v>
+        <v>7187</v>
       </c>
       <c r="N87" s="10" t="s">
         <v>71</v>
@@ -33705,19 +33828,19 @@
         <v>70</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>7204</v>
+        <v>7201</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>7174</v>
+        <v>7171</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>71</v>
@@ -33726,10 +33849,10 @@
         <v>73</v>
       </c>
       <c r="I88" s="31" t="s">
-        <v>7180</v>
+        <v>7177</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>7191</v>
+        <v>7188</v>
       </c>
       <c r="N88" s="10" t="s">
         <v>71</v>
@@ -33740,19 +33863,19 @@
         <v>70</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>7205</v>
+        <v>7202</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>7175</v>
+        <v>7172</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>71</v>
@@ -33761,10 +33884,10 @@
         <v>73</v>
       </c>
       <c r="I89" s="31" t="s">
-        <v>7181</v>
+        <v>7178</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>7192</v>
+        <v>7189</v>
       </c>
       <c r="N89" s="10" t="s">
         <v>71</v>
@@ -33775,19 +33898,19 @@
         <v>70</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>7210</v>
+        <v>7207</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>7176</v>
+        <v>7173</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>71</v>
@@ -33796,10 +33919,10 @@
         <v>73</v>
       </c>
       <c r="I90" s="31" t="s">
-        <v>7186</v>
+        <v>7183</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>7194</v>
+        <v>7191</v>
       </c>
       <c r="N90" s="10" t="s">
         <v>71</v>
@@ -34093,7 +34216,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7399</v>
+        <v>7396</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -34399,7 +34522,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7398</v>
+        <v>7395</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -35342,7 +35465,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7289</v>
+        <v>7286</v>
       </c>
       <c r="B76" t="s">
         <v>3195</v>
@@ -35351,7 +35474,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7290</v>
+        <v>7287</v>
       </c>
       <c r="E76" t="s">
         <v>3146</v>
@@ -37994,7 +38117,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7291</v>
+        <v>7288</v>
       </c>
       <c r="B232" t="s">
         <v>3350</v>
@@ -38003,7 +38126,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7292</v>
+        <v>7289</v>
       </c>
       <c r="E232" t="s">
         <v>3146</v>
@@ -38011,7 +38134,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7293</v>
+        <v>7290</v>
       </c>
       <c r="B233" t="s">
         <v>3350</v>
@@ -38020,7 +38143,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7294</v>
+        <v>7291</v>
       </c>
       <c r="E233" t="s">
         <v>3146</v>
@@ -38028,7 +38151,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7295</v>
+        <v>7292</v>
       </c>
       <c r="B234" t="s">
         <v>3350</v>
@@ -38037,7 +38160,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7296</v>
+        <v>7293</v>
       </c>
       <c r="E234" t="s">
         <v>3146</v>
@@ -38266,7 +38389,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7297</v>
+        <v>7294</v>
       </c>
       <c r="B248" t="s">
         <v>3364</v>
@@ -38275,7 +38398,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7298</v>
+        <v>7295</v>
       </c>
       <c r="E248" t="s">
         <v>3146</v>
@@ -38283,7 +38406,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7299</v>
+        <v>7296</v>
       </c>
       <c r="B249" t="s">
         <v>3364</v>
@@ -38292,7 +38415,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7300</v>
+        <v>7297</v>
       </c>
       <c r="E249" t="s">
         <v>3146</v>
@@ -38300,7 +38423,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7301</v>
+        <v>7298</v>
       </c>
       <c r="B250" t="s">
         <v>3364</v>
@@ -38309,7 +38432,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7302</v>
+        <v>7299</v>
       </c>
       <c r="E250" t="s">
         <v>3146</v>
@@ -38317,7 +38440,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7303</v>
+        <v>7300</v>
       </c>
       <c r="B251" t="s">
         <v>3364</v>
@@ -38326,7 +38449,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7304</v>
+        <v>7301</v>
       </c>
       <c r="E251" t="s">
         <v>3146</v>
@@ -38691,7 +38814,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7305</v>
+        <v>7302</v>
       </c>
       <c r="B273" t="s">
         <v>3380</v>
@@ -38700,7 +38823,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7306</v>
+        <v>7303</v>
       </c>
       <c r="E273" t="s">
         <v>3146</v>
@@ -38836,7 +38959,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7307</v>
+        <v>7304</v>
       </c>
       <c r="E281" t="s">
         <v>3146</v>
@@ -46358,7 +46481,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7308</v>
+        <v>7305</v>
       </c>
       <c r="B724" t="s">
         <v>3821</v>
@@ -46367,7 +46490,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7309</v>
+        <v>7306</v>
       </c>
       <c r="E724" t="s">
         <v>3146</v>
@@ -46375,7 +46498,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7310</v>
+        <v>7307</v>
       </c>
       <c r="B725" t="s">
         <v>3821</v>
@@ -46384,7 +46507,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7311</v>
+        <v>7308</v>
       </c>
       <c r="E725" t="s">
         <v>3146</v>
@@ -46392,7 +46515,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7312</v>
+        <v>7309</v>
       </c>
       <c r="B726" t="s">
         <v>3821</v>
@@ -46426,7 +46549,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7313</v>
+        <v>7310</v>
       </c>
       <c r="B728" t="s">
         <v>3821</v>
@@ -46435,7 +46558,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7314</v>
+        <v>7311</v>
       </c>
       <c r="E728" t="s">
         <v>3146</v>
@@ -46443,7 +46566,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7315</v>
+        <v>7312</v>
       </c>
       <c r="B729" t="s">
         <v>3821</v>
@@ -46452,7 +46575,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7316</v>
+        <v>7313</v>
       </c>
       <c r="E729" t="s">
         <v>3146</v>
@@ -46460,7 +46583,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7317</v>
+        <v>7314</v>
       </c>
       <c r="B730" t="s">
         <v>3821</v>
@@ -46469,7 +46592,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7318</v>
+        <v>7315</v>
       </c>
       <c r="E730" t="s">
         <v>3146</v>
@@ -46477,7 +46600,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7319</v>
+        <v>7316</v>
       </c>
       <c r="B731" t="s">
         <v>3821</v>
@@ -46486,7 +46609,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7320</v>
+        <v>7317</v>
       </c>
       <c r="E731" t="s">
         <v>3146</v>
@@ -46494,7 +46617,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7321</v>
+        <v>7318</v>
       </c>
       <c r="B732" t="s">
         <v>3821</v>
@@ -46503,7 +46626,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7322</v>
+        <v>7319</v>
       </c>
       <c r="E732" t="s">
         <v>3146</v>
@@ -47030,7 +47153,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7323</v>
+        <v>7320</v>
       </c>
       <c r="E763" t="s">
         <v>3146</v>
@@ -47319,7 +47442,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7324</v>
+        <v>7321</v>
       </c>
       <c r="E780" t="s">
         <v>3146</v>
@@ -47327,7 +47450,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7325</v>
+        <v>7322</v>
       </c>
       <c r="B781" t="s">
         <v>3867</v>
@@ -48449,7 +48572,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7326</v>
+        <v>7323</v>
       </c>
       <c r="B847" t="s">
         <v>3920</v>
@@ -48458,7 +48581,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7327</v>
+        <v>7324</v>
       </c>
       <c r="E847" t="s">
         <v>3146</v>
@@ -48670,7 +48793,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7328</v>
+        <v>7325</v>
       </c>
       <c r="B860" t="s">
         <v>3928</v>
@@ -48679,7 +48802,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7329</v>
+        <v>7326</v>
       </c>
       <c r="E860" t="s">
         <v>3146</v>
@@ -49758,7 +49881,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7330</v>
+        <v>7327</v>
       </c>
       <c r="B924" t="s">
         <v>3982</v>
@@ -50217,7 +50340,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7331</v>
+        <v>7328</v>
       </c>
       <c r="B951" t="s">
         <v>4004</v>
@@ -50226,7 +50349,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7332</v>
+        <v>7329</v>
       </c>
       <c r="E951" t="s">
         <v>3146</v>
@@ -52376,7 +52499,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7333</v>
+        <v>7330</v>
       </c>
       <c r="B1078" t="s">
         <v>4117</v>
@@ -52385,7 +52508,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7334</v>
+        <v>7331</v>
       </c>
       <c r="E1078" t="s">
         <v>3146</v>
@@ -53303,7 +53426,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7335</v>
+        <v>7332</v>
       </c>
       <c r="E1132" t="s">
         <v>3146</v>
@@ -53498,7 +53621,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7336</v>
+        <v>7333</v>
       </c>
       <c r="B1144" t="s">
         <v>4185</v>
@@ -55419,7 +55542,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7337</v>
+        <v>7334</v>
       </c>
       <c r="B1257" t="s">
         <v>4297</v>
@@ -55691,7 +55814,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7338</v>
+        <v>7335</v>
       </c>
       <c r="B1273" t="s">
         <v>4311</v>
@@ -55700,7 +55823,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7339</v>
+        <v>7336</v>
       </c>
       <c r="E1273" t="s">
         <v>3146</v>
@@ -57051,7 +57174,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7340</v>
+        <v>7337</v>
       </c>
       <c r="B1353" t="s">
         <v>4380</v>
@@ -57060,7 +57183,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7341</v>
+        <v>7338</v>
       </c>
       <c r="E1353" t="s">
         <v>3146</v>
@@ -57068,7 +57191,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7342</v>
+        <v>7339</v>
       </c>
       <c r="B1354" t="s">
         <v>4380</v>
@@ -57077,7 +57200,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7343</v>
+        <v>7340</v>
       </c>
       <c r="E1354" t="s">
         <v>3146</v>
@@ -57085,7 +57208,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7344</v>
+        <v>7341</v>
       </c>
       <c r="B1355" t="s">
         <v>4380</v>
@@ -57255,7 +57378,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7345</v>
+        <v>7342</v>
       </c>
       <c r="B1365" t="s">
         <v>4389</v>
@@ -59134,7 +59257,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7346</v>
+        <v>7343</v>
       </c>
       <c r="E1475" t="s">
         <v>3146</v>
@@ -59329,7 +59452,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7347</v>
+        <v>7344</v>
       </c>
       <c r="B1487" t="s">
         <v>4504</v>
@@ -59338,7 +59461,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7348</v>
+        <v>7345</v>
       </c>
       <c r="E1487" t="s">
         <v>3146</v>
@@ -60834,7 +60957,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7349</v>
+        <v>7346</v>
       </c>
       <c r="E1575" t="s">
         <v>3146</v>
@@ -62245,7 +62368,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7350</v>
+        <v>7347</v>
       </c>
       <c r="E1658" t="s">
         <v>3146</v>
@@ -63596,7 +63719,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7351</v>
+        <v>7348</v>
       </c>
       <c r="B1738" t="s">
         <v>4748</v>
@@ -63605,7 +63728,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7352</v>
+        <v>7349</v>
       </c>
       <c r="E1738" t="s">
         <v>3146</v>
@@ -64667,7 +64790,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7353</v>
+        <v>7350</v>
       </c>
       <c r="B1801" t="s">
         <v>4804</v>
@@ -64769,7 +64892,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7354</v>
+        <v>7351</v>
       </c>
       <c r="B1807" t="s">
         <v>4812</v>
@@ -64778,7 +64901,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7355</v>
+        <v>7352</v>
       </c>
       <c r="E1807" t="s">
         <v>3146</v>
@@ -65254,7 +65377,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7356</v>
+        <v>7353</v>
       </c>
       <c r="E1835" t="s">
         <v>3146</v>
@@ -67387,7 +67510,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7357</v>
+        <v>7354</v>
       </c>
       <c r="B1961" t="s">
         <v>4958</v>
@@ -67396,7 +67519,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7358</v>
+        <v>7355</v>
       </c>
       <c r="E1961" t="s">
         <v>3146</v>
@@ -70005,7 +70128,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7359</v>
+        <v>7356</v>
       </c>
       <c r="B2115" t="s">
         <v>5090</v>
@@ -70014,7 +70137,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7360</v>
+        <v>7357</v>
       </c>
       <c r="E2115" t="s">
         <v>3146</v>
@@ -70694,7 +70817,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7361</v>
+        <v>7358</v>
       </c>
       <c r="E2155" t="s">
         <v>3146</v>
@@ -73422,7 +73545,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7362</v>
+        <v>7359</v>
       </c>
       <c r="B2316" t="s">
         <v>5271</v>
@@ -73890,7 +74013,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7363</v>
+        <v>7360</v>
       </c>
       <c r="E2343" t="s">
         <v>3146</v>
@@ -74561,7 +74684,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7364</v>
+        <v>7361</v>
       </c>
       <c r="B2383" t="s">
         <v>5333</v>
@@ -74570,7 +74693,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7365</v>
+        <v>7362</v>
       </c>
       <c r="E2383" t="s">
         <v>3146</v>
@@ -77179,7 +77302,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7366</v>
+        <v>7363</v>
       </c>
       <c r="B2537" t="s">
         <v>6558</v>
@@ -77188,7 +77311,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7367</v>
+        <v>7364</v>
       </c>
       <c r="E2537" t="s">
         <v>3146</v>
@@ -78131,7 +78254,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7368</v>
+        <v>7365</v>
       </c>
       <c r="B2593" t="s">
         <v>5500</v>
@@ -78140,7 +78263,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7369</v>
+        <v>7366</v>
       </c>
       <c r="E2593" t="s">
         <v>3146</v>
@@ -78709,7 +78832,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7370</v>
+        <v>7367</v>
       </c>
       <c r="B2627" t="s">
         <v>5521</v>
@@ -78718,7 +78841,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7371</v>
+        <v>7368</v>
       </c>
       <c r="E2627" t="s">
         <v>3146</v>
@@ -80358,7 +80481,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7372</v>
+        <v>7369</v>
       </c>
       <c r="B2724" t="s">
         <v>5616</v>
@@ -80367,7 +80490,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7373</v>
+        <v>7370</v>
       </c>
       <c r="E2724" t="s">
         <v>3146</v>
@@ -81344,7 +81467,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="B2782" t="s">
         <v>5615</v>
@@ -81353,7 +81476,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7375</v>
+        <v>7372</v>
       </c>
       <c r="E2782" t="s">
         <v>3144</v>
@@ -81361,16 +81484,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7376</v>
+        <v>7373</v>
       </c>
       <c r="B2783" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7377</v>
+        <v>7374</v>
       </c>
       <c r="E2783" t="s">
         <v>3146</v>
@@ -81378,10 +81501,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7378</v>
+        <v>7375</v>
       </c>
       <c r="B2784" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -81395,10 +81518,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7379</v>
+        <v>7376</v>
       </c>
       <c r="B2785" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -81412,10 +81535,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7380</v>
+        <v>7377</v>
       </c>
       <c r="B2786" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -81429,10 +81552,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7381</v>
+        <v>7378</v>
       </c>
       <c r="B2787" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -81446,10 +81569,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7382</v>
+        <v>7379</v>
       </c>
       <c r="B2788" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -81463,10 +81586,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7383</v>
+        <v>7380</v>
       </c>
       <c r="B2789" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -81480,10 +81603,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7384</v>
+        <v>7381</v>
       </c>
       <c r="B2790" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -81497,10 +81620,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7385</v>
+        <v>7382</v>
       </c>
       <c r="B2791" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -81514,10 +81637,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7386</v>
+        <v>7383</v>
       </c>
       <c r="B2792" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -81531,10 +81654,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7387</v>
+        <v>7384</v>
       </c>
       <c r="B2793" t="s">
-        <v>7374</v>
+        <v>7371</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -82483,7 +82606,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7388</v>
+        <v>7385</v>
       </c>
       <c r="B2849" t="s">
         <v>5662</v>
@@ -82492,7 +82615,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7389</v>
+        <v>7386</v>
       </c>
       <c r="E2849" t="s">
         <v>3146</v>
@@ -82798,7 +82921,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7390</v>
+        <v>7387</v>
       </c>
       <c r="E2867" t="s">
         <v>3146</v>
@@ -82976,7 +83099,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7391</v>
+        <v>7388</v>
       </c>
       <c r="B2878" t="s">
         <v>5699</v>
@@ -84489,7 +84612,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7392</v>
+        <v>7389</v>
       </c>
       <c r="B2967" t="s">
         <v>5780</v>
@@ -84498,7 +84621,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7393</v>
+        <v>7390</v>
       </c>
       <c r="E2967" t="s">
         <v>3146</v>
@@ -85535,7 +85658,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7394</v>
+        <v>7391</v>
       </c>
       <c r="E3028" t="s">
         <v>3146</v>
@@ -86240,7 +86363,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7395</v>
+        <v>7392</v>
       </c>
       <c r="B3070" t="s">
         <v>5877</v>
@@ -86249,7 +86372,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7396</v>
+        <v>7393</v>
       </c>
       <c r="E3070" t="s">
         <v>3146</v>
@@ -89326,7 +89449,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7397</v>
+        <v>7394</v>
       </c>
       <c r="E3251" t="s">
         <v>3146</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0584EB82-3EA6-4037-8D33-7998CE9F5E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DA796-62FC-4419-BACA-B177D6D6D686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15472" uniqueCount="7286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15477" uniqueCount="7290">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -22955,10 +22955,6 @@
   </si>
   <si>
     <t>文件管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共文件柜、个人文件柜、文件分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -23489,9 +23485,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拖拽即可无需编程就能轻松搭建可视化数据大屏</t>
-  </si>
-  <si>
     <t>com.jeesite.modules.visual.web.VisualDataController</t>
   </si>
   <si>
@@ -23500,6 +23493,28 @@
   </si>
   <si>
     <t>9010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ureport</t>
+  </si>
+  <si>
+    <t>统计报表</t>
+  </si>
+  <si>
+    <t>com.jeesite.modules.ureport.config.UreportConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高性能报表引擎，通过迭代单元格可以实现，任意复杂的中国式报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共文件柜、个人文件柜、文件预览、文件分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽即可无需编程就能轻松搭建可视化数据大屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24246,13 +24261,13 @@
         <v>296</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24314,13 +24329,13 @@
         <v>6265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24331,13 +24346,13 @@
         <v>6266</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24608,7 +24623,7 @@
         <v>6186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6187</v>
@@ -25789,17 +25804,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="65.44140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="60.109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.21875" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
@@ -25836,7 +25851,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25864,30 +25879,30 @@
         <v>7136</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>7288</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>7137</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>7138</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>7152</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7151</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7150</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7153</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7152</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>7151</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7154</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>7280</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -25895,16 +25910,33 @@
         <v>7284</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>7285</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7287</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7286</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>7279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7282</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7280</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7289</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7281</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7282</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7283</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>7280</v>
+      <c r="E7" s="34" t="s">
+        <v>7279</v>
       </c>
     </row>
   </sheetData>
@@ -25918,7 +25950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
@@ -26304,7 +26336,7 @@
         <v>6120</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>246</v>
@@ -26735,7 +26767,7 @@
         <v>227</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7277</v>
+        <v>7276</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>215</v>
@@ -26747,13 +26779,13 @@
         <v>6121</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>7276</v>
+        <v>7275</v>
       </c>
       <c r="K24" s="26" t="s">
+        <v>7277</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>7278</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>7279</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>71</v>
@@ -26817,7 +26849,7 @@
         <v>6121</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>6097</v>
@@ -27277,7 +27309,7 @@
         <v>6121</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>6372</v>
@@ -27897,7 +27929,7 @@
         <v>231</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6148</v>
@@ -27909,7 +27941,7 @@
         <v>6121</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>71</v>
@@ -28054,7 +28086,7 @@
         <v>230</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6028</v>
@@ -28066,7 +28098,7 @@
         <v>6121</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>71</v>
@@ -28159,7 +28191,7 @@
         <v>215</v>
       </c>
       <c r="L65" s="34" t="s">
-        <v>7139</v>
+        <v>7138</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>71</v>
@@ -28322,7 +28354,7 @@
         <v>7126</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7285</v>
+        <v>7283</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>71</v>
@@ -28690,13 +28722,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>7144</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7145</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7146</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -29261,7 +29293,7 @@
         <v>6272</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7142</v>
+        <v>7141</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7087</v>
@@ -29287,10 +29319,10 @@
         <v>6272</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7141</v>
+        <v>7140</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>80</v>
@@ -30365,13 +30397,13 @@
         <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>72</v>
@@ -32289,7 +32321,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -32595,7 +32627,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7274</v>
+        <v>7273</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -33538,7 +33570,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="B76" t="s">
         <v>3195</v>
@@ -33547,7 +33579,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="E76" t="s">
         <v>3146</v>
@@ -36190,7 +36222,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="B232" t="s">
         <v>3350</v>
@@ -36199,7 +36231,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="E232" t="s">
         <v>3146</v>
@@ -36207,7 +36239,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="B233" t="s">
         <v>3350</v>
@@ -36216,7 +36248,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E233" t="s">
         <v>3146</v>
@@ -36224,7 +36256,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="B234" t="s">
         <v>3350</v>
@@ -36233,7 +36265,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="E234" t="s">
         <v>3146</v>
@@ -36462,7 +36494,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="B248" t="s">
         <v>3364</v>
@@ -36471,7 +36503,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="E248" t="s">
         <v>3146</v>
@@ -36479,7 +36511,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="B249" t="s">
         <v>3364</v>
@@ -36488,7 +36520,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="E249" t="s">
         <v>3146</v>
@@ -36496,7 +36528,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="B250" t="s">
         <v>3364</v>
@@ -36505,7 +36537,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="E250" t="s">
         <v>3146</v>
@@ -36513,7 +36545,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="B251" t="s">
         <v>3364</v>
@@ -36522,7 +36554,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="E251" t="s">
         <v>3146</v>
@@ -36887,7 +36919,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="B273" t="s">
         <v>3380</v>
@@ -36896,7 +36928,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="E273" t="s">
         <v>3146</v>
@@ -37032,7 +37064,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="E281" t="s">
         <v>3146</v>
@@ -44554,7 +44586,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="B724" t="s">
         <v>3821</v>
@@ -44563,7 +44595,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="E724" t="s">
         <v>3146</v>
@@ -44571,7 +44603,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="B725" t="s">
         <v>3821</v>
@@ -44580,7 +44612,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="E725" t="s">
         <v>3146</v>
@@ -44588,7 +44620,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="B726" t="s">
         <v>3821</v>
@@ -44622,7 +44654,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="B728" t="s">
         <v>3821</v>
@@ -44631,7 +44663,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="E728" t="s">
         <v>3146</v>
@@ -44639,7 +44671,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="B729" t="s">
         <v>3821</v>
@@ -44648,7 +44680,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="E729" t="s">
         <v>3146</v>
@@ -44656,7 +44688,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="B730" t="s">
         <v>3821</v>
@@ -44665,7 +44697,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="E730" t="s">
         <v>3146</v>
@@ -44673,7 +44705,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="B731" t="s">
         <v>3821</v>
@@ -44682,7 +44714,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="E731" t="s">
         <v>3146</v>
@@ -44690,7 +44722,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="B732" t="s">
         <v>3821</v>
@@ -44699,7 +44731,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E732" t="s">
         <v>3146</v>
@@ -45226,7 +45258,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="E763" t="s">
         <v>3146</v>
@@ -45515,7 +45547,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="E780" t="s">
         <v>3146</v>
@@ -45523,7 +45555,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="B781" t="s">
         <v>3867</v>
@@ -46645,7 +46677,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="B847" t="s">
         <v>3920</v>
@@ -46654,7 +46686,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E847" t="s">
         <v>3146</v>
@@ -46866,7 +46898,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="B860" t="s">
         <v>3928</v>
@@ -46875,7 +46907,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="E860" t="s">
         <v>3146</v>
@@ -47954,7 +47986,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="B924" t="s">
         <v>3982</v>
@@ -48413,7 +48445,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="B951" t="s">
         <v>4004</v>
@@ -48422,7 +48454,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="E951" t="s">
         <v>3146</v>
@@ -50572,7 +50604,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="B1078" t="s">
         <v>4117</v>
@@ -50581,7 +50613,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="E1078" t="s">
         <v>3146</v>
@@ -51499,7 +51531,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="E1132" t="s">
         <v>3146</v>
@@ -51694,7 +51726,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="B1144" t="s">
         <v>4185</v>
@@ -53615,7 +53647,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="B1257" t="s">
         <v>4297</v>
@@ -53887,7 +53919,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="B1273" t="s">
         <v>4311</v>
@@ -53896,7 +53928,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="E1273" t="s">
         <v>3146</v>
@@ -55247,7 +55279,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="B1353" t="s">
         <v>4380</v>
@@ -55256,7 +55288,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="E1353" t="s">
         <v>3146</v>
@@ -55264,7 +55296,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="B1354" t="s">
         <v>4380</v>
@@ -55273,7 +55305,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="E1354" t="s">
         <v>3146</v>
@@ -55281,7 +55313,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="B1355" t="s">
         <v>4380</v>
@@ -55451,7 +55483,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="B1365" t="s">
         <v>4389</v>
@@ -57330,7 +57362,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="E1475" t="s">
         <v>3146</v>
@@ -57525,7 +57557,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="B1487" t="s">
         <v>4504</v>
@@ -57534,7 +57566,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E1487" t="s">
         <v>3146</v>
@@ -59030,7 +59062,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="E1575" t="s">
         <v>3146</v>
@@ -60441,7 +60473,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="E1658" t="s">
         <v>3146</v>
@@ -61792,7 +61824,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="B1738" t="s">
         <v>4748</v>
@@ -61801,7 +61833,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="E1738" t="s">
         <v>3146</v>
@@ -62863,7 +62895,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="B1801" t="s">
         <v>4804</v>
@@ -62965,7 +62997,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="B1807" t="s">
         <v>4812</v>
@@ -62974,7 +63006,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="E1807" t="s">
         <v>3146</v>
@@ -63450,7 +63482,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="E1835" t="s">
         <v>3146</v>
@@ -65583,7 +65615,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="B1961" t="s">
         <v>4958</v>
@@ -65592,7 +65624,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="E1961" t="s">
         <v>3146</v>
@@ -68201,7 +68233,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="B2115" t="s">
         <v>5090</v>
@@ -68210,7 +68242,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="E2115" t="s">
         <v>3146</v>
@@ -68890,7 +68922,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="E2155" t="s">
         <v>3146</v>
@@ -71618,7 +71650,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="B2316" t="s">
         <v>5271</v>
@@ -72086,7 +72118,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="E2343" t="s">
         <v>3146</v>
@@ -72757,7 +72789,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="B2383" t="s">
         <v>5333</v>
@@ -72766,7 +72798,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="E2383" t="s">
         <v>3146</v>
@@ -75375,7 +75407,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="B2537" t="s">
         <v>6558</v>
@@ -75384,7 +75416,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="E2537" t="s">
         <v>3146</v>
@@ -76327,7 +76359,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="B2593" t="s">
         <v>5500</v>
@@ -76336,7 +76368,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="E2593" t="s">
         <v>3146</v>
@@ -76905,7 +76937,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="B2627" t="s">
         <v>5521</v>
@@ -76914,7 +76946,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="E2627" t="s">
         <v>3146</v>
@@ -78554,7 +78586,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="B2724" t="s">
         <v>5616</v>
@@ -78563,7 +78595,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="E2724" t="s">
         <v>3146</v>
@@ -79540,7 +79572,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="B2782" t="s">
         <v>5615</v>
@@ -79549,7 +79581,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="E2782" t="s">
         <v>3144</v>
@@ -79557,16 +79589,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="B2783" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="E2783" t="s">
         <v>3146</v>
@@ -79574,10 +79606,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="B2784" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -79591,10 +79623,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="B2785" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -79608,10 +79640,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7256</v>
+        <v>7255</v>
       </c>
       <c r="B2786" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -79625,10 +79657,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="B2787" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -79642,10 +79674,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="B2788" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -79659,10 +79691,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="B2789" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -79676,10 +79708,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="B2790" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -79693,10 +79725,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="B2791" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -79710,10 +79742,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="B2792" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -79727,10 +79759,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="B2793" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -80679,7 +80711,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="B2849" t="s">
         <v>5662</v>
@@ -80688,7 +80720,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="E2849" t="s">
         <v>3146</v>
@@ -80994,7 +81026,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7266</v>
+        <v>7265</v>
       </c>
       <c r="E2867" t="s">
         <v>3146</v>
@@ -81172,7 +81204,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7267</v>
+        <v>7266</v>
       </c>
       <c r="B2878" t="s">
         <v>5699</v>
@@ -82685,7 +82717,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7268</v>
+        <v>7267</v>
       </c>
       <c r="B2967" t="s">
         <v>5780</v>
@@ -82694,7 +82726,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7269</v>
+        <v>7268</v>
       </c>
       <c r="E2967" t="s">
         <v>3146</v>
@@ -83731,7 +83763,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="E3028" t="s">
         <v>3146</v>
@@ -84436,7 +84468,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="B3070" t="s">
         <v>5877</v>
@@ -84445,7 +84477,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="E3070" t="s">
         <v>3146</v>
@@ -87522,7 +87554,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="E3251" t="s">
         <v>3146</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DA796-62FC-4419-BACA-B177D6D6D686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50A1B3-13E4-4E53-99E4-924FC26A9232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23090,10 +23090,6 @@
     <t>com.jeesite.modules.bpm.entity.BpmEntity</t>
   </si>
   <si>
-    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、浅蓝：skin-blue-light2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>postType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23506,15 +23502,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高性能报表引擎，通过迭代单元格可以实现，任意复杂的中国式报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公共文件柜、个人文件柜、文件预览、文件分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拖拽即可无需编程就能轻松搭建可视化数据大屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表设计器、图表设计、实现任意复杂的中国式报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24153,9 +24153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24267,7 +24267,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7154</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24329,13 +24329,13 @@
         <v>6265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24346,13 +24346,13 @@
         <v>6266</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24623,7 +24623,7 @@
         <v>6186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6187</v>
@@ -25806,7 +25806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -25851,7 +25851,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -25879,13 +25879,13 @@
         <v>7136</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>7288</v>
+        <v>7286</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>7137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -25902,41 +25902,41 @@
         <v>7153</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>7283</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7284</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7288</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7285</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7287</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7286</v>
-      </c>
       <c r="E6" s="34" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>7282</v>
+        <v>7281</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>7279</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7287</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7280</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7289</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7281</v>
-      </c>
       <c r="E7" s="34" t="s">
-        <v>7279</v>
+        <v>7278</v>
       </c>
     </row>
   </sheetData>
@@ -26767,7 +26767,7 @@
         <v>227</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7276</v>
+        <v>7275</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>215</v>
@@ -26779,13 +26779,13 @@
         <v>6121</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="K24" s="26" t="s">
+        <v>7276</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>7277</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>7278</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>71</v>
@@ -27929,7 +27929,7 @@
         <v>231</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6148</v>
@@ -27941,7 +27941,7 @@
         <v>6121</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>71</v>
@@ -28086,7 +28086,7 @@
         <v>230</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6028</v>
@@ -28098,7 +28098,7 @@
         <v>6121</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>71</v>
@@ -28354,7 +28354,7 @@
         <v>7126</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7283</v>
+        <v>7282</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>71</v>
@@ -32321,7 +32321,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7274</v>
+        <v>7273</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -32627,7 +32627,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7273</v>
+        <v>7272</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
@@ -33570,7 +33570,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="B76" t="s">
         <v>3195</v>
@@ -33579,7 +33579,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="E76" t="s">
         <v>3146</v>
@@ -36222,7 +36222,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="B232" t="s">
         <v>3350</v>
@@ -36231,7 +36231,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="E232" t="s">
         <v>3146</v>
@@ -36239,7 +36239,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="B233" t="s">
         <v>3350</v>
@@ -36248,7 +36248,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="E233" t="s">
         <v>3146</v>
@@ -36256,7 +36256,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="B234" t="s">
         <v>3350</v>
@@ -36265,7 +36265,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="E234" t="s">
         <v>3146</v>
@@ -36494,7 +36494,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="B248" t="s">
         <v>3364</v>
@@ -36503,7 +36503,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="E248" t="s">
         <v>3146</v>
@@ -36511,7 +36511,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="B249" t="s">
         <v>3364</v>
@@ -36520,7 +36520,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="E249" t="s">
         <v>3146</v>
@@ -36528,7 +36528,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="B250" t="s">
         <v>3364</v>
@@ -36537,7 +36537,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="E250" t="s">
         <v>3146</v>
@@ -36545,7 +36545,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="B251" t="s">
         <v>3364</v>
@@ -36554,7 +36554,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="E251" t="s">
         <v>3146</v>
@@ -36919,7 +36919,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="B273" t="s">
         <v>3380</v>
@@ -36928,7 +36928,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="E273" t="s">
         <v>3146</v>
@@ -37064,7 +37064,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="E281" t="s">
         <v>3146</v>
@@ -44586,7 +44586,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="B724" t="s">
         <v>3821</v>
@@ -44595,7 +44595,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="E724" t="s">
         <v>3146</v>
@@ -44603,7 +44603,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="B725" t="s">
         <v>3821</v>
@@ -44612,7 +44612,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="E725" t="s">
         <v>3146</v>
@@ -44620,7 +44620,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="B726" t="s">
         <v>3821</v>
@@ -44654,7 +44654,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="B728" t="s">
         <v>3821</v>
@@ -44663,7 +44663,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="E728" t="s">
         <v>3146</v>
@@ -44671,7 +44671,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="B729" t="s">
         <v>3821</v>
@@ -44680,7 +44680,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="E729" t="s">
         <v>3146</v>
@@ -44688,7 +44688,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="B730" t="s">
         <v>3821</v>
@@ -44697,7 +44697,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="E730" t="s">
         <v>3146</v>
@@ -44705,7 +44705,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="B731" t="s">
         <v>3821</v>
@@ -44714,7 +44714,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="E731" t="s">
         <v>3146</v>
@@ -44722,7 +44722,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="B732" t="s">
         <v>3821</v>
@@ -44731,7 +44731,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="E732" t="s">
         <v>3146</v>
@@ -45258,7 +45258,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E763" t="s">
         <v>3146</v>
@@ -45547,7 +45547,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="E780" t="s">
         <v>3146</v>
@@ -45555,7 +45555,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="B781" t="s">
         <v>3867</v>
@@ -46677,7 +46677,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="B847" t="s">
         <v>3920</v>
@@ -46686,7 +46686,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="E847" t="s">
         <v>3146</v>
@@ -46898,7 +46898,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="B860" t="s">
         <v>3928</v>
@@ -46907,7 +46907,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="E860" t="s">
         <v>3146</v>
@@ -47986,7 +47986,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="B924" t="s">
         <v>3982</v>
@@ -48445,7 +48445,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="B951" t="s">
         <v>4004</v>
@@ -48454,7 +48454,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="E951" t="s">
         <v>3146</v>
@@ -50604,7 +50604,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="B1078" t="s">
         <v>4117</v>
@@ -50613,7 +50613,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="E1078" t="s">
         <v>3146</v>
@@ -51531,7 +51531,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="E1132" t="s">
         <v>3146</v>
@@ -51726,7 +51726,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="B1144" t="s">
         <v>4185</v>
@@ -53647,7 +53647,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="B1257" t="s">
         <v>4297</v>
@@ -53919,7 +53919,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="B1273" t="s">
         <v>4311</v>
@@ -53928,7 +53928,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="E1273" t="s">
         <v>3146</v>
@@ -55279,7 +55279,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="B1353" t="s">
         <v>4380</v>
@@ -55288,7 +55288,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="E1353" t="s">
         <v>3146</v>
@@ -55296,7 +55296,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="B1354" t="s">
         <v>4380</v>
@@ -55305,7 +55305,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="E1354" t="s">
         <v>3146</v>
@@ -55313,7 +55313,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="B1355" t="s">
         <v>4380</v>
@@ -55483,7 +55483,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="B1365" t="s">
         <v>4389</v>
@@ -57362,7 +57362,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E1475" t="s">
         <v>3146</v>
@@ -57557,7 +57557,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="B1487" t="s">
         <v>4504</v>
@@ -57566,7 +57566,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="E1487" t="s">
         <v>3146</v>
@@ -59062,7 +59062,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E1575" t="s">
         <v>3146</v>
@@ -60473,7 +60473,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="E1658" t="s">
         <v>3146</v>
@@ -61824,7 +61824,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="B1738" t="s">
         <v>4748</v>
@@ -61833,7 +61833,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="E1738" t="s">
         <v>3146</v>
@@ -62895,7 +62895,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="B1801" t="s">
         <v>4804</v>
@@ -62997,7 +62997,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="B1807" t="s">
         <v>4812</v>
@@ -63006,7 +63006,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="E1807" t="s">
         <v>3146</v>
@@ -63482,7 +63482,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="E1835" t="s">
         <v>3146</v>
@@ -65615,7 +65615,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="B1961" t="s">
         <v>4958</v>
@@ -65624,7 +65624,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="E1961" t="s">
         <v>3146</v>
@@ -68233,7 +68233,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="B2115" t="s">
         <v>5090</v>
@@ -68242,7 +68242,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="E2115" t="s">
         <v>3146</v>
@@ -68922,7 +68922,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="E2155" t="s">
         <v>3146</v>
@@ -71650,7 +71650,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="B2316" t="s">
         <v>5271</v>
@@ -72118,7 +72118,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="E2343" t="s">
         <v>3146</v>
@@ -72789,7 +72789,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="B2383" t="s">
         <v>5333</v>
@@ -72798,7 +72798,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="E2383" t="s">
         <v>3146</v>
@@ -75407,7 +75407,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="B2537" t="s">
         <v>6558</v>
@@ -75416,7 +75416,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="E2537" t="s">
         <v>3146</v>
@@ -76359,7 +76359,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="B2593" t="s">
         <v>5500</v>
@@ -76368,7 +76368,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="E2593" t="s">
         <v>3146</v>
@@ -76937,7 +76937,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="B2627" t="s">
         <v>5521</v>
@@ -76946,7 +76946,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="E2627" t="s">
         <v>3146</v>
@@ -78586,7 +78586,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="B2724" t="s">
         <v>5616</v>
@@ -78595,7 +78595,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="E2724" t="s">
         <v>3146</v>
@@ -79572,7 +79572,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="B2782" t="s">
         <v>5615</v>
@@ -79581,7 +79581,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="E2782" t="s">
         <v>3144</v>
@@ -79589,16 +79589,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="B2783" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="E2783" t="s">
         <v>3146</v>
@@ -79606,10 +79606,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="B2784" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -79623,10 +79623,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="B2785" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -79640,10 +79640,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="B2786" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -79657,10 +79657,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7256</v>
+        <v>7255</v>
       </c>
       <c r="B2787" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -79674,10 +79674,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="B2788" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -79691,10 +79691,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="B2789" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -79708,10 +79708,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="B2790" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -79725,10 +79725,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="B2791" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -79742,10 +79742,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="B2792" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -79759,10 +79759,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="B2793" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -80711,7 +80711,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="B2849" t="s">
         <v>5662</v>
@@ -80720,7 +80720,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="E2849" t="s">
         <v>3146</v>
@@ -81026,7 +81026,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="E2867" t="s">
         <v>3146</v>
@@ -81204,7 +81204,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7266</v>
+        <v>7265</v>
       </c>
       <c r="B2878" t="s">
         <v>5699</v>
@@ -82717,7 +82717,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7267</v>
+        <v>7266</v>
       </c>
       <c r="B2967" t="s">
         <v>5780</v>
@@ -82726,7 +82726,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7268</v>
+        <v>7267</v>
       </c>
       <c r="E2967" t="s">
         <v>3146</v>
@@ -83763,7 +83763,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7269</v>
+        <v>7268</v>
       </c>
       <c r="E3028" t="s">
         <v>3146</v>
@@ -84468,7 +84468,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="B3070" t="s">
         <v>5877</v>
@@ -84477,7 +84477,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="E3070" t="s">
         <v>3146</v>
@@ -87554,7 +87554,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7272</v>
+        <v>7271</v>
       </c>
       <c r="E3251" t="s">
         <v>3146</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D50A1B3-13E4-4E53-99E4-924FC26A9232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C253234-6145-4836-9301-A9112E0EAC62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15477" uniqueCount="7290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15487" uniqueCount="7297">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23515,6 +23515,34 @@
   </si>
   <si>
     <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oauth2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录模块、如：QQ、微信、Gitee、钉钉等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jeesite.modules.oauth2.web.Oauth2Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号绑定、消息推送、微信其它接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jeesite.modules.weixin.mp.web.WeixinLoginController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24153,7 +24181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -25804,11 +25832,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25924,18 +25952,52 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>7290</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7291</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7292</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7293</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7294</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7295</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7296</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>7281</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>7279</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>7287</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>7280</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E9" s="34" t="s">
         <v>7278</v>
       </c>
     </row>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542408ED-3146-46B1-9F9E-F78BE969E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706D7C0F-ABA6-4364-A3DE-B8E8783A873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1836" windowWidth="23256" windowHeight="12576" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -22602,28 +22602,6 @@
   </si>
   <si>
     <r>
-      <t>menuName</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orig</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictLabelOrig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>__id__</t>
     </r>
     <r>
@@ -23048,10 +23026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/sys/menu/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流程设计器、流程监管控制、流程办理、流程追踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23547,6 +23521,18 @@
   </si>
   <si>
     <t>com.jeesite.modules.cms.web.CmsIndexController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menuNameRaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/menu/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictLabelRaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24253,10 +24239,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7118</v>
+        <v>7116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7119</v>
+        <v>7117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>51</v>
@@ -24265,7 +24251,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7120</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24293,13 +24279,13 @@
         <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7145</v>
+        <v>7143</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7285</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24338,7 +24324,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7117</v>
+        <v>7115</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -24361,13 +24347,13 @@
         <v>6262</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7157</v>
+        <v>7154</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7158</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24378,13 +24364,13 @@
         <v>6263</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7159</v>
+        <v>7156</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7156</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24520,7 +24506,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7293</v>
+        <v>7290</v>
       </c>
     </row>
   </sheetData>
@@ -24655,7 +24641,7 @@
         <v>6183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7151</v>
+        <v>7148</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6184</v>
@@ -24749,7 +24735,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -25838,7 +25824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -25895,67 +25881,67 @@
         <v>331</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7297</v>
+        <v>7294</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>7130</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>7131</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>7279</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>7132</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>7133</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>7282</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>7134</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>7149</v>
+        <v>7146</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7148</v>
+        <v>7145</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>7144</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7147</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7150</v>
       </c>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>7279</v>
+        <v>7276</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7280</v>
+        <v>7277</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7284</v>
+        <v>7281</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7281</v>
+        <v>7278</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>7283</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7284</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7285</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>7286</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7287</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7288</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7289</v>
       </c>
       <c r="E7" s="34"/>
     </row>
@@ -25964,28 +25950,28 @@
         <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7290</v>
+        <v>7287</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7291</v>
+        <v>7288</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7292</v>
+        <v>7289</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7277</v>
+        <v>7274</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7275</v>
+        <v>7272</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7283</v>
+        <v>7280</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7276</v>
+        <v>7273</v>
       </c>
       <c r="E9" s="34"/>
     </row>
@@ -25994,13 +25980,13 @@
         <v>6113</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7294</v>
+        <v>7291</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7295</v>
+        <v>7292</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7296</v>
+        <v>7293</v>
       </c>
     </row>
   </sheetData>
@@ -26015,9 +26001,9 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26053,7 +26039,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7086</v>
+        <v>7295</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -26065,7 +26051,7 @@
         <v>6116</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7104</v>
+        <v>7102</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>270</v>
@@ -26400,7 +26386,7 @@
         <v>6117</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>7140</v>
+        <v>7138</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>245</v>
@@ -26831,7 +26817,7 @@
         <v>226</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7272</v>
+        <v>7269</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>214</v>
@@ -26843,13 +26829,13 @@
         <v>6118</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>7268</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>7270</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>7271</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>7273</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>7274</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>70</v>
@@ -26913,7 +26899,7 @@
         <v>6118</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>7146</v>
+        <v>7296</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>6094</v>
@@ -27373,7 +27359,7 @@
         <v>6118</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7139</v>
+        <v>7137</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>6369</v>
@@ -27411,10 +27397,10 @@
         <v>6118</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>7105</v>
+        <v>7103</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>7103</v>
+        <v>7101</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>205</v>
@@ -27449,7 +27435,7 @@
         <v>214</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>7106</v>
+        <v>7104</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>6370</v>
@@ -27551,10 +27537,10 @@
         <v>225</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>7111</v>
+        <v>7109</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7108</v>
+        <v>7106</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>70</v>
@@ -27563,16 +27549,16 @@
         <v>214</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>7109</v>
+        <v>7107</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>185</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>7110</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -27583,16 +27569,16 @@
         <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>7088</v>
+        <v>7086</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>265</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>7089</v>
+        <v>7087</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7093</v>
+        <v>7091</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>70</v>
@@ -27603,7 +27589,7 @@
       <c r="I45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>7102</v>
+        <v>7100</v>
       </c>
       <c r="N45" s="10" t="s">
         <v>70</v>
@@ -27620,13 +27606,13 @@
         <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>7086</v>
+      </c>
+      <c r="E46" s="15" t="s">
         <v>7088</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>7090</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>7094</v>
+        <v>7092</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>70</v>
@@ -27635,10 +27621,10 @@
         <v>79</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>7097</v>
+        <v>7095</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>7100</v>
+        <v>7098</v>
       </c>
       <c r="N46" s="10" t="s">
         <v>70</v>
@@ -27655,13 +27641,13 @@
         <v>75</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7088</v>
+        <v>7086</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>7091</v>
+        <v>7089</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>7095</v>
+        <v>7093</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>70</v>
@@ -27670,10 +27656,10 @@
         <v>79</v>
       </c>
       <c r="I47" s="3" t="s">
+        <v>7096</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>7098</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>7100</v>
       </c>
       <c r="N47" s="10" t="s">
         <v>70</v>
@@ -27690,13 +27676,13 @@
         <v>75</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>7088</v>
+        <v>7086</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>7092</v>
+        <v>7090</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7096</v>
+        <v>7094</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>70</v>
@@ -27705,10 +27691,10 @@
         <v>79</v>
       </c>
       <c r="I48" s="3" t="s">
+        <v>7097</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>7099</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>7101</v>
       </c>
       <c r="N48" s="10" t="s">
         <v>70</v>
@@ -27993,7 +27979,7 @@
         <v>230</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7152</v>
+        <v>7149</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6145</v>
@@ -28005,7 +27991,7 @@
         <v>6118</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7153</v>
+        <v>7150</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>70</v>
@@ -28150,7 +28136,7 @@
         <v>229</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7155</v>
+        <v>7152</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6025</v>
@@ -28162,7 +28148,7 @@
         <v>6118</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7154</v>
+        <v>7151</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>70</v>
@@ -28255,7 +28241,7 @@
         <v>214</v>
       </c>
       <c r="L65" s="34" t="s">
-        <v>7135</v>
+        <v>7133</v>
       </c>
       <c r="N65" s="10" t="s">
         <v>70</v>
@@ -28409,16 +28395,16 @@
         <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>7122</v>
+        <v>7120</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>7123</v>
+        <v>7121</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7278</v>
+        <v>7275</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>70</v>
@@ -28427,7 +28413,7 @@
         <v>72</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>7131</v>
+        <v>7129</v>
       </c>
       <c r="N70" s="10" t="s">
         <v>70</v>
@@ -28441,13 +28427,13 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>7120</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>7122</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>7124</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>6147</v>
@@ -28459,11 +28445,11 @@
         <v>72</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>7127</v>
+        <v>7125</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="N71" s="10" t="s">
         <v>70</v>
@@ -28480,7 +28466,7 @@
         <v>75</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>332</v>
@@ -28495,7 +28481,7 @@
         <v>72</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="N72" s="10" t="s">
         <v>70</v>
@@ -28512,7 +28498,7 @@
         <v>75</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>338</v>
@@ -28527,7 +28513,7 @@
         <v>72</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>7129</v>
+        <v>7127</v>
       </c>
       <c r="N73" s="10" t="s">
         <v>70</v>
@@ -28544,7 +28530,7 @@
         <v>75</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>6080</v>
@@ -28559,7 +28545,7 @@
         <v>72</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>7130</v>
+        <v>7128</v>
       </c>
       <c r="N74" s="10" t="s">
         <v>70</v>
@@ -28786,13 +28772,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>7139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7140</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>7141</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7142</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7143</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -28960,10 +28946,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -28992,7 +28978,7 @@
         <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7087</v>
+        <v>7297</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -29357,7 +29343,7 @@
         <v>6269</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7138</v>
+        <v>7136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7084</v>
@@ -29383,10 +29369,10 @@
         <v>6269</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7137</v>
+        <v>7135</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7136</v>
+        <v>7134</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>79</v>
@@ -30334,7 +30320,7 @@
         <v>6014</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7112</v>
+        <v>7110</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>70</v>
@@ -30360,7 +30346,7 @@
         <v>6014</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7113</v>
+        <v>7111</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>84</v>
@@ -30386,7 +30372,7 @@
         <v>6014</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7116</v>
+        <v>7114</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>122</v>
@@ -30412,7 +30398,7 @@
         <v>6014</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7115</v>
+        <v>7113</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>316</v>
@@ -30438,7 +30424,7 @@
         <v>6014</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>7114</v>
+        <v>7112</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>317</v>
@@ -30461,13 +30447,13 @@
         <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7141</v>
+        <v>7139</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7144</v>
+        <v>7142</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>71</v>
@@ -31845,7 +31831,7 @@
         <v>6087</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>7121</v>
+        <v>7119</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>73</v>
@@ -32385,7 +32371,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7270</v>
+        <v>7267</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -32691,7 +32677,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7269</v>
+        <v>7266</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -33634,7 +33620,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7160</v>
+        <v>7157</v>
       </c>
       <c r="B76" t="s">
         <v>3192</v>
@@ -33643,7 +33629,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7161</v>
+        <v>7158</v>
       </c>
       <c r="E76" t="s">
         <v>3143</v>
@@ -36286,7 +36272,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7162</v>
+        <v>7159</v>
       </c>
       <c r="B232" t="s">
         <v>3347</v>
@@ -36295,7 +36281,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7163</v>
+        <v>7160</v>
       </c>
       <c r="E232" t="s">
         <v>3143</v>
@@ -36303,7 +36289,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7164</v>
+        <v>7161</v>
       </c>
       <c r="B233" t="s">
         <v>3347</v>
@@ -36312,7 +36298,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7165</v>
+        <v>7162</v>
       </c>
       <c r="E233" t="s">
         <v>3143</v>
@@ -36320,7 +36306,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7166</v>
+        <v>7163</v>
       </c>
       <c r="B234" t="s">
         <v>3347</v>
@@ -36329,7 +36315,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7167</v>
+        <v>7164</v>
       </c>
       <c r="E234" t="s">
         <v>3143</v>
@@ -36558,7 +36544,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7168</v>
+        <v>7165</v>
       </c>
       <c r="B248" t="s">
         <v>3361</v>
@@ -36567,7 +36553,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7169</v>
+        <v>7166</v>
       </c>
       <c r="E248" t="s">
         <v>3143</v>
@@ -36575,7 +36561,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7170</v>
+        <v>7167</v>
       </c>
       <c r="B249" t="s">
         <v>3361</v>
@@ -36584,7 +36570,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7171</v>
+        <v>7168</v>
       </c>
       <c r="E249" t="s">
         <v>3143</v>
@@ -36592,7 +36578,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7172</v>
+        <v>7169</v>
       </c>
       <c r="B250" t="s">
         <v>3361</v>
@@ -36601,7 +36587,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7173</v>
+        <v>7170</v>
       </c>
       <c r="E250" t="s">
         <v>3143</v>
@@ -36609,7 +36595,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7174</v>
+        <v>7171</v>
       </c>
       <c r="B251" t="s">
         <v>3361</v>
@@ -36618,7 +36604,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7175</v>
+        <v>7172</v>
       </c>
       <c r="E251" t="s">
         <v>3143</v>
@@ -36983,7 +36969,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7176</v>
+        <v>7173</v>
       </c>
       <c r="B273" t="s">
         <v>3377</v>
@@ -36992,7 +36978,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7177</v>
+        <v>7174</v>
       </c>
       <c r="E273" t="s">
         <v>3143</v>
@@ -37128,7 +37114,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7178</v>
+        <v>7175</v>
       </c>
       <c r="E281" t="s">
         <v>3143</v>
@@ -44650,7 +44636,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7179</v>
+        <v>7176</v>
       </c>
       <c r="B724" t="s">
         <v>3818</v>
@@ -44659,7 +44645,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7180</v>
+        <v>7177</v>
       </c>
       <c r="E724" t="s">
         <v>3143</v>
@@ -44667,7 +44653,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7181</v>
+        <v>7178</v>
       </c>
       <c r="B725" t="s">
         <v>3818</v>
@@ -44676,7 +44662,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7182</v>
+        <v>7179</v>
       </c>
       <c r="E725" t="s">
         <v>3143</v>
@@ -44684,7 +44670,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7183</v>
+        <v>7180</v>
       </c>
       <c r="B726" t="s">
         <v>3818</v>
@@ -44718,7 +44704,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7184</v>
+        <v>7181</v>
       </c>
       <c r="B728" t="s">
         <v>3818</v>
@@ -44727,7 +44713,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7185</v>
+        <v>7182</v>
       </c>
       <c r="E728" t="s">
         <v>3143</v>
@@ -44735,7 +44721,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7186</v>
+        <v>7183</v>
       </c>
       <c r="B729" t="s">
         <v>3818</v>
@@ -44744,7 +44730,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7187</v>
+        <v>7184</v>
       </c>
       <c r="E729" t="s">
         <v>3143</v>
@@ -44752,7 +44738,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7188</v>
+        <v>7185</v>
       </c>
       <c r="B730" t="s">
         <v>3818</v>
@@ -44761,7 +44747,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7189</v>
+        <v>7186</v>
       </c>
       <c r="E730" t="s">
         <v>3143</v>
@@ -44769,7 +44755,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7190</v>
+        <v>7187</v>
       </c>
       <c r="B731" t="s">
         <v>3818</v>
@@ -44778,7 +44764,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7191</v>
+        <v>7188</v>
       </c>
       <c r="E731" t="s">
         <v>3143</v>
@@ -44786,7 +44772,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7192</v>
+        <v>7189</v>
       </c>
       <c r="B732" t="s">
         <v>3818</v>
@@ -44795,7 +44781,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7193</v>
+        <v>7190</v>
       </c>
       <c r="E732" t="s">
         <v>3143</v>
@@ -45322,7 +45308,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7194</v>
+        <v>7191</v>
       </c>
       <c r="E763" t="s">
         <v>3143</v>
@@ -45611,7 +45597,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7195</v>
+        <v>7192</v>
       </c>
       <c r="E780" t="s">
         <v>3143</v>
@@ -45619,7 +45605,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7196</v>
+        <v>7193</v>
       </c>
       <c r="B781" t="s">
         <v>3864</v>
@@ -46741,7 +46727,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7197</v>
+        <v>7194</v>
       </c>
       <c r="B847" t="s">
         <v>3917</v>
@@ -46750,7 +46736,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7198</v>
+        <v>7195</v>
       </c>
       <c r="E847" t="s">
         <v>3143</v>
@@ -46962,7 +46948,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7199</v>
+        <v>7196</v>
       </c>
       <c r="B860" t="s">
         <v>3925</v>
@@ -46971,7 +46957,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7200</v>
+        <v>7197</v>
       </c>
       <c r="E860" t="s">
         <v>3143</v>
@@ -48050,7 +48036,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7201</v>
+        <v>7198</v>
       </c>
       <c r="B924" t="s">
         <v>3979</v>
@@ -48509,7 +48495,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7202</v>
+        <v>7199</v>
       </c>
       <c r="B951" t="s">
         <v>4001</v>
@@ -48518,7 +48504,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7203</v>
+        <v>7200</v>
       </c>
       <c r="E951" t="s">
         <v>3143</v>
@@ -50668,7 +50654,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7204</v>
+        <v>7201</v>
       </c>
       <c r="B1078" t="s">
         <v>4114</v>
@@ -50677,7 +50663,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7205</v>
+        <v>7202</v>
       </c>
       <c r="E1078" t="s">
         <v>3143</v>
@@ -51595,7 +51581,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7206</v>
+        <v>7203</v>
       </c>
       <c r="E1132" t="s">
         <v>3143</v>
@@ -51790,7 +51776,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7207</v>
+        <v>7204</v>
       </c>
       <c r="B1144" t="s">
         <v>4182</v>
@@ -53711,7 +53697,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7208</v>
+        <v>7205</v>
       </c>
       <c r="B1257" t="s">
         <v>4294</v>
@@ -53983,7 +53969,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7209</v>
+        <v>7206</v>
       </c>
       <c r="B1273" t="s">
         <v>4308</v>
@@ -53992,7 +53978,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7210</v>
+        <v>7207</v>
       </c>
       <c r="E1273" t="s">
         <v>3143</v>
@@ -55343,7 +55329,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7211</v>
+        <v>7208</v>
       </c>
       <c r="B1353" t="s">
         <v>4377</v>
@@ -55352,7 +55338,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7212</v>
+        <v>7209</v>
       </c>
       <c r="E1353" t="s">
         <v>3143</v>
@@ -55360,7 +55346,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="B1354" t="s">
         <v>4377</v>
@@ -55369,7 +55355,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7214</v>
+        <v>7211</v>
       </c>
       <c r="E1354" t="s">
         <v>3143</v>
@@ -55377,7 +55363,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7215</v>
+        <v>7212</v>
       </c>
       <c r="B1355" t="s">
         <v>4377</v>
@@ -55547,7 +55533,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7216</v>
+        <v>7213</v>
       </c>
       <c r="B1365" t="s">
         <v>4386</v>
@@ -57426,7 +57412,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7217</v>
+        <v>7214</v>
       </c>
       <c r="E1475" t="s">
         <v>3143</v>
@@ -57621,7 +57607,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7218</v>
+        <v>7215</v>
       </c>
       <c r="B1487" t="s">
         <v>4501</v>
@@ -57630,7 +57616,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7219</v>
+        <v>7216</v>
       </c>
       <c r="E1487" t="s">
         <v>3143</v>
@@ -59126,7 +59112,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7220</v>
+        <v>7217</v>
       </c>
       <c r="E1575" t="s">
         <v>3143</v>
@@ -60537,7 +60523,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7221</v>
+        <v>7218</v>
       </c>
       <c r="E1658" t="s">
         <v>3143</v>
@@ -61888,7 +61874,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7222</v>
+        <v>7219</v>
       </c>
       <c r="B1738" t="s">
         <v>4745</v>
@@ -61897,7 +61883,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7223</v>
+        <v>7220</v>
       </c>
       <c r="E1738" t="s">
         <v>3143</v>
@@ -62959,7 +62945,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7224</v>
+        <v>7221</v>
       </c>
       <c r="B1801" t="s">
         <v>4801</v>
@@ -63061,7 +63047,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7225</v>
+        <v>7222</v>
       </c>
       <c r="B1807" t="s">
         <v>4809</v>
@@ -63070,7 +63056,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7226</v>
+        <v>7223</v>
       </c>
       <c r="E1807" t="s">
         <v>3143</v>
@@ -63546,7 +63532,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7227</v>
+        <v>7224</v>
       </c>
       <c r="E1835" t="s">
         <v>3143</v>
@@ -65679,7 +65665,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7228</v>
+        <v>7225</v>
       </c>
       <c r="B1961" t="s">
         <v>4955</v>
@@ -65688,7 +65674,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7229</v>
+        <v>7226</v>
       </c>
       <c r="E1961" t="s">
         <v>3143</v>
@@ -68297,7 +68283,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7230</v>
+        <v>7227</v>
       </c>
       <c r="B2115" t="s">
         <v>5087</v>
@@ -68306,7 +68292,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7231</v>
+        <v>7228</v>
       </c>
       <c r="E2115" t="s">
         <v>3143</v>
@@ -68986,7 +68972,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7232</v>
+        <v>7229</v>
       </c>
       <c r="E2155" t="s">
         <v>3143</v>
@@ -71714,7 +71700,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7233</v>
+        <v>7230</v>
       </c>
       <c r="B2316" t="s">
         <v>5268</v>
@@ -72182,7 +72168,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7234</v>
+        <v>7231</v>
       </c>
       <c r="E2343" t="s">
         <v>3143</v>
@@ -72853,7 +72839,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7235</v>
+        <v>7232</v>
       </c>
       <c r="B2383" t="s">
         <v>5330</v>
@@ -72862,7 +72848,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7236</v>
+        <v>7233</v>
       </c>
       <c r="E2383" t="s">
         <v>3143</v>
@@ -75471,7 +75457,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7237</v>
+        <v>7234</v>
       </c>
       <c r="B2537" t="s">
         <v>6555</v>
@@ -75480,7 +75466,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7238</v>
+        <v>7235</v>
       </c>
       <c r="E2537" t="s">
         <v>3143</v>
@@ -76423,7 +76409,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7239</v>
+        <v>7236</v>
       </c>
       <c r="B2593" t="s">
         <v>5497</v>
@@ -76432,7 +76418,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7240</v>
+        <v>7237</v>
       </c>
       <c r="E2593" t="s">
         <v>3143</v>
@@ -77001,7 +76987,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7241</v>
+        <v>7238</v>
       </c>
       <c r="B2627" t="s">
         <v>5518</v>
@@ -77010,7 +76996,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7242</v>
+        <v>7239</v>
       </c>
       <c r="E2627" t="s">
         <v>3143</v>
@@ -78650,7 +78636,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7243</v>
+        <v>7240</v>
       </c>
       <c r="B2724" t="s">
         <v>5613</v>
@@ -78659,7 +78645,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7244</v>
+        <v>7241</v>
       </c>
       <c r="E2724" t="s">
         <v>3143</v>
@@ -79636,7 +79622,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="B2782" t="s">
         <v>5612</v>
@@ -79645,7 +79631,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7246</v>
+        <v>7243</v>
       </c>
       <c r="E2782" t="s">
         <v>3141</v>
@@ -79653,16 +79639,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7247</v>
+        <v>7244</v>
       </c>
       <c r="B2783" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7248</v>
+        <v>7245</v>
       </c>
       <c r="E2783" t="s">
         <v>3143</v>
@@ -79670,10 +79656,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7249</v>
+        <v>7246</v>
       </c>
       <c r="B2784" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -79687,10 +79673,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7250</v>
+        <v>7247</v>
       </c>
       <c r="B2785" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -79704,10 +79690,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7251</v>
+        <v>7248</v>
       </c>
       <c r="B2786" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -79721,10 +79707,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7252</v>
+        <v>7249</v>
       </c>
       <c r="B2787" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -79738,10 +79724,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7253</v>
+        <v>7250</v>
       </c>
       <c r="B2788" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -79755,10 +79741,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7254</v>
+        <v>7251</v>
       </c>
       <c r="B2789" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -79772,10 +79758,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7255</v>
+        <v>7252</v>
       </c>
       <c r="B2790" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -79789,10 +79775,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7256</v>
+        <v>7253</v>
       </c>
       <c r="B2791" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -79806,10 +79792,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7257</v>
+        <v>7254</v>
       </c>
       <c r="B2792" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -79823,10 +79809,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7258</v>
+        <v>7255</v>
       </c>
       <c r="B2793" t="s">
-        <v>7245</v>
+        <v>7242</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -80775,7 +80761,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7259</v>
+        <v>7256</v>
       </c>
       <c r="B2849" t="s">
         <v>5659</v>
@@ -80784,7 +80770,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7260</v>
+        <v>7257</v>
       </c>
       <c r="E2849" t="s">
         <v>3143</v>
@@ -81090,7 +81076,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7261</v>
+        <v>7258</v>
       </c>
       <c r="E2867" t="s">
         <v>3143</v>
@@ -81268,7 +81254,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7262</v>
+        <v>7259</v>
       </c>
       <c r="B2878" t="s">
         <v>5696</v>
@@ -82781,7 +82767,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7263</v>
+        <v>7260</v>
       </c>
       <c r="B2967" t="s">
         <v>5777</v>
@@ -82790,7 +82776,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7264</v>
+        <v>7261</v>
       </c>
       <c r="E2967" t="s">
         <v>3143</v>
@@ -83827,7 +83813,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7265</v>
+        <v>7262</v>
       </c>
       <c r="E3028" t="s">
         <v>3143</v>
@@ -84532,7 +84518,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7266</v>
+        <v>7263</v>
       </c>
       <c r="B3070" t="s">
         <v>5874</v>
@@ -84541,7 +84527,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7267</v>
+        <v>7264</v>
       </c>
       <c r="E3070" t="s">
         <v>3143</v>
@@ -87618,7 +87604,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7268</v>
+        <v>7265</v>
       </c>
       <c r="E3251" t="s">
         <v>3143</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5650A3-C7B2-4911-81F9-2DA19F90EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2BC2B-906B-431D-B8AA-8076C5D160D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15512" uniqueCount="7308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15513" uniqueCount="7307">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23534,10 +23534,6 @@
   </si>
   <si>
     <t>tag blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">tag pink	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -26053,9 +26049,9 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26111,10 +26107,10 @@
         <v>268</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>7298</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7299</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7300</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>175</v>
@@ -27280,6 +27276,9 @@
       <c r="I35" s="3" t="s">
         <v>6269</v>
       </c>
+      <c r="K35" s="34" t="s">
+        <v>7300</v>
+      </c>
       <c r="M35" s="1" t="s">
         <v>6270</v>
       </c>
@@ -27319,7 +27318,7 @@
         <v>6152</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
@@ -27428,7 +27427,7 @@
         <v>7133</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>6365</v>
@@ -27469,7 +27468,7 @@
         <v>7099</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>7097</v>
@@ -27510,7 +27509,7 @@
         <v>7100</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>6366</v>
@@ -27551,7 +27550,7 @@
         <v>6320</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>6367</v>
@@ -27592,7 +27591,7 @@
         <v>261</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>6281</v>
@@ -27845,7 +27844,7 @@
         <v>199</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>6146</v>
@@ -29036,9 +29035,9 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29146,7 +29145,7 @@
         <v>240</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -29207,7 +29206,7 @@
         <v>241</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>7303</v>
+        <v>7305</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>73</v>
@@ -29239,7 +29238,7 @@
         <v>241</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>7298</v>
+        <v>7305</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>73</v>
@@ -29271,7 +29270,7 @@
         <v>242</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>73</v>
@@ -29300,7 +29299,7 @@
         <v>51</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>7304</v>
+        <v>7303</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
@@ -29329,7 +29328,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>7306</v>
+        <v>7305</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>73</v>
@@ -29361,7 +29360,7 @@
         <v>239</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>73</v>
@@ -29390,7 +29389,7 @@
         <v>51</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>7304</v>
+        <v>7303</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>73</v>
@@ -29422,7 +29421,7 @@
         <v>239</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>73</v>
@@ -29691,7 +29690,7 @@
         <v>6131</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>73</v>
@@ -30041,7 +30040,7 @@
         <v>6350</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>7303</v>
+        <v>7305</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>73</v>
@@ -30154,7 +30153,7 @@
         <v>241</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>7303</v>
+        <v>7305</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>73</v>
@@ -30186,7 +30185,7 @@
         <v>242</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>73</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2BC2B-906B-431D-B8AA-8076C5D160D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA623A-A987-4669-B4B2-EBD9EA8143DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -24219,9 +24219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24293,7 +24293,7 @@
         <v>7113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>52</v>
@@ -29034,7 +29034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA623A-A987-4669-B4B2-EBD9EA8143DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30B172-A083-4B83-905F-58D5E60194BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="1908" windowWidth="23040" windowHeight="14088" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23007,10 +23007,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skin-blue-light2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流程设计器、流程监管控制、流程办理、流程追踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23457,10 +23453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oauth2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23570,6 +23562,14 @@
   </si>
   <si>
     <t>tag green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin-blue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2、新深蓝：skin-blue3、新浅蓝：skin-blue-light3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24221,7 +24221,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24319,7 +24319,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>294</v>
       </c>
@@ -24327,13 +24327,13 @@
         <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7139</v>
+        <v>7305</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7278</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24395,13 +24395,13 @@
         <v>6258</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24412,13 +24412,13 @@
         <v>6259</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24554,7 +24554,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7286</v>
+        <v>7284</v>
       </c>
     </row>
   </sheetData>
@@ -24689,7 +24689,7 @@
         <v>6179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6180</v>
@@ -25929,7 +25929,7 @@
         <v>329</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7290</v>
+        <v>7288</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -25941,7 +25941,7 @@
         <v>7127</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>7128</v>
@@ -25950,46 +25950,46 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>7141</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7140</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7139</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7142</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7141</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>7140</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7143</v>
       </c>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>7271</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7272</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7276</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7273</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7277</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7274</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>7277</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7278</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7279</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>7280</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7281</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7282</v>
       </c>
       <c r="E7" s="34"/>
     </row>
@@ -25998,28 +25998,28 @@
         <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>7281</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7282</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7283</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7284</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7285</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>7267</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7275</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>7268</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7276</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7269</v>
       </c>
       <c r="E9" s="34"/>
     </row>
@@ -26028,13 +26028,13 @@
         <v>6110</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>7285</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7286</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>7287</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7288</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7289</v>
       </c>
     </row>
   </sheetData>
@@ -26089,7 +26089,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7291</v>
+        <v>7289</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -26107,10 +26107,10 @@
         <v>268</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>7298</v>
+        <v>7296</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>7299</v>
+        <v>7297</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>175</v>
@@ -26541,7 +26541,7 @@
         <v>6114</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>7294</v>
+        <v>7292</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>247</v>
@@ -26873,7 +26873,7 @@
         <v>225</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7265</v>
+        <v>7264</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>213</v>
@@ -26885,13 +26885,13 @@
         <v>6115</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="M24" s="26" t="s">
+        <v>7265</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>7266</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>7267</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>70</v>
@@ -26955,7 +26955,7 @@
         <v>6115</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>7292</v>
+        <v>7290</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>6092</v>
@@ -27157,7 +27157,7 @@
         <v>6101</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>7296</v>
+        <v>7294</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>78</v>
@@ -27169,7 +27169,7 @@
         <v>6114</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>7295</v>
+        <v>7293</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>6129</v>
@@ -27277,7 +27277,7 @@
         <v>6269</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>6270</v>
@@ -27318,7 +27318,7 @@
         <v>6152</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
@@ -27427,7 +27427,7 @@
         <v>7133</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>6365</v>
@@ -27468,7 +27468,7 @@
         <v>7099</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>7097</v>
@@ -27509,7 +27509,7 @@
         <v>7100</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>6366</v>
@@ -27550,7 +27550,7 @@
         <v>6320</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>6367</v>
@@ -27591,7 +27591,7 @@
         <v>261</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>6281</v>
@@ -27844,7 +27844,7 @@
         <v>199</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>7300</v>
+        <v>7298</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>6146</v>
@@ -28065,7 +28065,7 @@
         <v>229</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6142</v>
@@ -28077,7 +28077,7 @@
         <v>6115</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>70</v>
@@ -28222,7 +28222,7 @@
         <v>228</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6023</v>
@@ -28234,7 +28234,7 @@
         <v>6115</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7147</v>
+        <v>7146</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>70</v>
@@ -28492,7 +28492,7 @@
         <v>7117</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7271</v>
+        <v>7270</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>70</v>
@@ -29066,7 +29066,7 @@
         <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7293</v>
+        <v>7291</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -29113,7 +29113,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>73</v>
@@ -29145,7 +29145,7 @@
         <v>240</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>7302</v>
+        <v>7300</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -29174,7 +29174,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>73</v>
@@ -29206,7 +29206,7 @@
         <v>241</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>73</v>
@@ -29238,7 +29238,7 @@
         <v>241</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>73</v>
@@ -29270,7 +29270,7 @@
         <v>242</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>7301</v>
+        <v>7299</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>73</v>
@@ -29299,7 +29299,7 @@
         <v>51</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>7303</v>
+        <v>7301</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
@@ -29328,7 +29328,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>73</v>
@@ -29360,7 +29360,7 @@
         <v>239</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>7306</v>
+        <v>7304</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>73</v>
@@ -29389,7 +29389,7 @@
         <v>51</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>7303</v>
+        <v>7301</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>73</v>
@@ -29421,7 +29421,7 @@
         <v>239</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>7304</v>
+        <v>7302</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>73</v>
@@ -29658,7 +29658,7 @@
         <v>85</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>73</v>
@@ -29690,7 +29690,7 @@
         <v>6131</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>7301</v>
+        <v>7299</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>73</v>
@@ -30008,7 +30008,7 @@
         <v>51</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>73</v>
@@ -30040,7 +30040,7 @@
         <v>6350</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>73</v>
@@ -30121,7 +30121,7 @@
         <v>51</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>7297</v>
+        <v>7295</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>73</v>
@@ -30153,7 +30153,7 @@
         <v>241</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>7305</v>
+        <v>7303</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>73</v>
@@ -30185,7 +30185,7 @@
         <v>242</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>7301</v>
+        <v>7299</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>73</v>
@@ -32513,7 +32513,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -32819,7 +32819,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -33762,7 +33762,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
       <c r="B76" t="s">
         <v>3190</v>
@@ -33771,7 +33771,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
       <c r="E76" t="s">
         <v>3141</v>
@@ -36414,7 +36414,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
       <c r="B232" t="s">
         <v>3345</v>
@@ -36423,7 +36423,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="E232" t="s">
         <v>3141</v>
@@ -36431,7 +36431,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="B233" t="s">
         <v>3345</v>
@@ -36440,7 +36440,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="E233" t="s">
         <v>3141</v>
@@ -36448,7 +36448,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="B234" t="s">
         <v>3345</v>
@@ -36457,7 +36457,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="E234" t="s">
         <v>3141</v>
@@ -36686,7 +36686,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="B248" t="s">
         <v>3359</v>
@@ -36695,7 +36695,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="E248" t="s">
         <v>3141</v>
@@ -36703,7 +36703,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="B249" t="s">
         <v>3359</v>
@@ -36712,7 +36712,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="E249" t="s">
         <v>3141</v>
@@ -36720,7 +36720,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="B250" t="s">
         <v>3359</v>
@@ -36729,7 +36729,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="E250" t="s">
         <v>3141</v>
@@ -36737,7 +36737,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="B251" t="s">
         <v>3359</v>
@@ -36746,7 +36746,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="E251" t="s">
         <v>3141</v>
@@ -37111,7 +37111,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="B273" t="s">
         <v>3375</v>
@@ -37120,7 +37120,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E273" t="s">
         <v>3141</v>
@@ -37256,7 +37256,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="E281" t="s">
         <v>3141</v>
@@ -44778,7 +44778,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="B724" t="s">
         <v>3816</v>
@@ -44787,7 +44787,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="E724" t="s">
         <v>3141</v>
@@ -44795,7 +44795,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="B725" t="s">
         <v>3816</v>
@@ -44804,7 +44804,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="E725" t="s">
         <v>3141</v>
@@ -44812,7 +44812,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="B726" t="s">
         <v>3816</v>
@@ -44846,7 +44846,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="B728" t="s">
         <v>3816</v>
@@ -44855,7 +44855,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="E728" t="s">
         <v>3141</v>
@@ -44863,7 +44863,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="B729" t="s">
         <v>3816</v>
@@ -44872,7 +44872,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="E729" t="s">
         <v>3141</v>
@@ -44880,7 +44880,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="B730" t="s">
         <v>3816</v>
@@ -44889,7 +44889,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="E730" t="s">
         <v>3141</v>
@@ -44897,7 +44897,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="B731" t="s">
         <v>3816</v>
@@ -44906,7 +44906,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="E731" t="s">
         <v>3141</v>
@@ -44914,7 +44914,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="B732" t="s">
         <v>3816</v>
@@ -44923,7 +44923,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="E732" t="s">
         <v>3141</v>
@@ -45450,7 +45450,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="E763" t="s">
         <v>3141</v>
@@ -45739,7 +45739,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="E780" t="s">
         <v>3141</v>
@@ -45747,7 +45747,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="B781" t="s">
         <v>3862</v>
@@ -46869,7 +46869,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="B847" t="s">
         <v>3915</v>
@@ -46878,7 +46878,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="E847" t="s">
         <v>3141</v>
@@ -47090,7 +47090,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="B860" t="s">
         <v>3923</v>
@@ -47099,7 +47099,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="E860" t="s">
         <v>3141</v>
@@ -48178,7 +48178,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="B924" t="s">
         <v>3977</v>
@@ -48637,7 +48637,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="B951" t="s">
         <v>3999</v>
@@ -48646,7 +48646,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="E951" t="s">
         <v>3141</v>
@@ -50796,7 +50796,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="B1078" t="s">
         <v>4112</v>
@@ -50805,7 +50805,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E1078" t="s">
         <v>3141</v>
@@ -51723,7 +51723,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="E1132" t="s">
         <v>3141</v>
@@ -51918,7 +51918,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="B1144" t="s">
         <v>4180</v>
@@ -53839,7 +53839,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="B1257" t="s">
         <v>4292</v>
@@ -54111,7 +54111,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="B1273" t="s">
         <v>4306</v>
@@ -54120,7 +54120,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="E1273" t="s">
         <v>3141</v>
@@ -55471,7 +55471,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="B1353" t="s">
         <v>4375</v>
@@ -55480,7 +55480,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="E1353" t="s">
         <v>3141</v>
@@ -55488,7 +55488,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="B1354" t="s">
         <v>4375</v>
@@ -55497,7 +55497,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="E1354" t="s">
         <v>3141</v>
@@ -55505,7 +55505,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="B1355" t="s">
         <v>4375</v>
@@ -55675,7 +55675,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="B1365" t="s">
         <v>4384</v>
@@ -57554,7 +57554,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="E1475" t="s">
         <v>3141</v>
@@ -57749,7 +57749,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="B1487" t="s">
         <v>4499</v>
@@ -57758,7 +57758,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="E1487" t="s">
         <v>3141</v>
@@ -59254,7 +59254,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="E1575" t="s">
         <v>3141</v>
@@ -60665,7 +60665,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="E1658" t="s">
         <v>3141</v>
@@ -62016,7 +62016,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="B1738" t="s">
         <v>4743</v>
@@ -62025,7 +62025,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="E1738" t="s">
         <v>3141</v>
@@ -63087,7 +63087,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="B1801" t="s">
         <v>4799</v>
@@ -63189,7 +63189,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="B1807" t="s">
         <v>4807</v>
@@ -63198,7 +63198,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="E1807" t="s">
         <v>3141</v>
@@ -63674,7 +63674,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="E1835" t="s">
         <v>3141</v>
@@ -65807,7 +65807,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="B1961" t="s">
         <v>4953</v>
@@ -65816,7 +65816,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="E1961" t="s">
         <v>3141</v>
@@ -68425,7 +68425,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="B2115" t="s">
         <v>5085</v>
@@ -68434,7 +68434,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E2115" t="s">
         <v>3141</v>
@@ -69114,7 +69114,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="E2155" t="s">
         <v>3141</v>
@@ -71842,7 +71842,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="B2316" t="s">
         <v>5266</v>
@@ -72310,7 +72310,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="E2343" t="s">
         <v>3141</v>
@@ -72981,7 +72981,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="B2383" t="s">
         <v>5328</v>
@@ -72990,7 +72990,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="E2383" t="s">
         <v>3141</v>
@@ -75599,7 +75599,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="B2537" t="s">
         <v>6551</v>
@@ -75608,7 +75608,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="E2537" t="s">
         <v>3141</v>
@@ -76551,7 +76551,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="B2593" t="s">
         <v>5495</v>
@@ -76560,7 +76560,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="E2593" t="s">
         <v>3141</v>
@@ -77129,7 +77129,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="B2627" t="s">
         <v>5516</v>
@@ -77138,7 +77138,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="E2627" t="s">
         <v>3141</v>
@@ -78778,7 +78778,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="B2724" t="s">
         <v>5611</v>
@@ -78787,7 +78787,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="E2724" t="s">
         <v>3141</v>
@@ -79764,7 +79764,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="B2782" t="s">
         <v>5610</v>
@@ -79773,7 +79773,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="E2782" t="s">
         <v>3139</v>
@@ -79781,16 +79781,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="B2783" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="E2783" t="s">
         <v>3141</v>
@@ -79798,10 +79798,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="B2784" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -79815,10 +79815,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="B2785" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -79832,10 +79832,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="B2786" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -79849,10 +79849,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="B2787" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -79866,10 +79866,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="B2788" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -79883,10 +79883,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="B2789" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -79900,10 +79900,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="B2790" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -79917,10 +79917,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="B2791" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -79934,10 +79934,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="B2792" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -79951,10 +79951,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="B2793" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -80903,7 +80903,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="B2849" t="s">
         <v>5657</v>
@@ -80912,7 +80912,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="E2849" t="s">
         <v>3141</v>
@@ -81218,7 +81218,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="E2867" t="s">
         <v>3141</v>
@@ -81396,7 +81396,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="B2878" t="s">
         <v>5694</v>
@@ -82909,7 +82909,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7256</v>
+        <v>7255</v>
       </c>
       <c r="B2967" t="s">
         <v>5775</v>
@@ -82918,7 +82918,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="E2967" t="s">
         <v>3141</v>
@@ -83955,7 +83955,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="E3028" t="s">
         <v>3141</v>
@@ -84660,7 +84660,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="B3070" t="s">
         <v>5872</v>
@@ -84669,7 +84669,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="E3070" t="s">
         <v>3141</v>
@@ -87746,7 +87746,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="E3251" t="s">
         <v>3141</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30B172-A083-4B83-905F-58D5E60194BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E174BBA-1104-43EF-B2B5-3E71F7C0FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1908" windowWidth="23040" windowHeight="14088" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3132" yWindow="5148" windowWidth="18924" windowHeight="11112" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15513" uniqueCount="7307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15568" uniqueCount="7318">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23570,6 +23570,50 @@
   </si>
   <si>
     <t>蓝：skin-blue、黑：skin-black2、白：skin-black、紫：skin-purple、绿：skin-green、红：skin-red、黄：skin-yellow、蓝灰：skin-blue-light、黑灰：skin-black-light2、白灰：skin-black-light、紫灰：skin-purple-light、绿灰：skin-green-light、红灰：skin-red-light、黄灰skin-yellow-light、深蓝：skin-blue2、浅蓝：skin-blue-light2、新深蓝：skin-blue3、新浅蓝：skin-blue-light3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jeesite.com/docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/desktop/workbench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAYOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__id__about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__id__work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24219,7 +24263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
@@ -26046,12 +26090,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26066,7 +26110,7 @@
     <col min="8" max="8" width="7.33203125" style="23" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="7.21875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="10" customWidth="1"/>
     <col min="12" max="12" width="7.88671875" style="10" customWidth="1"/>
     <col min="13" max="13" width="27.33203125" style="10" customWidth="1"/>
     <col min="14" max="14" width="24" style="10" customWidth="1"/>
@@ -26811,6 +26855,9 @@
       <c r="I22" s="31" t="s">
         <v>250</v>
       </c>
+      <c r="K22" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M22" s="1" t="s">
         <v>6132</v>
       </c>
@@ -26849,6 +26896,9 @@
       <c r="I23" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="K23" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M23" s="26" t="s">
         <v>6256</v>
       </c>
@@ -26887,6 +26937,9 @@
       <c r="I24" s="3" t="s">
         <v>7263</v>
       </c>
+      <c r="K24" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M24" s="26" t="s">
         <v>7265</v>
       </c>
@@ -27388,6 +27441,9 @@
       <c r="I38" s="31" t="s">
         <v>205</v>
       </c>
+      <c r="K38" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M38" s="1" t="s">
         <v>6280</v>
       </c>
@@ -27633,6 +27689,9 @@
       </c>
       <c r="J44" s="1" t="s">
         <v>7073</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>7298</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>7101</v>
@@ -27706,6 +27765,9 @@
       <c r="I46" s="3" t="s">
         <v>7091</v>
       </c>
+      <c r="K46" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M46" s="1" t="s">
         <v>7094</v>
       </c>
@@ -27741,6 +27803,9 @@
       <c r="I47" s="3" t="s">
         <v>7092</v>
       </c>
+      <c r="K47" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M47" s="1" t="s">
         <v>7094</v>
       </c>
@@ -27776,6 +27841,9 @@
       <c r="I48" s="3" t="s">
         <v>7093</v>
       </c>
+      <c r="K48" s="34" t="s">
+        <v>7298</v>
+      </c>
       <c r="M48" s="1" t="s">
         <v>7095</v>
       </c>
@@ -27983,6 +28051,9 @@
       <c r="H54" s="24" t="s">
         <v>6115</v>
       </c>
+      <c r="K54" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P54" s="10" t="s">
         <v>70</v>
       </c>
@@ -28015,6 +28086,9 @@
       <c r="I55" s="3" t="s">
         <v>7075</v>
       </c>
+      <c r="K55" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P55" s="10" t="s">
         <v>70</v>
       </c>
@@ -28047,6 +28121,9 @@
       <c r="I56" s="3" t="s">
         <v>7076</v>
       </c>
+      <c r="K56" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P56" s="10" t="s">
         <v>70</v>
       </c>
@@ -28079,6 +28156,9 @@
       <c r="I57" s="3" t="s">
         <v>7145</v>
       </c>
+      <c r="K57" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P57" s="10" t="s">
         <v>70</v>
       </c>
@@ -28108,6 +28188,9 @@
       <c r="H58" s="24" t="s">
         <v>6115</v>
       </c>
+      <c r="K58" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P58" s="10" t="s">
         <v>70</v>
       </c>
@@ -28140,6 +28223,9 @@
       <c r="I59" s="3" t="s">
         <v>7077</v>
       </c>
+      <c r="K59" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P59" s="10" t="s">
         <v>70</v>
       </c>
@@ -28172,6 +28258,9 @@
       <c r="I60" s="3" t="s">
         <v>7078</v>
       </c>
+      <c r="K60" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P60" s="10" t="s">
         <v>70</v>
       </c>
@@ -28204,6 +28293,9 @@
       <c r="I61" s="3" t="s">
         <v>7079</v>
       </c>
+      <c r="K61" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P61" s="10" t="s">
         <v>70</v>
       </c>
@@ -28236,6 +28328,9 @@
       <c r="I62" s="3" t="s">
         <v>7146</v>
       </c>
+      <c r="K62" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P62" s="10" t="s">
         <v>70</v>
       </c>
@@ -28265,6 +28360,9 @@
       <c r="H63" s="24" t="s">
         <v>6115</v>
       </c>
+      <c r="K63" s="34" t="s">
+        <v>7307</v>
+      </c>
       <c r="P63" s="10" t="s">
         <v>70</v>
       </c>
@@ -28296,6 +28394,9 @@
       </c>
       <c r="I64" s="31" t="s">
         <v>301</v>
+      </c>
+      <c r="K64" s="34" t="s">
+        <v>7307</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>70</v>
@@ -28384,10 +28485,10 @@
         <v>6337</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>6334</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>78</v>
+        <v>7105</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6023</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>70</v>
@@ -28396,7 +28497,7 @@
         <v>213</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>6335</v>
+        <v>7308</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>7074</v>
@@ -28419,10 +28520,10 @@
         <v>6337</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>6355</v>
+        <v>6334</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>70</v>
@@ -28431,7 +28532,7 @@
         <v>213</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>6354</v>
+        <v>6335</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>7074</v>
@@ -28454,10 +28555,10 @@
         <v>6337</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>6352</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>6023</v>
+        <v>6355</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>70</v>
@@ -28466,7 +28567,7 @@
         <v>213</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>6336</v>
+        <v>6354</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>7074</v>
@@ -28482,26 +28583,29 @@
       <c r="B70" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>7116</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>7117</v>
+      <c r="C70" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6337</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>6352</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>7270</v>
+        <v>6023</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H70" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>7125</v>
+      <c r="H70" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="29" t="s">
+        <v>6336</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>7074</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>70</v>
@@ -28515,16 +28619,16 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>7119</v>
-      </c>
-      <c r="D71" s="3" t="s">
         <v>7116</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>7118</v>
+      <c r="D71" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>7117</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>6144</v>
+        <v>7270</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>70</v>
@@ -28532,12 +28636,8 @@
       <c r="H71" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I71" s="3" t="s">
-        <v>7121</v>
-      </c>
-      <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>7120</v>
+        <v>7125</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>70</v>
@@ -28550,26 +28650,33 @@
       <c r="B72" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>75</v>
+      <c r="C72" s="3" t="s">
+        <v>7316</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7119</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>71</v>
+        <v>7116</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>7117</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>7312</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H72" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>7122</v>
+      <c r="I72" s="3" t="s">
+        <v>7311</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>7314</v>
+      </c>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>7125</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>70</v>
@@ -28583,25 +28690,32 @@
         <v>26</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>75</v>
+        <v>7315</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7119</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>72</v>
+        <v>7116</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>7309</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>7313</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H73" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>7123</v>
+      <c r="I73" s="3" t="s">
+        <v>7310</v>
+      </c>
+      <c r="K73" s="34" t="s">
+        <v>7314</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>7317</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>70</v>
@@ -28615,41 +28729,145 @@
         <v>26</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>75</v>
+        <v>7119</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7119</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>6078</v>
+        <v>7116</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>7118</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>6142</v>
+        <v>6144</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H74" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="I74" s="3" t="s">
+        <v>7121</v>
+      </c>
+      <c r="K74" s="34" t="s">
+        <v>7298</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>7120</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7119</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>7122</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>7119</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>7123</v>
+      </c>
+      <c r="P76" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7119</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>6078</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>6142</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>7124</v>
       </c>
-      <c r="P74" s="10" t="s">
+      <c r="P77" s="10" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I68" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="I69" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="I66" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="I67" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="I67" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="I68" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="I68" r:id="rId4" display="http://jeesite.net" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="I67" r:id="rId5" xr:uid="{9F547AD1-69F7-4C53-85D7-AC5690C1916C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E174BBA-1104-43EF-B2B5-3E71F7C0FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB5836-6849-4FD7-AF8A-19E3530DBDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3132" yWindow="5148" windowWidth="18924" windowHeight="11112" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="384" windowWidth="21336" windowHeight="11460" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -22706,10 +22706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys:stste:cache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>menuHref</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23614,6 +23610,10 @@
   </si>
   <si>
     <t>icon-tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys:state:cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24331,10 +24331,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>7111</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7112</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>84</v>
@@ -24343,7 +24343,7 @@
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7114</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -24371,13 +24371,13 @@
         <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7306</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24416,7 +24416,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7111</v>
+        <v>7110</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
@@ -24439,13 +24439,13 @@
         <v>6258</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7149</v>
+        <v>7148</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7150</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -24456,13 +24456,13 @@
         <v>6259</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7151</v>
+        <v>7150</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7148</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -24598,7 +24598,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7284</v>
+        <v>7283</v>
       </c>
     </row>
   </sheetData>
@@ -24733,7 +24733,7 @@
         <v>6179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7143</v>
+        <v>7142</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6180</v>
@@ -25973,67 +25973,67 @@
         <v>329</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
+        <v>7125</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>7126</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="34" t="s">
+        <v>7273</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>7127</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>7274</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>7128</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
+        <v>7140</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7139</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7138</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>7141</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7140</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>7139</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7142</v>
       </c>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>7270</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7271</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7275</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>7272</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7276</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7273</v>
       </c>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>7276</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7277</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>7278</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>7279</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7280</v>
       </c>
       <c r="E7" s="34"/>
     </row>
@@ -26042,28 +26042,28 @@
         <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>7280</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7281</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>7282</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7283</v>
       </c>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7269</v>
+        <v>7268</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>7266</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7274</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>7267</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7275</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7268</v>
       </c>
       <c r="E9" s="34"/>
     </row>
@@ -26072,13 +26072,13 @@
         <v>6110</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>7284</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7285</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>7286</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7287</v>
       </c>
     </row>
   </sheetData>
@@ -26093,9 +26093,9 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26133,7 +26133,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7289</v>
+        <v>7288</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -26145,16 +26145,16 @@
         <v>6113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7098</v>
+        <v>7097</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>268</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>7295</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7296</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7297</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>175</v>
@@ -26486,7 +26486,7 @@
         <v>6114</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>7134</v>
+        <v>7133</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>244</v>
@@ -26585,7 +26585,7 @@
         <v>6114</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>7292</v>
+        <v>7291</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>247</v>
@@ -26856,7 +26856,7 @@
         <v>250</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>6132</v>
@@ -26897,7 +26897,7 @@
         <v>249</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M23" s="26" t="s">
         <v>6256</v>
@@ -26923,7 +26923,7 @@
         <v>225</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>7264</v>
+        <v>7263</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>213</v>
@@ -26935,16 +26935,16 @@
         <v>6115</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>7263</v>
+        <v>7262</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M24" s="26" t="s">
+        <v>7264</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>7265</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>7266</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>70</v>
@@ -27008,7 +27008,7 @@
         <v>6115</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>7290</v>
+        <v>7289</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>6092</v>
@@ -27210,7 +27210,7 @@
         <v>6101</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>7294</v>
+        <v>7293</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>78</v>
@@ -27222,7 +27222,7 @@
         <v>6114</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>6129</v>
@@ -27330,7 +27330,7 @@
         <v>6269</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>6270</v>
@@ -27371,7 +27371,7 @@
         <v>6152</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
@@ -27442,7 +27442,7 @@
         <v>205</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>6280</v>
@@ -27480,10 +27480,10 @@
         <v>6115</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>7133</v>
+        <v>7132</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>6365</v>
@@ -27521,13 +27521,13 @@
         <v>6115</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>7099</v>
+        <v>7098</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>7097</v>
+        <v>7317</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>204</v>
@@ -27562,10 +27562,10 @@
         <v>213</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>7100</v>
+        <v>7099</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>6366</v>
@@ -27606,7 +27606,7 @@
         <v>6320</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>6367</v>
@@ -27647,7 +27647,7 @@
         <v>261</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>6281</v>
@@ -27673,10 +27673,10 @@
         <v>224</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>7102</v>
+        <v>7101</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>70</v>
@@ -27685,22 +27685,22 @@
         <v>213</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>7103</v>
+        <v>7102</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>7073</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>7101</v>
+        <v>7100</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>184</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>7104</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -27766,7 +27766,7 @@
         <v>7091</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>7094</v>
@@ -27804,7 +27804,7 @@
         <v>7092</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>7094</v>
@@ -27842,7 +27842,7 @@
         <v>7093</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>7095</v>
@@ -27912,7 +27912,7 @@
         <v>199</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>6146</v>
@@ -28052,7 +28052,7 @@
         <v>6115</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>70</v>
@@ -28087,7 +28087,7 @@
         <v>7075</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>70</v>
@@ -28122,7 +28122,7 @@
         <v>7076</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>70</v>
@@ -28142,7 +28142,7 @@
         <v>229</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>7144</v>
+        <v>7143</v>
       </c>
       <c r="F57" s="34" t="s">
         <v>6142</v>
@@ -28154,10 +28154,10 @@
         <v>6115</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>7145</v>
+        <v>7144</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>70</v>
@@ -28189,7 +28189,7 @@
         <v>6115</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>70</v>
@@ -28224,7 +28224,7 @@
         <v>7077</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>70</v>
@@ -28259,7 +28259,7 @@
         <v>7078</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>70</v>
@@ -28294,7 +28294,7 @@
         <v>7079</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>70</v>
@@ -28314,7 +28314,7 @@
         <v>228</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>7147</v>
+        <v>7146</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>6023</v>
@@ -28326,10 +28326,10 @@
         <v>6115</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>7146</v>
+        <v>7145</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>70</v>
@@ -28361,7 +28361,7 @@
         <v>6115</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>70</v>
@@ -28396,7 +28396,7 @@
         <v>301</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>70</v>
@@ -28428,7 +28428,7 @@
         <v>213</v>
       </c>
       <c r="N65" s="34" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="P65" s="10" t="s">
         <v>70</v>
@@ -28485,7 +28485,7 @@
         <v>6337</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>7105</v>
+        <v>7104</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>6023</v>
@@ -28497,7 +28497,7 @@
         <v>213</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>7308</v>
+        <v>7307</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>7074</v>
@@ -28619,16 +28619,16 @@
         <v>26</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>7117</v>
+        <v>7116</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>7270</v>
+        <v>7269</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>70</v>
@@ -28637,7 +28637,7 @@
         <v>72</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>7125</v>
+        <v>7124</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>70</v>
@@ -28651,16 +28651,16 @@
         <v>26</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>7115</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>7116</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>7117</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>70</v>
@@ -28669,14 +28669,14 @@
         <v>72</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>7311</v>
+        <v>7310</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>7125</v>
+        <v>7124</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>70</v>
@@ -28690,16 +28690,16 @@
         <v>26</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>7315</v>
+        <v>7314</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>7309</v>
+        <v>7308</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>70</v>
@@ -28708,14 +28708,14 @@
         <v>72</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>70</v>
@@ -28729,13 +28729,13 @@
         <v>26</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7116</v>
+        <v>7115</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>7118</v>
+        <v>7117</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>6144</v>
@@ -28747,14 +28747,14 @@
         <v>72</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>7121</v>
+        <v>7120</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>7120</v>
+        <v>7119</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>70</v>
@@ -28771,7 +28771,7 @@
         <v>75</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>330</v>
@@ -28786,7 +28786,7 @@
         <v>72</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>7122</v>
+        <v>7121</v>
       </c>
       <c r="P75" s="10" t="s">
         <v>70</v>
@@ -28803,7 +28803,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>336</v>
@@ -28818,7 +28818,7 @@
         <v>72</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>7123</v>
+        <v>7122</v>
       </c>
       <c r="P76" s="10" t="s">
         <v>70</v>
@@ -28835,7 +28835,7 @@
         <v>75</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>7119</v>
+        <v>7118</v>
       </c>
       <c r="E77" s="33" t="s">
         <v>6078</v>
@@ -28850,7 +28850,7 @@
         <v>72</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>7124</v>
+        <v>7123</v>
       </c>
       <c r="P77" s="10" t="s">
         <v>70</v>
@@ -29078,13 +29078,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>7134</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>7135</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7136</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7137</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -29284,7 +29284,7 @@
         <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7291</v>
+        <v>7290</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -29331,7 +29331,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>73</v>
@@ -29363,7 +29363,7 @@
         <v>240</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>7300</v>
+        <v>7299</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -29392,7 +29392,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>73</v>
@@ -29424,7 +29424,7 @@
         <v>241</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>73</v>
@@ -29456,7 +29456,7 @@
         <v>241</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>73</v>
@@ -29488,7 +29488,7 @@
         <v>242</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>73</v>
@@ -29517,7 +29517,7 @@
         <v>51</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
@@ -29546,7 +29546,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>73</v>
@@ -29578,7 +29578,7 @@
         <v>239</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>7304</v>
+        <v>7303</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>73</v>
@@ -29607,7 +29607,7 @@
         <v>51</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>73</v>
@@ -29639,7 +29639,7 @@
         <v>239</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>73</v>
@@ -29682,7 +29682,7 @@
         <v>6265</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7132</v>
+        <v>7131</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7080</v>
@@ -29708,10 +29708,10 @@
         <v>6265</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7131</v>
+        <v>7130</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>79</v>
@@ -29876,7 +29876,7 @@
         <v>85</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>73</v>
@@ -29908,7 +29908,7 @@
         <v>6131</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>73</v>
@@ -30226,7 +30226,7 @@
         <v>51</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>73</v>
@@ -30258,7 +30258,7 @@
         <v>6350</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>73</v>
@@ -30339,7 +30339,7 @@
         <v>51</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>7295</v>
+        <v>7294</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>73</v>
@@ -30371,7 +30371,7 @@
         <v>241</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>73</v>
@@ -30403,7 +30403,7 @@
         <v>242</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>73</v>
@@ -30680,7 +30680,7 @@
         <v>6012</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7106</v>
+        <v>7105</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>70</v>
@@ -30706,7 +30706,7 @@
         <v>6012</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>84</v>
@@ -30732,7 +30732,7 @@
         <v>6012</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>7110</v>
+        <v>7109</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>122</v>
@@ -30758,7 +30758,7 @@
         <v>6012</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>314</v>
@@ -30784,7 +30784,7 @@
         <v>6012</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>7108</v>
+        <v>7107</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>315</v>
@@ -30807,13 +30807,13 @@
         <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7135</v>
+        <v>7134</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7138</v>
+        <v>7137</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>71</v>
@@ -32191,7 +32191,7 @@
         <v>6085</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>7115</v>
+        <v>7114</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>73</v>
@@ -32731,7 +32731,7 @@
         <v>110000</v>
       </c>
       <c r="D2" t="s">
-        <v>7262</v>
+        <v>7261</v>
       </c>
       <c r="E2" t="s">
         <v>51</v>
@@ -33037,7 +33037,7 @@
         <v>120000</v>
       </c>
       <c r="D20" t="s">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="E20" t="s">
         <v>51</v>
@@ -33980,7 +33980,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7152</v>
+        <v>7151</v>
       </c>
       <c r="B76" t="s">
         <v>3190</v>
@@ -33989,7 +33989,7 @@
         <v>130284</v>
       </c>
       <c r="D76" t="s">
-        <v>7153</v>
+        <v>7152</v>
       </c>
       <c r="E76" t="s">
         <v>3141</v>
@@ -36632,7 +36632,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
       <c r="B232" t="s">
         <v>3345</v>
@@ -36641,7 +36641,7 @@
         <v>140213</v>
       </c>
       <c r="D232" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
       <c r="E232" t="s">
         <v>3141</v>
@@ -36649,7 +36649,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>7156</v>
+        <v>7155</v>
       </c>
       <c r="B233" t="s">
         <v>3345</v>
@@ -36658,7 +36658,7 @@
         <v>140214</v>
       </c>
       <c r="D233" t="s">
-        <v>7157</v>
+        <v>7156</v>
       </c>
       <c r="E233" t="s">
         <v>3141</v>
@@ -36666,7 +36666,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7158</v>
+        <v>7157</v>
       </c>
       <c r="B234" t="s">
         <v>3345</v>
@@ -36675,7 +36675,7 @@
         <v>140215</v>
       </c>
       <c r="D234" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="E234" t="s">
         <v>3141</v>
@@ -36904,7 +36904,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
       <c r="B248" t="s">
         <v>3359</v>
@@ -36913,7 +36913,7 @@
         <v>140403</v>
       </c>
       <c r="D248" t="s">
-        <v>7161</v>
+        <v>7160</v>
       </c>
       <c r="E248" t="s">
         <v>3141</v>
@@ -36921,7 +36921,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="B249" t="s">
         <v>3359</v>
@@ -36930,7 +36930,7 @@
         <v>140404</v>
       </c>
       <c r="D249" t="s">
-        <v>7163</v>
+        <v>7162</v>
       </c>
       <c r="E249" t="s">
         <v>3141</v>
@@ -36938,7 +36938,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>7164</v>
+        <v>7163</v>
       </c>
       <c r="B250" t="s">
         <v>3359</v>
@@ -36947,7 +36947,7 @@
         <v>140405</v>
       </c>
       <c r="D250" t="s">
-        <v>7165</v>
+        <v>7164</v>
       </c>
       <c r="E250" t="s">
         <v>3141</v>
@@ -36955,7 +36955,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>7166</v>
+        <v>7165</v>
       </c>
       <c r="B251" t="s">
         <v>3359</v>
@@ -36964,7 +36964,7 @@
         <v>140406</v>
       </c>
       <c r="D251" t="s">
-        <v>7167</v>
+        <v>7166</v>
       </c>
       <c r="E251" t="s">
         <v>3141</v>
@@ -37329,7 +37329,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7168</v>
+        <v>7167</v>
       </c>
       <c r="B273" t="s">
         <v>3375</v>
@@ -37338,7 +37338,7 @@
         <v>140681</v>
       </c>
       <c r="D273" t="s">
-        <v>7169</v>
+        <v>7168</v>
       </c>
       <c r="E273" t="s">
         <v>3141</v>
@@ -37474,7 +37474,7 @@
         <v>140726</v>
       </c>
       <c r="D281" t="s">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E281" t="s">
         <v>3141</v>
@@ -44996,7 +44996,7 @@
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>7171</v>
+        <v>7170</v>
       </c>
       <c r="B724" t="s">
         <v>3816</v>
@@ -45005,7 +45005,7 @@
         <v>230717</v>
       </c>
       <c r="D724" t="s">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="E724" t="s">
         <v>3141</v>
@@ -45013,7 +45013,7 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>7173</v>
+        <v>7172</v>
       </c>
       <c r="B725" t="s">
         <v>3816</v>
@@ -45022,7 +45022,7 @@
         <v>230718</v>
       </c>
       <c r="D725" t="s">
-        <v>7174</v>
+        <v>7173</v>
       </c>
       <c r="E725" t="s">
         <v>3141</v>
@@ -45030,7 +45030,7 @@
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>7175</v>
+        <v>7174</v>
       </c>
       <c r="B726" t="s">
         <v>3816</v>
@@ -45064,7 +45064,7 @@
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>7176</v>
+        <v>7175</v>
       </c>
       <c r="B728" t="s">
         <v>3816</v>
@@ -45073,7 +45073,7 @@
         <v>230723</v>
       </c>
       <c r="D728" t="s">
-        <v>7177</v>
+        <v>7176</v>
       </c>
       <c r="E728" t="s">
         <v>3141</v>
@@ -45081,7 +45081,7 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>7178</v>
+        <v>7177</v>
       </c>
       <c r="B729" t="s">
         <v>3816</v>
@@ -45090,7 +45090,7 @@
         <v>230724</v>
       </c>
       <c r="D729" t="s">
-        <v>7179</v>
+        <v>7178</v>
       </c>
       <c r="E729" t="s">
         <v>3141</v>
@@ -45098,7 +45098,7 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>7180</v>
+        <v>7179</v>
       </c>
       <c r="B730" t="s">
         <v>3816</v>
@@ -45107,7 +45107,7 @@
         <v>230725</v>
       </c>
       <c r="D730" t="s">
-        <v>7181</v>
+        <v>7180</v>
       </c>
       <c r="E730" t="s">
         <v>3141</v>
@@ -45115,7 +45115,7 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="B731" t="s">
         <v>3816</v>
@@ -45124,7 +45124,7 @@
         <v>230726</v>
       </c>
       <c r="D731" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="E731" t="s">
         <v>3141</v>
@@ -45132,7 +45132,7 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="B732" t="s">
         <v>3816</v>
@@ -45141,7 +45141,7 @@
         <v>230751</v>
       </c>
       <c r="D732" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="E732" t="s">
         <v>3141</v>
@@ -45668,7 +45668,7 @@
         <v>231121</v>
       </c>
       <c r="D763" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="E763" t="s">
         <v>3141</v>
@@ -45957,7 +45957,7 @@
         <v>232701</v>
       </c>
       <c r="D780" t="s">
-        <v>7187</v>
+        <v>7186</v>
       </c>
       <c r="E780" t="s">
         <v>3141</v>
@@ -45965,7 +45965,7 @@
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>7188</v>
+        <v>7187</v>
       </c>
       <c r="B781" t="s">
         <v>3862</v>
@@ -47087,7 +47087,7 @@
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>7189</v>
+        <v>7188</v>
       </c>
       <c r="B847" t="s">
         <v>3915</v>
@@ -47096,7 +47096,7 @@
         <v>320571</v>
       </c>
       <c r="D847" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="E847" t="s">
         <v>3141</v>
@@ -47308,7 +47308,7 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
       <c r="B860" t="s">
         <v>3923</v>
@@ -47317,7 +47317,7 @@
         <v>320685</v>
       </c>
       <c r="D860" t="s">
-        <v>7192</v>
+        <v>7191</v>
       </c>
       <c r="E860" t="s">
         <v>3141</v>
@@ -48396,7 +48396,7 @@
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>7193</v>
+        <v>7192</v>
       </c>
       <c r="B924" t="s">
         <v>3977</v>
@@ -48855,7 +48855,7 @@
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>7194</v>
+        <v>7193</v>
       </c>
       <c r="B951" t="s">
         <v>3999</v>
@@ -48864,7 +48864,7 @@
         <v>330383</v>
       </c>
       <c r="D951" t="s">
-        <v>7195</v>
+        <v>7194</v>
       </c>
       <c r="E951" t="s">
         <v>3141</v>
@@ -51014,7 +51014,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>7196</v>
+        <v>7195</v>
       </c>
       <c r="B1078" t="s">
         <v>4112</v>
@@ -51023,7 +51023,7 @@
         <v>340882</v>
       </c>
       <c r="D1078" t="s">
-        <v>7197</v>
+        <v>7196</v>
       </c>
       <c r="E1078" t="s">
         <v>3141</v>
@@ -51941,7 +51941,7 @@
         <v>341822</v>
       </c>
       <c r="D1132" t="s">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="E1132" t="s">
         <v>3141</v>
@@ -52136,7 +52136,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="B1144" t="s">
         <v>4180</v>
@@ -54057,7 +54057,7 @@
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>7200</v>
+        <v>7199</v>
       </c>
       <c r="B1257" t="s">
         <v>4292</v>
@@ -54329,7 +54329,7 @@
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="B1273" t="s">
         <v>4306</v>
@@ -54338,7 +54338,7 @@
         <v>360603</v>
       </c>
       <c r="D1273" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
       <c r="E1273" t="s">
         <v>3141</v>
@@ -55689,7 +55689,7 @@
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>7203</v>
+        <v>7202</v>
       </c>
       <c r="B1353" t="s">
         <v>4375</v>
@@ -55698,7 +55698,7 @@
         <v>370115</v>
       </c>
       <c r="D1353" t="s">
-        <v>7204</v>
+        <v>7203</v>
       </c>
       <c r="E1353" t="s">
         <v>3141</v>
@@ -55706,7 +55706,7 @@
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>7205</v>
+        <v>7204</v>
       </c>
       <c r="B1354" t="s">
         <v>4375</v>
@@ -55715,7 +55715,7 @@
         <v>370116</v>
       </c>
       <c r="D1354" t="s">
-        <v>7206</v>
+        <v>7205</v>
       </c>
       <c r="E1354" t="s">
         <v>3141</v>
@@ -55723,7 +55723,7 @@
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
-        <v>7207</v>
+        <v>7206</v>
       </c>
       <c r="B1355" t="s">
         <v>4375</v>
@@ -55893,7 +55893,7 @@
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>7208</v>
+        <v>7207</v>
       </c>
       <c r="B1365" t="s">
         <v>4384</v>
@@ -57772,7 +57772,7 @@
         <v>371523</v>
       </c>
       <c r="D1475" t="s">
-        <v>7209</v>
+        <v>7208</v>
       </c>
       <c r="E1475" t="s">
         <v>3141</v>
@@ -57967,7 +57967,7 @@
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>7210</v>
+        <v>7209</v>
       </c>
       <c r="B1487" t="s">
         <v>4499</v>
@@ -57976,7 +57976,7 @@
         <v>371681</v>
       </c>
       <c r="D1487" t="s">
-        <v>7211</v>
+        <v>7210</v>
       </c>
       <c r="E1487" t="s">
         <v>3141</v>
@@ -59472,7 +59472,7 @@
         <v>410728</v>
       </c>
       <c r="D1575" t="s">
-        <v>7212</v>
+        <v>7211</v>
       </c>
       <c r="E1575" t="s">
         <v>3141</v>
@@ -60883,7 +60883,7 @@
         <v>411626</v>
       </c>
       <c r="D1658" t="s">
-        <v>7213</v>
+        <v>7212</v>
       </c>
       <c r="E1658" t="s">
         <v>3141</v>
@@ -62234,7 +62234,7 @@
     </row>
     <row r="1738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>7214</v>
+        <v>7213</v>
       </c>
       <c r="B1738" t="s">
         <v>4743</v>
@@ -62243,7 +62243,7 @@
         <v>420882</v>
       </c>
       <c r="D1738" t="s">
-        <v>7215</v>
+        <v>7214</v>
       </c>
       <c r="E1738" t="s">
         <v>3141</v>
@@ -63305,7 +63305,7 @@
     </row>
     <row r="1801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>7216</v>
+        <v>7215</v>
       </c>
       <c r="B1801" t="s">
         <v>4799</v>
@@ -63407,7 +63407,7 @@
     </row>
     <row r="1807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>7217</v>
+        <v>7216</v>
       </c>
       <c r="B1807" t="s">
         <v>4807</v>
@@ -63416,7 +63416,7 @@
         <v>430212</v>
       </c>
       <c r="D1807" t="s">
-        <v>7218</v>
+        <v>7217</v>
       </c>
       <c r="E1807" t="s">
         <v>3141</v>
@@ -63892,7 +63892,7 @@
         <v>430521</v>
       </c>
       <c r="D1835" t="s">
-        <v>7219</v>
+        <v>7218</v>
       </c>
       <c r="E1835" t="s">
         <v>3141</v>
@@ -66025,7 +66025,7 @@
     </row>
     <row r="1961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1961" t="s">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="B1961" t="s">
         <v>4953</v>
@@ -66034,7 +66034,7 @@
         <v>440311</v>
       </c>
       <c r="D1961" t="s">
-        <v>7221</v>
+        <v>7220</v>
       </c>
       <c r="E1961" t="s">
         <v>3141</v>
@@ -68643,7 +68643,7 @@
     </row>
     <row r="2115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2115" t="s">
-        <v>7222</v>
+        <v>7221</v>
       </c>
       <c r="B2115" t="s">
         <v>5085</v>
@@ -68652,7 +68652,7 @@
         <v>450381</v>
       </c>
       <c r="D2115" t="s">
-        <v>7223</v>
+        <v>7222</v>
       </c>
       <c r="E2115" t="s">
         <v>3141</v>
@@ -69332,7 +69332,7 @@
         <v>451021</v>
       </c>
       <c r="D2155" t="s">
-        <v>7224</v>
+        <v>7223</v>
       </c>
       <c r="E2155" t="s">
         <v>3141</v>
@@ -72060,7 +72060,7 @@
     </row>
     <row r="2316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>7225</v>
+        <v>7224</v>
       </c>
       <c r="B2316" t="s">
         <v>5266</v>
@@ -72528,7 +72528,7 @@
         <v>510922</v>
       </c>
       <c r="D2343" t="s">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="E2343" t="s">
         <v>3141</v>
@@ -73199,7 +73199,7 @@
     </row>
     <row r="2383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>7227</v>
+        <v>7226</v>
       </c>
       <c r="B2383" t="s">
         <v>5328</v>
@@ -73208,7 +73208,7 @@
         <v>511504</v>
       </c>
       <c r="D2383" t="s">
-        <v>7228</v>
+        <v>7227</v>
       </c>
       <c r="E2383" t="s">
         <v>3141</v>
@@ -75817,7 +75817,7 @@
     </row>
     <row r="2537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>7229</v>
+        <v>7228</v>
       </c>
       <c r="B2537" t="s">
         <v>6551</v>
@@ -75826,7 +75826,7 @@
         <v>522302</v>
       </c>
       <c r="D2537" t="s">
-        <v>7230</v>
+        <v>7229</v>
       </c>
       <c r="E2537" t="s">
         <v>3141</v>
@@ -76769,7 +76769,7 @@
     </row>
     <row r="2593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>7231</v>
+        <v>7230</v>
       </c>
       <c r="B2593" t="s">
         <v>5495</v>
@@ -76778,7 +76778,7 @@
         <v>530304</v>
       </c>
       <c r="D2593" t="s">
-        <v>7232</v>
+        <v>7231</v>
       </c>
       <c r="E2593" t="s">
         <v>3141</v>
@@ -77347,7 +77347,7 @@
     </row>
     <row r="2627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>7233</v>
+        <v>7232</v>
       </c>
       <c r="B2627" t="s">
         <v>5516</v>
@@ -77356,7 +77356,7 @@
         <v>530681</v>
       </c>
       <c r="D2627" t="s">
-        <v>7234</v>
+        <v>7233</v>
       </c>
       <c r="E2627" t="s">
         <v>3141</v>
@@ -78996,7 +78996,7 @@
     </row>
     <row r="2724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>7235</v>
+        <v>7234</v>
       </c>
       <c r="B2724" t="s">
         <v>5611</v>
@@ -79005,7 +79005,7 @@
         <v>540104</v>
       </c>
       <c r="D2724" t="s">
-        <v>7236</v>
+        <v>7235</v>
       </c>
       <c r="E2724" t="s">
         <v>3141</v>
@@ -79982,7 +79982,7 @@
     </row>
     <row r="2782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="B2782" t="s">
         <v>5610</v>
@@ -79991,7 +79991,7 @@
         <v>540600</v>
       </c>
       <c r="D2782" t="s">
-        <v>7238</v>
+        <v>7237</v>
       </c>
       <c r="E2782" t="s">
         <v>3139</v>
@@ -79999,16 +79999,16 @@
     </row>
     <row r="2783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>7239</v>
+        <v>7238</v>
       </c>
       <c r="B2783" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2783">
         <v>540602</v>
       </c>
       <c r="D2783" t="s">
-        <v>7240</v>
+        <v>7239</v>
       </c>
       <c r="E2783" t="s">
         <v>3141</v>
@@ -80016,10 +80016,10 @@
     </row>
     <row r="2784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>7241</v>
+        <v>7240</v>
       </c>
       <c r="B2784" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2784">
         <v>540621</v>
@@ -80033,10 +80033,10 @@
     </row>
     <row r="2785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>7242</v>
+        <v>7241</v>
       </c>
       <c r="B2785" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2785">
         <v>540622</v>
@@ -80050,10 +80050,10 @@
     </row>
     <row r="2786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>7243</v>
+        <v>7242</v>
       </c>
       <c r="B2786" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2786">
         <v>540623</v>
@@ -80067,10 +80067,10 @@
     </row>
     <row r="2787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>7244</v>
+        <v>7243</v>
       </c>
       <c r="B2787" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2787">
         <v>540624</v>
@@ -80084,10 +80084,10 @@
     </row>
     <row r="2788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>7245</v>
+        <v>7244</v>
       </c>
       <c r="B2788" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2788">
         <v>540625</v>
@@ -80101,10 +80101,10 @@
     </row>
     <row r="2789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>7246</v>
+        <v>7245</v>
       </c>
       <c r="B2789" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2789">
         <v>540626</v>
@@ -80118,10 +80118,10 @@
     </row>
     <row r="2790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>7247</v>
+        <v>7246</v>
       </c>
       <c r="B2790" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2790">
         <v>540627</v>
@@ -80135,10 +80135,10 @@
     </row>
     <row r="2791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>7248</v>
+        <v>7247</v>
       </c>
       <c r="B2791" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2791">
         <v>540628</v>
@@ -80152,10 +80152,10 @@
     </row>
     <row r="2792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>7249</v>
+        <v>7248</v>
       </c>
       <c r="B2792" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2792">
         <v>540629</v>
@@ -80169,10 +80169,10 @@
     </row>
     <row r="2793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>7250</v>
+        <v>7249</v>
       </c>
       <c r="B2793" t="s">
-        <v>7237</v>
+        <v>7236</v>
       </c>
       <c r="C2793">
         <v>540630</v>
@@ -81121,7 +81121,7 @@
     </row>
     <row r="2849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2849" t="s">
-        <v>7251</v>
+        <v>7250</v>
       </c>
       <c r="B2849" t="s">
         <v>5657</v>
@@ -81130,7 +81130,7 @@
         <v>610482</v>
       </c>
       <c r="D2849" t="s">
-        <v>7252</v>
+        <v>7251</v>
       </c>
       <c r="E2849" t="s">
         <v>3141</v>
@@ -81436,7 +81436,7 @@
         <v>610623</v>
       </c>
       <c r="D2867" t="s">
-        <v>7253</v>
+        <v>7252</v>
       </c>
       <c r="E2867" t="s">
         <v>3141</v>
@@ -81614,7 +81614,7 @@
     </row>
     <row r="2878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2878" t="s">
-        <v>7254</v>
+        <v>7253</v>
       </c>
       <c r="B2878" t="s">
         <v>5694</v>
@@ -83127,7 +83127,7 @@
     </row>
     <row r="2967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2967" t="s">
-        <v>7255</v>
+        <v>7254</v>
       </c>
       <c r="B2967" t="s">
         <v>5775</v>
@@ -83136,7 +83136,7 @@
         <v>620881</v>
       </c>
       <c r="D2967" t="s">
-        <v>7256</v>
+        <v>7255</v>
       </c>
       <c r="E2967" t="s">
         <v>3141</v>
@@ -84173,7 +84173,7 @@
         <v>630122</v>
       </c>
       <c r="D3028" t="s">
-        <v>7257</v>
+        <v>7256</v>
       </c>
       <c r="E3028" t="s">
         <v>3141</v>
@@ -84878,7 +84878,7 @@
     </row>
     <row r="3070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>7258</v>
+        <v>7257</v>
       </c>
       <c r="B3070" t="s">
         <v>5872</v>
@@ -84887,7 +84887,7 @@
         <v>632803</v>
       </c>
       <c r="D3070" t="s">
-        <v>7259</v>
+        <v>7258</v>
       </c>
       <c r="E3070" t="s">
         <v>3141</v>
@@ -87964,7 +87964,7 @@
         <v>820008</v>
       </c>
       <c r="D3251" t="s">
-        <v>7260</v>
+        <v>7259</v>
       </c>
       <c r="E3251" t="s">
         <v>3141</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB5836-6849-4FD7-AF8A-19E3530DBDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D91872-BFFF-422C-8CAD-1B3BFC43A198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="384" windowWidth="21336" windowHeight="11460" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6168" yWindow="5460" windowWidth="18360" windowHeight="8436" tabRatio="763" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15568" uniqueCount="7318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15620" uniqueCount="7323">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23614,6 +23614,26 @@
   </si>
   <si>
     <t>sys:state:cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23800,7 +23820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23922,6 +23942,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -24613,90 +24634,103 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>7322</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6156</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6195</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6155</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6161</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6161</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6160</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6160</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6162</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>6158</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>6159</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6163</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6163</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6164</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>6165</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>6166</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -24709,108 +24743,127 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7320</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6156</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6179</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7142</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6180</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6185</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6185</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6181</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6191</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6189</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6189</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6182</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6190</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6190</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6188</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6194</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6192</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6187</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6187</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6183</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6186</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6186</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6184</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>6193</v>
       </c>
     </row>
@@ -24823,1088 +24876,1160 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7318</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>6243</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>6244</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>6245</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>6246</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6112</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6238</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6239</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6261</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>6247</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6203</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6203</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6364</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6172</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6169</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>6242</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>6248</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6204</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6204</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6363</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6172</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6169</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>6242</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6205</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6205</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6362</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6172</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>6169</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>6242</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6206</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6206</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6361</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6234</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>6170</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>6242</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>6248</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6207</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6207</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6360</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6234</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>6170</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>6242</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6208</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6208</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6359</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>6234</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>6170</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>6242</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6209</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6209</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>6358</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>6242</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>6248</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6210</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>6210</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>6357</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>6242</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6211</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>6211</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>6356</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>6242</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6212</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>6212</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>6223</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>6242</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6213</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>6213</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>6224</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>6242</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>6186</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6214</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>6214</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>6225</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>6242</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6215</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>6215</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>6226</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>6242</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>6249</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6216</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>6216</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>6227</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>6242</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>6248</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6217</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>6217</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>6228</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>6196</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>6169</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>6242</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>6187</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>6187</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6218</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>6218</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>6229</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>6196</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>6169</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>6242</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>6186</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6219</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>6219</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>6230</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>6196</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>6169</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>6242</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>6186</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6220</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>6220</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>6231</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>6236</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>6170</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>6242</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>6187</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>6187</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6221</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>6221</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>6232</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>6236</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>6170</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>6242</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>6186</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6222</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>6233</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>6236</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>6170</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>6242</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>6186</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6253</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>6253</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>6250</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>6237</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>6242</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>6187</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>6187</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6254</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>6254</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>6251</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>6237</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>6242</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>6186</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6255</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>6255</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>6252</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>6237</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>6242</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>6240</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>6241</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>6186</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>6186</v>
       </c>
+      <c r="O24" s="1" t="s">
+        <v>6186</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N24">
-    <sortCondition ref="C2:C24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:O24">
+    <sortCondition ref="D2:D24"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26092,7 +26217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
@@ -32459,136 +32584,152 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7319</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6156</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6087</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6187</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6187</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6183</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6183</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6186</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6186</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6184</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6184</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6103</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6088</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6104</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6088</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -32601,65 +32742,72 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="55.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7318</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6279</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6103</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -32667,15 +32815,18 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6103</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6353</v>
       </c>
     </row>
@@ -87979,222 +88130,253 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="36" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>7321</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6156</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6155</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6157</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6161</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6161</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6160</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6160</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6162</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>6158</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>6159</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6172</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6172</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="D4" s="38" t="s">
         <v>6169</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="38" t="s">
         <v>6175</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6173</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>6173</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="38" t="s">
         <v>6170</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="38" t="s">
         <v>6176</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6167</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6174</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>6171</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="38" t="s">
         <v>6177</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>6178</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6163</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6163</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>6164</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>6165</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>6166</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>6168</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6196</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="38" t="s">
         <v>6169</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="E8" s="38" t="s">
         <v>6199</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6197</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>6197</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D9" s="38" t="s">
         <v>6170</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="E9" s="38" t="s">
         <v>6200</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6198</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>6198</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>6171</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>6201</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>122</v>
       </c>
     </row>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C832F4-DF60-4651-AFCB-98AC8AF1A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CB8F1-ED5D-4970-8A30-4E19279C5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15618" uniqueCount="7324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15616" uniqueCount="7324">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26221,10 +26221,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26984,9 +26984,7 @@
       <c r="I22" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="K22" s="34" t="s">
-        <v>7296</v>
-      </c>
+      <c r="K22" s="34"/>
       <c r="M22" s="1" t="s">
         <v>6131</v>
       </c>
@@ -27025,9 +27023,7 @@
       <c r="I23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K23" s="34" t="s">
-        <v>7296</v>
-      </c>
+      <c r="K23" s="34"/>
       <c r="M23" s="26" t="s">
         <v>6255</v>
       </c>
@@ -32744,7 +32740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CB8F1-ED5D-4970-8A30-4E19279C5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839081D5-9CE2-4951-BE6D-667C6AA9872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="3012" windowWidth="23040" windowHeight="12204" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -23489,10 +23489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.jeesite.modules.cms.web.CmsIndexController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>menuNameRaw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -23638,6 +23634,10 @@
   </si>
   <si>
     <t>默认管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.jeesite.modules.cms.web.ArticleController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24396,13 +24396,13 @@
         <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7303</v>
+        <v>7302</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7304</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -24657,7 +24657,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>7321</v>
+        <v>7320</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6155</v>
@@ -24766,7 +24766,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7319</v>
+        <v>7318</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6155</v>
@@ -24905,7 +24905,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -26045,7 +26045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -26102,7 +26102,7 @@
         <v>328</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7286</v>
+        <v>7323</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -26221,7 +26221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
@@ -26262,7 +26262,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7287</v>
+        <v>7286</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>14</v>
@@ -26280,10 +26280,10 @@
         <v>267</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>7293</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7294</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7295</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>175</v>
@@ -26714,7 +26714,7 @@
         <v>6113</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>7290</v>
+        <v>7289</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>247</v>
@@ -27009,7 +27009,7 @@
         <v>225</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>7322</v>
+        <v>7321</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6141</v>
@@ -27063,7 +27063,7 @@
         <v>7261</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M24" s="26" t="s">
         <v>7263</v>
@@ -27133,7 +27133,7 @@
         <v>6114</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>7288</v>
+        <v>7287</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>6091</v>
@@ -27335,7 +27335,7 @@
         <v>6100</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>7292</v>
+        <v>7291</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>78</v>
@@ -27347,7 +27347,7 @@
         <v>6113</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>7291</v>
+        <v>7290</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>6128</v>
@@ -27455,7 +27455,7 @@
         <v>6268</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>6269</v>
@@ -27496,7 +27496,7 @@
         <v>6151</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
@@ -27606,7 +27606,7 @@
         <v>7131</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>6364</v>
@@ -27647,10 +27647,10 @@
         <v>7097</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>7316</v>
+        <v>7315</v>
       </c>
       <c r="N40" s="10" t="s">
         <v>204</v>
@@ -27688,7 +27688,7 @@
         <v>7098</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>6365</v>
@@ -27729,7 +27729,7 @@
         <v>6319</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>6366</v>
@@ -27812,7 +27812,7 @@
         <v>7072</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>7099</v>
@@ -27887,7 +27887,7 @@
         <v>7090</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>7093</v>
@@ -27925,7 +27925,7 @@
         <v>7091</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>7093</v>
@@ -27963,7 +27963,7 @@
         <v>7092</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>7094</v>
@@ -28033,7 +28033,7 @@
         <v>199</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>6145</v>
@@ -28173,7 +28173,7 @@
         <v>6114</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>70</v>
@@ -28208,7 +28208,7 @@
         <v>7074</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>70</v>
@@ -28243,7 +28243,7 @@
         <v>7075</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>70</v>
@@ -28278,7 +28278,7 @@
         <v>7143</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>70</v>
@@ -28310,7 +28310,7 @@
         <v>6114</v>
       </c>
       <c r="K58" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>70</v>
@@ -28345,7 +28345,7 @@
         <v>7076</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>70</v>
@@ -28380,7 +28380,7 @@
         <v>7077</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>70</v>
@@ -28415,7 +28415,7 @@
         <v>7078</v>
       </c>
       <c r="K61" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>70</v>
@@ -28450,7 +28450,7 @@
         <v>7144</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>70</v>
@@ -28482,7 +28482,7 @@
         <v>6114</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>70</v>
@@ -28517,7 +28517,7 @@
         <v>300</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>7305</v>
+        <v>7304</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>70</v>
@@ -28618,7 +28618,7 @@
         <v>213</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>7306</v>
+        <v>7305</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>7073</v>
@@ -28772,7 +28772,7 @@
         <v>26</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>7314</v>
+        <v>7313</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>7114</v>
@@ -28781,7 +28781,7 @@
         <v>7115</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>70</v>
@@ -28790,10 +28790,10 @@
         <v>72</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>7309</v>
+        <v>7308</v>
       </c>
       <c r="K72" s="34" t="s">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
@@ -28811,16 +28811,16 @@
         <v>26</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>7313</v>
+        <v>7312</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>7114</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>7307</v>
+        <v>7306</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>7311</v>
+        <v>7310</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>70</v>
@@ -28829,14 +28829,14 @@
         <v>72</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>7308</v>
+        <v>7307</v>
       </c>
       <c r="K73" s="34" t="s">
-        <v>7312</v>
+        <v>7311</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>7315</v>
+        <v>7314</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>70</v>
@@ -28871,7 +28871,7 @@
         <v>7119</v>
       </c>
       <c r="K74" s="34" t="s">
-        <v>7296</v>
+        <v>7295</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
@@ -29405,7 +29405,7 @@
         <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7289</v>
+        <v>7288</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>11</v>
@@ -29452,7 +29452,7 @@
         <v>51</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>73</v>
@@ -29484,7 +29484,7 @@
         <v>240</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>73</v>
@@ -29513,7 +29513,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>73</v>
@@ -29545,7 +29545,7 @@
         <v>241</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>73</v>
@@ -29577,7 +29577,7 @@
         <v>241</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>73</v>
@@ -29609,7 +29609,7 @@
         <v>242</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>7297</v>
+        <v>7296</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>73</v>
@@ -29638,7 +29638,7 @@
         <v>51</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>73</v>
@@ -29667,7 +29667,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>73</v>
@@ -29699,7 +29699,7 @@
         <v>239</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>7302</v>
+        <v>7301</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>73</v>
@@ -29728,7 +29728,7 @@
         <v>51</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>7299</v>
+        <v>7298</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>73</v>
@@ -29760,7 +29760,7 @@
         <v>239</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>7300</v>
+        <v>7299</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>73</v>
@@ -29997,7 +29997,7 @@
         <v>85</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>73</v>
@@ -30029,7 +30029,7 @@
         <v>6130</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>7297</v>
+        <v>7296</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>73</v>
@@ -30347,7 +30347,7 @@
         <v>51</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>73</v>
@@ -30379,7 +30379,7 @@
         <v>6349</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>73</v>
@@ -30460,7 +30460,7 @@
         <v>51</v>
       </c>
       <c r="J38" s="34" t="s">
-        <v>7293</v>
+        <v>7292</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>73</v>
@@ -30492,7 +30492,7 @@
         <v>241</v>
       </c>
       <c r="J39" s="34" t="s">
-        <v>7301</v>
+        <v>7300</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>73</v>
@@ -30524,7 +30524,7 @@
         <v>242</v>
       </c>
       <c r="J40" s="34" t="s">
-        <v>7297</v>
+        <v>7296</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>73</v>
@@ -32601,7 +32601,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7318</v>
+        <v>7317</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6155</v>
@@ -32759,7 +32759,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7317</v>
+        <v>7316</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -32814,7 +32814,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7323</v>
+        <v>7322</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6102</v>
@@ -88146,7 +88146,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>7320</v>
+        <v>7319</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6155</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839081D5-9CE2-4951-BE6D-667C6AA9872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D7B01-BF47-487E-B415-09108CB88BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="3012" windowWidth="23040" windowHeight="12204" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15616" uniqueCount="7324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="7324">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23824,7 +23824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -23925,12 +23925,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -23939,9 +23933,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
@@ -24656,7 +24647,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>7320</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -24707,10 +24698,10 @@
       <c r="C3" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>6157</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>6158</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -24728,10 +24719,10 @@
       <c r="C4" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>6164</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="35" t="s">
         <v>6165</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -26045,9 +26036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26107,34 +26098,34 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="1" t="s">
         <v>7124</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="1" t="s">
         <v>7125</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="1" t="s">
         <v>7272</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="1" t="s">
         <v>7126</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="1" t="s">
         <v>7139</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7138</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="1" t="s">
         <v>7137</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7140</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -26149,7 +26140,7 @@
       <c r="D6" s="5" t="s">
         <v>7271</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -26164,7 +26155,7 @@
       <c r="D7" s="5" t="s">
         <v>7278</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -26179,7 +26170,7 @@
       <c r="D8" s="5" t="s">
         <v>7281</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -26194,7 +26185,7 @@
       <c r="D9" s="5" t="s">
         <v>7266</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -26221,10 +26212,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26614,7 +26605,7 @@
       <c r="H11" s="25" t="s">
         <v>6113</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="3" t="s">
         <v>7132</v>
       </c>
       <c r="N11" s="10" t="s">
@@ -26713,7 +26704,7 @@
       <c r="H14" s="25" t="s">
         <v>6113</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="3" t="s">
         <v>7289</v>
       </c>
       <c r="N14" s="10" t="s">
@@ -26984,7 +26975,7 @@
       <c r="I22" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="1"/>
       <c r="M22" s="1" t="s">
         <v>6131</v>
       </c>
@@ -27023,7 +27014,7 @@
       <c r="I23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="1"/>
       <c r="M23" s="26" t="s">
         <v>6255</v>
       </c>
@@ -27062,7 +27053,7 @@
       <c r="I24" s="3" t="s">
         <v>7261</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="K24" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M24" s="26" t="s">
@@ -27132,7 +27123,7 @@
       <c r="H26" s="24" t="s">
         <v>6114</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="3" t="s">
         <v>7287</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -27246,7 +27237,7 @@
       <c r="H29" s="25" t="s">
         <v>6113</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="3" t="s">
         <v>180</v>
       </c>
       <c r="M29" s="1"/>
@@ -27334,7 +27325,7 @@
       <c r="D32" s="1" t="s">
         <v>6100</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="37" t="s">
         <v>7291</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -27346,7 +27337,7 @@
       <c r="H32" s="25" t="s">
         <v>6113</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="3" t="s">
         <v>7290</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -27454,7 +27445,7 @@
       <c r="I35" s="3" t="s">
         <v>6268</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -27495,7 +27486,7 @@
       <c r="I36" s="3" t="s">
         <v>6151</v>
       </c>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M36" s="1"/>
@@ -27566,7 +27557,7 @@
       <c r="I38" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="1"/>
       <c r="M38" s="1" t="s">
         <v>6279</v>
       </c>
@@ -27605,7 +27596,7 @@
       <c r="I39" s="3" t="s">
         <v>7131</v>
       </c>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -27646,7 +27637,7 @@
       <c r="I40" s="3" t="s">
         <v>7097</v>
       </c>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -27687,7 +27678,7 @@
       <c r="I41" s="3" t="s">
         <v>7098</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -27728,7 +27719,7 @@
       <c r="I42" s="3" t="s">
         <v>6319</v>
       </c>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -27769,7 +27760,7 @@
       <c r="I43" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="1"/>
       <c r="M43" s="1" t="s">
         <v>6280</v>
       </c>
@@ -27811,7 +27802,7 @@
       <c r="J44" s="1" t="s">
         <v>7072</v>
       </c>
-      <c r="K44" s="34" t="s">
+      <c r="K44" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -27886,7 +27877,7 @@
       <c r="I46" s="3" t="s">
         <v>7090</v>
       </c>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -27924,7 +27915,7 @@
       <c r="I47" s="3" t="s">
         <v>7091</v>
       </c>
-      <c r="K47" s="34" t="s">
+      <c r="K47" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -27962,7 +27953,7 @@
       <c r="I48" s="3" t="s">
         <v>7092</v>
       </c>
-      <c r="K48" s="34" t="s">
+      <c r="K48" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -28032,7 +28023,7 @@
       <c r="I50" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="1" t="s">
         <v>7295</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -28172,7 +28163,7 @@
       <c r="H54" s="24" t="s">
         <v>6114</v>
       </c>
-      <c r="K54" s="34" t="s">
+      <c r="K54" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P54" s="10" t="s">
@@ -28207,7 +28198,7 @@
       <c r="I55" s="3" t="s">
         <v>7074</v>
       </c>
-      <c r="K55" s="34" t="s">
+      <c r="K55" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P55" s="10" t="s">
@@ -28242,7 +28233,7 @@
       <c r="I56" s="3" t="s">
         <v>7075</v>
       </c>
-      <c r="K56" s="34" t="s">
+      <c r="K56" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P56" s="10" t="s">
@@ -28262,10 +28253,10 @@
       <c r="D57" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="30" t="s">
         <v>7142</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="1" t="s">
         <v>6141</v>
       </c>
       <c r="G57" s="10" t="s">
@@ -28277,7 +28268,7 @@
       <c r="I57" s="3" t="s">
         <v>7143</v>
       </c>
-      <c r="K57" s="34" t="s">
+      <c r="K57" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P57" s="10" t="s">
@@ -28309,7 +28300,7 @@
       <c r="H58" s="24" t="s">
         <v>6114</v>
       </c>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P58" s="10" t="s">
@@ -28344,7 +28335,7 @@
       <c r="I59" s="3" t="s">
         <v>7076</v>
       </c>
-      <c r="K59" s="34" t="s">
+      <c r="K59" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P59" s="10" t="s">
@@ -28379,7 +28370,7 @@
       <c r="I60" s="3" t="s">
         <v>7077</v>
       </c>
-      <c r="K60" s="34" t="s">
+      <c r="K60" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P60" s="10" t="s">
@@ -28414,7 +28405,7 @@
       <c r="I61" s="3" t="s">
         <v>7078</v>
       </c>
-      <c r="K61" s="34" t="s">
+      <c r="K61" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P61" s="10" t="s">
@@ -28437,7 +28428,7 @@
       <c r="E62" s="19" t="s">
         <v>7145</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F62" s="1" t="s">
         <v>6022</v>
       </c>
       <c r="G62" s="10" t="s">
@@ -28449,7 +28440,7 @@
       <c r="I62" s="3" t="s">
         <v>7144</v>
       </c>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P62" s="10" t="s">
@@ -28481,7 +28472,7 @@
       <c r="H63" s="24" t="s">
         <v>6114</v>
       </c>
-      <c r="K63" s="34" t="s">
+      <c r="K63" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P63" s="10" t="s">
@@ -28516,7 +28507,7 @@
       <c r="I64" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="K64" s="34" t="s">
+      <c r="K64" s="1" t="s">
         <v>7304</v>
       </c>
       <c r="P64" s="10" t="s">
@@ -28548,7 +28539,7 @@
       <c r="H65" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="N65" s="34" t="s">
+      <c r="N65" s="1" t="s">
         <v>7127</v>
       </c>
       <c r="P65" s="10" t="s">
@@ -28792,7 +28783,7 @@
       <c r="I72" s="3" t="s">
         <v>7308</v>
       </c>
-      <c r="K72" s="34" t="s">
+      <c r="K72" s="1" t="s">
         <v>7311</v>
       </c>
       <c r="M72" s="1"/>
@@ -28831,7 +28822,7 @@
       <c r="I73" s="3" t="s">
         <v>7307</v>
       </c>
-      <c r="K73" s="34" t="s">
+      <c r="K73" s="1" t="s">
         <v>7311</v>
       </c>
       <c r="M73" s="1"/>
@@ -28870,9 +28861,7 @@
       <c r="I74" s="3" t="s">
         <v>7119</v>
       </c>
-      <c r="K74" s="34" t="s">
-        <v>7295</v>
-      </c>
+      <c r="K74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
         <v>7118</v>
@@ -29451,7 +29440,7 @@
       <c r="G2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="1" t="s">
         <v>7292</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -29483,7 +29472,7 @@
       <c r="I3" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="1" t="s">
         <v>7297</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -29512,7 +29501,7 @@
       <c r="G4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="1" t="s">
         <v>7292</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -29544,7 +29533,7 @@
       <c r="I5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="1" t="s">
         <v>7300</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -29576,7 +29565,7 @@
       <c r="I6" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="1" t="s">
         <v>7300</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -29608,7 +29597,7 @@
       <c r="I7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="1" t="s">
         <v>7296</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -29637,7 +29626,7 @@
       <c r="G8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="1" t="s">
         <v>7298</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -29666,7 +29655,7 @@
       <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="1" t="s">
         <v>7300</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -29698,7 +29687,7 @@
       <c r="I10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="1" t="s">
         <v>7301</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -29727,7 +29716,7 @@
       <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="1" t="s">
         <v>7298</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -29759,7 +29748,7 @@
       <c r="I12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="1" t="s">
         <v>7299</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -29996,7 +29985,7 @@
       <c r="G21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="1" t="s">
         <v>7292</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -30028,7 +30017,7 @@
       <c r="I22" s="1" t="s">
         <v>6130</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="1" t="s">
         <v>7296</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -30346,7 +30335,7 @@
       <c r="G34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="1" t="s">
         <v>7292</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -30378,7 +30367,7 @@
       <c r="I35" s="1" t="s">
         <v>6349</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="1" t="s">
         <v>7300</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -30459,7 +30448,7 @@
       <c r="G38" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="1" t="s">
         <v>7292</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -30491,7 +30480,7 @@
       <c r="I39" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="1" t="s">
         <v>7300</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -30523,7 +30512,7 @@
       <c r="I40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="1" t="s">
         <v>7296</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -88137,15 +88126,15 @@
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="34" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>7319</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -88202,10 +88191,10 @@
       <c r="C3" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="35" t="s">
         <v>6157</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>6158</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -88225,10 +88214,10 @@
       <c r="C4" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>6168</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="36" t="s">
         <v>6174</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -88248,10 +88237,10 @@
       <c r="C5" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>6169</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="36" t="s">
         <v>6175</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -88274,7 +88263,7 @@
       <c r="D6" s="15" t="s">
         <v>6170</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="36" t="s">
         <v>6176</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -88294,10 +88283,10 @@
       <c r="C7" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>6164</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="35" t="s">
         <v>6165</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -88317,10 +88306,10 @@
       <c r="C8" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>6168</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="36" t="s">
         <v>6198</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -88340,10 +88329,10 @@
       <c r="C9" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>6169</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="36" t="s">
         <v>6199</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -88366,7 +88355,7 @@
       <c r="D10" s="15" t="s">
         <v>6170</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="36" t="s">
         <v>6200</v>
       </c>
       <c r="F10" s="1" t="s">

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FF482-F10E-4779-9849-B62DFD3EA23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3621CA97-3B3D-452C-AFA3-D2B251740CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="2844" windowWidth="23040" windowHeight="12204" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -24279,9 +24279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26212,10 +26212,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -28406,7 +28406,7 @@
         <v>7076</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>7302</v>
+        <v>7293</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>70</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80A2F4C-62C5-4045-A80D-2A5836C44096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199B78BD-F7F5-4F26-9205-CEEBCD2866A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="763" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="1536" windowWidth="22164" windowHeight="11952" tabRatio="763" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="7324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15615" uniqueCount="7325">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -23638,6 +23638,10 @@
   </si>
   <si>
     <t>本人数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeesite.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24281,7 +24285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24740,7 +24744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
@@ -26213,9 +26217,9 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -29362,7 +29366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C42" sqref="C42"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
@@ -32731,14 +32735,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
@@ -32800,7 +32804,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7324</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7319</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020" tabRatio="763" activeTab="2"/>
+    <workbookView windowHeight="16020" tabRatio="763" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -19,11 +19,25 @@
     <sheet name="Company" sheetId="10" r:id="rId10"/>
     <sheet name="Post" sheetId="11" r:id="rId11"/>
     <sheet name="EmpUser" sheetId="12" r:id="rId12"/>
+    <sheet name="BizCategory" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15634" uniqueCount="7178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="7187">
   <si>
     <t>configName</t>
   </si>
@@ -22727,6 +22741,33 @@
   </si>
   <si>
     <t>用户23</t>
+  </si>
+  <si>
+    <t>categoryCode</t>
+  </si>
+  <si>
+    <t>treeCort</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>默认分类</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>协同办公</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目管理</t>
   </si>
 </sst>
 </file>
@@ -23388,16 +23429,16 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -23836,20 +23877,20 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24219,25 +24260,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>7109</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7084</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="17" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -24330,22 +24371,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7111</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7112</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7114</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="17" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -24470,50 +24511,50 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7122</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7123</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7124</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>7125</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7126</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>7127</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>7128</v>
       </c>
     </row>
@@ -25602,6 +25643,113 @@
   <sortState ref="B2:O24">
     <sortCondition ref="D2:D24"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.2232142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="19.4375" customWidth="1"/>
+    <col min="6" max="6" width="13.2232142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>7178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:6">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7182</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:6">
+      <c r="A3" t="s">
+        <v>7183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7184</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" t="s">
+        <v>7185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7185</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -25628,20 +25776,20 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -25791,7 +25939,7 @@
   <sheetPr/>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
@@ -25818,53 +25966,53 @@
     <col min="17" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="3" customFormat="1" spans="1:16">
       <c r="A1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>126</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -28614,13 +28762,13 @@
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28998,38 +29146,38 @@
     <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="17" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>439</v>
       </c>
     </row>
@@ -32205,33 +32353,33 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="2" s="3" customFormat="1" ht="17" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>598</v>
       </c>
@@ -32257,7 +32405,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="3" s="3" customFormat="1" ht="17" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>600</v>
       </c>
@@ -32365,26 +32513,26 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -32460,20 +32608,20 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>620</v>
       </c>
     </row>
@@ -87757,28 +87905,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>7082</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7083</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7084</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7085</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="17" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020" tabRatio="763" activeTab="2"/>
+    <workbookView windowHeight="16020" tabRatio="763" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -19,11 +19,25 @@
     <sheet name="Company" sheetId="10" r:id="rId10"/>
     <sheet name="Post" sheetId="11" r:id="rId11"/>
     <sheet name="EmpUser" sheetId="12" r:id="rId12"/>
+    <sheet name="BizCategory" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Area!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15634" uniqueCount="7178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="7187">
   <si>
     <t>configName</t>
   </si>
@@ -22727,6 +22741,33 @@
   </si>
   <si>
     <t>用户23</t>
+  </si>
+  <si>
+    <t>categoryCode</t>
+  </si>
+  <si>
+    <t>treeCort</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>默认分类</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>协同办公</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目管理</t>
   </si>
 </sst>
 </file>
@@ -23388,16 +23429,16 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -23836,20 +23877,20 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24219,25 +24260,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>7109</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7110</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7084</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="17" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -24330,22 +24371,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>7111</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7112</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7114</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="17" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -24470,50 +24511,50 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:15">
+      <c r="A1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7122</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7123</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7124</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>7125</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>7126</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>7127</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>7128</v>
       </c>
     </row>
@@ -25602,6 +25643,113 @@
   <sortState ref="B2:O24">
     <sortCondition ref="D2:D24"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.2232142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="19.4375" customWidth="1"/>
+    <col min="6" max="6" width="13.2232142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>7178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:6">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7182</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:6">
+      <c r="A3" t="s">
+        <v>7183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7184</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:6">
+      <c r="A4" t="s">
+        <v>7185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7185</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -25628,20 +25776,20 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -25791,8 +25939,8 @@
   <sheetPr/>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
@@ -25818,53 +25966,53 @@
     <col min="17" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="3" customFormat="1" spans="1:16">
       <c r="A1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>126</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -28614,13 +28762,13 @@
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -28998,38 +29146,38 @@
     <col min="11" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="17" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>439</v>
       </c>
     </row>
@@ -32205,33 +32353,33 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="2" s="3" customFormat="1" ht="17" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>598</v>
       </c>
@@ -32257,7 +32405,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17" spans="1:8">
+    <row r="3" s="3" customFormat="1" ht="17" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>600</v>
       </c>
@@ -32365,26 +32513,26 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -32460,20 +32608,20 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>620</v>
       </c>
     </row>
@@ -87757,28 +87905,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>7082</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7083</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7084</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7085</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="17" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020" tabRatio="763" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="29100" windowHeight="13760" tabRatio="763" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="7187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15655" uniqueCount="7186">
   <si>
     <t>configName</t>
   </si>
@@ -22746,9 +22746,6 @@
     <t>categoryCode</t>
   </si>
   <si>
-    <t>treeCort</t>
-  </si>
-  <si>
     <t>categoryName</t>
   </si>
   <si>
@@ -22758,16 +22755,16 @@
     <t>默认分类</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
     <t>office</t>
   </si>
   <si>
     <t>协同办公</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>项目管理</t>
   </si>
 </sst>
 </file>
@@ -25657,7 +25654,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -25680,13 +25677,13 @@
         <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7179</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7180</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7181</v>
       </c>
     </row>
     <row r="2" ht="17" spans="1:6">
@@ -25703,7 +25700,7 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>7182</v>
+        <v>7181</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
@@ -25711,10 +25708,10 @@
     </row>
     <row r="3" ht="17" spans="1:6">
       <c r="A3" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="B3" t="s">
-        <v>7183</v>
+        <v>7182</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -25723,7 +25720,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>7184</v>
+        <v>7183</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
@@ -25731,10 +25728,10 @@
     </row>
     <row r="4" ht="17" spans="1:6">
       <c r="A4" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="B4" t="s">
-        <v>7185</v>
+        <v>7184</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -25743,7 +25740,7 @@
         <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>7186</v>
+        <v>7185</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="9740" tabRatio="763"/>
+    <workbookView windowWidth="25900" windowHeight="12400" tabRatio="763" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -498,7 +498,7 @@
     <t>微信公众号绑定、消息推送、微信其它接口调用</t>
   </si>
   <si>
-    <t>com.jeesite.modules.weixin.mp.web.WeixinLoginController</t>
+    <t>com.jeesite.modules.weixin.user.web.WeixinLoginController</t>
   </si>
   <si>
     <t>visual</t>
@@ -23870,7 +23870,7 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
@@ -25787,10 +25787,10 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25900" windowHeight="12400" tabRatio="763" activeTab="1"/>
+    <workbookView windowWidth="27560" windowHeight="11780" tabRatio="763" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -510,7 +510,7 @@
     <t>拖拽即可无需编程就能轻松搭建可视化数据大屏</t>
   </si>
   <si>
-    <t>com.jeesite.modules.visual.web.VisualDataController</t>
+    <t>com.jeesite.modules.visual.web.VisualDetailController</t>
   </si>
   <si>
     <t>app</t>
@@ -25790,7 +25790,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30860" windowHeight="12380" tabRatio="763"/>
+    <workbookView windowWidth="30860" windowHeight="12380" tabRatio="763" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -1596,36 +1596,7 @@
     <t>树表/树结构表</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>test</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/testTree/list</t>
-    </r>
+    <t>/test/testTree/index</t>
   </si>
   <si>
     <t>test:testTree</t>
@@ -23888,7 +23859,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
@@ -26017,10 +25988,10 @@
   <sheetPr/>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
+++ b/modules/core/src/main/java/com/jeesite/modules/sys/db/InitCoreData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13420" tabRatio="763" activeTab="2"/>
+    <workbookView windowHeight="14680" tabRatio="763" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="5" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15819" uniqueCount="7231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15820" uniqueCount="7231">
   <si>
     <t>configName</t>
   </si>
@@ -26091,9 +26091,9 @@
   <dimension ref="A1:P92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomLeft" activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -28848,7 +28848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" ht="17" spans="1:11">
+    <row r="78" ht="17" spans="1:16">
       <c r="A78" s="12" t="s">
         <v>56</v>
       </c>
@@ -28876,8 +28876,10 @@
       <c r="I78" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="J78" s="9"/>
       <c r="K78" s="11"/>
+      <c r="P78" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" ht="17" spans="1:16">
       <c r="A79" s="12" t="s">
